--- a/Config/Concern.xlsx
+++ b/Config/Concern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArronSealmoy\PycharmProjects\MeralcoOnline\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E0B98B-A6A8-458B-8F11-6C388D691AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1300E1E2-DCAC-41D5-8021-8B6D42FFADD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,14 +47,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
+    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
+    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
     <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
-    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
-    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="1101">
   <si>
     <t>Revision History</t>
   </si>
@@ -3986,6 +3986,12 @@
   </si>
   <si>
     <t>TC002</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
   </si>
 </sst>
 </file>
@@ -4416,8 +4422,8 @@
   </cellStyleXfs>
   <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4730,6 +4736,18 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4739,11 +4757,20 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4757,32 +4784,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4791,6 +4794,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6001,18 +6007,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
-      <selection activeCell="C17" sqref="C17"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
+      <selection activeCell="F15" sqref="F15"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
-      <selection activeCell="C4" sqref="C4"/>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+      <selection activeCell="D8" sqref="D7:D8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -6020,16 +6023,19 @@
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
-      <selection activeCell="D8" sqref="D7:D8"/>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
-      <selection activeCell="F15" sqref="F15"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
+      <selection activeCell="C17" sqref="C17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -6048,8 +6054,8 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -6065,27 +6071,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -6113,27 +6119,27 @@
       <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:9" s="29" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
       <c r="I5" s="33" t="s">
         <v>24</v>
       </c>
@@ -6255,15 +6261,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
     </row>
     <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="str">
@@ -6344,27 +6350,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="str">
@@ -6387,7 +6393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="25.5" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>1067</v>
       </c>
@@ -7591,15 +7597,15 @@
       <c r="G90" s="38"/>
     </row>
     <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="109"/>
+      <c r="B91" s="112"/>
+      <c r="C91" s="112"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="112"/>
+      <c r="G91" s="113"/>
     </row>
     <row r="92" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="34" t="str">
@@ -8247,15 +8253,15 @@
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:9" s="29" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="117" t="s">
+      <c r="A128" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="118"/>
-      <c r="C128" s="118"/>
-      <c r="D128" s="118"/>
-      <c r="E128" s="118"/>
-      <c r="F128" s="118"/>
-      <c r="G128" s="118"/>
+      <c r="B128" s="108"/>
+      <c r="C128" s="108"/>
+      <c r="D128" s="108"/>
+      <c r="E128" s="108"/>
+      <c r="F128" s="108"/>
+      <c r="G128" s="108"/>
       <c r="H128" s="76"/>
     </row>
     <row r="129" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9105,27 +9111,27 @@
       <c r="G176" s="38"/>
     </row>
     <row r="177" spans="1:10" s="40" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="110" t="s">
+      <c r="A177" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="111"/>
-      <c r="C177" s="111"/>
-      <c r="D177" s="111"/>
-      <c r="E177" s="111"/>
-      <c r="F177" s="111"/>
-      <c r="G177" s="111"/>
+      <c r="B177" s="110"/>
+      <c r="C177" s="110"/>
+      <c r="D177" s="110"/>
+      <c r="E177" s="110"/>
+      <c r="F177" s="110"/>
+      <c r="G177" s="110"/>
       <c r="H177" s="80"/>
     </row>
     <row r="178" spans="1:10" s="40" customFormat="1" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="119" t="s">
+      <c r="A178" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="120"/>
-      <c r="C178" s="120"/>
-      <c r="D178" s="120"/>
-      <c r="E178" s="120"/>
-      <c r="F178" s="120"/>
-      <c r="G178" s="120"/>
+      <c r="B178" s="117"/>
+      <c r="C178" s="117"/>
+      <c r="D178" s="117"/>
+      <c r="E178" s="117"/>
+      <c r="F178" s="117"/>
+      <c r="G178" s="117"/>
       <c r="H178" s="80"/>
     </row>
     <row r="179" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9913,15 +9919,15 @@
       </c>
     </row>
     <row r="224" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="117" t="s">
+      <c r="A224" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="118"/>
-      <c r="C224" s="118"/>
-      <c r="D224" s="118"/>
-      <c r="E224" s="118"/>
-      <c r="F224" s="118"/>
-      <c r="G224" s="118"/>
+      <c r="B224" s="108"/>
+      <c r="C224" s="108"/>
+      <c r="D224" s="108"/>
+      <c r="E224" s="108"/>
+      <c r="F224" s="108"/>
+      <c r="G224" s="108"/>
     </row>
     <row r="225" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="34" t="str">
@@ -11871,15 +11877,15 @@
       <c r="G325" s="38"/>
     </row>
     <row r="326" spans="1:9" s="29" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="117" t="s">
+      <c r="A326" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="B326" s="118"/>
-      <c r="C326" s="118"/>
-      <c r="D326" s="118"/>
-      <c r="E326" s="118"/>
-      <c r="F326" s="118"/>
-      <c r="G326" s="118"/>
+      <c r="B326" s="108"/>
+      <c r="C326" s="108"/>
+      <c r="D326" s="108"/>
+      <c r="E326" s="108"/>
+      <c r="F326" s="108"/>
+      <c r="G326" s="108"/>
       <c r="H326" s="76"/>
     </row>
     <row r="327" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -12506,15 +12512,15 @@
       </c>
     </row>
     <row r="360" spans="1:9" s="29" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="117" t="s">
+      <c r="A360" s="107" t="s">
         <v>236</v>
       </c>
-      <c r="B360" s="118"/>
-      <c r="C360" s="118"/>
-      <c r="D360" s="118"/>
-      <c r="E360" s="118"/>
-      <c r="F360" s="118"/>
-      <c r="G360" s="118"/>
+      <c r="B360" s="108"/>
+      <c r="C360" s="108"/>
+      <c r="D360" s="108"/>
+      <c r="E360" s="108"/>
+      <c r="F360" s="108"/>
+      <c r="G360" s="108"/>
       <c r="H360" s="76"/>
     </row>
     <row r="361" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -13185,15 +13191,15 @@
       </c>
     </row>
     <row r="397" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="110" t="s">
+      <c r="A397" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="B397" s="111"/>
-      <c r="C397" s="111"/>
-      <c r="D397" s="111"/>
-      <c r="E397" s="111"/>
-      <c r="F397" s="111"/>
-      <c r="G397" s="111"/>
+      <c r="B397" s="110"/>
+      <c r="C397" s="110"/>
+      <c r="D397" s="110"/>
+      <c r="E397" s="110"/>
+      <c r="F397" s="110"/>
+      <c r="G397" s="110"/>
     </row>
     <row r="398" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A398" s="34" t="str">
@@ -13477,15 +13483,15 @@
       <c r="G412" s="38"/>
     </row>
     <row r="413" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="110" t="s">
+      <c r="A413" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="B413" s="111"/>
-      <c r="C413" s="111"/>
-      <c r="D413" s="111"/>
-      <c r="E413" s="111"/>
-      <c r="F413" s="111"/>
-      <c r="G413" s="111"/>
+      <c r="B413" s="110"/>
+      <c r="C413" s="110"/>
+      <c r="D413" s="110"/>
+      <c r="E413" s="110"/>
+      <c r="F413" s="110"/>
+      <c r="G413" s="110"/>
     </row>
     <row r="414" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="34" t="str">
@@ -13524,26 +13530,26 @@
       <c r="G415" s="38"/>
     </row>
     <row r="416" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="110" t="s">
+      <c r="A416" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="B416" s="111"/>
-      <c r="C416" s="111"/>
-      <c r="D416" s="111"/>
-      <c r="E416" s="111"/>
-      <c r="F416" s="111"/>
-      <c r="G416" s="111"/>
+      <c r="B416" s="110"/>
+      <c r="C416" s="110"/>
+      <c r="D416" s="110"/>
+      <c r="E416" s="110"/>
+      <c r="F416" s="110"/>
+      <c r="G416" s="110"/>
     </row>
     <row r="417" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="107" t="s">
+      <c r="A417" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B417" s="108"/>
-      <c r="C417" s="108"/>
-      <c r="D417" s="108"/>
-      <c r="E417" s="108"/>
-      <c r="F417" s="108"/>
-      <c r="G417" s="109"/>
+      <c r="B417" s="112"/>
+      <c r="C417" s="112"/>
+      <c r="D417" s="112"/>
+      <c r="E417" s="112"/>
+      <c r="F417" s="112"/>
+      <c r="G417" s="113"/>
     </row>
     <row r="418" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A418" s="34" t="str">
@@ -13560,7 +13566,7 @@
       <c r="E418" s="48"/>
       <c r="F418" s="47"/>
       <c r="G418" s="28"/>
-      <c r="H418" s="116" t="s">
+      <c r="H418" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I418" s="33" t="s">
@@ -13581,7 +13587,7 @@
         <v>146</v>
       </c>
       <c r="G419" s="38"/>
-      <c r="H419" s="116"/>
+      <c r="H419" s="1"/>
     </row>
     <row r="420" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A420" s="38"/>
@@ -13597,7 +13603,7 @@
         <v>146</v>
       </c>
       <c r="G420" s="38"/>
-      <c r="H420" s="116"/>
+      <c r="H420" s="1"/>
     </row>
     <row r="421" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A421" s="38"/>
@@ -13613,7 +13619,7 @@
         <v>146</v>
       </c>
       <c r="G421" s="38"/>
-      <c r="H421" s="116"/>
+      <c r="H421" s="1"/>
     </row>
     <row r="422" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A422" s="38"/>
@@ -13629,7 +13635,7 @@
         <v>146</v>
       </c>
       <c r="G422" s="38"/>
-      <c r="H422" s="116"/>
+      <c r="H422" s="1"/>
     </row>
     <row r="423" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A423" s="38"/>
@@ -13645,7 +13651,7 @@
         <v>146</v>
       </c>
       <c r="G423" s="38"/>
-      <c r="H423" s="116"/>
+      <c r="H423" s="1"/>
     </row>
     <row r="424" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A424" s="34" t="str">
@@ -13662,7 +13668,7 @@
       <c r="E424" s="48"/>
       <c r="F424" s="35"/>
       <c r="G424" s="39"/>
-      <c r="H424" s="116"/>
+      <c r="H424" s="1"/>
       <c r="I424" s="33" t="s">
         <v>146</v>
       </c>
@@ -13681,7 +13687,7 @@
         <v>146</v>
       </c>
       <c r="G425" s="38"/>
-      <c r="H425" s="116"/>
+      <c r="H425" s="1"/>
     </row>
     <row r="426" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A426" s="34" t="str">
@@ -13698,7 +13704,7 @@
       <c r="E426" s="48"/>
       <c r="F426" s="35"/>
       <c r="G426" s="39"/>
-      <c r="H426" s="116"/>
+      <c r="H426" s="1"/>
       <c r="I426" s="33" t="s">
         <v>146</v>
       </c>
@@ -13717,7 +13723,7 @@
         <v>146</v>
       </c>
       <c r="G427" s="38"/>
-      <c r="H427" s="116"/>
+      <c r="H427" s="1"/>
     </row>
     <row r="428" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A428" s="38"/>
@@ -13733,7 +13739,7 @@
         <v>146</v>
       </c>
       <c r="G428" s="38"/>
-      <c r="H428" s="116"/>
+      <c r="H428" s="1"/>
     </row>
     <row r="429" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A429" s="38"/>
@@ -13749,7 +13755,7 @@
         <v>146</v>
       </c>
       <c r="G429" s="38"/>
-      <c r="H429" s="116"/>
+      <c r="H429" s="1"/>
     </row>
     <row r="430" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A430" s="38"/>
@@ -13765,7 +13771,7 @@
         <v>146</v>
       </c>
       <c r="G430" s="38"/>
-      <c r="H430" s="116"/>
+      <c r="H430" s="1"/>
     </row>
     <row r="431" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A431" s="38"/>
@@ -13781,7 +13787,7 @@
         <v>146</v>
       </c>
       <c r="G431" s="38"/>
-      <c r="H431" s="116"/>
+      <c r="H431" s="1"/>
     </row>
     <row r="432" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A432" s="38"/>
@@ -13797,7 +13803,7 @@
         <v>146</v>
       </c>
       <c r="G432" s="38"/>
-      <c r="H432" s="116"/>
+      <c r="H432" s="1"/>
     </row>
     <row r="433" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A433" s="38"/>
@@ -13813,7 +13819,7 @@
         <v>146</v>
       </c>
       <c r="G433" s="38"/>
-      <c r="H433" s="116"/>
+      <c r="H433" s="1"/>
     </row>
     <row r="434" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A434" s="38"/>
@@ -13829,7 +13835,7 @@
         <v>146</v>
       </c>
       <c r="G434" s="38"/>
-      <c r="H434" s="116"/>
+      <c r="H434" s="1"/>
     </row>
     <row r="435" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A435" s="38"/>
@@ -13845,7 +13851,7 @@
         <v>146</v>
       </c>
       <c r="G435" s="38"/>
-      <c r="H435" s="116"/>
+      <c r="H435" s="1"/>
     </row>
     <row r="436" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A436" s="38"/>
@@ -13861,7 +13867,7 @@
         <v>146</v>
       </c>
       <c r="G436" s="38"/>
-      <c r="H436" s="116"/>
+      <c r="H436" s="1"/>
     </row>
     <row r="437" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A437" s="38"/>
@@ -13877,7 +13883,7 @@
         <v>146</v>
       </c>
       <c r="G437" s="38"/>
-      <c r="H437" s="116"/>
+      <c r="H437" s="1"/>
     </row>
     <row r="438" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A438" s="38"/>
@@ -13893,7 +13899,7 @@
         <v>146</v>
       </c>
       <c r="G438" s="38"/>
-      <c r="H438" s="116"/>
+      <c r="H438" s="1"/>
     </row>
     <row r="439" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A439" s="38"/>
@@ -13909,7 +13915,7 @@
         <v>146</v>
       </c>
       <c r="G439" s="38"/>
-      <c r="H439" s="116"/>
+      <c r="H439" s="1"/>
     </row>
     <row r="440" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A440" s="34" t="str">
@@ -13926,7 +13932,7 @@
       <c r="E440" s="48"/>
       <c r="F440" s="35"/>
       <c r="G440" s="39"/>
-      <c r="H440" s="116"/>
+      <c r="H440" s="1"/>
       <c r="I440" s="33" t="s">
         <v>146</v>
       </c>
@@ -13945,7 +13951,7 @@
         <v>146</v>
       </c>
       <c r="G441" s="38"/>
-      <c r="H441" s="116"/>
+      <c r="H441" s="1"/>
     </row>
     <row r="442" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A442" s="38"/>
@@ -13961,7 +13967,7 @@
         <v>146</v>
       </c>
       <c r="G442" s="38"/>
-      <c r="H442" s="116"/>
+      <c r="H442" s="1"/>
     </row>
     <row r="443" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A443" s="38"/>
@@ -13977,7 +13983,7 @@
         <v>146</v>
       </c>
       <c r="G443" s="38"/>
-      <c r="H443" s="116"/>
+      <c r="H443" s="1"/>
     </row>
     <row r="444" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A444" s="38"/>
@@ -13993,18 +13999,18 @@
         <v>146</v>
       </c>
       <c r="G444" s="38"/>
-      <c r="H444" s="116"/>
+      <c r="H444" s="1"/>
     </row>
     <row r="445" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="107" t="s">
+      <c r="A445" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="B445" s="108"/>
-      <c r="C445" s="108"/>
-      <c r="D445" s="108"/>
-      <c r="E445" s="108"/>
-      <c r="F445" s="108"/>
-      <c r="G445" s="109"/>
+      <c r="B445" s="112"/>
+      <c r="C445" s="112"/>
+      <c r="D445" s="112"/>
+      <c r="E445" s="112"/>
+      <c r="F445" s="112"/>
+      <c r="G445" s="113"/>
     </row>
     <row r="446" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A446" s="34" t="str">
@@ -14431,7 +14437,7 @@
       <c r="E467" s="48"/>
       <c r="F467" s="35"/>
       <c r="G467" s="39"/>
-      <c r="H467" s="116" t="s">
+      <c r="H467" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I467" s="33" t="s">
@@ -14450,7 +14456,7 @@
       <c r="E468" s="37"/>
       <c r="F468" s="37"/>
       <c r="G468" s="38"/>
-      <c r="H468" s="116"/>
+      <c r="H468" s="1"/>
     </row>
     <row r="469" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A469" s="38"/>
@@ -14466,7 +14472,7 @@
         <v>146</v>
       </c>
       <c r="G469" s="38"/>
-      <c r="H469" s="116"/>
+      <c r="H469" s="1"/>
     </row>
     <row r="470" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A470" s="38"/>
@@ -14482,7 +14488,7 @@
         <v>146</v>
       </c>
       <c r="G470" s="38"/>
-      <c r="H470" s="116"/>
+      <c r="H470" s="1"/>
     </row>
     <row r="471" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A471" s="38"/>
@@ -14498,7 +14504,7 @@
         <v>146</v>
       </c>
       <c r="G471" s="38"/>
-      <c r="H471" s="116"/>
+      <c r="H471" s="1"/>
     </row>
     <row r="472" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A472" s="38"/>
@@ -14514,7 +14520,7 @@
         <v>146</v>
       </c>
       <c r="G472" s="38"/>
-      <c r="H472" s="116"/>
+      <c r="H472" s="1"/>
     </row>
     <row r="473" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A473" s="38"/>
@@ -14530,7 +14536,7 @@
         <v>146</v>
       </c>
       <c r="G473" s="38"/>
-      <c r="H473" s="116"/>
+      <c r="H473" s="1"/>
     </row>
     <row r="474" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A474" s="34" t="str">
@@ -14962,7 +14968,7 @@
       <c r="E495" s="48"/>
       <c r="F495" s="35"/>
       <c r="G495" s="39"/>
-      <c r="H495" s="116" t="s">
+      <c r="H495" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I495" s="33" t="s">
@@ -14981,7 +14987,7 @@
       <c r="E496" s="37"/>
       <c r="F496" s="37"/>
       <c r="G496" s="38"/>
-      <c r="H496" s="116"/>
+      <c r="H496" s="1"/>
     </row>
     <row r="497" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A497" s="38"/>
@@ -14997,7 +15003,7 @@
         <v>146</v>
       </c>
       <c r="G497" s="38"/>
-      <c r="H497" s="116"/>
+      <c r="H497" s="1"/>
     </row>
     <row r="498" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A498" s="38"/>
@@ -15013,7 +15019,7 @@
         <v>146</v>
       </c>
       <c r="G498" s="38"/>
-      <c r="H498" s="116"/>
+      <c r="H498" s="1"/>
     </row>
     <row r="499" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A499" s="38"/>
@@ -15029,7 +15035,7 @@
         <v>146</v>
       </c>
       <c r="G499" s="38"/>
-      <c r="H499" s="116"/>
+      <c r="H499" s="1"/>
     </row>
     <row r="500" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A500" s="38"/>
@@ -15045,7 +15051,7 @@
         <v>146</v>
       </c>
       <c r="G500" s="38"/>
-      <c r="H500" s="116"/>
+      <c r="H500" s="1"/>
     </row>
     <row r="501" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A501" s="38"/>
@@ -15061,29 +15067,29 @@
         <v>146</v>
       </c>
       <c r="G501" s="38"/>
-      <c r="H501" s="116"/>
+      <c r="H501" s="1"/>
     </row>
     <row r="502" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="110" t="s">
+      <c r="A502" s="109" t="s">
         <v>396</v>
       </c>
-      <c r="B502" s="111"/>
-      <c r="C502" s="111"/>
-      <c r="D502" s="111"/>
-      <c r="E502" s="111"/>
-      <c r="F502" s="111"/>
-      <c r="G502" s="111"/>
+      <c r="B502" s="110"/>
+      <c r="C502" s="110"/>
+      <c r="D502" s="110"/>
+      <c r="E502" s="110"/>
+      <c r="F502" s="110"/>
+      <c r="G502" s="110"/>
     </row>
     <row r="503" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="107" t="s">
+      <c r="A503" s="111" t="s">
         <v>397</v>
       </c>
-      <c r="B503" s="108"/>
-      <c r="C503" s="108"/>
-      <c r="D503" s="108"/>
-      <c r="E503" s="108"/>
-      <c r="F503" s="108"/>
-      <c r="G503" s="109"/>
+      <c r="B503" s="112"/>
+      <c r="C503" s="112"/>
+      <c r="D503" s="112"/>
+      <c r="E503" s="112"/>
+      <c r="F503" s="112"/>
+      <c r="G503" s="113"/>
     </row>
     <row r="504" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A504" s="34" t="str">
@@ -15113,12 +15119,12 @@
       <c r="B505" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="C505" s="112"/>
-      <c r="D505" s="113"/>
-      <c r="E505" s="113"/>
-      <c r="F505" s="114"/>
-      <c r="G505" s="114"/>
-      <c r="H505" s="115"/>
+      <c r="C505" s="119"/>
+      <c r="D505" s="120"/>
+      <c r="E505" s="120"/>
+      <c r="F505" s="121"/>
+      <c r="G505" s="121"/>
+      <c r="H505" s="122"/>
       <c r="I505" s="89"/>
       <c r="J505" s="90"/>
     </row>
@@ -15138,15 +15144,15 @@
       <c r="G506" s="38"/>
     </row>
     <row r="507" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="107" t="s">
+      <c r="A507" s="111" t="s">
         <v>403</v>
       </c>
-      <c r="B507" s="108"/>
-      <c r="C507" s="108"/>
-      <c r="D507" s="108"/>
-      <c r="E507" s="108"/>
-      <c r="F507" s="108"/>
-      <c r="G507" s="109"/>
+      <c r="B507" s="112"/>
+      <c r="C507" s="112"/>
+      <c r="D507" s="112"/>
+      <c r="E507" s="112"/>
+      <c r="F507" s="112"/>
+      <c r="G507" s="113"/>
     </row>
     <row r="508" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A508" s="34" t="str">
@@ -15250,26 +15256,26 @@
       <c r="G513" s="38"/>
     </row>
     <row r="514" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="110" t="s">
+      <c r="A514" s="109" t="s">
         <v>410</v>
       </c>
-      <c r="B514" s="111"/>
-      <c r="C514" s="111"/>
-      <c r="D514" s="111"/>
-      <c r="E514" s="111"/>
-      <c r="F514" s="111"/>
-      <c r="G514" s="111"/>
+      <c r="B514" s="110"/>
+      <c r="C514" s="110"/>
+      <c r="D514" s="110"/>
+      <c r="E514" s="110"/>
+      <c r="F514" s="110"/>
+      <c r="G514" s="110"/>
     </row>
     <row r="515" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="107" t="s">
+      <c r="A515" s="111" t="s">
         <v>411</v>
       </c>
-      <c r="B515" s="108"/>
-      <c r="C515" s="108"/>
-      <c r="D515" s="108"/>
-      <c r="E515" s="108"/>
-      <c r="F515" s="108"/>
-      <c r="G515" s="109"/>
+      <c r="B515" s="112"/>
+      <c r="C515" s="112"/>
+      <c r="D515" s="112"/>
+      <c r="E515" s="112"/>
+      <c r="F515" s="112"/>
+      <c r="G515" s="113"/>
     </row>
     <row r="516" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A516" s="34" t="str">
@@ -16052,15 +16058,15 @@
       <c r="I555" s="50"/>
     </row>
     <row r="556" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="107" t="s">
+      <c r="A556" s="111" t="s">
         <v>429</v>
       </c>
-      <c r="B556" s="108"/>
-      <c r="C556" s="108"/>
-      <c r="D556" s="108"/>
-      <c r="E556" s="108"/>
-      <c r="F556" s="108"/>
-      <c r="G556" s="109"/>
+      <c r="B556" s="112"/>
+      <c r="C556" s="112"/>
+      <c r="D556" s="112"/>
+      <c r="E556" s="112"/>
+      <c r="F556" s="112"/>
+      <c r="G556" s="113"/>
     </row>
     <row r="557" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A557" s="34" t="str">
@@ -16298,15 +16304,15 @@
       </c>
     </row>
     <row r="569" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="107" t="s">
+      <c r="A569" s="111" t="s">
         <v>440</v>
       </c>
-      <c r="B569" s="108"/>
-      <c r="C569" s="108"/>
-      <c r="D569" s="108"/>
-      <c r="E569" s="108"/>
-      <c r="F569" s="108"/>
-      <c r="G569" s="109"/>
+      <c r="B569" s="112"/>
+      <c r="C569" s="112"/>
+      <c r="D569" s="112"/>
+      <c r="E569" s="112"/>
+      <c r="F569" s="112"/>
+      <c r="G569" s="113"/>
     </row>
     <row r="570" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A570" s="34" t="str">
@@ -16699,15 +16705,15 @@
       </c>
     </row>
     <row r="590" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="107" t="s">
+      <c r="A590" s="111" t="s">
         <v>453</v>
       </c>
-      <c r="B590" s="108"/>
-      <c r="C590" s="108"/>
-      <c r="D590" s="108"/>
-      <c r="E590" s="108"/>
-      <c r="F590" s="108"/>
-      <c r="G590" s="109"/>
+      <c r="B590" s="112"/>
+      <c r="C590" s="112"/>
+      <c r="D590" s="112"/>
+      <c r="E590" s="112"/>
+      <c r="F590" s="112"/>
+      <c r="G590" s="113"/>
     </row>
     <row r="591" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A591" s="34" t="str">
@@ -16984,15 +16990,15 @@
       </c>
     </row>
     <row r="605" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="107" t="s">
+      <c r="A605" s="111" t="s">
         <v>466</v>
       </c>
-      <c r="B605" s="108"/>
-      <c r="C605" s="108"/>
-      <c r="D605" s="108"/>
-      <c r="E605" s="108"/>
-      <c r="F605" s="108"/>
-      <c r="G605" s="109"/>
+      <c r="B605" s="112"/>
+      <c r="C605" s="112"/>
+      <c r="D605" s="112"/>
+      <c r="E605" s="112"/>
+      <c r="F605" s="112"/>
+      <c r="G605" s="113"/>
     </row>
     <row r="606" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A606" s="34" t="str">
@@ -17177,15 +17183,15 @@
       </c>
     </row>
     <row r="616" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="107" t="s">
+      <c r="A616" s="111" t="s">
         <v>477</v>
       </c>
-      <c r="B616" s="108"/>
-      <c r="C616" s="108"/>
-      <c r="D616" s="108"/>
-      <c r="E616" s="108"/>
-      <c r="F616" s="108"/>
-      <c r="G616" s="109"/>
+      <c r="B616" s="112"/>
+      <c r="C616" s="112"/>
+      <c r="D616" s="112"/>
+      <c r="E616" s="112"/>
+      <c r="F616" s="112"/>
+      <c r="G616" s="113"/>
     </row>
     <row r="617" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A617" s="34" t="str">
@@ -17276,10 +17282,10 @@
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F623" s="1" t="s">
+      <c r="F623" s="118" t="s">
         <v>484</v>
       </c>
-      <c r="G623" s="1"/>
+      <c r="G623" s="118"/>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F624" s="51" t="s">
@@ -17412,66 +17418,48 @@
   <autoFilter ref="A3:I3" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
-      <selection activeCell="A52" sqref="A52"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
+      <selection activeCell="B40" sqref="B40"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
+      <selection activeCell="E13" sqref="E13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
+      <selection activeCell="B103" sqref="B103"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
+      <selection activeCell="E129" sqref="E129"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
+      <selection sqref="A1:D1"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
     </customSheetView>
     <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
       <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
-      <selection sqref="A1:D1"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
-      <selection activeCell="E129" sqref="E129"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
-      <selection activeCell="B103" sqref="B103"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
-      <selection activeCell="E13" sqref="E13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
-      <selection activeCell="B40" sqref="B40"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
+      <selection activeCell="A52" sqref="A52"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
-    <mergeCell ref="H467:H473"/>
-    <mergeCell ref="H495:H501"/>
-    <mergeCell ref="A360:G360"/>
-    <mergeCell ref="A326:G326"/>
-    <mergeCell ref="A397:G397"/>
-    <mergeCell ref="A445:G445"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="A224:G224"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A178:G178"/>
     <mergeCell ref="F623:G623"/>
     <mergeCell ref="A417:G417"/>
     <mergeCell ref="A413:G413"/>
@@ -17488,6 +17476,24 @@
     <mergeCell ref="A416:G416"/>
     <mergeCell ref="C505:H505"/>
     <mergeCell ref="H418:H444"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A224:G224"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A178:G178"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H467:H473"/>
+    <mergeCell ref="H495:H501"/>
+    <mergeCell ref="A360:G360"/>
+    <mergeCell ref="A326:G326"/>
+    <mergeCell ref="A397:G397"/>
+    <mergeCell ref="A445:G445"/>
   </mergeCells>
   <conditionalFormatting sqref="F450:F476 F388:F392 F379:F381 F394:F395 F478:F516 F520:F597 F272 F277 F282 F287 F292 F297 F302 F306 F311 F316 F321 F326:F377 F1:F230 F599:F1048576 F232:F267 F397:F448">
     <cfRule type="containsText" dxfId="74" priority="105" operator="containsText" text="Failed">
@@ -17914,11 +17920,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -17938,7 +17944,7 @@
   <dimension ref="A1:I685"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -18254,10 +18260,12 @@
     <row r="19" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="55">
-        <v>1</v>
+      <c r="C19" s="36" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="55" t="s">
+        <v>992</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>510</v>
@@ -18271,10 +18279,12 @@
     <row r="20" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+      <c r="C20" s="36" t="s">
+        <v>1099</v>
+      </c>
       <c r="D20" s="56"/>
-      <c r="E20" s="55">
-        <v>2</v>
+      <c r="E20" s="55" t="s">
+        <v>994</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>512</v>
@@ -18301,10 +18311,12 @@
     <row r="22" spans="1:9" s="7" customFormat="1" ht="186" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
+      <c r="C22" s="57" t="s">
+        <v>1100</v>
+      </c>
       <c r="D22" s="57"/>
-      <c r="E22" s="55">
-        <v>1</v>
+      <c r="E22" s="55" t="s">
+        <v>992</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>513</v>
@@ -21823,15 +21835,15 @@
         <v>176</v>
       </c>
       <c r="B234" s="34"/>
-      <c r="C234" s="124" t="s">
+      <c r="C234" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="D234" s="124"/>
-      <c r="E234" s="124"/>
-      <c r="F234" s="124"/>
-      <c r="G234" s="124"/>
-      <c r="H234" s="124"/>
-      <c r="I234" s="124"/>
+      <c r="D234" s="127"/>
+      <c r="E234" s="127"/>
+      <c r="F234" s="127"/>
+      <c r="G234" s="127"/>
+      <c r="H234" s="127"/>
+      <c r="I234" s="127"/>
     </row>
     <row r="235" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A235" s="36"/>
@@ -24153,17 +24165,17 @@
       <c r="I379" s="38"/>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A380" s="124" t="s">
+      <c r="A380" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="B380" s="124"/>
-      <c r="C380" s="124"/>
-      <c r="D380" s="124"/>
-      <c r="E380" s="124"/>
-      <c r="F380" s="124"/>
-      <c r="G380" s="124"/>
-      <c r="H380" s="124"/>
-      <c r="I380" s="124"/>
+      <c r="B380" s="127"/>
+      <c r="C380" s="127"/>
+      <c r="D380" s="127"/>
+      <c r="E380" s="127"/>
+      <c r="F380" s="127"/>
+      <c r="G380" s="127"/>
+      <c r="H380" s="127"/>
+      <c r="I380" s="127"/>
     </row>
     <row r="381" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A381" s="36"/>
@@ -24268,17 +24280,17 @@
       <c r="I386" s="38"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A387" s="124" t="s">
+      <c r="A387" s="127" t="s">
         <v>354</v>
       </c>
-      <c r="B387" s="124"/>
-      <c r="C387" s="124"/>
-      <c r="D387" s="124"/>
-      <c r="E387" s="124"/>
-      <c r="F387" s="124"/>
-      <c r="G387" s="124"/>
-      <c r="H387" s="124"/>
-      <c r="I387" s="124"/>
+      <c r="B387" s="127"/>
+      <c r="C387" s="127"/>
+      <c r="D387" s="127"/>
+      <c r="E387" s="127"/>
+      <c r="F387" s="127"/>
+      <c r="G387" s="127"/>
+      <c r="H387" s="127"/>
+      <c r="I387" s="127"/>
     </row>
     <row r="388" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A388" s="36"/>
@@ -24298,17 +24310,17 @@
       <c r="I388" s="38"/>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A389" s="124" t="s">
+      <c r="A389" s="127" t="s">
         <v>356</v>
       </c>
-      <c r="B389" s="124"/>
-      <c r="C389" s="124"/>
-      <c r="D389" s="124"/>
-      <c r="E389" s="124"/>
-      <c r="F389" s="124"/>
-      <c r="G389" s="124"/>
-      <c r="H389" s="124"/>
-      <c r="I389" s="124"/>
+      <c r="B389" s="127"/>
+      <c r="C389" s="127"/>
+      <c r="D389" s="127"/>
+      <c r="E389" s="127"/>
+      <c r="F389" s="127"/>
+      <c r="G389" s="127"/>
+      <c r="H389" s="127"/>
+      <c r="I389" s="127"/>
     </row>
     <row r="390" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A390" s="36"/>
@@ -26921,15 +26933,15 @@
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="36"/>
       <c r="B552" s="36"/>
-      <c r="C552" s="124" t="s">
+      <c r="C552" s="127" t="s">
         <v>275</v>
       </c>
-      <c r="D552" s="124"/>
-      <c r="E552" s="124"/>
-      <c r="F552" s="124"/>
-      <c r="G552" s="124"/>
-      <c r="H552" s="124"/>
-      <c r="I552" s="124"/>
+      <c r="D552" s="127"/>
+      <c r="E552" s="127"/>
+      <c r="F552" s="127"/>
+      <c r="G552" s="127"/>
+      <c r="H552" s="127"/>
+      <c r="I552" s="127"/>
     </row>
     <row r="553" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A553" s="36"/>
@@ -26951,15 +26963,15 @@
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" s="36"/>
       <c r="B554" s="36"/>
-      <c r="C554" s="124" t="s">
+      <c r="C554" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="D554" s="124"/>
-      <c r="E554" s="124"/>
-      <c r="F554" s="124"/>
-      <c r="G554" s="124"/>
-      <c r="H554" s="124"/>
-      <c r="I554" s="124"/>
+      <c r="D554" s="127"/>
+      <c r="E554" s="127"/>
+      <c r="F554" s="127"/>
+      <c r="G554" s="127"/>
+      <c r="H554" s="127"/>
+      <c r="I554" s="127"/>
     </row>
     <row r="555" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A555" s="36"/>
@@ -26998,15 +27010,15 @@
     <row r="557" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="36"/>
       <c r="B557" s="36"/>
-      <c r="C557" s="125" t="s">
+      <c r="C557" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="D557" s="126"/>
-      <c r="E557" s="126"/>
-      <c r="F557" s="126"/>
-      <c r="G557" s="126"/>
-      <c r="H557" s="126"/>
-      <c r="I557" s="127"/>
+      <c r="D557" s="125"/>
+      <c r="E557" s="125"/>
+      <c r="F557" s="125"/>
+      <c r="G557" s="125"/>
+      <c r="H557" s="125"/>
+      <c r="I557" s="126"/>
     </row>
     <row r="558" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A558" s="36"/>
@@ -27028,15 +27040,15 @@
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="36"/>
       <c r="B559" s="36"/>
-      <c r="C559" s="124" t="s">
+      <c r="C559" s="127" t="s">
         <v>480</v>
       </c>
-      <c r="D559" s="124"/>
-      <c r="E559" s="124"/>
-      <c r="F559" s="124"/>
-      <c r="G559" s="124"/>
-      <c r="H559" s="124"/>
-      <c r="I559" s="124"/>
+      <c r="D559" s="127"/>
+      <c r="E559" s="127"/>
+      <c r="F559" s="127"/>
+      <c r="G559" s="127"/>
+      <c r="H559" s="127"/>
+      <c r="I559" s="127"/>
     </row>
     <row r="560" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A560" s="36"/>
@@ -27058,15 +27070,15 @@
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="36"/>
       <c r="B561" s="36"/>
-      <c r="C561" s="124" t="s">
+      <c r="C561" s="127" t="s">
         <v>483</v>
       </c>
-      <c r="D561" s="124"/>
-      <c r="E561" s="124"/>
-      <c r="F561" s="124"/>
-      <c r="G561" s="124"/>
-      <c r="H561" s="124"/>
-      <c r="I561" s="124"/>
+      <c r="D561" s="127"/>
+      <c r="E561" s="127"/>
+      <c r="F561" s="127"/>
+      <c r="G561" s="127"/>
+      <c r="H561" s="127"/>
+      <c r="I561" s="127"/>
     </row>
     <row r="562" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A562" s="36"/>
@@ -27088,15 +27100,15 @@
     <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" s="36"/>
       <c r="B563" s="36"/>
-      <c r="C563" s="124" t="s">
+      <c r="C563" s="127" t="s">
         <v>240</v>
       </c>
-      <c r="D563" s="124"/>
-      <c r="E563" s="124"/>
-      <c r="F563" s="124"/>
-      <c r="G563" s="124"/>
-      <c r="H563" s="124"/>
-      <c r="I563" s="124"/>
+      <c r="D563" s="127"/>
+      <c r="E563" s="127"/>
+      <c r="F563" s="127"/>
+      <c r="G563" s="127"/>
+      <c r="H563" s="127"/>
+      <c r="I563" s="127"/>
     </row>
     <row r="564" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A564" s="36"/>
@@ -27371,15 +27383,15 @@
         <v>192</v>
       </c>
       <c r="B580" s="36"/>
-      <c r="C580" s="124" t="s">
+      <c r="C580" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="D580" s="124"/>
-      <c r="E580" s="124"/>
-      <c r="F580" s="124"/>
-      <c r="G580" s="124"/>
-      <c r="H580" s="124"/>
-      <c r="I580" s="124"/>
+      <c r="D580" s="127"/>
+      <c r="E580" s="127"/>
+      <c r="F580" s="127"/>
+      <c r="G580" s="127"/>
+      <c r="H580" s="127"/>
+      <c r="I580" s="127"/>
     </row>
     <row r="581" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A581" s="36"/>
@@ -27586,17 +27598,17 @@
       <c r="I592" s="57"/>
     </row>
     <row r="593" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="125" t="s">
+      <c r="A593" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="B593" s="126"/>
-      <c r="C593" s="126"/>
-      <c r="D593" s="126"/>
-      <c r="E593" s="126"/>
-      <c r="F593" s="126"/>
-      <c r="G593" s="126"/>
-      <c r="H593" s="126"/>
-      <c r="I593" s="127"/>
+      <c r="B593" s="125"/>
+      <c r="C593" s="125"/>
+      <c r="D593" s="125"/>
+      <c r="E593" s="125"/>
+      <c r="F593" s="125"/>
+      <c r="G593" s="125"/>
+      <c r="H593" s="125"/>
+      <c r="I593" s="126"/>
     </row>
     <row r="594" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A594" s="36"/>
@@ -27769,17 +27781,17 @@
       <c r="I603" s="57"/>
     </row>
     <row r="604" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="125" t="s">
+      <c r="A604" s="124" t="s">
         <v>198</v>
       </c>
-      <c r="B604" s="126"/>
-      <c r="C604" s="126"/>
-      <c r="D604" s="126"/>
-      <c r="E604" s="126"/>
-      <c r="F604" s="126"/>
-      <c r="G604" s="126"/>
-      <c r="H604" s="126"/>
-      <c r="I604" s="127"/>
+      <c r="B604" s="125"/>
+      <c r="C604" s="125"/>
+      <c r="D604" s="125"/>
+      <c r="E604" s="125"/>
+      <c r="F604" s="125"/>
+      <c r="G604" s="125"/>
+      <c r="H604" s="125"/>
+      <c r="I604" s="126"/>
     </row>
     <row r="605" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A605" s="36"/>
@@ -27935,17 +27947,17 @@
       <c r="I613" s="36"/>
     </row>
     <row r="614" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="125" t="s">
+      <c r="A614" s="124" t="s">
         <v>201</v>
       </c>
-      <c r="B614" s="126"/>
-      <c r="C614" s="126"/>
-      <c r="D614" s="126"/>
-      <c r="E614" s="126"/>
-      <c r="F614" s="126"/>
-      <c r="G614" s="126"/>
-      <c r="H614" s="126"/>
-      <c r="I614" s="127"/>
+      <c r="B614" s="125"/>
+      <c r="C614" s="125"/>
+      <c r="D614" s="125"/>
+      <c r="E614" s="125"/>
+      <c r="F614" s="125"/>
+      <c r="G614" s="125"/>
+      <c r="H614" s="125"/>
+      <c r="I614" s="126"/>
     </row>
     <row r="615" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A615" s="36"/>
@@ -28105,15 +28117,15 @@
         <v>176</v>
       </c>
       <c r="B624" s="34"/>
-      <c r="C624" s="124" t="s">
+      <c r="C624" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="D624" s="124"/>
-      <c r="E624" s="124"/>
-      <c r="F624" s="124"/>
-      <c r="G624" s="124"/>
-      <c r="H624" s="124"/>
-      <c r="I624" s="124"/>
+      <c r="D624" s="127"/>
+      <c r="E624" s="127"/>
+      <c r="F624" s="127"/>
+      <c r="G624" s="127"/>
+      <c r="H624" s="127"/>
+      <c r="I624" s="127"/>
     </row>
     <row r="625" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A625" s="36"/>
@@ -29108,42 +29120,151 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
+      <selection activeCell="F13" sqref="F13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
+      <selection activeCell="F237" sqref="F237"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
+      <selection activeCell="G19" sqref="G19"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
+      <selection activeCell="C9" sqref="C9"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
+      <selection activeCell="F6" sqref="F6"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
     <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
-      <selection activeCell="F6" sqref="F6"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
-      <selection activeCell="C9" sqref="C9"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
-      <selection activeCell="G19" sqref="G19"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
-      <selection activeCell="F237" sqref="F237"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
-      <selection activeCell="F13" sqref="F13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="133">
+    <mergeCell ref="C682:I682"/>
+    <mergeCell ref="C665:I665"/>
+    <mergeCell ref="C526:I526"/>
+    <mergeCell ref="C533:I533"/>
+    <mergeCell ref="C538:I538"/>
+    <mergeCell ref="A567:I567"/>
+    <mergeCell ref="C624:I624"/>
+    <mergeCell ref="A634:I634"/>
+    <mergeCell ref="A645:I645"/>
+    <mergeCell ref="C580:I580"/>
+    <mergeCell ref="C559:I559"/>
+    <mergeCell ref="C561:I561"/>
+    <mergeCell ref="C563:I563"/>
+    <mergeCell ref="C557:I557"/>
+    <mergeCell ref="C552:I552"/>
+    <mergeCell ref="C554:I554"/>
+    <mergeCell ref="A543:I543"/>
+    <mergeCell ref="C670:I670"/>
+    <mergeCell ref="C672:I672"/>
+    <mergeCell ref="C674:I674"/>
+    <mergeCell ref="C676:I676"/>
+    <mergeCell ref="C469:I469"/>
+    <mergeCell ref="C473:I473"/>
+    <mergeCell ref="C442:I442"/>
+    <mergeCell ref="C445:I445"/>
+    <mergeCell ref="C449:I449"/>
+    <mergeCell ref="C454:I454"/>
+    <mergeCell ref="C457:I457"/>
+    <mergeCell ref="C521:I521"/>
+    <mergeCell ref="C680:I680"/>
+    <mergeCell ref="C510:I510"/>
+    <mergeCell ref="C516:I516"/>
+    <mergeCell ref="C479:I479"/>
+    <mergeCell ref="C489:I489"/>
+    <mergeCell ref="C491:I491"/>
+    <mergeCell ref="C493:I493"/>
+    <mergeCell ref="C499:I499"/>
+    <mergeCell ref="C505:I505"/>
+    <mergeCell ref="C678:I678"/>
+    <mergeCell ref="C405:I405"/>
+    <mergeCell ref="C407:I407"/>
+    <mergeCell ref="C409:I409"/>
+    <mergeCell ref="C461:I461"/>
+    <mergeCell ref="C465:I465"/>
+    <mergeCell ref="A426:I426"/>
+    <mergeCell ref="C396:I396"/>
+    <mergeCell ref="C399:I399"/>
+    <mergeCell ref="C401:I401"/>
+    <mergeCell ref="C403:I403"/>
+    <mergeCell ref="C414:I414"/>
+    <mergeCell ref="C417:I417"/>
+    <mergeCell ref="C420:I420"/>
+    <mergeCell ref="C423:I423"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="C300:I300"/>
+    <mergeCell ref="C303:I303"/>
+    <mergeCell ref="A197:I197"/>
+    <mergeCell ref="A163:I163"/>
+    <mergeCell ref="A175:I175"/>
+    <mergeCell ref="A243:I243"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C266:I266"/>
+    <mergeCell ref="C269:I269"/>
+    <mergeCell ref="A216:I216"/>
+    <mergeCell ref="A225:I225"/>
+    <mergeCell ref="A253:I253"/>
+    <mergeCell ref="C273:I273"/>
+    <mergeCell ref="C276:I276"/>
+    <mergeCell ref="C289:I289"/>
+    <mergeCell ref="C293:I293"/>
+    <mergeCell ref="C279:I279"/>
+    <mergeCell ref="C287:I287"/>
+    <mergeCell ref="C291:I291"/>
+    <mergeCell ref="A284:I284"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="A187:I187"/>
+    <mergeCell ref="A154:I154"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="A146:I146"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A124:I124"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="C101:I101"/>
+    <mergeCell ref="A116:I116"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C337:I337"/>
+    <mergeCell ref="C305:I305"/>
+    <mergeCell ref="C314:I314"/>
+    <mergeCell ref="C320:I320"/>
+    <mergeCell ref="C327:I327"/>
+    <mergeCell ref="C309:I309"/>
+    <mergeCell ref="C317:I317"/>
+    <mergeCell ref="C323:I323"/>
+    <mergeCell ref="C334:I334"/>
     <mergeCell ref="C684:I684"/>
     <mergeCell ref="A593:I593"/>
     <mergeCell ref="A604:I604"/>
@@ -29168,115 +29289,6 @@
     <mergeCell ref="A380:I380"/>
     <mergeCell ref="A387:I387"/>
     <mergeCell ref="C376:I376"/>
-    <mergeCell ref="C337:I337"/>
-    <mergeCell ref="C305:I305"/>
-    <mergeCell ref="C314:I314"/>
-    <mergeCell ref="C320:I320"/>
-    <mergeCell ref="C327:I327"/>
-    <mergeCell ref="C309:I309"/>
-    <mergeCell ref="C317:I317"/>
-    <mergeCell ref="C323:I323"/>
-    <mergeCell ref="C334:I334"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="A187:I187"/>
-    <mergeCell ref="A154:I154"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="A146:I146"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A124:I124"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="C101:I101"/>
-    <mergeCell ref="A116:I116"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="C300:I300"/>
-    <mergeCell ref="C303:I303"/>
-    <mergeCell ref="A197:I197"/>
-    <mergeCell ref="A163:I163"/>
-    <mergeCell ref="A175:I175"/>
-    <mergeCell ref="A243:I243"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C266:I266"/>
-    <mergeCell ref="C269:I269"/>
-    <mergeCell ref="A216:I216"/>
-    <mergeCell ref="A225:I225"/>
-    <mergeCell ref="A253:I253"/>
-    <mergeCell ref="C273:I273"/>
-    <mergeCell ref="C276:I276"/>
-    <mergeCell ref="C289:I289"/>
-    <mergeCell ref="C293:I293"/>
-    <mergeCell ref="C279:I279"/>
-    <mergeCell ref="C287:I287"/>
-    <mergeCell ref="C291:I291"/>
-    <mergeCell ref="A284:I284"/>
-    <mergeCell ref="C405:I405"/>
-    <mergeCell ref="C407:I407"/>
-    <mergeCell ref="C409:I409"/>
-    <mergeCell ref="C461:I461"/>
-    <mergeCell ref="C465:I465"/>
-    <mergeCell ref="A426:I426"/>
-    <mergeCell ref="C396:I396"/>
-    <mergeCell ref="C399:I399"/>
-    <mergeCell ref="C401:I401"/>
-    <mergeCell ref="C403:I403"/>
-    <mergeCell ref="C414:I414"/>
-    <mergeCell ref="C417:I417"/>
-    <mergeCell ref="C420:I420"/>
-    <mergeCell ref="C423:I423"/>
-    <mergeCell ref="C469:I469"/>
-    <mergeCell ref="C473:I473"/>
-    <mergeCell ref="C442:I442"/>
-    <mergeCell ref="C445:I445"/>
-    <mergeCell ref="C449:I449"/>
-    <mergeCell ref="C454:I454"/>
-    <mergeCell ref="C457:I457"/>
-    <mergeCell ref="C521:I521"/>
-    <mergeCell ref="C680:I680"/>
-    <mergeCell ref="C510:I510"/>
-    <mergeCell ref="C516:I516"/>
-    <mergeCell ref="C479:I479"/>
-    <mergeCell ref="C489:I489"/>
-    <mergeCell ref="C491:I491"/>
-    <mergeCell ref="C493:I493"/>
-    <mergeCell ref="C499:I499"/>
-    <mergeCell ref="C505:I505"/>
-    <mergeCell ref="C678:I678"/>
-    <mergeCell ref="C682:I682"/>
-    <mergeCell ref="C665:I665"/>
-    <mergeCell ref="C526:I526"/>
-    <mergeCell ref="C533:I533"/>
-    <mergeCell ref="C538:I538"/>
-    <mergeCell ref="A567:I567"/>
-    <mergeCell ref="C624:I624"/>
-    <mergeCell ref="A634:I634"/>
-    <mergeCell ref="A645:I645"/>
-    <mergeCell ref="C580:I580"/>
-    <mergeCell ref="C559:I559"/>
-    <mergeCell ref="C561:I561"/>
-    <mergeCell ref="C563:I563"/>
-    <mergeCell ref="C557:I557"/>
-    <mergeCell ref="C552:I552"/>
-    <mergeCell ref="C554:I554"/>
-    <mergeCell ref="A543:I543"/>
-    <mergeCell ref="C670:I670"/>
-    <mergeCell ref="C672:I672"/>
-    <mergeCell ref="C674:I674"/>
-    <mergeCell ref="C676:I676"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
@@ -29287,21 +29299,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C71B05ED7860F1429BB192A8AD3ECF9C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bb17ca7624675e957ee0f1a62aa5509">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1dc586d3-033a-453c-a736-0de408b0dcee" xmlns:ns4="da96f4a7-4178-4915-9502-40e1bdbdebc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f4946a5cb97ee8e437c64f89eb7aa62" ns3:_="" ns4:_="">
     <xsd:import namespace="1dc586d3-033a-453c-a736-0de408b0dcee"/>
@@ -29524,24 +29521,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED1B3B-119A-4870-957A-0D939EB4F5C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29558,4 +29553,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config/Concern.xlsx
+++ b/Config/Concern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArronSealmoy\PycharmProjects\MeralcoOnline\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1300E1E2-DCAC-41D5-8021-8B6D42FFADD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA7967-C603-4791-B9D5-54BE3A7E737E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="1105">
   <si>
     <t>Revision History</t>
   </si>
@@ -3992,6 +3992,18 @@
   </si>
   <si>
     <t>TC008</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC003</t>
   </si>
 </sst>
 </file>
@@ -6054,8 +6066,8 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -17943,8 +17955,8 @@
   </sheetPr>
   <dimension ref="A1:I685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -18089,10 +18101,12 @@
     <row r="8" spans="1:9" s="7" customFormat="1" ht="82.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="C8" s="36" t="s">
+        <v>1104</v>
+      </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="55">
-        <v>1</v>
+      <c r="E8" s="55" t="s">
+        <v>992</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>496</v>
@@ -18166,10 +18180,12 @@
     <row r="13" spans="1:9" s="7" customFormat="1" ht="114.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
+      <c r="C13" s="38" t="s">
+        <v>1101</v>
+      </c>
       <c r="D13" s="57"/>
-      <c r="E13" s="55">
-        <v>1</v>
+      <c r="E13" s="55" t="s">
+        <v>992</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>504</v>
@@ -18183,10 +18199,12 @@
     <row r="14" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
+      <c r="C14" s="38" t="s">
+        <v>1101</v>
+      </c>
       <c r="D14" s="57"/>
-      <c r="E14" s="55">
-        <v>2</v>
+      <c r="E14" s="55" t="s">
+        <v>994</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>506</v>
@@ -18407,10 +18425,12 @@
     <row r="28" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="C28" s="36" t="s">
+        <v>1102</v>
+      </c>
       <c r="D28" s="36"/>
-      <c r="E28" s="55">
-        <v>1</v>
+      <c r="E28" s="55" t="s">
+        <v>992</v>
       </c>
       <c r="F28" s="36" t="s">
         <v>518</v>
@@ -18424,10 +18444,12 @@
     <row r="29" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="C29" s="36" t="s">
+        <v>1102</v>
+      </c>
       <c r="D29" s="36"/>
-      <c r="E29" s="55">
-        <v>2</v>
+      <c r="E29" s="55" t="s">
+        <v>994</v>
       </c>
       <c r="F29" s="36" t="s">
         <v>520</v>
@@ -18441,10 +18463,12 @@
     <row r="30" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="C30" s="36" t="s">
+        <v>1102</v>
+      </c>
       <c r="D30" s="36"/>
-      <c r="E30" s="55">
-        <v>3</v>
+      <c r="E30" s="55" t="s">
+        <v>996</v>
       </c>
       <c r="F30" s="59" t="s">
         <v>522</v>
@@ -18471,10 +18495,12 @@
     <row r="32" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
+      <c r="C32" s="36" t="s">
+        <v>1103</v>
+      </c>
       <c r="D32" s="36"/>
-      <c r="E32" s="55">
-        <v>1</v>
+      <c r="E32" s="55" t="s">
+        <v>992</v>
       </c>
       <c r="F32" s="36" t="s">
         <v>524</v>
@@ -18488,10 +18514,12 @@
     <row r="33" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="C33" s="36" t="s">
+        <v>1103</v>
+      </c>
       <c r="D33" s="36"/>
-      <c r="E33" s="55">
-        <v>2</v>
+      <c r="E33" s="55" t="s">
+        <v>994</v>
       </c>
       <c r="F33" s="36" t="s">
         <v>520</v>
@@ -18505,10 +18533,12 @@
     <row r="34" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="C34" s="36" t="s">
+        <v>1103</v>
+      </c>
       <c r="D34" s="36"/>
-      <c r="E34" s="55">
-        <v>3</v>
+      <c r="E34" s="55" t="s">
+        <v>996</v>
       </c>
       <c r="F34" s="59" t="s">
         <v>522</v>

--- a/Config/Concern.xlsx
+++ b/Config/Concern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejarcebido/Documents/Projects/Python/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED94BA6A-6122-4443-ABF3-0E79CDB67A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C72D5B3-8DD5-704A-A70D-CE21A9C07696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
+    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
     <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
-    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
-    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4436,8 +4436,8 @@
   </cellStyleXfs>
   <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4750,18 +4750,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4771,20 +4759,11 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4798,8 +4777,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4808,9 +4811,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6021,15 +6021,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
-      <selection activeCell="F15" sqref="F15"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
+      <selection activeCell="C17" sqref="C17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
-      <selection activeCell="D8" sqref="D7:D8"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
+      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -6037,19 +6040,16 @@
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+      <selection activeCell="D8" sqref="D7:D8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
-      <selection activeCell="C4" sqref="C4"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
-      <selection activeCell="C17" sqref="C17"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
+      <selection activeCell="F15" sqref="F15"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -6068,7 +6068,7 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -6085,27 +6085,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
       <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
       <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:9" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6133,27 +6133,27 @@
       <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:9" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="109"/>
       <c r="I5" s="33" t="s">
         <v>24</v>
       </c>
@@ -6275,15 +6275,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
     </row>
     <row r="13" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="str">
@@ -6364,27 +6364,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
       <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="str">
@@ -7611,15 +7611,15 @@
       <c r="G90" s="38"/>
     </row>
     <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="111" t="s">
+      <c r="A91" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="112"/>
-      <c r="C91" s="112"/>
-      <c r="D91" s="112"/>
-      <c r="E91" s="112"/>
-      <c r="F91" s="112"/>
-      <c r="G91" s="113"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="108"/>
+      <c r="G91" s="109"/>
     </row>
     <row r="92" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="34" t="str">
@@ -8267,15 +8267,15 @@
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:9" s="29" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="107" t="s">
+      <c r="A128" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="108"/>
-      <c r="C128" s="108"/>
-      <c r="D128" s="108"/>
-      <c r="E128" s="108"/>
-      <c r="F128" s="108"/>
-      <c r="G128" s="108"/>
+      <c r="B128" s="118"/>
+      <c r="C128" s="118"/>
+      <c r="D128" s="118"/>
+      <c r="E128" s="118"/>
+      <c r="F128" s="118"/>
+      <c r="G128" s="118"/>
       <c r="H128" s="76"/>
     </row>
     <row r="129" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -9125,27 +9125,27 @@
       <c r="G176" s="38"/>
     </row>
     <row r="177" spans="1:10" s="40" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="109" t="s">
+      <c r="A177" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="110"/>
-      <c r="C177" s="110"/>
-      <c r="D177" s="110"/>
-      <c r="E177" s="110"/>
-      <c r="F177" s="110"/>
-      <c r="G177" s="110"/>
+      <c r="B177" s="111"/>
+      <c r="C177" s="111"/>
+      <c r="D177" s="111"/>
+      <c r="E177" s="111"/>
+      <c r="F177" s="111"/>
+      <c r="G177" s="111"/>
       <c r="H177" s="80"/>
     </row>
     <row r="178" spans="1:10" s="40" customFormat="1" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="116" t="s">
+      <c r="A178" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="117"/>
-      <c r="C178" s="117"/>
-      <c r="D178" s="117"/>
-      <c r="E178" s="117"/>
-      <c r="F178" s="117"/>
-      <c r="G178" s="117"/>
+      <c r="B178" s="120"/>
+      <c r="C178" s="120"/>
+      <c r="D178" s="120"/>
+      <c r="E178" s="120"/>
+      <c r="F178" s="120"/>
+      <c r="G178" s="120"/>
       <c r="H178" s="80"/>
     </row>
     <row r="179" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -9933,15 +9933,15 @@
       </c>
     </row>
     <row r="224" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="107" t="s">
+      <c r="A224" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="108"/>
-      <c r="C224" s="108"/>
-      <c r="D224" s="108"/>
-      <c r="E224" s="108"/>
-      <c r="F224" s="108"/>
-      <c r="G224" s="108"/>
+      <c r="B224" s="118"/>
+      <c r="C224" s="118"/>
+      <c r="D224" s="118"/>
+      <c r="E224" s="118"/>
+      <c r="F224" s="118"/>
+      <c r="G224" s="118"/>
     </row>
     <row r="225" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="34" t="str">
@@ -11891,15 +11891,15 @@
       <c r="G325" s="38"/>
     </row>
     <row r="326" spans="1:9" s="29" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="107" t="s">
+      <c r="A326" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="B326" s="108"/>
-      <c r="C326" s="108"/>
-      <c r="D326" s="108"/>
-      <c r="E326" s="108"/>
-      <c r="F326" s="108"/>
-      <c r="G326" s="108"/>
+      <c r="B326" s="118"/>
+      <c r="C326" s="118"/>
+      <c r="D326" s="118"/>
+      <c r="E326" s="118"/>
+      <c r="F326" s="118"/>
+      <c r="G326" s="118"/>
       <c r="H326" s="76"/>
     </row>
     <row r="327" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12526,15 +12526,15 @@
       </c>
     </row>
     <row r="360" spans="1:9" s="29" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="107" t="s">
+      <c r="A360" s="117" t="s">
         <v>236</v>
       </c>
-      <c r="B360" s="108"/>
-      <c r="C360" s="108"/>
-      <c r="D360" s="108"/>
-      <c r="E360" s="108"/>
-      <c r="F360" s="108"/>
-      <c r="G360" s="108"/>
+      <c r="B360" s="118"/>
+      <c r="C360" s="118"/>
+      <c r="D360" s="118"/>
+      <c r="E360" s="118"/>
+      <c r="F360" s="118"/>
+      <c r="G360" s="118"/>
       <c r="H360" s="76"/>
     </row>
     <row r="361" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13205,15 +13205,15 @@
       </c>
     </row>
     <row r="397" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="109" t="s">
+      <c r="A397" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="B397" s="110"/>
-      <c r="C397" s="110"/>
-      <c r="D397" s="110"/>
-      <c r="E397" s="110"/>
-      <c r="F397" s="110"/>
-      <c r="G397" s="110"/>
+      <c r="B397" s="111"/>
+      <c r="C397" s="111"/>
+      <c r="D397" s="111"/>
+      <c r="E397" s="111"/>
+      <c r="F397" s="111"/>
+      <c r="G397" s="111"/>
     </row>
     <row r="398" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="str">
@@ -13497,15 +13497,15 @@
       <c r="G412" s="38"/>
     </row>
     <row r="413" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="109" t="s">
+      <c r="A413" s="110" t="s">
         <v>277</v>
       </c>
-      <c r="B413" s="110"/>
-      <c r="C413" s="110"/>
-      <c r="D413" s="110"/>
-      <c r="E413" s="110"/>
-      <c r="F413" s="110"/>
-      <c r="G413" s="110"/>
+      <c r="B413" s="111"/>
+      <c r="C413" s="111"/>
+      <c r="D413" s="111"/>
+      <c r="E413" s="111"/>
+      <c r="F413" s="111"/>
+      <c r="G413" s="111"/>
     </row>
     <row r="414" spans="1:10" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A414" s="34" t="str">
@@ -13544,26 +13544,26 @@
       <c r="G415" s="38"/>
     </row>
     <row r="416" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="109" t="s">
+      <c r="A416" s="110" t="s">
         <v>281</v>
       </c>
-      <c r="B416" s="110"/>
-      <c r="C416" s="110"/>
-      <c r="D416" s="110"/>
-      <c r="E416" s="110"/>
-      <c r="F416" s="110"/>
-      <c r="G416" s="110"/>
+      <c r="B416" s="111"/>
+      <c r="C416" s="111"/>
+      <c r="D416" s="111"/>
+      <c r="E416" s="111"/>
+      <c r="F416" s="111"/>
+      <c r="G416" s="111"/>
     </row>
     <row r="417" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="111" t="s">
+      <c r="A417" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B417" s="112"/>
-      <c r="C417" s="112"/>
-      <c r="D417" s="112"/>
-      <c r="E417" s="112"/>
-      <c r="F417" s="112"/>
-      <c r="G417" s="113"/>
+      <c r="B417" s="108"/>
+      <c r="C417" s="108"/>
+      <c r="D417" s="108"/>
+      <c r="E417" s="108"/>
+      <c r="F417" s="108"/>
+      <c r="G417" s="109"/>
     </row>
     <row r="418" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A418" s="34" t="str">
@@ -13580,7 +13580,7 @@
       <c r="E418" s="48"/>
       <c r="F418" s="47"/>
       <c r="G418" s="28"/>
-      <c r="H418" s="1" t="s">
+      <c r="H418" s="116" t="s">
         <v>284</v>
       </c>
       <c r="I418" s="33" t="s">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="G419" s="38"/>
-      <c r="H419" s="1"/>
+      <c r="H419" s="116"/>
     </row>
     <row r="420" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A420" s="38"/>
@@ -13617,7 +13617,7 @@
         <v>146</v>
       </c>
       <c r="G420" s="38"/>
-      <c r="H420" s="1"/>
+      <c r="H420" s="116"/>
     </row>
     <row r="421" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A421" s="38"/>
@@ -13633,7 +13633,7 @@
         <v>146</v>
       </c>
       <c r="G421" s="38"/>
-      <c r="H421" s="1"/>
+      <c r="H421" s="116"/>
     </row>
     <row r="422" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A422" s="38"/>
@@ -13649,7 +13649,7 @@
         <v>146</v>
       </c>
       <c r="G422" s="38"/>
-      <c r="H422" s="1"/>
+      <c r="H422" s="116"/>
     </row>
     <row r="423" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A423" s="38"/>
@@ -13665,7 +13665,7 @@
         <v>146</v>
       </c>
       <c r="G423" s="38"/>
-      <c r="H423" s="1"/>
+      <c r="H423" s="116"/>
     </row>
     <row r="424" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A424" s="34" t="str">
@@ -13682,7 +13682,7 @@
       <c r="E424" s="48"/>
       <c r="F424" s="35"/>
       <c r="G424" s="39"/>
-      <c r="H424" s="1"/>
+      <c r="H424" s="116"/>
       <c r="I424" s="33" t="s">
         <v>146</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>146</v>
       </c>
       <c r="G425" s="38"/>
-      <c r="H425" s="1"/>
+      <c r="H425" s="116"/>
     </row>
     <row r="426" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A426" s="34" t="str">
@@ -13718,7 +13718,7 @@
       <c r="E426" s="48"/>
       <c r="F426" s="35"/>
       <c r="G426" s="39"/>
-      <c r="H426" s="1"/>
+      <c r="H426" s="116"/>
       <c r="I426" s="33" t="s">
         <v>146</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>146</v>
       </c>
       <c r="G427" s="38"/>
-      <c r="H427" s="1"/>
+      <c r="H427" s="116"/>
     </row>
     <row r="428" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A428" s="38"/>
@@ -13753,7 +13753,7 @@
         <v>146</v>
       </c>
       <c r="G428" s="38"/>
-      <c r="H428" s="1"/>
+      <c r="H428" s="116"/>
     </row>
     <row r="429" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A429" s="38"/>
@@ -13769,7 +13769,7 @@
         <v>146</v>
       </c>
       <c r="G429" s="38"/>
-      <c r="H429" s="1"/>
+      <c r="H429" s="116"/>
     </row>
     <row r="430" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A430" s="38"/>
@@ -13785,7 +13785,7 @@
         <v>146</v>
       </c>
       <c r="G430" s="38"/>
-      <c r="H430" s="1"/>
+      <c r="H430" s="116"/>
     </row>
     <row r="431" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A431" s="38"/>
@@ -13801,7 +13801,7 @@
         <v>146</v>
       </c>
       <c r="G431" s="38"/>
-      <c r="H431" s="1"/>
+      <c r="H431" s="116"/>
     </row>
     <row r="432" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A432" s="38"/>
@@ -13817,7 +13817,7 @@
         <v>146</v>
       </c>
       <c r="G432" s="38"/>
-      <c r="H432" s="1"/>
+      <c r="H432" s="116"/>
     </row>
     <row r="433" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A433" s="38"/>
@@ -13833,7 +13833,7 @@
         <v>146</v>
       </c>
       <c r="G433" s="38"/>
-      <c r="H433" s="1"/>
+      <c r="H433" s="116"/>
     </row>
     <row r="434" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A434" s="38"/>
@@ -13849,7 +13849,7 @@
         <v>146</v>
       </c>
       <c r="G434" s="38"/>
-      <c r="H434" s="1"/>
+      <c r="H434" s="116"/>
     </row>
     <row r="435" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A435" s="38"/>
@@ -13865,7 +13865,7 @@
         <v>146</v>
       </c>
       <c r="G435" s="38"/>
-      <c r="H435" s="1"/>
+      <c r="H435" s="116"/>
     </row>
     <row r="436" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A436" s="38"/>
@@ -13881,7 +13881,7 @@
         <v>146</v>
       </c>
       <c r="G436" s="38"/>
-      <c r="H436" s="1"/>
+      <c r="H436" s="116"/>
     </row>
     <row r="437" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A437" s="38"/>
@@ -13897,7 +13897,7 @@
         <v>146</v>
       </c>
       <c r="G437" s="38"/>
-      <c r="H437" s="1"/>
+      <c r="H437" s="116"/>
     </row>
     <row r="438" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A438" s="38"/>
@@ -13913,7 +13913,7 @@
         <v>146</v>
       </c>
       <c r="G438" s="38"/>
-      <c r="H438" s="1"/>
+      <c r="H438" s="116"/>
     </row>
     <row r="439" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A439" s="38"/>
@@ -13929,7 +13929,7 @@
         <v>146</v>
       </c>
       <c r="G439" s="38"/>
-      <c r="H439" s="1"/>
+      <c r="H439" s="116"/>
     </row>
     <row r="440" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A440" s="34" t="str">
@@ -13946,7 +13946,7 @@
       <c r="E440" s="48"/>
       <c r="F440" s="35"/>
       <c r="G440" s="39"/>
-      <c r="H440" s="1"/>
+      <c r="H440" s="116"/>
       <c r="I440" s="33" t="s">
         <v>146</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>146</v>
       </c>
       <c r="G441" s="38"/>
-      <c r="H441" s="1"/>
+      <c r="H441" s="116"/>
     </row>
     <row r="442" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A442" s="38"/>
@@ -13981,7 +13981,7 @@
         <v>146</v>
       </c>
       <c r="G442" s="38"/>
-      <c r="H442" s="1"/>
+      <c r="H442" s="116"/>
     </row>
     <row r="443" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A443" s="38"/>
@@ -13997,7 +13997,7 @@
         <v>146</v>
       </c>
       <c r="G443" s="38"/>
-      <c r="H443" s="1"/>
+      <c r="H443" s="116"/>
     </row>
     <row r="444" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A444" s="38"/>
@@ -14013,18 +14013,18 @@
         <v>146</v>
       </c>
       <c r="G444" s="38"/>
-      <c r="H444" s="1"/>
+      <c r="H444" s="116"/>
     </row>
     <row r="445" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="111" t="s">
+      <c r="A445" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="B445" s="112"/>
-      <c r="C445" s="112"/>
-      <c r="D445" s="112"/>
-      <c r="E445" s="112"/>
-      <c r="F445" s="112"/>
-      <c r="G445" s="113"/>
+      <c r="B445" s="108"/>
+      <c r="C445" s="108"/>
+      <c r="D445" s="108"/>
+      <c r="E445" s="108"/>
+      <c r="F445" s="108"/>
+      <c r="G445" s="109"/>
     </row>
     <row r="446" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A446" s="34" t="str">
@@ -14451,7 +14451,7 @@
       <c r="E467" s="48"/>
       <c r="F467" s="35"/>
       <c r="G467" s="39"/>
-      <c r="H467" s="1" t="s">
+      <c r="H467" s="116" t="s">
         <v>284</v>
       </c>
       <c r="I467" s="33" t="s">
@@ -14470,7 +14470,7 @@
       <c r="E468" s="37"/>
       <c r="F468" s="37"/>
       <c r="G468" s="38"/>
-      <c r="H468" s="1"/>
+      <c r="H468" s="116"/>
     </row>
     <row r="469" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A469" s="38"/>
@@ -14486,7 +14486,7 @@
         <v>146</v>
       </c>
       <c r="G469" s="38"/>
-      <c r="H469" s="1"/>
+      <c r="H469" s="116"/>
     </row>
     <row r="470" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A470" s="38"/>
@@ -14502,7 +14502,7 @@
         <v>146</v>
       </c>
       <c r="G470" s="38"/>
-      <c r="H470" s="1"/>
+      <c r="H470" s="116"/>
     </row>
     <row r="471" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A471" s="38"/>
@@ -14518,7 +14518,7 @@
         <v>146</v>
       </c>
       <c r="G471" s="38"/>
-      <c r="H471" s="1"/>
+      <c r="H471" s="116"/>
     </row>
     <row r="472" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A472" s="38"/>
@@ -14534,7 +14534,7 @@
         <v>146</v>
       </c>
       <c r="G472" s="38"/>
-      <c r="H472" s="1"/>
+      <c r="H472" s="116"/>
     </row>
     <row r="473" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A473" s="38"/>
@@ -14550,7 +14550,7 @@
         <v>146</v>
       </c>
       <c r="G473" s="38"/>
-      <c r="H473" s="1"/>
+      <c r="H473" s="116"/>
     </row>
     <row r="474" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A474" s="34" t="str">
@@ -14982,7 +14982,7 @@
       <c r="E495" s="48"/>
       <c r="F495" s="35"/>
       <c r="G495" s="39"/>
-      <c r="H495" s="1" t="s">
+      <c r="H495" s="116" t="s">
         <v>284</v>
       </c>
       <c r="I495" s="33" t="s">
@@ -15001,7 +15001,7 @@
       <c r="E496" s="37"/>
       <c r="F496" s="37"/>
       <c r="G496" s="38"/>
-      <c r="H496" s="1"/>
+      <c r="H496" s="116"/>
     </row>
     <row r="497" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A497" s="38"/>
@@ -15017,7 +15017,7 @@
         <v>146</v>
       </c>
       <c r="G497" s="38"/>
-      <c r="H497" s="1"/>
+      <c r="H497" s="116"/>
     </row>
     <row r="498" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A498" s="38"/>
@@ -15033,7 +15033,7 @@
         <v>146</v>
       </c>
       <c r="G498" s="38"/>
-      <c r="H498" s="1"/>
+      <c r="H498" s="116"/>
     </row>
     <row r="499" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A499" s="38"/>
@@ -15049,7 +15049,7 @@
         <v>146</v>
       </c>
       <c r="G499" s="38"/>
-      <c r="H499" s="1"/>
+      <c r="H499" s="116"/>
     </row>
     <row r="500" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A500" s="38"/>
@@ -15065,7 +15065,7 @@
         <v>146</v>
       </c>
       <c r="G500" s="38"/>
-      <c r="H500" s="1"/>
+      <c r="H500" s="116"/>
     </row>
     <row r="501" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A501" s="38"/>
@@ -15081,29 +15081,29 @@
         <v>146</v>
       </c>
       <c r="G501" s="38"/>
-      <c r="H501" s="1"/>
+      <c r="H501" s="116"/>
     </row>
     <row r="502" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="109" t="s">
+      <c r="A502" s="110" t="s">
         <v>396</v>
       </c>
-      <c r="B502" s="110"/>
-      <c r="C502" s="110"/>
-      <c r="D502" s="110"/>
-      <c r="E502" s="110"/>
-      <c r="F502" s="110"/>
-      <c r="G502" s="110"/>
+      <c r="B502" s="111"/>
+      <c r="C502" s="111"/>
+      <c r="D502" s="111"/>
+      <c r="E502" s="111"/>
+      <c r="F502" s="111"/>
+      <c r="G502" s="111"/>
     </row>
     <row r="503" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="111" t="s">
+      <c r="A503" s="107" t="s">
         <v>397</v>
       </c>
-      <c r="B503" s="112"/>
-      <c r="C503" s="112"/>
-      <c r="D503" s="112"/>
-      <c r="E503" s="112"/>
-      <c r="F503" s="112"/>
-      <c r="G503" s="113"/>
+      <c r="B503" s="108"/>
+      <c r="C503" s="108"/>
+      <c r="D503" s="108"/>
+      <c r="E503" s="108"/>
+      <c r="F503" s="108"/>
+      <c r="G503" s="109"/>
     </row>
     <row r="504" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A504" s="34" t="str">
@@ -15133,12 +15133,12 @@
       <c r="B505" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="C505" s="119"/>
-      <c r="D505" s="120"/>
-      <c r="E505" s="120"/>
-      <c r="F505" s="121"/>
-      <c r="G505" s="121"/>
-      <c r="H505" s="122"/>
+      <c r="C505" s="112"/>
+      <c r="D505" s="113"/>
+      <c r="E505" s="113"/>
+      <c r="F505" s="114"/>
+      <c r="G505" s="114"/>
+      <c r="H505" s="115"/>
       <c r="I505" s="89"/>
       <c r="J505" s="90"/>
     </row>
@@ -15158,15 +15158,15 @@
       <c r="G506" s="38"/>
     </row>
     <row r="507" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="111" t="s">
+      <c r="A507" s="107" t="s">
         <v>403</v>
       </c>
-      <c r="B507" s="112"/>
-      <c r="C507" s="112"/>
-      <c r="D507" s="112"/>
-      <c r="E507" s="112"/>
-      <c r="F507" s="112"/>
-      <c r="G507" s="113"/>
+      <c r="B507" s="108"/>
+      <c r="C507" s="108"/>
+      <c r="D507" s="108"/>
+      <c r="E507" s="108"/>
+      <c r="F507" s="108"/>
+      <c r="G507" s="109"/>
     </row>
     <row r="508" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A508" s="34" t="str">
@@ -15270,26 +15270,26 @@
       <c r="G513" s="38"/>
     </row>
     <row r="514" spans="1:9" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="109" t="s">
+      <c r="A514" s="110" t="s">
         <v>410</v>
       </c>
-      <c r="B514" s="110"/>
-      <c r="C514" s="110"/>
-      <c r="D514" s="110"/>
-      <c r="E514" s="110"/>
-      <c r="F514" s="110"/>
-      <c r="G514" s="110"/>
+      <c r="B514" s="111"/>
+      <c r="C514" s="111"/>
+      <c r="D514" s="111"/>
+      <c r="E514" s="111"/>
+      <c r="F514" s="111"/>
+      <c r="G514" s="111"/>
     </row>
     <row r="515" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="111" t="s">
+      <c r="A515" s="107" t="s">
         <v>411</v>
       </c>
-      <c r="B515" s="112"/>
-      <c r="C515" s="112"/>
-      <c r="D515" s="112"/>
-      <c r="E515" s="112"/>
-      <c r="F515" s="112"/>
-      <c r="G515" s="113"/>
+      <c r="B515" s="108"/>
+      <c r="C515" s="108"/>
+      <c r="D515" s="108"/>
+      <c r="E515" s="108"/>
+      <c r="F515" s="108"/>
+      <c r="G515" s="109"/>
     </row>
     <row r="516" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A516" s="34" t="str">
@@ -16072,15 +16072,15 @@
       <c r="I555" s="50"/>
     </row>
     <row r="556" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="111" t="s">
+      <c r="A556" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="B556" s="112"/>
-      <c r="C556" s="112"/>
-      <c r="D556" s="112"/>
-      <c r="E556" s="112"/>
-      <c r="F556" s="112"/>
-      <c r="G556" s="113"/>
+      <c r="B556" s="108"/>
+      <c r="C556" s="108"/>
+      <c r="D556" s="108"/>
+      <c r="E556" s="108"/>
+      <c r="F556" s="108"/>
+      <c r="G556" s="109"/>
     </row>
     <row r="557" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A557" s="34" t="str">
@@ -16318,15 +16318,15 @@
       </c>
     </row>
     <row r="569" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="111" t="s">
+      <c r="A569" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="B569" s="112"/>
-      <c r="C569" s="112"/>
-      <c r="D569" s="112"/>
-      <c r="E569" s="112"/>
-      <c r="F569" s="112"/>
-      <c r="G569" s="113"/>
+      <c r="B569" s="108"/>
+      <c r="C569" s="108"/>
+      <c r="D569" s="108"/>
+      <c r="E569" s="108"/>
+      <c r="F569" s="108"/>
+      <c r="G569" s="109"/>
     </row>
     <row r="570" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A570" s="34" t="str">
@@ -16719,15 +16719,15 @@
       </c>
     </row>
     <row r="590" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="111" t="s">
+      <c r="A590" s="107" t="s">
         <v>453</v>
       </c>
-      <c r="B590" s="112"/>
-      <c r="C590" s="112"/>
-      <c r="D590" s="112"/>
-      <c r="E590" s="112"/>
-      <c r="F590" s="112"/>
-      <c r="G590" s="113"/>
+      <c r="B590" s="108"/>
+      <c r="C590" s="108"/>
+      <c r="D590" s="108"/>
+      <c r="E590" s="108"/>
+      <c r="F590" s="108"/>
+      <c r="G590" s="109"/>
     </row>
     <row r="591" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A591" s="34" t="str">
@@ -17004,15 +17004,15 @@
       </c>
     </row>
     <row r="605" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="111" t="s">
+      <c r="A605" s="107" t="s">
         <v>466</v>
       </c>
-      <c r="B605" s="112"/>
-      <c r="C605" s="112"/>
-      <c r="D605" s="112"/>
-      <c r="E605" s="112"/>
-      <c r="F605" s="112"/>
-      <c r="G605" s="113"/>
+      <c r="B605" s="108"/>
+      <c r="C605" s="108"/>
+      <c r="D605" s="108"/>
+      <c r="E605" s="108"/>
+      <c r="F605" s="108"/>
+      <c r="G605" s="109"/>
     </row>
     <row r="606" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A606" s="34" t="str">
@@ -17197,15 +17197,15 @@
       </c>
     </row>
     <row r="616" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="111" t="s">
+      <c r="A616" s="107" t="s">
         <v>477</v>
       </c>
-      <c r="B616" s="112"/>
-      <c r="C616" s="112"/>
-      <c r="D616" s="112"/>
-      <c r="E616" s="112"/>
-      <c r="F616" s="112"/>
-      <c r="G616" s="113"/>
+      <c r="B616" s="108"/>
+      <c r="C616" s="108"/>
+      <c r="D616" s="108"/>
+      <c r="E616" s="108"/>
+      <c r="F616" s="108"/>
+      <c r="G616" s="109"/>
     </row>
     <row r="617" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A617" s="34" t="str">
@@ -17296,10 +17296,10 @@
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F623" s="118" t="s">
+      <c r="F623" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G623" s="118"/>
+      <c r="G623" s="1"/>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F624" s="51" t="s">
@@ -17432,48 +17432,66 @@
   <autoFilter ref="A3:I3" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
+      <selection activeCell="A52" sqref="A52"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
+      <selection activeCell="B8" sqref="B8"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
+      <selection sqref="A1:D1"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
+      <selection activeCell="E129" sqref="E129"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
+      <selection activeCell="B103" sqref="B103"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
+      <selection activeCell="E13" sqref="E13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
     </customSheetView>
     <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
       <selection activeCell="B40" sqref="B40"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
-      <selection activeCell="E13" sqref="E13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
-      <selection activeCell="B103" sqref="B103"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
-      <selection activeCell="E129" sqref="E129"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
-      <selection sqref="A1:D1"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
-      <selection activeCell="B8" sqref="B8"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
-      <selection activeCell="A52" sqref="A52"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
+    <mergeCell ref="H467:H473"/>
+    <mergeCell ref="H495:H501"/>
+    <mergeCell ref="A360:G360"/>
+    <mergeCell ref="A326:G326"/>
+    <mergeCell ref="A397:G397"/>
+    <mergeCell ref="A445:G445"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A224:G224"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A178:G178"/>
     <mergeCell ref="F623:G623"/>
     <mergeCell ref="A417:G417"/>
     <mergeCell ref="A413:G413"/>
@@ -17490,24 +17508,6 @@
     <mergeCell ref="A416:G416"/>
     <mergeCell ref="C505:H505"/>
     <mergeCell ref="H418:H444"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="A224:G224"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A178:G178"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="H467:H473"/>
-    <mergeCell ref="H495:H501"/>
-    <mergeCell ref="A360:G360"/>
-    <mergeCell ref="A326:G326"/>
-    <mergeCell ref="A397:G397"/>
-    <mergeCell ref="A445:G445"/>
   </mergeCells>
   <conditionalFormatting sqref="F450:F476 F388:F392 F379:F381 F394:F395 F478:F516 F520:F597 F272 F277 F282 F287 F292 F297 F302 F306 F311 F316 F321 F326:F377 F1:F230 F599:F1048576 F232:F267 F397:F448">
     <cfRule type="containsText" dxfId="74" priority="105" operator="containsText" text="Failed">
@@ -17934,11 +17934,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -17957,7 +17957,7 @@
   </sheetPr>
   <dimension ref="A1:I685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="C555" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -21857,15 +21857,15 @@
         <v>176</v>
       </c>
       <c r="B234" s="34"/>
-      <c r="C234" s="127" t="s">
+      <c r="C234" s="124" t="s">
         <v>176</v>
       </c>
-      <c r="D234" s="127"/>
-      <c r="E234" s="127"/>
-      <c r="F234" s="127"/>
-      <c r="G234" s="127"/>
-      <c r="H234" s="127"/>
-      <c r="I234" s="127"/>
+      <c r="D234" s="124"/>
+      <c r="E234" s="124"/>
+      <c r="F234" s="124"/>
+      <c r="G234" s="124"/>
+      <c r="H234" s="124"/>
+      <c r="I234" s="124"/>
     </row>
     <row r="235" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A235" s="36"/>
@@ -24187,17 +24187,17 @@
       <c r="I379" s="38"/>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A380" s="127" t="s">
+      <c r="A380" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="B380" s="127"/>
-      <c r="C380" s="127"/>
-      <c r="D380" s="127"/>
-      <c r="E380" s="127"/>
-      <c r="F380" s="127"/>
-      <c r="G380" s="127"/>
-      <c r="H380" s="127"/>
-      <c r="I380" s="127"/>
+      <c r="B380" s="124"/>
+      <c r="C380" s="124"/>
+      <c r="D380" s="124"/>
+      <c r="E380" s="124"/>
+      <c r="F380" s="124"/>
+      <c r="G380" s="124"/>
+      <c r="H380" s="124"/>
+      <c r="I380" s="124"/>
     </row>
     <row r="381" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A381" s="36"/>
@@ -24302,17 +24302,17 @@
       <c r="I386" s="38"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A387" s="127" t="s">
+      <c r="A387" s="124" t="s">
         <v>354</v>
       </c>
-      <c r="B387" s="127"/>
-      <c r="C387" s="127"/>
-      <c r="D387" s="127"/>
-      <c r="E387" s="127"/>
-      <c r="F387" s="127"/>
-      <c r="G387" s="127"/>
-      <c r="H387" s="127"/>
-      <c r="I387" s="127"/>
+      <c r="B387" s="124"/>
+      <c r="C387" s="124"/>
+      <c r="D387" s="124"/>
+      <c r="E387" s="124"/>
+      <c r="F387" s="124"/>
+      <c r="G387" s="124"/>
+      <c r="H387" s="124"/>
+      <c r="I387" s="124"/>
     </row>
     <row r="388" spans="1:9" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A388" s="36"/>
@@ -24332,17 +24332,17 @@
       <c r="I388" s="38"/>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A389" s="127" t="s">
+      <c r="A389" s="124" t="s">
         <v>356</v>
       </c>
-      <c r="B389" s="127"/>
-      <c r="C389" s="127"/>
-      <c r="D389" s="127"/>
-      <c r="E389" s="127"/>
-      <c r="F389" s="127"/>
-      <c r="G389" s="127"/>
-      <c r="H389" s="127"/>
-      <c r="I389" s="127"/>
+      <c r="B389" s="124"/>
+      <c r="C389" s="124"/>
+      <c r="D389" s="124"/>
+      <c r="E389" s="124"/>
+      <c r="F389" s="124"/>
+      <c r="G389" s="124"/>
+      <c r="H389" s="124"/>
+      <c r="I389" s="124"/>
     </row>
     <row r="390" spans="1:9" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A390" s="36"/>
@@ -26955,15 +26955,15 @@
     <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" s="36"/>
       <c r="B552" s="36"/>
-      <c r="C552" s="127" t="s">
+      <c r="C552" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="D552" s="127"/>
-      <c r="E552" s="127"/>
-      <c r="F552" s="127"/>
-      <c r="G552" s="127"/>
-      <c r="H552" s="127"/>
-      <c r="I552" s="127"/>
+      <c r="D552" s="124"/>
+      <c r="E552" s="124"/>
+      <c r="F552" s="124"/>
+      <c r="G552" s="124"/>
+      <c r="H552" s="124"/>
+      <c r="I552" s="124"/>
     </row>
     <row r="553" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A553" s="36"/>
@@ -26985,15 +26985,15 @@
     <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" s="36"/>
       <c r="B554" s="36"/>
-      <c r="C554" s="127" t="s">
+      <c r="C554" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="D554" s="127"/>
-      <c r="E554" s="127"/>
-      <c r="F554" s="127"/>
-      <c r="G554" s="127"/>
-      <c r="H554" s="127"/>
-      <c r="I554" s="127"/>
+      <c r="D554" s="124"/>
+      <c r="E554" s="124"/>
+      <c r="F554" s="124"/>
+      <c r="G554" s="124"/>
+      <c r="H554" s="124"/>
+      <c r="I554" s="124"/>
     </row>
     <row r="555" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A555" s="36"/>
@@ -27032,15 +27032,15 @@
     <row r="557" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="36"/>
       <c r="B557" s="36"/>
-      <c r="C557" s="124" t="s">
+      <c r="C557" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="D557" s="125"/>
-      <c r="E557" s="125"/>
-      <c r="F557" s="125"/>
-      <c r="G557" s="125"/>
-      <c r="H557" s="125"/>
-      <c r="I557" s="126"/>
+      <c r="D557" s="126"/>
+      <c r="E557" s="126"/>
+      <c r="F557" s="126"/>
+      <c r="G557" s="126"/>
+      <c r="H557" s="126"/>
+      <c r="I557" s="127"/>
     </row>
     <row r="558" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A558" s="36"/>
@@ -27062,15 +27062,15 @@
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" s="36"/>
       <c r="B559" s="36"/>
-      <c r="C559" s="127" t="s">
+      <c r="C559" s="124" t="s">
         <v>480</v>
       </c>
-      <c r="D559" s="127"/>
-      <c r="E559" s="127"/>
-      <c r="F559" s="127"/>
-      <c r="G559" s="127"/>
-      <c r="H559" s="127"/>
-      <c r="I559" s="127"/>
+      <c r="D559" s="124"/>
+      <c r="E559" s="124"/>
+      <c r="F559" s="124"/>
+      <c r="G559" s="124"/>
+      <c r="H559" s="124"/>
+      <c r="I559" s="124"/>
     </row>
     <row r="560" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A560" s="36"/>
@@ -27092,15 +27092,15 @@
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" s="36"/>
       <c r="B561" s="36"/>
-      <c r="C561" s="127" t="s">
+      <c r="C561" s="124" t="s">
         <v>483</v>
       </c>
-      <c r="D561" s="127"/>
-      <c r="E561" s="127"/>
-      <c r="F561" s="127"/>
-      <c r="G561" s="127"/>
-      <c r="H561" s="127"/>
-      <c r="I561" s="127"/>
+      <c r="D561" s="124"/>
+      <c r="E561" s="124"/>
+      <c r="F561" s="124"/>
+      <c r="G561" s="124"/>
+      <c r="H561" s="124"/>
+      <c r="I561" s="124"/>
     </row>
     <row r="562" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A562" s="36"/>
@@ -27122,15 +27122,15 @@
     <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" s="36"/>
       <c r="B563" s="36"/>
-      <c r="C563" s="127" t="s">
+      <c r="C563" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="D563" s="127"/>
-      <c r="E563" s="127"/>
-      <c r="F563" s="127"/>
-      <c r="G563" s="127"/>
-      <c r="H563" s="127"/>
-      <c r="I563" s="127"/>
+      <c r="D563" s="124"/>
+      <c r="E563" s="124"/>
+      <c r="F563" s="124"/>
+      <c r="G563" s="124"/>
+      <c r="H563" s="124"/>
+      <c r="I563" s="124"/>
     </row>
     <row r="564" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A564" s="36"/>
@@ -27405,15 +27405,15 @@
         <v>192</v>
       </c>
       <c r="B580" s="36"/>
-      <c r="C580" s="127" t="s">
+      <c r="C580" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="D580" s="127"/>
-      <c r="E580" s="127"/>
-      <c r="F580" s="127"/>
-      <c r="G580" s="127"/>
-      <c r="H580" s="127"/>
-      <c r="I580" s="127"/>
+      <c r="D580" s="124"/>
+      <c r="E580" s="124"/>
+      <c r="F580" s="124"/>
+      <c r="G580" s="124"/>
+      <c r="H580" s="124"/>
+      <c r="I580" s="124"/>
     </row>
     <row r="581" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A581" s="36"/>
@@ -27620,17 +27620,17 @@
       <c r="I592" s="57"/>
     </row>
     <row r="593" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="124" t="s">
+      <c r="A593" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="B593" s="125"/>
-      <c r="C593" s="125"/>
-      <c r="D593" s="125"/>
-      <c r="E593" s="125"/>
-      <c r="F593" s="125"/>
-      <c r="G593" s="125"/>
-      <c r="H593" s="125"/>
-      <c r="I593" s="126"/>
+      <c r="B593" s="126"/>
+      <c r="C593" s="126"/>
+      <c r="D593" s="126"/>
+      <c r="E593" s="126"/>
+      <c r="F593" s="126"/>
+      <c r="G593" s="126"/>
+      <c r="H593" s="126"/>
+      <c r="I593" s="127"/>
     </row>
     <row r="594" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A594" s="36"/>
@@ -27803,17 +27803,17 @@
       <c r="I603" s="57"/>
     </row>
     <row r="604" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="124" t="s">
+      <c r="A604" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="B604" s="125"/>
-      <c r="C604" s="125"/>
-      <c r="D604" s="125"/>
-      <c r="E604" s="125"/>
-      <c r="F604" s="125"/>
-      <c r="G604" s="125"/>
-      <c r="H604" s="125"/>
-      <c r="I604" s="126"/>
+      <c r="B604" s="126"/>
+      <c r="C604" s="126"/>
+      <c r="D604" s="126"/>
+      <c r="E604" s="126"/>
+      <c r="F604" s="126"/>
+      <c r="G604" s="126"/>
+      <c r="H604" s="126"/>
+      <c r="I604" s="127"/>
     </row>
     <row r="605" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A605" s="36"/>
@@ -27969,17 +27969,17 @@
       <c r="I613" s="36"/>
     </row>
     <row r="614" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="124" t="s">
+      <c r="A614" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="B614" s="125"/>
-      <c r="C614" s="125"/>
-      <c r="D614" s="125"/>
-      <c r="E614" s="125"/>
-      <c r="F614" s="125"/>
-      <c r="G614" s="125"/>
-      <c r="H614" s="125"/>
-      <c r="I614" s="126"/>
+      <c r="B614" s="126"/>
+      <c r="C614" s="126"/>
+      <c r="D614" s="126"/>
+      <c r="E614" s="126"/>
+      <c r="F614" s="126"/>
+      <c r="G614" s="126"/>
+      <c r="H614" s="126"/>
+      <c r="I614" s="127"/>
     </row>
     <row r="615" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A615" s="36"/>
@@ -28139,15 +28139,15 @@
         <v>176</v>
       </c>
       <c r="B624" s="34"/>
-      <c r="C624" s="127" t="s">
+      <c r="C624" s="124" t="s">
         <v>205</v>
       </c>
-      <c r="D624" s="127"/>
-      <c r="E624" s="127"/>
-      <c r="F624" s="127"/>
-      <c r="G624" s="127"/>
-      <c r="H624" s="127"/>
-      <c r="I624" s="127"/>
+      <c r="D624" s="124"/>
+      <c r="E624" s="124"/>
+      <c r="F624" s="124"/>
+      <c r="G624" s="124"/>
+      <c r="H624" s="124"/>
+      <c r="I624" s="124"/>
     </row>
     <row r="625" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A625" s="36"/>
@@ -29142,118 +29142,75 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
-      <selection activeCell="F13" sqref="F13"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
-      <selection activeCell="F237" sqref="F237"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
-      <selection activeCell="G19" sqref="G19"/>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
+      <selection activeCell="F6" sqref="F6"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
     <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
       <selection activeCell="C9" sqref="C9"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
-      <selection activeCell="F6" sqref="F6"/>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
+      <selection activeCell="G19" sqref="G19"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
+      <selection activeCell="F237" sqref="F237"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
+      <selection activeCell="F13" sqref="F13"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="133">
-    <mergeCell ref="C682:I682"/>
-    <mergeCell ref="C665:I665"/>
-    <mergeCell ref="C526:I526"/>
-    <mergeCell ref="C533:I533"/>
-    <mergeCell ref="C538:I538"/>
-    <mergeCell ref="A567:I567"/>
-    <mergeCell ref="C624:I624"/>
-    <mergeCell ref="A634:I634"/>
-    <mergeCell ref="A645:I645"/>
-    <mergeCell ref="C580:I580"/>
-    <mergeCell ref="C559:I559"/>
-    <mergeCell ref="C561:I561"/>
-    <mergeCell ref="C563:I563"/>
-    <mergeCell ref="C557:I557"/>
-    <mergeCell ref="C552:I552"/>
-    <mergeCell ref="C554:I554"/>
-    <mergeCell ref="A543:I543"/>
-    <mergeCell ref="C670:I670"/>
-    <mergeCell ref="C672:I672"/>
-    <mergeCell ref="C674:I674"/>
-    <mergeCell ref="C676:I676"/>
-    <mergeCell ref="C469:I469"/>
-    <mergeCell ref="C473:I473"/>
-    <mergeCell ref="C442:I442"/>
-    <mergeCell ref="C445:I445"/>
-    <mergeCell ref="C449:I449"/>
-    <mergeCell ref="C454:I454"/>
-    <mergeCell ref="C457:I457"/>
-    <mergeCell ref="C521:I521"/>
-    <mergeCell ref="C680:I680"/>
-    <mergeCell ref="C510:I510"/>
-    <mergeCell ref="C516:I516"/>
-    <mergeCell ref="C479:I479"/>
-    <mergeCell ref="C489:I489"/>
-    <mergeCell ref="C491:I491"/>
-    <mergeCell ref="C493:I493"/>
-    <mergeCell ref="C499:I499"/>
-    <mergeCell ref="C505:I505"/>
-    <mergeCell ref="C678:I678"/>
-    <mergeCell ref="C405:I405"/>
-    <mergeCell ref="C407:I407"/>
-    <mergeCell ref="C409:I409"/>
-    <mergeCell ref="C461:I461"/>
-    <mergeCell ref="C465:I465"/>
-    <mergeCell ref="A426:I426"/>
-    <mergeCell ref="C396:I396"/>
-    <mergeCell ref="C399:I399"/>
-    <mergeCell ref="C401:I401"/>
-    <mergeCell ref="C403:I403"/>
-    <mergeCell ref="C414:I414"/>
-    <mergeCell ref="C417:I417"/>
-    <mergeCell ref="C420:I420"/>
-    <mergeCell ref="C423:I423"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="C300:I300"/>
-    <mergeCell ref="C303:I303"/>
-    <mergeCell ref="A197:I197"/>
-    <mergeCell ref="A163:I163"/>
-    <mergeCell ref="A175:I175"/>
-    <mergeCell ref="A243:I243"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C266:I266"/>
-    <mergeCell ref="C269:I269"/>
-    <mergeCell ref="A216:I216"/>
-    <mergeCell ref="A225:I225"/>
-    <mergeCell ref="A253:I253"/>
-    <mergeCell ref="C273:I273"/>
-    <mergeCell ref="C276:I276"/>
-    <mergeCell ref="C289:I289"/>
-    <mergeCell ref="C293:I293"/>
-    <mergeCell ref="C279:I279"/>
-    <mergeCell ref="C287:I287"/>
-    <mergeCell ref="C291:I291"/>
-    <mergeCell ref="A284:I284"/>
+    <mergeCell ref="C684:I684"/>
+    <mergeCell ref="A593:I593"/>
+    <mergeCell ref="A604:I604"/>
+    <mergeCell ref="A614:I614"/>
+    <mergeCell ref="C358:I358"/>
+    <mergeCell ref="C661:I661"/>
+    <mergeCell ref="C340:I340"/>
+    <mergeCell ref="C345:I345"/>
+    <mergeCell ref="C355:I355"/>
+    <mergeCell ref="C352:I352"/>
+    <mergeCell ref="C360:I360"/>
+    <mergeCell ref="C658:I658"/>
+    <mergeCell ref="C378:I378"/>
+    <mergeCell ref="C365:I365"/>
+    <mergeCell ref="C370:I370"/>
+    <mergeCell ref="C372:I372"/>
+    <mergeCell ref="C374:I374"/>
+    <mergeCell ref="A389:I389"/>
+    <mergeCell ref="C411:I411"/>
+    <mergeCell ref="C391:I391"/>
+    <mergeCell ref="C394:I394"/>
+    <mergeCell ref="A380:I380"/>
+    <mergeCell ref="A387:I387"/>
+    <mergeCell ref="C376:I376"/>
+    <mergeCell ref="C337:I337"/>
+    <mergeCell ref="C305:I305"/>
+    <mergeCell ref="C314:I314"/>
+    <mergeCell ref="C320:I320"/>
+    <mergeCell ref="C327:I327"/>
+    <mergeCell ref="C309:I309"/>
+    <mergeCell ref="C317:I317"/>
+    <mergeCell ref="C323:I323"/>
+    <mergeCell ref="C334:I334"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A35:I35"/>
@@ -29278,39 +29235,82 @@
     <mergeCell ref="A116:I116"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C337:I337"/>
-    <mergeCell ref="C305:I305"/>
-    <mergeCell ref="C314:I314"/>
-    <mergeCell ref="C320:I320"/>
-    <mergeCell ref="C327:I327"/>
-    <mergeCell ref="C309:I309"/>
-    <mergeCell ref="C317:I317"/>
-    <mergeCell ref="C323:I323"/>
-    <mergeCell ref="C334:I334"/>
-    <mergeCell ref="C684:I684"/>
-    <mergeCell ref="A593:I593"/>
-    <mergeCell ref="A604:I604"/>
-    <mergeCell ref="A614:I614"/>
-    <mergeCell ref="C358:I358"/>
-    <mergeCell ref="C661:I661"/>
-    <mergeCell ref="C340:I340"/>
-    <mergeCell ref="C345:I345"/>
-    <mergeCell ref="C355:I355"/>
-    <mergeCell ref="C352:I352"/>
-    <mergeCell ref="C360:I360"/>
-    <mergeCell ref="C658:I658"/>
-    <mergeCell ref="C378:I378"/>
-    <mergeCell ref="C365:I365"/>
-    <mergeCell ref="C370:I370"/>
-    <mergeCell ref="C372:I372"/>
-    <mergeCell ref="C374:I374"/>
-    <mergeCell ref="A389:I389"/>
-    <mergeCell ref="C411:I411"/>
-    <mergeCell ref="C391:I391"/>
-    <mergeCell ref="C394:I394"/>
-    <mergeCell ref="A380:I380"/>
-    <mergeCell ref="A387:I387"/>
-    <mergeCell ref="C376:I376"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="C300:I300"/>
+    <mergeCell ref="C303:I303"/>
+    <mergeCell ref="A197:I197"/>
+    <mergeCell ref="A163:I163"/>
+    <mergeCell ref="A175:I175"/>
+    <mergeCell ref="A243:I243"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C266:I266"/>
+    <mergeCell ref="C269:I269"/>
+    <mergeCell ref="A216:I216"/>
+    <mergeCell ref="A225:I225"/>
+    <mergeCell ref="A253:I253"/>
+    <mergeCell ref="C273:I273"/>
+    <mergeCell ref="C276:I276"/>
+    <mergeCell ref="C289:I289"/>
+    <mergeCell ref="C293:I293"/>
+    <mergeCell ref="C279:I279"/>
+    <mergeCell ref="C287:I287"/>
+    <mergeCell ref="C291:I291"/>
+    <mergeCell ref="A284:I284"/>
+    <mergeCell ref="C405:I405"/>
+    <mergeCell ref="C407:I407"/>
+    <mergeCell ref="C409:I409"/>
+    <mergeCell ref="C461:I461"/>
+    <mergeCell ref="C465:I465"/>
+    <mergeCell ref="A426:I426"/>
+    <mergeCell ref="C396:I396"/>
+    <mergeCell ref="C399:I399"/>
+    <mergeCell ref="C401:I401"/>
+    <mergeCell ref="C403:I403"/>
+    <mergeCell ref="C414:I414"/>
+    <mergeCell ref="C417:I417"/>
+    <mergeCell ref="C420:I420"/>
+    <mergeCell ref="C423:I423"/>
+    <mergeCell ref="C469:I469"/>
+    <mergeCell ref="C473:I473"/>
+    <mergeCell ref="C442:I442"/>
+    <mergeCell ref="C445:I445"/>
+    <mergeCell ref="C449:I449"/>
+    <mergeCell ref="C454:I454"/>
+    <mergeCell ref="C457:I457"/>
+    <mergeCell ref="C521:I521"/>
+    <mergeCell ref="C680:I680"/>
+    <mergeCell ref="C510:I510"/>
+    <mergeCell ref="C516:I516"/>
+    <mergeCell ref="C479:I479"/>
+    <mergeCell ref="C489:I489"/>
+    <mergeCell ref="C491:I491"/>
+    <mergeCell ref="C493:I493"/>
+    <mergeCell ref="C499:I499"/>
+    <mergeCell ref="C505:I505"/>
+    <mergeCell ref="C678:I678"/>
+    <mergeCell ref="C682:I682"/>
+    <mergeCell ref="C665:I665"/>
+    <mergeCell ref="C526:I526"/>
+    <mergeCell ref="C533:I533"/>
+    <mergeCell ref="C538:I538"/>
+    <mergeCell ref="A567:I567"/>
+    <mergeCell ref="C624:I624"/>
+    <mergeCell ref="A634:I634"/>
+    <mergeCell ref="A645:I645"/>
+    <mergeCell ref="C580:I580"/>
+    <mergeCell ref="C559:I559"/>
+    <mergeCell ref="C561:I561"/>
+    <mergeCell ref="C563:I563"/>
+    <mergeCell ref="C557:I557"/>
+    <mergeCell ref="C552:I552"/>
+    <mergeCell ref="C554:I554"/>
+    <mergeCell ref="A543:I543"/>
+    <mergeCell ref="C670:I670"/>
+    <mergeCell ref="C672:I672"/>
+    <mergeCell ref="C674:I674"/>
+    <mergeCell ref="C676:I676"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
@@ -29321,6 +29321,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C71B05ED7860F1429BB192A8AD3ECF9C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bb17ca7624675e957ee0f1a62aa5509">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1dc586d3-033a-453c-a736-0de408b0dcee" xmlns:ns4="da96f4a7-4178-4915-9502-40e1bdbdebc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f4946a5cb97ee8e437c64f89eb7aa62" ns3:_="" ns4:_="">
     <xsd:import namespace="1dc586d3-033a-453c-a736-0de408b0dcee"/>
@@ -29543,22 +29558,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED1B3B-119A-4870-957A-0D939EB4F5C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29575,21 +29592,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Config/Concern.xlsx
+++ b/Config/Concern.xlsx
@@ -8,42 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArronSealmoy\PycharmProjects\MeralcoOnline\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA7967-C603-4791-B9D5-54BE3A7E737E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9AA882-A41F-4B43-9E6A-7518B8F61C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
-    <sheet name="AT - Test Suites" sheetId="2" r:id="rId2"/>
+    <sheet name="AT - Test Suite" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="AT - Test Cases" sheetId="4" r:id="rId4"/>
+    <sheet name="AT - Test Case" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AT - Test Suites'!$A$3:$I$3</definedName>
-    <definedName name="Z_26B7875D_E9B2_4779_90EE_77F4989FB450_.wvu.Rows" localSheetId="1" hidden="1">'AT - Test Suites'!$19:$21,'AT - Test Suites'!#REF!</definedName>
-    <definedName name="Z_41632795_36E3_4D40_AF2C_A770615994B7_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_5790F7CF_E168_464B_A2FF_947E3C02F48B_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_67851EC9_B5A7_459B_8A18_A6220DC7A62C_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_6C6BCC3B_4AAA_435E_8B7C_F58FB26D5F0F_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_7089F64A_F77B_480F_9643_8730755F04D6_.wvu.Rows" localSheetId="1" hidden="1">'AT - Test Suites'!#REF!,'AT - Test Suites'!#REF!</definedName>
-    <definedName name="Z_783535CD_F37C_46D8_9C31_F6E21BB1B5AE_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_81DA30BE_A528_467D_8AE5_A425A78D5F91_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_85509BE7_EB91_43D0_AD9F_3876D719E321_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_94CD62AC_73F4_4EEF_A82F_18B6087DF3D5_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_94CD62AC_73F4_4EEF_A82F_18B6087DF3D5_.wvu.Rows" localSheetId="1" hidden="1">'AT - Test Suites'!#REF!,'AT - Test Suites'!#REF!,'AT - Test Suites'!#REF!,'AT - Test Suites'!#REF!</definedName>
-    <definedName name="Z_A56A148F_9A38_4A4C_A562_E1BABBE138E8_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_A90CCA9F_984C_49EE_9182_DD209DD99BF7_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_B0A65C70_A80A_4C8E_B2D7_6B73452A114B_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_B9FAA2B8_F2EB_41E3_ACBD_1C1D784FA07A_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_BB9B48FE_E0CB_44E8_8D41_520F74799311_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_C5303581_2D9C_42C1_9BA2_807707C51816_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_D611B517_ECB2_4406_9E8E_67E409ACD724_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_D7293F56_AE1C_4EDD_BE43_9CA8C53AFC1F_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_DB520068_47DC_4A26_A6D4_9FC641BA25CD_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_E5E442FA_01B8_4E18_8013_E35F29C34A86_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_EE11C295_BE7E_4EA7_BA48_79B292CECAE2_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
-    <definedName name="Z_F7B42C1E_5F34_49FE_B022_D2B370CB837D_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Cases'!$E$2:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AT - Test Suite'!$A$3:$I$3</definedName>
+    <definedName name="Z_26B7875D_E9B2_4779_90EE_77F4989FB450_.wvu.Rows" localSheetId="1" hidden="1">'AT - Test Suite'!$19:$21,'AT - Test Suite'!#REF!</definedName>
+    <definedName name="Z_41632795_36E3_4D40_AF2C_A770615994B7_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_5790F7CF_E168_464B_A2FF_947E3C02F48B_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_67851EC9_B5A7_459B_8A18_A6220DC7A62C_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_6C6BCC3B_4AAA_435E_8B7C_F58FB26D5F0F_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_7089F64A_F77B_480F_9643_8730755F04D6_.wvu.Rows" localSheetId="1" hidden="1">'AT - Test Suite'!#REF!,'AT - Test Suite'!#REF!</definedName>
+    <definedName name="Z_783535CD_F37C_46D8_9C31_F6E21BB1B5AE_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_81DA30BE_A528_467D_8AE5_A425A78D5F91_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_85509BE7_EB91_43D0_AD9F_3876D719E321_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_94CD62AC_73F4_4EEF_A82F_18B6087DF3D5_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_94CD62AC_73F4_4EEF_A82F_18B6087DF3D5_.wvu.Rows" localSheetId="1" hidden="1">'AT - Test Suite'!#REF!,'AT - Test Suite'!#REF!,'AT - Test Suite'!#REF!,'AT - Test Suite'!#REF!</definedName>
+    <definedName name="Z_A56A148F_9A38_4A4C_A562_E1BABBE138E8_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_A90CCA9F_984C_49EE_9182_DD209DD99BF7_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_B0A65C70_A80A_4C8E_B2D7_6B73452A114B_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_B9FAA2B8_F2EB_41E3_ACBD_1C1D784FA07A_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_BB9B48FE_E0CB_44E8_8D41_520F74799311_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_C5303581_2D9C_42C1_9BA2_807707C51816_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_D611B517_ECB2_4406_9E8E_67E409ACD724_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_D7293F56_AE1C_4EDD_BE43_9CA8C53AFC1F_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_DB520068_47DC_4A26_A6D4_9FC641BA25CD_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_E5E442FA_01B8_4E18_8013_E35F29C34A86_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_EE11C295_BE7E_4EA7_BA48_79B292CECAE2_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
+    <definedName name="Z_F7B42C1E_5F34_49FE_B022_D2B370CB837D_.wvu.FilterData" localSheetId="3" hidden="1">'AT - Test Case'!$E$2:$G$29</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
@@ -6067,7 +6067,7 @@
   <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -17955,8 +17955,8 @@
   </sheetPr>
   <dimension ref="A1:I685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -18329,7 +18329,7 @@
     <row r="22" spans="1:9" s="7" customFormat="1" ht="186" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="38" t="s">
         <v>1100</v>
       </c>
       <c r="D22" s="57"/>

--- a/Config/Concern.xlsx
+++ b/Config/Concern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArronSealmoy\PycharmProjects\MeralcoOnline\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9AA882-A41F-4B43-9E6A-7518B8F61C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8E8339-1A73-47CF-AD9D-1338601D686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
+    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
     <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
-    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
-    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="1112">
   <si>
     <t>Revision History</t>
   </si>
@@ -4004,6 +4004,27 @@
   </si>
   <si>
     <t>TC003</t>
+  </si>
+  <si>
+    <t>TS055</t>
+  </si>
+  <si>
+    <t>TC118</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>Step 9</t>
   </si>
 </sst>
 </file>
@@ -4432,10 +4453,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4748,17 +4769,11 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4769,20 +4784,11 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4796,8 +4802,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4806,9 +4836,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6019,15 +6046,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
-      <selection activeCell="F15" sqref="F15"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
+      <selection activeCell="C17" sqref="C17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
-      <selection activeCell="D8" sqref="D7:D8"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
+      <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -6035,19 +6065,16 @@
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+      <selection activeCell="D8" sqref="D7:D8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
-      <selection activeCell="C4" sqref="C4"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
-      <selection activeCell="C17" sqref="C17"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
+      <selection activeCell="F15" sqref="F15"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -6066,7 +6093,7 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
@@ -6083,27 +6110,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
       <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -6131,27 +6158,27 @@
       <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:9" s="29" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
       <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="111"/>
       <c r="I5" s="33" t="s">
         <v>24</v>
       </c>
@@ -6273,15 +6300,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="111"/>
     </row>
     <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="str">
@@ -6362,27 +6389,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
       <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="111"/>
     </row>
     <row r="19" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="str">
@@ -7609,20 +7636,19 @@
       <c r="G90" s="38"/>
     </row>
     <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="111" t="s">
+      <c r="A91" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="112"/>
-      <c r="C91" s="112"/>
-      <c r="D91" s="112"/>
-      <c r="E91" s="112"/>
-      <c r="F91" s="112"/>
-      <c r="G91" s="113"/>
-    </row>
-    <row r="92" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="str">
-        <f>"TS"&amp;TEXT(RIGHT(A85,3)+1,"000")</f>
-        <v>TS018</v>
+      <c r="B91" s="110"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="110"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="110"/>
+      <c r="G91" s="111"/>
+    </row>
+    <row r="92" spans="1:9" ht="23.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="34" t="s">
+        <v>1091</v>
       </c>
       <c r="B92" s="34" t="s">
         <v>78</v>
@@ -7633,12 +7659,7 @@
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
       <c r="F92" s="35"/>
-      <c r="G92" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" s="33" t="s">
-        <v>29</v>
-      </c>
+      <c r="G92" s="28"/>
     </row>
     <row r="93" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
@@ -7726,9 +7747,8 @@
       <c r="G97" s="38"/>
     </row>
     <row r="98" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="34" t="str">
-        <f>"TS"&amp;TEXT(RIGHT(A92,3)+1,"000")</f>
-        <v>TS019</v>
+      <c r="A98" s="34" t="s">
+        <v>1092</v>
       </c>
       <c r="B98" s="34" t="s">
         <v>83</v>
@@ -7835,9 +7855,8 @@
       <c r="G103" s="38"/>
     </row>
     <row r="104" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="34" t="str">
-        <f>"TS"&amp;TEXT(RIGHT(A98,3)+1,"000")</f>
-        <v>TS020</v>
+      <c r="A104" s="34" t="s">
+        <v>1093</v>
       </c>
       <c r="B104" s="34" t="s">
         <v>84</v>
@@ -7941,9 +7960,8 @@
       <c r="G109" s="38"/>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34" t="str">
-        <f>"TS"&amp;TEXT(RIGHT(A104,3)+1,"000")</f>
-        <v>TS021</v>
+      <c r="A110" s="34" t="s">
+        <v>1094</v>
       </c>
       <c r="B110" s="34" t="s">
         <v>85</v>
@@ -8050,9 +8068,8 @@
       <c r="G115" s="38"/>
     </row>
     <row r="116" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="34" t="str">
-        <f>"TS"&amp;TEXT(RIGHT(A110,3)+1,"000")</f>
-        <v>TS022</v>
+      <c r="A116" s="34" t="s">
+        <v>1095</v>
       </c>
       <c r="B116" s="34" t="s">
         <v>86</v>
@@ -8156,9 +8173,8 @@
       <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="34" t="str">
-        <f>"TS"&amp;TEXT(RIGHT(A116,3)+1,"000")</f>
-        <v>TS023</v>
+      <c r="A122" s="34" t="s">
+        <v>1096</v>
       </c>
       <c r="B122" s="34" t="s">
         <v>87</v>
@@ -8265,15 +8281,15 @@
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:9" s="29" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="107" t="s">
+      <c r="A128" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="108"/>
-      <c r="C128" s="108"/>
-      <c r="D128" s="108"/>
-      <c r="E128" s="108"/>
-      <c r="F128" s="108"/>
-      <c r="G128" s="108"/>
+      <c r="B128" s="120"/>
+      <c r="C128" s="120"/>
+      <c r="D128" s="120"/>
+      <c r="E128" s="120"/>
+      <c r="F128" s="120"/>
+      <c r="G128" s="120"/>
       <c r="H128" s="76"/>
     </row>
     <row r="129" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9122,31 +9138,31 @@
       </c>
       <c r="G176" s="38"/>
     </row>
-    <row r="177" spans="1:10" s="40" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="109" t="s">
+    <row r="177" spans="1:10" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="110"/>
-      <c r="C177" s="110"/>
-      <c r="D177" s="110"/>
-      <c r="E177" s="110"/>
-      <c r="F177" s="110"/>
-      <c r="G177" s="110"/>
+      <c r="B177" s="113"/>
+      <c r="C177" s="113"/>
+      <c r="D177" s="113"/>
+      <c r="E177" s="113"/>
+      <c r="F177" s="113"/>
+      <c r="G177" s="113"/>
       <c r="H177" s="80"/>
     </row>
-    <row r="178" spans="1:10" s="40" customFormat="1" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="116" t="s">
+    <row r="178" spans="1:10" s="40" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="117"/>
-      <c r="C178" s="117"/>
-      <c r="D178" s="117"/>
-      <c r="E178" s="117"/>
-      <c r="F178" s="117"/>
-      <c r="G178" s="117"/>
+      <c r="B178" s="122"/>
+      <c r="C178" s="122"/>
+      <c r="D178" s="122"/>
+      <c r="E178" s="122"/>
+      <c r="F178" s="122"/>
+      <c r="G178" s="122"/>
       <c r="H178" s="80"/>
     </row>
-    <row r="179" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A179" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A171,3)+1,"000")</f>
         <v>TS032</v>
@@ -9170,7 +9186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A180" s="38" t="s">
         <v>46</v>
       </c>
@@ -9183,7 +9199,7 @@
       <c r="F180" s="37"/>
       <c r="G180" s="38"/>
     </row>
-    <row r="181" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A181" s="38"/>
       <c r="B181" s="38" t="s">
         <v>107</v>
@@ -9198,7 +9214,7 @@
       </c>
       <c r="G181" s="38"/>
     </row>
-    <row r="182" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A182" s="38"/>
       <c r="B182" s="38" t="s">
         <v>109</v>
@@ -9213,7 +9229,7 @@
       </c>
       <c r="G182" s="38"/>
     </row>
-    <row r="183" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A183" s="38"/>
       <c r="B183" s="38" t="s">
         <v>110</v>
@@ -9228,7 +9244,7 @@
       </c>
       <c r="G183" s="38"/>
     </row>
-    <row r="184" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A179,3)+1,"000")</f>
         <v>TS033</v>
@@ -9252,7 +9268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A185" s="38" t="s">
         <v>46</v>
       </c>
@@ -9265,7 +9281,7 @@
       <c r="F185" s="37"/>
       <c r="G185" s="38"/>
     </row>
-    <row r="186" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A186" s="38"/>
       <c r="B186" s="38" t="s">
         <v>107</v>
@@ -9280,7 +9296,7 @@
       </c>
       <c r="G186" s="38"/>
     </row>
-    <row r="187" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A187" s="38"/>
       <c r="B187" s="38" t="s">
         <v>109</v>
@@ -9295,7 +9311,7 @@
       </c>
       <c r="G187" s="38"/>
     </row>
-    <row r="188" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A188" s="38"/>
       <c r="B188" s="38" t="s">
         <v>110</v>
@@ -9310,7 +9326,7 @@
       </c>
       <c r="G188" s="38"/>
     </row>
-    <row r="189" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A189" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A184,3)+1,"000")</f>
         <v>TS034</v>
@@ -9337,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A190" s="38" t="s">
         <v>46</v>
       </c>
@@ -9350,7 +9366,7 @@
       <c r="F190" s="37"/>
       <c r="G190" s="38"/>
     </row>
-    <row r="191" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A191" s="38"/>
       <c r="B191" s="38" t="s">
         <v>116</v>
@@ -9365,7 +9381,7 @@
       </c>
       <c r="G191" s="38"/>
     </row>
-    <row r="192" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A192" s="38"/>
       <c r="B192" s="38" t="s">
         <v>117</v>
@@ -9380,7 +9396,7 @@
       </c>
       <c r="G192" s="38"/>
     </row>
-    <row r="193" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A193" s="38"/>
       <c r="B193" s="38" t="s">
         <v>110</v>
@@ -9398,7 +9414,7 @@
       </c>
       <c r="H193" s="71"/>
     </row>
-    <row r="194" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A194" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A189,3)+1,"000")</f>
         <v>TS035</v>
@@ -9425,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A195" s="38" t="s">
         <v>46</v>
       </c>
@@ -9438,7 +9454,7 @@
       <c r="F195" s="37"/>
       <c r="G195" s="38"/>
     </row>
-    <row r="196" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A196" s="38"/>
       <c r="B196" s="38" t="s">
         <v>121</v>
@@ -9453,7 +9469,7 @@
       </c>
       <c r="G196" s="38"/>
     </row>
-    <row r="197" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A197" s="38"/>
       <c r="B197" s="38" t="s">
         <v>117</v>
@@ -9468,7 +9484,7 @@
       </c>
       <c r="G197" s="38"/>
     </row>
-    <row r="198" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A198" s="38"/>
       <c r="B198" s="38" t="s">
         <v>110</v>
@@ -9485,7 +9501,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A199" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A194,3)+1,"000")</f>
         <v>TS036</v>
@@ -9509,7 +9525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A200" s="38" t="s">
         <v>46</v>
       </c>
@@ -9522,7 +9538,7 @@
       <c r="F200" s="37"/>
       <c r="G200" s="38"/>
     </row>
-    <row r="201" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A201" s="38"/>
       <c r="B201" s="38" t="s">
         <v>123</v>
@@ -9537,7 +9553,7 @@
       </c>
       <c r="G201" s="38"/>
     </row>
-    <row r="202" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A202" s="38"/>
       <c r="B202" s="38" t="s">
         <v>117</v>
@@ -9552,7 +9568,7 @@
       </c>
       <c r="G202" s="38"/>
     </row>
-    <row r="203" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A203" s="38"/>
       <c r="B203" s="38" t="s">
         <v>110</v>
@@ -9570,7 +9586,7 @@
       </c>
       <c r="H203" s="71"/>
     </row>
-    <row r="204" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A204" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A199,3)+1,"000")</f>
         <v>TS037</v>
@@ -9597,7 +9613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A205" s="38" t="s">
         <v>46</v>
       </c>
@@ -9613,7 +9629,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A206" s="38"/>
       <c r="B206" s="38" t="s">
         <v>126</v>
@@ -9628,7 +9644,7 @@
       </c>
       <c r="G206" s="38"/>
     </row>
-    <row r="207" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A207" s="38"/>
       <c r="B207" s="38" t="s">
         <v>117</v>
@@ -9643,7 +9659,7 @@
       </c>
       <c r="G207" s="38"/>
     </row>
-    <row r="208" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A208" s="38"/>
       <c r="B208" s="38" t="s">
         <v>110</v>
@@ -9663,7 +9679,7 @@
         <v>22092249660</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A204,3)+1,"000")</f>
         <v>TS038</v>
@@ -9688,7 +9704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A210" s="38" t="s">
         <v>46</v>
       </c>
@@ -9701,7 +9717,7 @@
       <c r="F210" s="37"/>
       <c r="G210" s="38"/>
     </row>
-    <row r="211" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A211" s="38"/>
       <c r="B211" s="38" t="s">
         <v>126</v>
@@ -9716,7 +9732,7 @@
       </c>
       <c r="G211" s="38"/>
     </row>
-    <row r="212" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A212" s="38"/>
       <c r="B212" s="38" t="s">
         <v>117</v>
@@ -9731,7 +9747,7 @@
       </c>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A213" s="38"/>
       <c r="B213" s="38" t="s">
         <v>110</v>
@@ -9748,7 +9764,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A214" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A209,3)+1,"000")</f>
         <v>TS039</v>
@@ -9775,7 +9791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A215" s="38" t="s">
         <v>46</v>
       </c>
@@ -9788,7 +9804,7 @@
       <c r="F215" s="37"/>
       <c r="G215" s="38"/>
     </row>
-    <row r="216" spans="1:10" ht="25.5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="25.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A216" s="38"/>
       <c r="B216" s="38" t="s">
         <v>131</v>
@@ -9806,7 +9822,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A217" s="38"/>
       <c r="B217" s="38" t="s">
         <v>117</v>
@@ -9824,7 +9840,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A218" s="38"/>
       <c r="B218" s="38" t="s">
         <v>110</v>
@@ -9842,7 +9858,7 @@
       </c>
       <c r="H218" s="71"/>
     </row>
-    <row r="219" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A219" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A214,3)+1,"000")</f>
         <v>TS040</v>
@@ -9869,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A220" s="38" t="s">
         <v>46</v>
       </c>
@@ -9882,7 +9898,7 @@
       <c r="F220" s="37"/>
       <c r="G220" s="38"/>
     </row>
-    <row r="221" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A221" s="38"/>
       <c r="B221" s="38" t="s">
         <v>131</v>
@@ -9898,7 +9914,7 @@
       <c r="G221" s="75"/>
       <c r="H221" s="84"/>
     </row>
-    <row r="222" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A222" s="38"/>
       <c r="B222" s="38" t="s">
         <v>117</v>
@@ -9913,7 +9929,7 @@
       </c>
       <c r="G222" s="38"/>
     </row>
-    <row r="223" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A223" s="38"/>
       <c r="B223" s="38" t="s">
         <v>110</v>
@@ -9930,18 +9946,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="107" t="s">
+    <row r="224" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="108"/>
-      <c r="C224" s="108"/>
-      <c r="D224" s="108"/>
-      <c r="E224" s="108"/>
-      <c r="F224" s="108"/>
-      <c r="G224" s="108"/>
-    </row>
-    <row r="225" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="120"/>
+      <c r="C224" s="120"/>
+      <c r="D224" s="120"/>
+      <c r="E224" s="120"/>
+      <c r="F224" s="120"/>
+      <c r="G224" s="120"/>
+    </row>
+    <row r="225" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A225" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A219,3)+1,"000")</f>
         <v>TS041</v>
@@ -9968,7 +9984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A226" s="38"/>
       <c r="B226" s="38" t="s">
         <v>137</v>
@@ -9983,7 +9999,7 @@
       </c>
       <c r="G226" s="38"/>
     </row>
-    <row r="227" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A227" s="38"/>
       <c r="B227" s="38" t="s">
         <v>107</v>
@@ -9998,7 +10014,7 @@
       </c>
       <c r="G227" s="38"/>
     </row>
-    <row r="228" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A228" s="38"/>
       <c r="B228" s="38" t="s">
         <v>138</v>
@@ -10015,7 +10031,7 @@
         <v>22082248413</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A229" s="38"/>
       <c r="B229" s="38" t="s">
         <v>140</v>
@@ -10033,7 +10049,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A230" s="38"/>
       <c r="B230" s="38" t="s">
         <v>142</v>
@@ -10051,7 +10067,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A231" s="38"/>
       <c r="B231" s="38" t="s">
         <v>144</v>
@@ -10071,7 +10087,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A232" s="38"/>
       <c r="B232" s="38" t="s">
         <v>148</v>
@@ -10086,7 +10102,7 @@
       </c>
       <c r="G232" s="38"/>
     </row>
-    <row r="233" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A233" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A225,3)+1,"000")</f>
         <v>TS042</v>
@@ -10113,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A234" s="38"/>
       <c r="B234" s="38" t="s">
         <v>151</v>
@@ -10128,7 +10144,7 @@
       </c>
       <c r="G234" s="38"/>
     </row>
-    <row r="235" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A235" s="38"/>
       <c r="B235" s="38" t="s">
         <v>138</v>
@@ -10145,7 +10161,7 @@
         <v>22082248645</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A236" s="38"/>
       <c r="B236" s="38" t="s">
         <v>140</v>
@@ -10163,7 +10179,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A237" s="38"/>
       <c r="B237" s="38" t="s">
         <v>142</v>
@@ -10181,7 +10197,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A238" s="38"/>
       <c r="B238" s="38" t="s">
         <v>144</v>
@@ -10201,7 +10217,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A239" s="38"/>
       <c r="B239" s="38" t="s">
         <v>148</v>
@@ -10216,7 +10232,7 @@
       </c>
       <c r="G239" s="38"/>
     </row>
-    <row r="240" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A240" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A233,3)+1,"000")</f>
         <v>TS043</v>
@@ -10240,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A241" s="38"/>
       <c r="B241" s="38" t="s">
         <v>153</v>
@@ -10260,7 +10276,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A242" s="38"/>
       <c r="B242" s="38" t="s">
         <v>138</v>
@@ -10278,7 +10294,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A243" s="38"/>
       <c r="B243" s="38" t="s">
         <v>140</v>
@@ -10296,7 +10312,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A244" s="38"/>
       <c r="B244" s="38" t="s">
         <v>142</v>
@@ -10314,7 +10330,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A245" s="38"/>
       <c r="B245" s="38" t="s">
         <v>144</v>
@@ -10334,7 +10350,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A246" s="38"/>
       <c r="B246" s="38" t="s">
         <v>148</v>
@@ -10349,7 +10365,7 @@
       </c>
       <c r="G246" s="38"/>
     </row>
-    <row r="247" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A247" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A240,3)+1,"000")</f>
         <v>TS044</v>
@@ -10375,7 +10391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A248" s="38"/>
       <c r="B248" s="38" t="s">
         <v>155</v>
@@ -10395,7 +10411,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A249" s="38"/>
       <c r="B249" s="38" t="s">
         <v>110</v>
@@ -10416,7 +10432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A250" s="38"/>
       <c r="B250" s="38" t="s">
         <v>157</v>
@@ -10431,7 +10447,7 @@
       </c>
       <c r="G250" s="38"/>
     </row>
-    <row r="251" spans="1:10" ht="114.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="114.75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A251" s="38"/>
       <c r="B251" s="38" t="s">
         <v>158</v>
@@ -10451,7 +10467,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A252" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A247,3)+1,"000")</f>
         <v>TS045</v>
@@ -10477,7 +10493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A253" s="38"/>
       <c r="B253" s="38" t="s">
         <v>162</v>
@@ -10495,7 +10511,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A254" s="38"/>
       <c r="B254" s="38" t="s">
         <v>110</v>
@@ -10515,7 +10531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A255" s="38"/>
       <c r="B255" s="38" t="s">
         <v>163</v>
@@ -10533,7 +10549,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A256" s="38"/>
       <c r="B256" s="38" t="s">
         <v>158</v>
@@ -10550,7 +10566,7 @@
         <v>22082248502</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A257" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A252,3)+1,"000")</f>
         <v>TS046</v>
@@ -10576,7 +10592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A258" s="38"/>
       <c r="B258" s="38" t="s">
         <v>166</v>
@@ -10594,7 +10610,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A259" s="38"/>
       <c r="B259" s="38" t="s">
         <v>110</v>
@@ -10614,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A260" s="38"/>
       <c r="B260" s="38" t="s">
         <v>167</v>
@@ -10632,7 +10648,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A261" s="38"/>
       <c r="B261" s="38" t="s">
         <v>158</v>
@@ -10652,7 +10668,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A262" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A257,3)+1,"000")</f>
         <v>TS047</v>
@@ -10675,7 +10691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A263" s="38"/>
       <c r="B263" s="38" t="s">
         <v>169</v>
@@ -10695,7 +10711,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A264" s="38"/>
       <c r="B264" s="38" t="s">
         <v>110</v>
@@ -10715,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A265" s="38"/>
       <c r="B265" s="38" t="s">
         <v>170</v>
@@ -10733,7 +10749,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A266" s="38"/>
       <c r="B266" s="38" t="s">
         <v>158</v>
@@ -10751,7 +10767,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A267" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A262,3)+1,"000")</f>
         <v>TS048</v>
@@ -10772,7 +10788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A268" s="38"/>
       <c r="B268" s="38" t="s">
         <v>172</v>
@@ -10792,7 +10808,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A269" s="38"/>
       <c r="B269" s="38" t="s">
         <v>110</v>
@@ -10812,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A270" s="38"/>
       <c r="B270" s="38" t="s">
         <v>170</v>
@@ -10830,7 +10846,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="271" spans="1:10" s="29" customFormat="1" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" s="29" customFormat="1" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A271" s="38"/>
       <c r="B271" s="38" t="s">
         <v>173</v>
@@ -10848,7 +10864,7 @@
       </c>
       <c r="H271" s="76"/>
     </row>
-    <row r="272" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A272" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A267,3)+1,"000")</f>
         <v>TS049</v>
@@ -10869,7 +10885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A273" s="38"/>
       <c r="B273" s="38" t="s">
         <v>176</v>
@@ -10889,7 +10905,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A274" s="38"/>
       <c r="B274" s="38" t="s">
         <v>110</v>
@@ -10909,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A275" s="38"/>
       <c r="B275" s="38" t="s">
         <v>170</v>
@@ -10927,7 +10943,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A276" s="38"/>
       <c r="B276" s="38" t="s">
         <v>173</v>
@@ -10945,7 +10961,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A277" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A272,3)+1,"000")</f>
         <v>TS050</v>
@@ -10966,7 +10982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A278" s="38"/>
       <c r="B278" s="38" t="s">
         <v>178</v>
@@ -10986,7 +11002,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A279" s="38"/>
       <c r="B279" s="38" t="s">
         <v>110</v>
@@ -11006,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:10" s="29" customFormat="1" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" s="29" customFormat="1" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A280" s="38"/>
       <c r="B280" s="38" t="s">
         <v>179</v>
@@ -11024,7 +11040,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A281" s="38"/>
       <c r="B281" s="38" t="s">
         <v>180</v>
@@ -11042,7 +11058,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="282" spans="1:10" s="29" customFormat="1" ht="13.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" s="29" customFormat="1" ht="13.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A282" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A277,3)+1,"000")</f>
         <v>TS051</v>
@@ -11064,7 +11080,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A283" s="38"/>
       <c r="B283" s="38" t="s">
         <v>184</v>
@@ -11087,7 +11103,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="284" spans="1:10" s="40" customFormat="1" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" s="40" customFormat="1" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A284" s="38"/>
       <c r="B284" s="38" t="s">
         <v>110</v>
@@ -11108,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A285" s="38"/>
       <c r="B285" s="38" t="s">
         <v>179</v>
@@ -11123,7 +11139,7 @@
       </c>
       <c r="G285" s="38"/>
     </row>
-    <row r="286" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A286" s="38"/>
       <c r="B286" s="38" t="s">
         <v>180</v>
@@ -11138,7 +11154,7 @@
       </c>
       <c r="G286" s="38"/>
     </row>
-    <row r="287" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A287" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A282,3)+1,"000")</f>
         <v>TS052</v>
@@ -11159,7 +11175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A288" s="38"/>
       <c r="B288" s="38" t="s">
         <v>189</v>
@@ -11179,7 +11195,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A289" s="38"/>
       <c r="B289" s="38" t="s">
         <v>110</v>
@@ -11202,7 +11218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A290" s="38"/>
       <c r="B290" s="38" t="s">
         <v>157</v>
@@ -11217,7 +11233,7 @@
       </c>
       <c r="G290" s="38"/>
     </row>
-    <row r="291" spans="1:10" ht="114.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="114.75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A291" s="38"/>
       <c r="B291" s="38" t="s">
         <v>158</v>
@@ -11235,7 +11251,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A292" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A287,3)+1,"000")</f>
         <v>TS053</v>
@@ -11256,7 +11272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A293" s="38"/>
       <c r="B293" s="38" t="s">
         <v>192</v>
@@ -11273,7 +11289,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A294" s="38"/>
       <c r="B294" s="38" t="s">
         <v>110</v>
@@ -11296,7 +11312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A295" s="38"/>
       <c r="B295" s="38" t="s">
         <v>163</v>
@@ -11314,7 +11330,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="114.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="114.75" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A296" s="38"/>
       <c r="B296" s="38" t="s">
         <v>158</v>
@@ -11332,7 +11348,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A297" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A292,3)+1,"000")</f>
         <v>TS054</v>
@@ -11353,7 +11369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A298" s="38"/>
       <c r="B298" s="38" t="s">
         <v>195</v>
@@ -11373,7 +11389,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A299" s="38"/>
       <c r="B299" s="38" t="s">
         <v>110</v>
@@ -11396,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A300" s="38"/>
       <c r="B300" s="38" t="s">
         <v>167</v>
@@ -11411,7 +11427,7 @@
       </c>
       <c r="G300" s="38"/>
     </row>
-    <row r="301" spans="1:10" ht="127.5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="127.5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A301" s="38"/>
       <c r="B301" s="38" t="s">
         <v>158</v>
@@ -11428,20 +11444,19 @@
         <v>160</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="34" t="str">
-        <f>"TS"&amp;TEXT(RIGHT(A297,3)+1,"000")</f>
-        <v>TS055</v>
+    <row r="302" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="107" t="s">
+        <v>1105</v>
       </c>
       <c r="B302" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="C302" s="35" t="s">
+      <c r="C302" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="D302" s="35"/>
-      <c r="E302" s="35"/>
-      <c r="F302" s="35"/>
+      <c r="D302" s="108"/>
+      <c r="E302" s="108"/>
+      <c r="F302" s="108"/>
       <c r="G302" s="39" t="s">
         <v>182</v>
       </c>
@@ -11449,8 +11464,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A303" s="38"/>
+    <row r="303" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A303" s="38" t="s">
+        <v>1105</v>
+      </c>
       <c r="B303" s="38" t="s">
         <v>198</v>
       </c>
@@ -11469,8 +11486,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A304" s="38"/>
+    <row r="304" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A304" s="38" t="s">
+        <v>1105</v>
+      </c>
       <c r="B304" s="38" t="s">
         <v>110</v>
       </c>
@@ -11492,8 +11511,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A305" s="38"/>
+    <row r="305" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A305" s="38" t="s">
+        <v>1105</v>
+      </c>
       <c r="B305" s="38" t="s">
         <v>170</v>
       </c>
@@ -11507,7 +11528,7 @@
       </c>
       <c r="G305" s="38"/>
     </row>
-    <row r="306" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A306" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A302,3)+1,"000")</f>
         <v>TS056</v>
@@ -11528,7 +11549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A307" s="38"/>
       <c r="B307" s="38" t="s">
         <v>201</v>
@@ -11548,7 +11569,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A308" s="38"/>
       <c r="B308" s="38" t="s">
         <v>110</v>
@@ -11571,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A309" s="38"/>
       <c r="B309" s="38" t="s">
         <v>170</v>
@@ -11586,7 +11607,7 @@
       </c>
       <c r="G309" s="38"/>
     </row>
-    <row r="310" spans="1:10" s="29" customFormat="1" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" s="29" customFormat="1" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A310" s="38"/>
       <c r="B310" s="38" t="s">
         <v>173</v>
@@ -11602,7 +11623,7 @@
       <c r="G310" s="38"/>
       <c r="H310" s="76"/>
     </row>
-    <row r="311" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A311" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A306,3)+1,"000")</f>
         <v>TS057</v>
@@ -11623,7 +11644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A312" s="38"/>
       <c r="B312" s="38" t="s">
         <v>205</v>
@@ -11643,7 +11664,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A313" s="38"/>
       <c r="B313" s="38" t="s">
         <v>110</v>
@@ -11666,7 +11687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A314" s="38"/>
       <c r="B314" s="38" t="s">
         <v>170</v>
@@ -11681,7 +11702,7 @@
       </c>
       <c r="G314" s="38"/>
     </row>
-    <row r="315" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A315" s="38"/>
       <c r="B315" s="38" t="s">
         <v>173</v>
@@ -11699,7 +11720,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A311,3)+1,"000")</f>
         <v>TS058</v>
@@ -11720,7 +11741,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A317" s="38"/>
       <c r="B317" s="38" t="s">
         <v>210</v>
@@ -11740,7 +11761,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A318" s="38"/>
       <c r="B318" s="38" t="s">
         <v>110</v>
@@ -11763,7 +11784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:10" s="29" customFormat="1" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" s="29" customFormat="1" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A319" s="38"/>
       <c r="B319" s="38" t="s">
         <v>179</v>
@@ -11779,7 +11800,7 @@
       <c r="G319" s="38"/>
       <c r="H319" s="76"/>
     </row>
-    <row r="320" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A320" s="38"/>
       <c r="B320" s="38" t="s">
         <v>180</v>
@@ -11794,7 +11815,7 @@
       </c>
       <c r="G320" s="38"/>
     </row>
-    <row r="321" spans="1:9" s="29" customFormat="1" ht="13.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" s="29" customFormat="1" ht="13.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A321" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A316,3)+1,"000")</f>
         <v>TS059</v>
@@ -11815,7 +11836,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="38.25" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="38.25" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A322" s="38"/>
       <c r="B322" s="38" t="s">
         <v>213</v>
@@ -11838,7 +11859,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="40" customFormat="1" ht="45" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" s="40" customFormat="1" ht="45" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A323" s="38"/>
       <c r="B323" s="38" t="s">
         <v>110</v>
@@ -11858,7 +11879,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A324" s="38"/>
       <c r="B324" s="38" t="s">
         <v>179</v>
@@ -11873,7 +11894,7 @@
       </c>
       <c r="G324" s="38"/>
     </row>
-    <row r="325" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A325" s="38"/>
       <c r="B325" s="38" t="s">
         <v>180</v>
@@ -11888,19 +11909,19 @@
       </c>
       <c r="G325" s="38"/>
     </row>
-    <row r="326" spans="1:9" s="29" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="107" t="s">
+    <row r="326" spans="1:9" s="29" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="119" t="s">
         <v>215</v>
       </c>
-      <c r="B326" s="108"/>
-      <c r="C326" s="108"/>
-      <c r="D326" s="108"/>
-      <c r="E326" s="108"/>
-      <c r="F326" s="108"/>
-      <c r="G326" s="108"/>
+      <c r="B326" s="120"/>
+      <c r="C326" s="120"/>
+      <c r="D326" s="120"/>
+      <c r="E326" s="120"/>
+      <c r="F326" s="120"/>
+      <c r="G326" s="120"/>
       <c r="H326" s="76"/>
     </row>
-    <row r="327" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A327" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A321,3)+1,"000")</f>
         <v>TS060</v>
@@ -11924,7 +11945,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A328" s="38"/>
       <c r="B328" s="38" t="s">
         <v>218</v>
@@ -11939,7 +11960,7 @@
       </c>
       <c r="G328" s="38"/>
     </row>
-    <row r="329" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A329" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A327,3)+1,"000")</f>
         <v>TS061</v>
@@ -11963,7 +11984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A330" s="38"/>
       <c r="B330" s="38" t="s">
         <v>220</v>
@@ -11978,7 +11999,7 @@
       </c>
       <c r="G330" s="38"/>
     </row>
-    <row r="331" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A331" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A329,3)+1,"000")</f>
         <v>TS062</v>
@@ -12002,7 +12023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A332" s="38"/>
       <c r="B332" s="38" t="s">
         <v>218</v>
@@ -12017,7 +12038,7 @@
       </c>
       <c r="G332" s="38"/>
     </row>
-    <row r="333" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A333" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A331,3)+1,"000")</f>
         <v>TS063</v>
@@ -12041,7 +12062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A334" s="38"/>
       <c r="B334" s="38" t="s">
         <v>220</v>
@@ -12056,7 +12077,7 @@
       </c>
       <c r="G334" s="38"/>
     </row>
-    <row r="335" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A333,3)+1,"000")</f>
         <v>TS064</v>
@@ -12080,7 +12101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A336" s="38"/>
       <c r="B336" s="38" t="s">
         <v>218</v>
@@ -12095,7 +12116,7 @@
       </c>
       <c r="G336" s="38"/>
     </row>
-    <row r="337" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A337" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A335,3)+1,"000")</f>
         <v>TS065</v>
@@ -12119,7 +12140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A338" s="38"/>
       <c r="B338" s="38" t="s">
         <v>220</v>
@@ -12134,7 +12155,7 @@
       </c>
       <c r="G338" s="38"/>
     </row>
-    <row r="339" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A339" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A337,3)+1,"000")</f>
         <v>TS066</v>
@@ -12155,7 +12176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A340" s="38"/>
       <c r="B340" s="38" t="s">
         <v>227</v>
@@ -12173,7 +12194,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="13.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="13.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A341" s="38"/>
       <c r="B341" s="38" t="s">
         <v>228</v>
@@ -12191,7 +12212,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="13.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="13.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A342" s="38"/>
       <c r="B342" s="38" t="s">
         <v>229</v>
@@ -12209,7 +12230,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="13.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="13.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A343" s="38"/>
       <c r="B343" s="38" t="s">
         <v>230</v>
@@ -12229,7 +12250,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="13.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="13.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A344" s="38"/>
       <c r="B344" s="38" t="s">
         <v>232</v>
@@ -12247,7 +12268,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="13.15" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" ht="13.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A345" s="38"/>
       <c r="B345" s="38" t="s">
         <v>233</v>
@@ -12265,7 +12286,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A346" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A339,3)+1,"000")</f>
         <v>TS067</v>
@@ -12286,7 +12307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A347" s="38"/>
       <c r="B347" s="38" t="s">
         <v>227</v>
@@ -12304,7 +12325,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A348" s="38"/>
       <c r="B348" s="38" t="s">
         <v>228</v>
@@ -12322,7 +12343,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A349" s="38"/>
       <c r="B349" s="38" t="s">
         <v>229</v>
@@ -12340,7 +12361,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A350" s="38"/>
       <c r="B350" s="38" t="s">
         <v>230</v>
@@ -12358,7 +12379,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A351" s="38"/>
       <c r="B351" s="38" t="s">
         <v>232</v>
@@ -12376,7 +12397,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A352" s="38"/>
       <c r="B352" s="38" t="s">
         <v>233</v>
@@ -12394,7 +12415,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A346,3)+1,"000")</f>
         <v>TS068</v>
@@ -12415,7 +12436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A354" s="38"/>
       <c r="B354" s="38" t="s">
         <v>227</v>
@@ -12433,7 +12454,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A355" s="38"/>
       <c r="B355" s="38" t="s">
         <v>228</v>
@@ -12451,7 +12472,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A356" s="38"/>
       <c r="B356" s="38" t="s">
         <v>229</v>
@@ -12469,7 +12490,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A357" s="38"/>
       <c r="B357" s="38" t="s">
         <v>230</v>
@@ -12487,7 +12508,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A358" s="38"/>
       <c r="B358" s="38" t="s">
         <v>232</v>
@@ -12505,7 +12526,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A359" s="38"/>
       <c r="B359" s="38" t="s">
         <v>233</v>
@@ -12523,19 +12544,19 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="360" spans="1:9" s="29" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="107" t="s">
+    <row r="360" spans="1:9" s="29" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="119" t="s">
         <v>236</v>
       </c>
-      <c r="B360" s="108"/>
-      <c r="C360" s="108"/>
-      <c r="D360" s="108"/>
-      <c r="E360" s="108"/>
-      <c r="F360" s="108"/>
-      <c r="G360" s="108"/>
+      <c r="B360" s="120"/>
+      <c r="C360" s="120"/>
+      <c r="D360" s="120"/>
+      <c r="E360" s="120"/>
+      <c r="F360" s="120"/>
+      <c r="G360" s="120"/>
       <c r="H360" s="76"/>
     </row>
-    <row r="361" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A361" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A353,3)+1,"000")</f>
         <v>TS069</v>
@@ -12556,7 +12577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A362" s="38" t="s">
         <v>46</v>
       </c>
@@ -12571,7 +12592,7 @@
         <v>22082248433</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A363" s="38"/>
       <c r="B363" s="38" t="s">
         <v>240</v>
@@ -12591,7 +12612,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A364" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A361,3)+1,"000")</f>
         <v>TS070</v>
@@ -12612,7 +12633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A365" s="38" t="s">
         <v>46</v>
       </c>
@@ -12627,7 +12648,7 @@
         <v>22082248436</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A366" s="38"/>
       <c r="B366" s="38" t="s">
         <v>240</v>
@@ -12647,7 +12668,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A367" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A364,3)+1,"000")</f>
         <v>TS071</v>
@@ -12668,7 +12689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A368" s="38" t="s">
         <v>46</v>
       </c>
@@ -12683,7 +12704,7 @@
         <v>22082248435</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A369" s="38"/>
       <c r="B369" s="38" t="s">
         <v>240</v>
@@ -12703,7 +12724,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A370" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A367,3)+1,"000")</f>
         <v>TS072</v>
@@ -12724,7 +12745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A371" s="38" t="s">
         <v>46</v>
       </c>
@@ -12739,7 +12760,7 @@
         <v>22082248443</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A372" s="38"/>
       <c r="B372" s="38" t="s">
         <v>240</v>
@@ -12759,7 +12780,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A373" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A370,3)+1,"000")</f>
         <v>TS073</v>
@@ -12780,7 +12801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A374" s="38" t="s">
         <v>46</v>
       </c>
@@ -12795,7 +12816,7 @@
         <v>22082248394</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A375" s="38"/>
       <c r="B375" s="38" t="s">
         <v>240</v>
@@ -12815,7 +12836,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A376" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A373,3)+1,"000")</f>
         <v>TS074</v>
@@ -12834,7 +12855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A377" s="38" t="s">
         <v>46</v>
       </c>
@@ -12849,7 +12870,7 @@
         <v>22082248402</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A378" s="38"/>
       <c r="B378" s="38" t="s">
         <v>240</v>
@@ -12869,7 +12890,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A379" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A376,3)+1,"000")</f>
         <v>TS075</v>
@@ -12890,7 +12911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A380" s="38" t="s">
         <v>46</v>
       </c>
@@ -12905,7 +12926,7 @@
         <v>22082248433</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A381" s="38"/>
       <c r="B381" s="38" t="s">
         <v>240</v>
@@ -12925,7 +12946,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A382" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A379,3)+1,"000")</f>
         <v>TS076</v>
@@ -12946,7 +12967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A383" s="38" t="s">
         <v>46</v>
       </c>
@@ -12961,7 +12982,7 @@
         <v>22082248436</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A384" s="38"/>
       <c r="B384" s="38" t="s">
         <v>240</v>
@@ -12981,7 +13002,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A385" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A382,3)+1,"000")</f>
         <v>TS077</v>
@@ -13002,7 +13023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A386" s="38" t="s">
         <v>46</v>
       </c>
@@ -13017,7 +13038,7 @@
         <v>22082248435</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A387" s="38"/>
       <c r="B387" s="38" t="s">
         <v>240</v>
@@ -13037,7 +13058,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A388" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A385,3)+1,"000")</f>
         <v>TS078</v>
@@ -13059,7 +13080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A389" s="38" t="s">
         <v>46</v>
       </c>
@@ -13074,7 +13095,7 @@
         <v>22082248443</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A390" s="38"/>
       <c r="B390" s="38" t="s">
         <v>240</v>
@@ -13094,7 +13115,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A391" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A388,3)+1,"000")</f>
         <v>TS079</v>
@@ -13113,7 +13134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A392" s="38" t="s">
         <v>46</v>
       </c>
@@ -13128,7 +13149,7 @@
         <v>22082248394</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A393" s="38"/>
       <c r="B393" s="38" t="s">
         <v>240</v>
@@ -13148,7 +13169,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A394" s="34" t="str">
         <f>"TS"&amp;TEXT(RIGHT(A391,3)+1,"000")</f>
         <v>TS080</v>
@@ -13167,7 +13188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A395" s="38" t="s">
         <v>46</v>
       </c>
@@ -13182,7 +13203,7 @@
         <v>22082248402</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="13.9" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" ht="13.9" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A396" s="38"/>
       <c r="B396" s="38" t="s">
         <v>240</v>
@@ -13203,15 +13224,15 @@
       </c>
     </row>
     <row r="397" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="109" t="s">
+      <c r="A397" s="112" t="s">
         <v>257</v>
       </c>
-      <c r="B397" s="110"/>
-      <c r="C397" s="110"/>
-      <c r="D397" s="110"/>
-      <c r="E397" s="110"/>
-      <c r="F397" s="110"/>
-      <c r="G397" s="110"/>
+      <c r="B397" s="113"/>
+      <c r="C397" s="113"/>
+      <c r="D397" s="113"/>
+      <c r="E397" s="113"/>
+      <c r="F397" s="113"/>
+      <c r="G397" s="113"/>
     </row>
     <row r="398" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A398" s="34" t="str">
@@ -13495,15 +13516,15 @@
       <c r="G412" s="38"/>
     </row>
     <row r="413" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="109" t="s">
+      <c r="A413" s="112" t="s">
         <v>277</v>
       </c>
-      <c r="B413" s="110"/>
-      <c r="C413" s="110"/>
-      <c r="D413" s="110"/>
-      <c r="E413" s="110"/>
-      <c r="F413" s="110"/>
-      <c r="G413" s="110"/>
+      <c r="B413" s="113"/>
+      <c r="C413" s="113"/>
+      <c r="D413" s="113"/>
+      <c r="E413" s="113"/>
+      <c r="F413" s="113"/>
+      <c r="G413" s="113"/>
     </row>
     <row r="414" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A414" s="34" t="str">
@@ -13542,26 +13563,26 @@
       <c r="G415" s="38"/>
     </row>
     <row r="416" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="109" t="s">
+      <c r="A416" s="112" t="s">
         <v>281</v>
       </c>
-      <c r="B416" s="110"/>
-      <c r="C416" s="110"/>
-      <c r="D416" s="110"/>
-      <c r="E416" s="110"/>
-      <c r="F416" s="110"/>
-      <c r="G416" s="110"/>
+      <c r="B416" s="113"/>
+      <c r="C416" s="113"/>
+      <c r="D416" s="113"/>
+      <c r="E416" s="113"/>
+      <c r="F416" s="113"/>
+      <c r="G416" s="113"/>
     </row>
     <row r="417" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="111" t="s">
+      <c r="A417" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B417" s="112"/>
-      <c r="C417" s="112"/>
-      <c r="D417" s="112"/>
-      <c r="E417" s="112"/>
-      <c r="F417" s="112"/>
-      <c r="G417" s="113"/>
+      <c r="B417" s="110"/>
+      <c r="C417" s="110"/>
+      <c r="D417" s="110"/>
+      <c r="E417" s="110"/>
+      <c r="F417" s="110"/>
+      <c r="G417" s="111"/>
     </row>
     <row r="418" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A418" s="34" t="str">
@@ -13578,7 +13599,7 @@
       <c r="E418" s="48"/>
       <c r="F418" s="47"/>
       <c r="G418" s="28"/>
-      <c r="H418" s="1" t="s">
+      <c r="H418" s="118" t="s">
         <v>284</v>
       </c>
       <c r="I418" s="33" t="s">
@@ -13599,7 +13620,7 @@
         <v>146</v>
       </c>
       <c r="G419" s="38"/>
-      <c r="H419" s="1"/>
+      <c r="H419" s="118"/>
     </row>
     <row r="420" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A420" s="38"/>
@@ -13615,7 +13636,7 @@
         <v>146</v>
       </c>
       <c r="G420" s="38"/>
-      <c r="H420" s="1"/>
+      <c r="H420" s="118"/>
     </row>
     <row r="421" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A421" s="38"/>
@@ -13631,7 +13652,7 @@
         <v>146</v>
       </c>
       <c r="G421" s="38"/>
-      <c r="H421" s="1"/>
+      <c r="H421" s="118"/>
     </row>
     <row r="422" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A422" s="38"/>
@@ -13647,7 +13668,7 @@
         <v>146</v>
       </c>
       <c r="G422" s="38"/>
-      <c r="H422" s="1"/>
+      <c r="H422" s="118"/>
     </row>
     <row r="423" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A423" s="38"/>
@@ -13663,7 +13684,7 @@
         <v>146</v>
       </c>
       <c r="G423" s="38"/>
-      <c r="H423" s="1"/>
+      <c r="H423" s="118"/>
     </row>
     <row r="424" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A424" s="34" t="str">
@@ -13680,7 +13701,7 @@
       <c r="E424" s="48"/>
       <c r="F424" s="35"/>
       <c r="G424" s="39"/>
-      <c r="H424" s="1"/>
+      <c r="H424" s="118"/>
       <c r="I424" s="33" t="s">
         <v>146</v>
       </c>
@@ -13699,7 +13720,7 @@
         <v>146</v>
       </c>
       <c r="G425" s="38"/>
-      <c r="H425" s="1"/>
+      <c r="H425" s="118"/>
     </row>
     <row r="426" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A426" s="34" t="str">
@@ -13716,7 +13737,7 @@
       <c r="E426" s="48"/>
       <c r="F426" s="35"/>
       <c r="G426" s="39"/>
-      <c r="H426" s="1"/>
+      <c r="H426" s="118"/>
       <c r="I426" s="33" t="s">
         <v>146</v>
       </c>
@@ -13735,7 +13756,7 @@
         <v>146</v>
       </c>
       <c r="G427" s="38"/>
-      <c r="H427" s="1"/>
+      <c r="H427" s="118"/>
     </row>
     <row r="428" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A428" s="38"/>
@@ -13751,7 +13772,7 @@
         <v>146</v>
       </c>
       <c r="G428" s="38"/>
-      <c r="H428" s="1"/>
+      <c r="H428" s="118"/>
     </row>
     <row r="429" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A429" s="38"/>
@@ -13767,7 +13788,7 @@
         <v>146</v>
       </c>
       <c r="G429" s="38"/>
-      <c r="H429" s="1"/>
+      <c r="H429" s="118"/>
     </row>
     <row r="430" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A430" s="38"/>
@@ -13783,7 +13804,7 @@
         <v>146</v>
       </c>
       <c r="G430" s="38"/>
-      <c r="H430" s="1"/>
+      <c r="H430" s="118"/>
     </row>
     <row r="431" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A431" s="38"/>
@@ -13799,7 +13820,7 @@
         <v>146</v>
       </c>
       <c r="G431" s="38"/>
-      <c r="H431" s="1"/>
+      <c r="H431" s="118"/>
     </row>
     <row r="432" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A432" s="38"/>
@@ -13815,7 +13836,7 @@
         <v>146</v>
       </c>
       <c r="G432" s="38"/>
-      <c r="H432" s="1"/>
+      <c r="H432" s="118"/>
     </row>
     <row r="433" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A433" s="38"/>
@@ -13831,7 +13852,7 @@
         <v>146</v>
       </c>
       <c r="G433" s="38"/>
-      <c r="H433" s="1"/>
+      <c r="H433" s="118"/>
     </row>
     <row r="434" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A434" s="38"/>
@@ -13847,7 +13868,7 @@
         <v>146</v>
       </c>
       <c r="G434" s="38"/>
-      <c r="H434" s="1"/>
+      <c r="H434" s="118"/>
     </row>
     <row r="435" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A435" s="38"/>
@@ -13863,7 +13884,7 @@
         <v>146</v>
       </c>
       <c r="G435" s="38"/>
-      <c r="H435" s="1"/>
+      <c r="H435" s="118"/>
     </row>
     <row r="436" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A436" s="38"/>
@@ -13879,7 +13900,7 @@
         <v>146</v>
       </c>
       <c r="G436" s="38"/>
-      <c r="H436" s="1"/>
+      <c r="H436" s="118"/>
     </row>
     <row r="437" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A437" s="38"/>
@@ -13895,7 +13916,7 @@
         <v>146</v>
       </c>
       <c r="G437" s="38"/>
-      <c r="H437" s="1"/>
+      <c r="H437" s="118"/>
     </row>
     <row r="438" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A438" s="38"/>
@@ -13911,7 +13932,7 @@
         <v>146</v>
       </c>
       <c r="G438" s="38"/>
-      <c r="H438" s="1"/>
+      <c r="H438" s="118"/>
     </row>
     <row r="439" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A439" s="38"/>
@@ -13927,7 +13948,7 @@
         <v>146</v>
       </c>
       <c r="G439" s="38"/>
-      <c r="H439" s="1"/>
+      <c r="H439" s="118"/>
     </row>
     <row r="440" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A440" s="34" t="str">
@@ -13944,7 +13965,7 @@
       <c r="E440" s="48"/>
       <c r="F440" s="35"/>
       <c r="G440" s="39"/>
-      <c r="H440" s="1"/>
+      <c r="H440" s="118"/>
       <c r="I440" s="33" t="s">
         <v>146</v>
       </c>
@@ -13963,7 +13984,7 @@
         <v>146</v>
       </c>
       <c r="G441" s="38"/>
-      <c r="H441" s="1"/>
+      <c r="H441" s="118"/>
     </row>
     <row r="442" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A442" s="38"/>
@@ -13979,7 +14000,7 @@
         <v>146</v>
       </c>
       <c r="G442" s="38"/>
-      <c r="H442" s="1"/>
+      <c r="H442" s="118"/>
     </row>
     <row r="443" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A443" s="38"/>
@@ -13995,7 +14016,7 @@
         <v>146</v>
       </c>
       <c r="G443" s="38"/>
-      <c r="H443" s="1"/>
+      <c r="H443" s="118"/>
     </row>
     <row r="444" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A444" s="38"/>
@@ -14011,18 +14032,18 @@
         <v>146</v>
       </c>
       <c r="G444" s="38"/>
-      <c r="H444" s="1"/>
+      <c r="H444" s="118"/>
     </row>
     <row r="445" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="111" t="s">
+      <c r="A445" s="109" t="s">
         <v>336</v>
       </c>
-      <c r="B445" s="112"/>
-      <c r="C445" s="112"/>
-      <c r="D445" s="112"/>
-      <c r="E445" s="112"/>
-      <c r="F445" s="112"/>
-      <c r="G445" s="113"/>
+      <c r="B445" s="110"/>
+      <c r="C445" s="110"/>
+      <c r="D445" s="110"/>
+      <c r="E445" s="110"/>
+      <c r="F445" s="110"/>
+      <c r="G445" s="111"/>
     </row>
     <row r="446" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A446" s="34" t="str">
@@ -14449,7 +14470,7 @@
       <c r="E467" s="48"/>
       <c r="F467" s="35"/>
       <c r="G467" s="39"/>
-      <c r="H467" s="1" t="s">
+      <c r="H467" s="118" t="s">
         <v>284</v>
       </c>
       <c r="I467" s="33" t="s">
@@ -14468,7 +14489,7 @@
       <c r="E468" s="37"/>
       <c r="F468" s="37"/>
       <c r="G468" s="38"/>
-      <c r="H468" s="1"/>
+      <c r="H468" s="118"/>
     </row>
     <row r="469" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A469" s="38"/>
@@ -14484,7 +14505,7 @@
         <v>146</v>
       </c>
       <c r="G469" s="38"/>
-      <c r="H469" s="1"/>
+      <c r="H469" s="118"/>
     </row>
     <row r="470" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A470" s="38"/>
@@ -14500,7 +14521,7 @@
         <v>146</v>
       </c>
       <c r="G470" s="38"/>
-      <c r="H470" s="1"/>
+      <c r="H470" s="118"/>
     </row>
     <row r="471" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A471" s="38"/>
@@ -14516,7 +14537,7 @@
         <v>146</v>
       </c>
       <c r="G471" s="38"/>
-      <c r="H471" s="1"/>
+      <c r="H471" s="118"/>
     </row>
     <row r="472" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A472" s="38"/>
@@ -14532,7 +14553,7 @@
         <v>146</v>
       </c>
       <c r="G472" s="38"/>
-      <c r="H472" s="1"/>
+      <c r="H472" s="118"/>
     </row>
     <row r="473" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A473" s="38"/>
@@ -14548,7 +14569,7 @@
         <v>146</v>
       </c>
       <c r="G473" s="38"/>
-      <c r="H473" s="1"/>
+      <c r="H473" s="118"/>
     </row>
     <row r="474" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A474" s="34" t="str">
@@ -14980,7 +15001,7 @@
       <c r="E495" s="48"/>
       <c r="F495" s="35"/>
       <c r="G495" s="39"/>
-      <c r="H495" s="1" t="s">
+      <c r="H495" s="118" t="s">
         <v>284</v>
       </c>
       <c r="I495" s="33" t="s">
@@ -14999,7 +15020,7 @@
       <c r="E496" s="37"/>
       <c r="F496" s="37"/>
       <c r="G496" s="38"/>
-      <c r="H496" s="1"/>
+      <c r="H496" s="118"/>
     </row>
     <row r="497" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A497" s="38"/>
@@ -15015,7 +15036,7 @@
         <v>146</v>
       </c>
       <c r="G497" s="38"/>
-      <c r="H497" s="1"/>
+      <c r="H497" s="118"/>
     </row>
     <row r="498" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A498" s="38"/>
@@ -15031,7 +15052,7 @@
         <v>146</v>
       </c>
       <c r="G498" s="38"/>
-      <c r="H498" s="1"/>
+      <c r="H498" s="118"/>
     </row>
     <row r="499" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A499" s="38"/>
@@ -15047,7 +15068,7 @@
         <v>146</v>
       </c>
       <c r="G499" s="38"/>
-      <c r="H499" s="1"/>
+      <c r="H499" s="118"/>
     </row>
     <row r="500" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A500" s="38"/>
@@ -15063,7 +15084,7 @@
         <v>146</v>
       </c>
       <c r="G500" s="38"/>
-      <c r="H500" s="1"/>
+      <c r="H500" s="118"/>
     </row>
     <row r="501" spans="1:10" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A501" s="38"/>
@@ -15079,29 +15100,29 @@
         <v>146</v>
       </c>
       <c r="G501" s="38"/>
-      <c r="H501" s="1"/>
+      <c r="H501" s="118"/>
     </row>
     <row r="502" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="109" t="s">
+      <c r="A502" s="112" t="s">
         <v>396</v>
       </c>
-      <c r="B502" s="110"/>
-      <c r="C502" s="110"/>
-      <c r="D502" s="110"/>
-      <c r="E502" s="110"/>
-      <c r="F502" s="110"/>
-      <c r="G502" s="110"/>
+      <c r="B502" s="113"/>
+      <c r="C502" s="113"/>
+      <c r="D502" s="113"/>
+      <c r="E502" s="113"/>
+      <c r="F502" s="113"/>
+      <c r="G502" s="113"/>
     </row>
     <row r="503" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="111" t="s">
+      <c r="A503" s="109" t="s">
         <v>397</v>
       </c>
-      <c r="B503" s="112"/>
-      <c r="C503" s="112"/>
-      <c r="D503" s="112"/>
-      <c r="E503" s="112"/>
-      <c r="F503" s="112"/>
-      <c r="G503" s="113"/>
+      <c r="B503" s="110"/>
+      <c r="C503" s="110"/>
+      <c r="D503" s="110"/>
+      <c r="E503" s="110"/>
+      <c r="F503" s="110"/>
+      <c r="G503" s="111"/>
     </row>
     <row r="504" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A504" s="34" t="str">
@@ -15131,12 +15152,12 @@
       <c r="B505" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="C505" s="119"/>
-      <c r="D505" s="120"/>
-      <c r="E505" s="120"/>
-      <c r="F505" s="121"/>
-      <c r="G505" s="121"/>
-      <c r="H505" s="122"/>
+      <c r="C505" s="114"/>
+      <c r="D505" s="115"/>
+      <c r="E505" s="115"/>
+      <c r="F505" s="116"/>
+      <c r="G505" s="116"/>
+      <c r="H505" s="117"/>
       <c r="I505" s="89"/>
       <c r="J505" s="90"/>
     </row>
@@ -15156,15 +15177,15 @@
       <c r="G506" s="38"/>
     </row>
     <row r="507" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="111" t="s">
+      <c r="A507" s="109" t="s">
         <v>403</v>
       </c>
-      <c r="B507" s="112"/>
-      <c r="C507" s="112"/>
-      <c r="D507" s="112"/>
-      <c r="E507" s="112"/>
-      <c r="F507" s="112"/>
-      <c r="G507" s="113"/>
+      <c r="B507" s="110"/>
+      <c r="C507" s="110"/>
+      <c r="D507" s="110"/>
+      <c r="E507" s="110"/>
+      <c r="F507" s="110"/>
+      <c r="G507" s="111"/>
     </row>
     <row r="508" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A508" s="34" t="str">
@@ -15268,26 +15289,26 @@
       <c r="G513" s="38"/>
     </row>
     <row r="514" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="109" t="s">
+      <c r="A514" s="112" t="s">
         <v>410</v>
       </c>
-      <c r="B514" s="110"/>
-      <c r="C514" s="110"/>
-      <c r="D514" s="110"/>
-      <c r="E514" s="110"/>
-      <c r="F514" s="110"/>
-      <c r="G514" s="110"/>
+      <c r="B514" s="113"/>
+      <c r="C514" s="113"/>
+      <c r="D514" s="113"/>
+      <c r="E514" s="113"/>
+      <c r="F514" s="113"/>
+      <c r="G514" s="113"/>
     </row>
     <row r="515" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="111" t="s">
+      <c r="A515" s="109" t="s">
         <v>411</v>
       </c>
-      <c r="B515" s="112"/>
-      <c r="C515" s="112"/>
-      <c r="D515" s="112"/>
-      <c r="E515" s="112"/>
-      <c r="F515" s="112"/>
-      <c r="G515" s="113"/>
+      <c r="B515" s="110"/>
+      <c r="C515" s="110"/>
+      <c r="D515" s="110"/>
+      <c r="E515" s="110"/>
+      <c r="F515" s="110"/>
+      <c r="G515" s="111"/>
     </row>
     <row r="516" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A516" s="34" t="str">
@@ -16070,15 +16091,15 @@
       <c r="I555" s="50"/>
     </row>
     <row r="556" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="111" t="s">
+      <c r="A556" s="109" t="s">
         <v>429</v>
       </c>
-      <c r="B556" s="112"/>
-      <c r="C556" s="112"/>
-      <c r="D556" s="112"/>
-      <c r="E556" s="112"/>
-      <c r="F556" s="112"/>
-      <c r="G556" s="113"/>
+      <c r="B556" s="110"/>
+      <c r="C556" s="110"/>
+      <c r="D556" s="110"/>
+      <c r="E556" s="110"/>
+      <c r="F556" s="110"/>
+      <c r="G556" s="111"/>
     </row>
     <row r="557" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A557" s="34" t="str">
@@ -16316,15 +16337,15 @@
       </c>
     </row>
     <row r="569" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="111" t="s">
+      <c r="A569" s="109" t="s">
         <v>440</v>
       </c>
-      <c r="B569" s="112"/>
-      <c r="C569" s="112"/>
-      <c r="D569" s="112"/>
-      <c r="E569" s="112"/>
-      <c r="F569" s="112"/>
-      <c r="G569" s="113"/>
+      <c r="B569" s="110"/>
+      <c r="C569" s="110"/>
+      <c r="D569" s="110"/>
+      <c r="E569" s="110"/>
+      <c r="F569" s="110"/>
+      <c r="G569" s="111"/>
     </row>
     <row r="570" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A570" s="34" t="str">
@@ -16717,15 +16738,15 @@
       </c>
     </row>
     <row r="590" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="111" t="s">
+      <c r="A590" s="109" t="s">
         <v>453</v>
       </c>
-      <c r="B590" s="112"/>
-      <c r="C590" s="112"/>
-      <c r="D590" s="112"/>
-      <c r="E590" s="112"/>
-      <c r="F590" s="112"/>
-      <c r="G590" s="113"/>
+      <c r="B590" s="110"/>
+      <c r="C590" s="110"/>
+      <c r="D590" s="110"/>
+      <c r="E590" s="110"/>
+      <c r="F590" s="110"/>
+      <c r="G590" s="111"/>
     </row>
     <row r="591" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A591" s="34" t="str">
@@ -17002,15 +17023,15 @@
       </c>
     </row>
     <row r="605" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="111" t="s">
+      <c r="A605" s="109" t="s">
         <v>466</v>
       </c>
-      <c r="B605" s="112"/>
-      <c r="C605" s="112"/>
-      <c r="D605" s="112"/>
-      <c r="E605" s="112"/>
-      <c r="F605" s="112"/>
-      <c r="G605" s="113"/>
+      <c r="B605" s="110"/>
+      <c r="C605" s="110"/>
+      <c r="D605" s="110"/>
+      <c r="E605" s="110"/>
+      <c r="F605" s="110"/>
+      <c r="G605" s="111"/>
     </row>
     <row r="606" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A606" s="34" t="str">
@@ -17195,15 +17216,15 @@
       </c>
     </row>
     <row r="616" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="111" t="s">
+      <c r="A616" s="109" t="s">
         <v>477</v>
       </c>
-      <c r="B616" s="112"/>
-      <c r="C616" s="112"/>
-      <c r="D616" s="112"/>
-      <c r="E616" s="112"/>
-      <c r="F616" s="112"/>
-      <c r="G616" s="113"/>
+      <c r="B616" s="110"/>
+      <c r="C616" s="110"/>
+      <c r="D616" s="110"/>
+      <c r="E616" s="110"/>
+      <c r="F616" s="110"/>
+      <c r="G616" s="111"/>
     </row>
     <row r="617" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A617" s="34" t="str">
@@ -17286,7 +17307,7 @@
     <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" s="33">
         <f>COUNTIF(A6:A620,"TS*")</f>
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B622" s="33">
         <f>COUNTIF(B6:B620,"TC*")</f>
@@ -17294,10 +17315,10 @@
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F623" s="118" t="s">
+      <c r="F623" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G623" s="118"/>
+      <c r="G623" s="1"/>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F624" s="51" t="s">
@@ -17312,7 +17333,7 @@
       </c>
       <c r="I624" s="6">
         <f>136-I631</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="6:9" x14ac:dyDescent="0.25">
@@ -17344,7 +17365,7 @@
       </c>
       <c r="I626" s="6">
         <f>COUNTIF(I4:I621, "Passed")</f>
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="627" spans="6:9" x14ac:dyDescent="0.25">
@@ -17423,55 +17444,73 @@
       </c>
       <c r="I631" s="6">
         <f>SUM(I625:I630)</f>
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:I3" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
+      <selection activeCell="A52" sqref="A52"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
+      <selection activeCell="B8" sqref="B8"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
+      <selection sqref="A1:D1"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
+      <selection activeCell="E129" sqref="E129"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
+      <selection activeCell="B103" sqref="B103"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
+      <selection activeCell="E13" sqref="E13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
     </customSheetView>
     <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
       <selection activeCell="B40" sqref="B40"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
-      <selection activeCell="E13" sqref="E13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
-      <selection activeCell="B103" sqref="B103"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
-      <selection activeCell="E129" sqref="E129"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
-      <selection sqref="A1:D1"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
-      <selection activeCell="B8" sqref="B8"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
-      <selection activeCell="A52" sqref="A52"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
+    <mergeCell ref="H467:H473"/>
+    <mergeCell ref="H495:H501"/>
+    <mergeCell ref="A360:G360"/>
+    <mergeCell ref="A326:G326"/>
+    <mergeCell ref="A397:G397"/>
+    <mergeCell ref="A445:G445"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A224:G224"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A178:G178"/>
     <mergeCell ref="F623:G623"/>
     <mergeCell ref="A417:G417"/>
     <mergeCell ref="A413:G413"/>
@@ -17488,24 +17527,6 @@
     <mergeCell ref="A416:G416"/>
     <mergeCell ref="C505:H505"/>
     <mergeCell ref="H418:H444"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="A224:G224"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A178:G178"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="H467:H473"/>
-    <mergeCell ref="H495:H501"/>
-    <mergeCell ref="A360:G360"/>
-    <mergeCell ref="A326:G326"/>
-    <mergeCell ref="A397:G397"/>
-    <mergeCell ref="A445:G445"/>
   </mergeCells>
   <conditionalFormatting sqref="F450:F476 F388:F392 F379:F381 F394:F395 F478:F516 F520:F597 F272 F277 F282 F287 F292 F297 F302 F306 F311 F316 F321 F326:F377 F1:F230 F599:F1048576 F232:F267 F397:F448">
     <cfRule type="containsText" dxfId="74" priority="105" operator="containsText" text="Failed">
@@ -17932,11 +17953,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -17955,8 +17976,8 @@
   </sheetPr>
   <dimension ref="A1:I685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -18003,17 +18024,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
@@ -18035,17 +18056,17 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
@@ -18086,17 +18107,17 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="82.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36"/>
@@ -18118,17 +18139,17 @@
       <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
@@ -18165,17 +18186,17 @@
       <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1" ht="114.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
@@ -18218,15 +18239,15 @@
     <row r="15" spans="1:9" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="56"/>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
     </row>
     <row r="16" spans="1:9" s="7" customFormat="1" ht="142.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
@@ -18265,15 +18286,15 @@
     <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
     </row>
     <row r="19" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
@@ -18316,15 +18337,15 @@
     <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
       <c r="B21" s="56"/>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" ht="186" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
@@ -18348,15 +18369,15 @@
     <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
       <c r="B23" s="56"/>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
@@ -18410,17 +18431,17 @@
       <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="123" t="s">
+      <c r="A27" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
     </row>
     <row r="28" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
@@ -18480,17 +18501,17 @@
       <c r="I30" s="58"/>
     </row>
     <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="123" t="s">
+      <c r="A31" s="125" t="s">
         <v>268</v>
       </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
     </row>
     <row r="32" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
@@ -18550,17 +18571,17 @@
       <c r="I34" s="58"/>
     </row>
     <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="123" t="s">
+      <c r="A35" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
     </row>
     <row r="36" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
@@ -18682,17 +18703,17 @@
       <c r="I42" s="57"/>
     </row>
     <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="123" t="s">
+      <c r="A43" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
     </row>
     <row r="44" spans="1:9" s="7" customFormat="1" ht="127.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56"/>
@@ -18729,17 +18750,17 @@
       <c r="I45" s="57"/>
     </row>
     <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="123" t="s">
+      <c r="A46" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="123"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
     </row>
     <row r="47" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56"/>
@@ -18759,17 +18780,17 @@
       <c r="I47" s="57"/>
     </row>
     <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="123" t="s">
+      <c r="A48" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="123"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
     </row>
     <row r="49" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
@@ -19061,19 +19082,19 @@
       <c r="I65" s="57"/>
     </row>
     <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="123" t="s">
+      <c r="A66" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="123"/>
-      <c r="C66" s="123" t="s">
+      <c r="B66" s="125"/>
+      <c r="C66" s="125" t="s">
         <v>573</v>
       </c>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="123"/>
-      <c r="I66" s="123"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="125"/>
     </row>
     <row r="67" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="56"/>
@@ -19246,19 +19267,19 @@
       <c r="I76" s="57"/>
     </row>
     <row r="77" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="123" t="s">
+      <c r="A77" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="B77" s="123"/>
-      <c r="C77" s="123" t="s">
+      <c r="B77" s="125"/>
+      <c r="C77" s="125" t="s">
         <v>573</v>
       </c>
-      <c r="D77" s="123"/>
-      <c r="E77" s="123"/>
-      <c r="F77" s="123"/>
-      <c r="G77" s="123"/>
-      <c r="H77" s="123"/>
-      <c r="I77" s="123"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="125"/>
+      <c r="I77" s="125"/>
     </row>
     <row r="78" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="56"/>
@@ -19329,19 +19350,19 @@
       <c r="I81" s="57"/>
     </row>
     <row r="82" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="123" t="s">
+      <c r="A82" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="123"/>
-      <c r="C82" s="123" t="s">
+      <c r="B82" s="125"/>
+      <c r="C82" s="125" t="s">
         <v>573</v>
       </c>
-      <c r="D82" s="123"/>
-      <c r="E82" s="123"/>
-      <c r="F82" s="123"/>
-      <c r="G82" s="123"/>
-      <c r="H82" s="123"/>
-      <c r="I82" s="123"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="125"/>
+      <c r="I82" s="125"/>
     </row>
     <row r="83" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="56"/>
@@ -19652,17 +19673,17 @@
     <row r="101" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
-      <c r="C101" s="123" t="s">
+      <c r="C101" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="D101" s="123"/>
-      <c r="E101" s="123" t="s">
+      <c r="D101" s="125"/>
+      <c r="E101" s="125" t="s">
         <v>573</v>
       </c>
-      <c r="F101" s="123"/>
-      <c r="G101" s="123"/>
-      <c r="H101" s="123"/>
-      <c r="I101" s="123"/>
+      <c r="F101" s="125"/>
+      <c r="G101" s="125"/>
+      <c r="H101" s="125"/>
+      <c r="I101" s="125"/>
     </row>
     <row r="102" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="56"/>
@@ -19767,17 +19788,17 @@
       <c r="I107" s="57"/>
     </row>
     <row r="108" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="123" t="s">
+      <c r="A108" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="123"/>
-      <c r="C108" s="123"/>
-      <c r="D108" s="123"/>
-      <c r="E108" s="123"/>
-      <c r="F108" s="123"/>
-      <c r="G108" s="123"/>
-      <c r="H108" s="123"/>
-      <c r="I108" s="123"/>
+      <c r="B108" s="125"/>
+      <c r="C108" s="125"/>
+      <c r="D108" s="125"/>
+      <c r="E108" s="125"/>
+      <c r="F108" s="125"/>
+      <c r="G108" s="125"/>
+      <c r="H108" s="125"/>
+      <c r="I108" s="125"/>
     </row>
     <row r="109" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="56"/>
@@ -19899,19 +19920,19 @@
       <c r="I115" s="57"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="123" t="s">
+      <c r="A116" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="123"/>
-      <c r="C116" s="123" t="s">
+      <c r="B116" s="125"/>
+      <c r="C116" s="125" t="s">
         <v>652</v>
       </c>
-      <c r="D116" s="123"/>
-      <c r="E116" s="123"/>
-      <c r="F116" s="123"/>
-      <c r="G116" s="123"/>
-      <c r="H116" s="123"/>
-      <c r="I116" s="123"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
+      <c r="F116" s="125"/>
+      <c r="G116" s="125"/>
+      <c r="H116" s="125"/>
+      <c r="I116" s="125"/>
     </row>
     <row r="117" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="56"/>
@@ -20033,19 +20054,19 @@
       <c r="I123" s="36"/>
     </row>
     <row r="124" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="123" t="s">
+      <c r="A124" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="123"/>
-      <c r="C124" s="123" t="s">
+      <c r="B124" s="125"/>
+      <c r="C124" s="125" t="s">
         <v>652</v>
       </c>
-      <c r="D124" s="123"/>
-      <c r="E124" s="123"/>
-      <c r="F124" s="123"/>
-      <c r="G124" s="123"/>
-      <c r="H124" s="123"/>
-      <c r="I124" s="123"/>
+      <c r="D124" s="125"/>
+      <c r="E124" s="125"/>
+      <c r="F124" s="125"/>
+      <c r="G124" s="125"/>
+      <c r="H124" s="125"/>
+      <c r="I124" s="125"/>
     </row>
     <row r="125" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="56"/>
@@ -20167,17 +20188,17 @@
       <c r="I131" s="36"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="123" t="s">
+      <c r="A132" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B132" s="123"/>
-      <c r="C132" s="123"/>
-      <c r="D132" s="123"/>
-      <c r="E132" s="123"/>
-      <c r="F132" s="123"/>
-      <c r="G132" s="123"/>
-      <c r="H132" s="123"/>
-      <c r="I132" s="123"/>
+      <c r="B132" s="125"/>
+      <c r="C132" s="125"/>
+      <c r="D132" s="125"/>
+      <c r="E132" s="125"/>
+      <c r="F132" s="125"/>
+      <c r="G132" s="125"/>
+      <c r="H132" s="125"/>
+      <c r="I132" s="125"/>
     </row>
     <row r="133" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36"/>
@@ -20248,17 +20269,17 @@
       <c r="I136" s="36"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="123" t="s">
+      <c r="A137" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="B137" s="123"/>
-      <c r="C137" s="123"/>
-      <c r="D137" s="123"/>
-      <c r="E137" s="123"/>
-      <c r="F137" s="123"/>
-      <c r="G137" s="123"/>
-      <c r="H137" s="123"/>
-      <c r="I137" s="123"/>
+      <c r="B137" s="125"/>
+      <c r="C137" s="125"/>
+      <c r="D137" s="125"/>
+      <c r="E137" s="125"/>
+      <c r="F137" s="125"/>
+      <c r="G137" s="125"/>
+      <c r="H137" s="125"/>
+      <c r="I137" s="125"/>
     </row>
     <row r="138" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36"/>
@@ -20397,17 +20418,17 @@
       <c r="I145" s="57"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="123" t="s">
+      <c r="A146" s="125" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="123"/>
-      <c r="C146" s="123"/>
-      <c r="D146" s="123"/>
-      <c r="E146" s="123"/>
-      <c r="F146" s="123"/>
-      <c r="G146" s="123"/>
-      <c r="H146" s="123"/>
-      <c r="I146" s="123"/>
+      <c r="B146" s="125"/>
+      <c r="C146" s="125"/>
+      <c r="D146" s="125"/>
+      <c r="E146" s="125"/>
+      <c r="F146" s="125"/>
+      <c r="G146" s="125"/>
+      <c r="H146" s="125"/>
+      <c r="I146" s="125"/>
     </row>
     <row r="147" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36"/>
@@ -20529,17 +20550,17 @@
       <c r="I153" s="38"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="123" t="s">
+      <c r="A154" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="B154" s="123"/>
-      <c r="C154" s="123"/>
-      <c r="D154" s="123"/>
-      <c r="E154" s="123"/>
-      <c r="F154" s="123"/>
-      <c r="G154" s="123"/>
-      <c r="H154" s="123"/>
-      <c r="I154" s="123"/>
+      <c r="B154" s="125"/>
+      <c r="C154" s="125"/>
+      <c r="D154" s="125"/>
+      <c r="E154" s="125"/>
+      <c r="F154" s="125"/>
+      <c r="G154" s="125"/>
+      <c r="H154" s="125"/>
+      <c r="I154" s="125"/>
     </row>
     <row r="155" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36"/>
@@ -20678,17 +20699,17 @@
       <c r="I162" s="57"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="123" t="s">
+      <c r="A163" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="B163" s="123"/>
-      <c r="C163" s="123"/>
-      <c r="D163" s="123"/>
-      <c r="E163" s="123"/>
-      <c r="F163" s="123"/>
-      <c r="G163" s="123"/>
-      <c r="H163" s="123"/>
-      <c r="I163" s="123"/>
+      <c r="B163" s="125"/>
+      <c r="C163" s="125"/>
+      <c r="D163" s="125"/>
+      <c r="E163" s="125"/>
+      <c r="F163" s="125"/>
+      <c r="G163" s="125"/>
+      <c r="H163" s="125"/>
+      <c r="I163" s="125"/>
     </row>
     <row r="164" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A164" s="36"/>
@@ -20878,17 +20899,17 @@
       <c r="I174" s="57"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="123" t="s">
+      <c r="A175" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="B175" s="123"/>
-      <c r="C175" s="123"/>
-      <c r="D175" s="123"/>
-      <c r="E175" s="123"/>
-      <c r="F175" s="123"/>
-      <c r="G175" s="123"/>
-      <c r="H175" s="123"/>
-      <c r="I175" s="123"/>
+      <c r="B175" s="125"/>
+      <c r="C175" s="125"/>
+      <c r="D175" s="125"/>
+      <c r="E175" s="125"/>
+      <c r="F175" s="125"/>
+      <c r="G175" s="125"/>
+      <c r="H175" s="125"/>
+      <c r="I175" s="125"/>
     </row>
     <row r="176" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A176" s="36"/>
@@ -21078,17 +21099,17 @@
       <c r="I186" s="57"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="123" t="s">
+      <c r="A187" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="B187" s="123"/>
-      <c r="C187" s="123"/>
-      <c r="D187" s="123"/>
-      <c r="E187" s="123"/>
-      <c r="F187" s="123"/>
-      <c r="G187" s="123"/>
-      <c r="H187" s="123"/>
-      <c r="I187" s="123"/>
+      <c r="B187" s="125"/>
+      <c r="C187" s="125"/>
+      <c r="D187" s="125"/>
+      <c r="E187" s="125"/>
+      <c r="F187" s="125"/>
+      <c r="G187" s="125"/>
+      <c r="H187" s="125"/>
+      <c r="I187" s="125"/>
     </row>
     <row r="188" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A188" s="36"/>
@@ -21244,17 +21265,17 @@
       <c r="I196" s="57"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="123" t="s">
+      <c r="A197" s="125" t="s">
         <v>157</v>
       </c>
-      <c r="B197" s="123"/>
-      <c r="C197" s="123"/>
-      <c r="D197" s="123"/>
-      <c r="E197" s="123"/>
-      <c r="F197" s="123"/>
-      <c r="G197" s="123"/>
-      <c r="H197" s="123"/>
-      <c r="I197" s="123"/>
+      <c r="B197" s="125"/>
+      <c r="C197" s="125"/>
+      <c r="D197" s="125"/>
+      <c r="E197" s="125"/>
+      <c r="F197" s="125"/>
+      <c r="G197" s="125"/>
+      <c r="H197" s="125"/>
+      <c r="I197" s="125"/>
     </row>
     <row r="198" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A198" s="56"/>
@@ -21563,17 +21584,17 @@
       <c r="I215" s="57"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="123" t="s">
+      <c r="A216" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="B216" s="123"/>
-      <c r="C216" s="123"/>
-      <c r="D216" s="123"/>
-      <c r="E216" s="123"/>
-      <c r="F216" s="123"/>
-      <c r="G216" s="123"/>
-      <c r="H216" s="123"/>
-      <c r="I216" s="123"/>
+      <c r="B216" s="125"/>
+      <c r="C216" s="125"/>
+      <c r="D216" s="125"/>
+      <c r="E216" s="125"/>
+      <c r="F216" s="125"/>
+      <c r="G216" s="125"/>
+      <c r="H216" s="125"/>
+      <c r="I216" s="125"/>
     </row>
     <row r="217" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A217" s="36"/>
@@ -21712,17 +21733,17 @@
       <c r="I224" s="36"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="123" t="s">
+      <c r="A225" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="B225" s="123"/>
-      <c r="C225" s="123"/>
-      <c r="D225" s="123"/>
-      <c r="E225" s="123"/>
-      <c r="F225" s="123"/>
-      <c r="G225" s="123"/>
-      <c r="H225" s="123"/>
-      <c r="I225" s="123"/>
+      <c r="B225" s="125"/>
+      <c r="C225" s="125"/>
+      <c r="D225" s="125"/>
+      <c r="E225" s="125"/>
+      <c r="F225" s="125"/>
+      <c r="G225" s="125"/>
+      <c r="H225" s="125"/>
+      <c r="I225" s="125"/>
     </row>
     <row r="226" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A226" s="36"/>
@@ -21865,15 +21886,15 @@
         <v>176</v>
       </c>
       <c r="B234" s="34"/>
-      <c r="C234" s="127" t="s">
+      <c r="C234" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="D234" s="127"/>
-      <c r="E234" s="127"/>
-      <c r="F234" s="127"/>
-      <c r="G234" s="127"/>
-      <c r="H234" s="127"/>
-      <c r="I234" s="127"/>
+      <c r="D234" s="126"/>
+      <c r="E234" s="126"/>
+      <c r="F234" s="126"/>
+      <c r="G234" s="126"/>
+      <c r="H234" s="126"/>
+      <c r="I234" s="126"/>
     </row>
     <row r="235" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A235" s="36"/>
@@ -22012,17 +22033,17 @@
       <c r="I242" s="36"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="123" t="s">
+      <c r="A243" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="B243" s="123"/>
-      <c r="C243" s="123"/>
-      <c r="D243" s="123"/>
-      <c r="E243" s="123"/>
-      <c r="F243" s="123"/>
-      <c r="G243" s="123"/>
-      <c r="H243" s="123"/>
-      <c r="I243" s="123"/>
+      <c r="B243" s="125"/>
+      <c r="C243" s="125"/>
+      <c r="D243" s="125"/>
+      <c r="E243" s="125"/>
+      <c r="F243" s="125"/>
+      <c r="G243" s="125"/>
+      <c r="H243" s="125"/>
+      <c r="I243" s="125"/>
     </row>
     <row r="244" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A244" s="36"/>
@@ -22178,19 +22199,19 @@
       <c r="I252" s="57"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A253" s="123" t="s">
+      <c r="A253" s="125" t="s">
         <v>184</v>
       </c>
-      <c r="B253" s="123"/>
-      <c r="C253" s="123" t="s">
+      <c r="B253" s="125"/>
+      <c r="C253" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="D253" s="123"/>
-      <c r="E253" s="123"/>
-      <c r="F253" s="123"/>
-      <c r="G253" s="123"/>
-      <c r="H253" s="123"/>
-      <c r="I253" s="123"/>
+      <c r="D253" s="125"/>
+      <c r="E253" s="125"/>
+      <c r="F253" s="125"/>
+      <c r="G253" s="125"/>
+      <c r="H253" s="125"/>
+      <c r="I253" s="125"/>
     </row>
     <row r="254" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A254" s="36"/>
@@ -22399,15 +22420,15 @@
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="36"/>
       <c r="B266" s="36"/>
-      <c r="C266" s="123" t="s">
+      <c r="C266" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="D266" s="123"/>
-      <c r="E266" s="123"/>
-      <c r="F266" s="123"/>
-      <c r="G266" s="123"/>
-      <c r="H266" s="123"/>
-      <c r="I266" s="123"/>
+      <c r="D266" s="125"/>
+      <c r="E266" s="125"/>
+      <c r="F266" s="125"/>
+      <c r="G266" s="125"/>
+      <c r="H266" s="125"/>
+      <c r="I266" s="125"/>
     </row>
     <row r="267" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A267" s="36"/>
@@ -22446,15 +22467,15 @@
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="36"/>
       <c r="B269" s="36"/>
-      <c r="C269" s="128" t="s">
+      <c r="C269" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="D269" s="123"/>
-      <c r="E269" s="123"/>
-      <c r="F269" s="123"/>
-      <c r="G269" s="123"/>
-      <c r="H269" s="123"/>
-      <c r="I269" s="123"/>
+      <c r="D269" s="125"/>
+      <c r="E269" s="125"/>
+      <c r="F269" s="125"/>
+      <c r="G269" s="125"/>
+      <c r="H269" s="125"/>
+      <c r="I269" s="125"/>
     </row>
     <row r="270" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A270" s="36"/>
@@ -22510,15 +22531,15 @@
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="36"/>
       <c r="B273" s="36"/>
-      <c r="C273" s="128" t="s">
+      <c r="C273" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="D273" s="123"/>
-      <c r="E273" s="123"/>
-      <c r="F273" s="123"/>
-      <c r="G273" s="123"/>
-      <c r="H273" s="123"/>
-      <c r="I273" s="123"/>
+      <c r="D273" s="125"/>
+      <c r="E273" s="125"/>
+      <c r="F273" s="125"/>
+      <c r="G273" s="125"/>
+      <c r="H273" s="125"/>
+      <c r="I273" s="125"/>
     </row>
     <row r="274" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A274" s="36"/>
@@ -22557,15 +22578,15 @@
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="36"/>
       <c r="B276" s="36"/>
-      <c r="C276" s="128" t="s">
+      <c r="C276" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="D276" s="123"/>
-      <c r="E276" s="123"/>
-      <c r="F276" s="123"/>
-      <c r="G276" s="123"/>
-      <c r="H276" s="123"/>
-      <c r="I276" s="123"/>
+      <c r="D276" s="125"/>
+      <c r="E276" s="125"/>
+      <c r="F276" s="125"/>
+      <c r="G276" s="125"/>
+      <c r="H276" s="125"/>
+      <c r="I276" s="125"/>
     </row>
     <row r="277" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A277" s="36"/>
@@ -22604,15 +22625,15 @@
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="36"/>
       <c r="B279" s="36"/>
-      <c r="C279" s="123" t="s">
+      <c r="C279" s="125" t="s">
         <v>280</v>
       </c>
-      <c r="D279" s="123"/>
-      <c r="E279" s="123"/>
-      <c r="F279" s="123"/>
-      <c r="G279" s="123"/>
-      <c r="H279" s="123"/>
-      <c r="I279" s="123"/>
+      <c r="D279" s="125"/>
+      <c r="E279" s="125"/>
+      <c r="F279" s="125"/>
+      <c r="G279" s="125"/>
+      <c r="H279" s="125"/>
+      <c r="I279" s="125"/>
     </row>
     <row r="280" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A280" s="36"/>
@@ -22683,17 +22704,17 @@
       <c r="I283" s="36"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" s="123" t="s">
+      <c r="A284" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="B284" s="123"/>
-      <c r="C284" s="123"/>
-      <c r="D284" s="123"/>
-      <c r="E284" s="123"/>
-      <c r="F284" s="123"/>
-      <c r="G284" s="123"/>
-      <c r="H284" s="123"/>
-      <c r="I284" s="123"/>
+      <c r="B284" s="125"/>
+      <c r="C284" s="125"/>
+      <c r="D284" s="125"/>
+      <c r="E284" s="125"/>
+      <c r="F284" s="125"/>
+      <c r="G284" s="125"/>
+      <c r="H284" s="125"/>
+      <c r="I284" s="125"/>
     </row>
     <row r="285" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A285" s="56"/>
@@ -22732,15 +22753,15 @@
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="36"/>
       <c r="B287" s="36"/>
-      <c r="C287" s="123" t="s">
+      <c r="C287" s="125" t="s">
         <v>285</v>
       </c>
-      <c r="D287" s="123"/>
-      <c r="E287" s="123"/>
-      <c r="F287" s="123"/>
-      <c r="G287" s="123"/>
-      <c r="H287" s="123"/>
-      <c r="I287" s="123"/>
+      <c r="D287" s="125"/>
+      <c r="E287" s="125"/>
+      <c r="F287" s="125"/>
+      <c r="G287" s="125"/>
+      <c r="H287" s="125"/>
+      <c r="I287" s="125"/>
     </row>
     <row r="288" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A288" s="36"/>
@@ -22762,15 +22783,15 @@
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="36"/>
       <c r="B289" s="36"/>
-      <c r="C289" s="123" t="s">
+      <c r="C289" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="D289" s="123"/>
-      <c r="E289" s="123"/>
-      <c r="F289" s="123"/>
-      <c r="G289" s="123"/>
-      <c r="H289" s="123"/>
-      <c r="I289" s="123"/>
+      <c r="D289" s="125"/>
+      <c r="E289" s="125"/>
+      <c r="F289" s="125"/>
+      <c r="G289" s="125"/>
+      <c r="H289" s="125"/>
+      <c r="I289" s="125"/>
     </row>
     <row r="290" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A290" s="36"/>
@@ -22792,15 +22813,15 @@
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="36"/>
       <c r="B291" s="36"/>
-      <c r="C291" s="123" t="s">
+      <c r="C291" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="D291" s="123"/>
-      <c r="E291" s="123"/>
-      <c r="F291" s="123"/>
-      <c r="G291" s="123"/>
-      <c r="H291" s="123"/>
-      <c r="I291" s="123"/>
+      <c r="D291" s="125"/>
+      <c r="E291" s="125"/>
+      <c r="F291" s="125"/>
+      <c r="G291" s="125"/>
+      <c r="H291" s="125"/>
+      <c r="I291" s="125"/>
     </row>
     <row r="292" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A292" s="36"/>
@@ -22822,15 +22843,15 @@
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="36"/>
       <c r="B293" s="36"/>
-      <c r="C293" s="123" t="s">
+      <c r="C293" s="125" t="s">
         <v>291</v>
       </c>
-      <c r="D293" s="123"/>
-      <c r="E293" s="123"/>
-      <c r="F293" s="123"/>
-      <c r="G293" s="123"/>
-      <c r="H293" s="123"/>
-      <c r="I293" s="123"/>
+      <c r="D293" s="125"/>
+      <c r="E293" s="125"/>
+      <c r="F293" s="125"/>
+      <c r="G293" s="125"/>
+      <c r="H293" s="125"/>
+      <c r="I293" s="125"/>
     </row>
     <row r="294" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A294" s="36"/>
@@ -22937,15 +22958,15 @@
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="36"/>
       <c r="B300" s="36"/>
-      <c r="C300" s="123" t="s">
+      <c r="C300" s="125" t="s">
         <v>293</v>
       </c>
-      <c r="D300" s="123"/>
-      <c r="E300" s="123"/>
-      <c r="F300" s="123"/>
-      <c r="G300" s="123"/>
-      <c r="H300" s="123"/>
-      <c r="I300" s="123"/>
+      <c r="D300" s="125"/>
+      <c r="E300" s="125"/>
+      <c r="F300" s="125"/>
+      <c r="G300" s="125"/>
+      <c r="H300" s="125"/>
+      <c r="I300" s="125"/>
     </row>
     <row r="301" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A301" s="36"/>
@@ -22984,15 +23005,15 @@
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="36"/>
       <c r="B303" s="36"/>
-      <c r="C303" s="123" t="s">
+      <c r="C303" s="125" t="s">
         <v>297</v>
       </c>
-      <c r="D303" s="123"/>
-      <c r="E303" s="123"/>
-      <c r="F303" s="123"/>
-      <c r="G303" s="123"/>
-      <c r="H303" s="123"/>
-      <c r="I303" s="123"/>
+      <c r="D303" s="125"/>
+      <c r="E303" s="125"/>
+      <c r="F303" s="125"/>
+      <c r="G303" s="125"/>
+      <c r="H303" s="125"/>
+      <c r="I303" s="125"/>
     </row>
     <row r="304" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A304" s="36"/>
@@ -23014,15 +23035,15 @@
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="36"/>
       <c r="B305" s="36"/>
-      <c r="C305" s="123" t="s">
+      <c r="C305" s="125" t="s">
         <v>787</v>
       </c>
-      <c r="D305" s="123"/>
-      <c r="E305" s="123"/>
-      <c r="F305" s="123"/>
-      <c r="G305" s="123"/>
-      <c r="H305" s="123"/>
-      <c r="I305" s="123"/>
+      <c r="D305" s="125"/>
+      <c r="E305" s="125"/>
+      <c r="F305" s="125"/>
+      <c r="G305" s="125"/>
+      <c r="H305" s="125"/>
+      <c r="I305" s="125"/>
     </row>
     <row r="306" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A306" s="36"/>
@@ -23078,15 +23099,15 @@
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="36"/>
       <c r="B309" s="36"/>
-      <c r="C309" s="123" t="s">
+      <c r="C309" s="125" t="s">
         <v>302</v>
       </c>
-      <c r="D309" s="123"/>
-      <c r="E309" s="123"/>
-      <c r="F309" s="123"/>
-      <c r="G309" s="123"/>
-      <c r="H309" s="123"/>
-      <c r="I309" s="123"/>
+      <c r="D309" s="125"/>
+      <c r="E309" s="125"/>
+      <c r="F309" s="125"/>
+      <c r="G309" s="125"/>
+      <c r="H309" s="125"/>
+      <c r="I309" s="125"/>
     </row>
     <row r="310" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A310" s="36"/>
@@ -23159,15 +23180,15 @@
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="36"/>
       <c r="B314" s="36"/>
-      <c r="C314" s="123" t="s">
+      <c r="C314" s="125" t="s">
         <v>304</v>
       </c>
-      <c r="D314" s="123"/>
-      <c r="E314" s="123"/>
-      <c r="F314" s="123"/>
-      <c r="G314" s="123"/>
-      <c r="H314" s="123"/>
-      <c r="I314" s="123"/>
+      <c r="D314" s="125"/>
+      <c r="E314" s="125"/>
+      <c r="F314" s="125"/>
+      <c r="G314" s="125"/>
+      <c r="H314" s="125"/>
+      <c r="I314" s="125"/>
     </row>
     <row r="315" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A315" s="36"/>
@@ -23206,15 +23227,15 @@
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="36"/>
       <c r="B317" s="36"/>
-      <c r="C317" s="123" t="s">
+      <c r="C317" s="125" t="s">
         <v>802</v>
       </c>
-      <c r="D317" s="123"/>
-      <c r="E317" s="123"/>
-      <c r="F317" s="123"/>
-      <c r="G317" s="123"/>
-      <c r="H317" s="123"/>
-      <c r="I317" s="123"/>
+      <c r="D317" s="125"/>
+      <c r="E317" s="125"/>
+      <c r="F317" s="125"/>
+      <c r="G317" s="125"/>
+      <c r="H317" s="125"/>
+      <c r="I317" s="125"/>
     </row>
     <row r="318" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A318" s="36"/>
@@ -23253,15 +23274,15 @@
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="36"/>
       <c r="B320" s="36"/>
-      <c r="C320" s="123" t="s">
+      <c r="C320" s="125" t="s">
         <v>308</v>
       </c>
-      <c r="D320" s="123"/>
-      <c r="E320" s="123"/>
-      <c r="F320" s="123"/>
-      <c r="G320" s="123"/>
-      <c r="H320" s="123"/>
-      <c r="I320" s="123"/>
+      <c r="D320" s="125"/>
+      <c r="E320" s="125"/>
+      <c r="F320" s="125"/>
+      <c r="G320" s="125"/>
+      <c r="H320" s="125"/>
+      <c r="I320" s="125"/>
     </row>
     <row r="321" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A321" s="36"/>
@@ -23300,15 +23321,15 @@
     <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="36"/>
       <c r="B323" s="36"/>
-      <c r="C323" s="123" t="s">
+      <c r="C323" s="125" t="s">
         <v>310</v>
       </c>
-      <c r="D323" s="123"/>
-      <c r="E323" s="123"/>
-      <c r="F323" s="123"/>
-      <c r="G323" s="123"/>
-      <c r="H323" s="123"/>
-      <c r="I323" s="123"/>
+      <c r="D323" s="125"/>
+      <c r="E323" s="125"/>
+      <c r="F323" s="125"/>
+      <c r="G323" s="125"/>
+      <c r="H323" s="125"/>
+      <c r="I323" s="125"/>
     </row>
     <row r="324" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A324" s="36"/>
@@ -23364,15 +23385,15 @@
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="36"/>
       <c r="B327" s="36"/>
-      <c r="C327" s="123" t="s">
+      <c r="C327" s="125" t="s">
         <v>312</v>
       </c>
-      <c r="D327" s="123"/>
-      <c r="E327" s="123"/>
-      <c r="F327" s="123"/>
-      <c r="G327" s="123"/>
-      <c r="H327" s="123"/>
-      <c r="I327" s="123"/>
+      <c r="D327" s="125"/>
+      <c r="E327" s="125"/>
+      <c r="F327" s="125"/>
+      <c r="G327" s="125"/>
+      <c r="H327" s="125"/>
+      <c r="I327" s="125"/>
     </row>
     <row r="328" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A328" s="36"/>
@@ -23479,15 +23500,15 @@
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="36"/>
       <c r="B334" s="36"/>
-      <c r="C334" s="123" t="s">
+      <c r="C334" s="125" t="s">
         <v>314</v>
       </c>
-      <c r="D334" s="123"/>
-      <c r="E334" s="123"/>
-      <c r="F334" s="123"/>
-      <c r="G334" s="123"/>
-      <c r="H334" s="123"/>
-      <c r="I334" s="123"/>
+      <c r="D334" s="125"/>
+      <c r="E334" s="125"/>
+      <c r="F334" s="125"/>
+      <c r="G334" s="125"/>
+      <c r="H334" s="125"/>
+      <c r="I334" s="125"/>
     </row>
     <row r="335" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A335" s="36"/>
@@ -23526,15 +23547,15 @@
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="36"/>
       <c r="B337" s="36"/>
-      <c r="C337" s="123" t="s">
+      <c r="C337" s="125" t="s">
         <v>318</v>
       </c>
-      <c r="D337" s="123"/>
-      <c r="E337" s="123"/>
-      <c r="F337" s="123"/>
-      <c r="G337" s="123"/>
-      <c r="H337" s="123"/>
-      <c r="I337" s="123"/>
+      <c r="D337" s="125"/>
+      <c r="E337" s="125"/>
+      <c r="F337" s="125"/>
+      <c r="G337" s="125"/>
+      <c r="H337" s="125"/>
+      <c r="I337" s="125"/>
     </row>
     <row r="338" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A338" s="36"/>
@@ -23573,15 +23594,15 @@
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="36"/>
       <c r="B340" s="36"/>
-      <c r="C340" s="123" t="s">
+      <c r="C340" s="125" t="s">
         <v>320</v>
       </c>
-      <c r="D340" s="123"/>
-      <c r="E340" s="123"/>
-      <c r="F340" s="123"/>
-      <c r="G340" s="123"/>
-      <c r="H340" s="123"/>
-      <c r="I340" s="123"/>
+      <c r="D340" s="125"/>
+      <c r="E340" s="125"/>
+      <c r="F340" s="125"/>
+      <c r="G340" s="125"/>
+      <c r="H340" s="125"/>
+      <c r="I340" s="125"/>
     </row>
     <row r="341" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A341" s="36"/>
@@ -23646,15 +23667,15 @@
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="36"/>
       <c r="B345" s="36"/>
-      <c r="C345" s="123" t="s">
+      <c r="C345" s="125" t="s">
         <v>322</v>
       </c>
-      <c r="D345" s="123"/>
-      <c r="E345" s="123"/>
-      <c r="F345" s="123"/>
-      <c r="G345" s="123"/>
-      <c r="H345" s="123"/>
-      <c r="I345" s="123"/>
+      <c r="D345" s="125"/>
+      <c r="E345" s="125"/>
+      <c r="F345" s="125"/>
+      <c r="G345" s="125"/>
+      <c r="H345" s="125"/>
+      <c r="I345" s="125"/>
     </row>
     <row r="346" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A346" s="36"/>
@@ -23761,15 +23782,15 @@
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="36"/>
       <c r="B352" s="36"/>
-      <c r="C352" s="123" t="s">
+      <c r="C352" s="125" t="s">
         <v>324</v>
       </c>
-      <c r="D352" s="123"/>
-      <c r="E352" s="123"/>
-      <c r="F352" s="123"/>
-      <c r="G352" s="123"/>
-      <c r="H352" s="123"/>
-      <c r="I352" s="123"/>
+      <c r="D352" s="125"/>
+      <c r="E352" s="125"/>
+      <c r="F352" s="125"/>
+      <c r="G352" s="125"/>
+      <c r="H352" s="125"/>
+      <c r="I352" s="125"/>
     </row>
     <row r="353" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A353" s="36"/>
@@ -23808,15 +23829,15 @@
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="36"/>
       <c r="B355" s="36"/>
-      <c r="C355" s="123" t="s">
+      <c r="C355" s="125" t="s">
         <v>328</v>
       </c>
-      <c r="D355" s="123"/>
-      <c r="E355" s="123"/>
-      <c r="F355" s="123"/>
-      <c r="G355" s="123"/>
-      <c r="H355" s="123"/>
-      <c r="I355" s="123"/>
+      <c r="D355" s="125"/>
+      <c r="E355" s="125"/>
+      <c r="F355" s="125"/>
+      <c r="G355" s="125"/>
+      <c r="H355" s="125"/>
+      <c r="I355" s="125"/>
     </row>
     <row r="356" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A356" s="36"/>
@@ -23855,15 +23876,15 @@
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="36"/>
       <c r="B358" s="36"/>
-      <c r="C358" s="123" t="s">
+      <c r="C358" s="125" t="s">
         <v>848</v>
       </c>
-      <c r="D358" s="123"/>
-      <c r="E358" s="123"/>
-      <c r="F358" s="123"/>
-      <c r="G358" s="123"/>
-      <c r="H358" s="123"/>
-      <c r="I358" s="123"/>
+      <c r="D358" s="125"/>
+      <c r="E358" s="125"/>
+      <c r="F358" s="125"/>
+      <c r="G358" s="125"/>
+      <c r="H358" s="125"/>
+      <c r="I358" s="125"/>
     </row>
     <row r="359" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A359" s="36"/>
@@ -23885,15 +23906,15 @@
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="36"/>
       <c r="B360" s="36"/>
-      <c r="C360" s="123" t="s">
+      <c r="C360" s="125" t="s">
         <v>851</v>
       </c>
-      <c r="D360" s="123"/>
-      <c r="E360" s="123"/>
-      <c r="F360" s="123"/>
-      <c r="G360" s="123"/>
-      <c r="H360" s="123"/>
-      <c r="I360" s="123"/>
+      <c r="D360" s="125"/>
+      <c r="E360" s="125"/>
+      <c r="F360" s="125"/>
+      <c r="G360" s="125"/>
+      <c r="H360" s="125"/>
+      <c r="I360" s="125"/>
     </row>
     <row r="361" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A361" s="36"/>
@@ -23966,15 +23987,15 @@
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="36"/>
       <c r="B365" s="36"/>
-      <c r="C365" s="123" t="s">
+      <c r="C365" s="125" t="s">
         <v>334</v>
       </c>
-      <c r="D365" s="123"/>
-      <c r="E365" s="123"/>
-      <c r="F365" s="123"/>
-      <c r="G365" s="123"/>
-      <c r="H365" s="123"/>
-      <c r="I365" s="123"/>
+      <c r="D365" s="125"/>
+      <c r="E365" s="125"/>
+      <c r="F365" s="125"/>
+      <c r="G365" s="125"/>
+      <c r="H365" s="125"/>
+      <c r="I365" s="125"/>
     </row>
     <row r="366" spans="1:9" ht="13.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A366" s="36"/>
@@ -24047,15 +24068,15 @@
     <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="36"/>
       <c r="B370" s="36"/>
-      <c r="C370" s="123" t="s">
+      <c r="C370" s="125" t="s">
         <v>862</v>
       </c>
-      <c r="D370" s="123"/>
-      <c r="E370" s="123"/>
-      <c r="F370" s="123"/>
-      <c r="G370" s="123"/>
-      <c r="H370" s="123"/>
-      <c r="I370" s="123"/>
+      <c r="D370" s="125"/>
+      <c r="E370" s="125"/>
+      <c r="F370" s="125"/>
+      <c r="G370" s="125"/>
+      <c r="H370" s="125"/>
+      <c r="I370" s="125"/>
     </row>
     <row r="371" spans="1:9" ht="13.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A371" s="36"/>
@@ -24077,15 +24098,15 @@
     <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="36"/>
       <c r="B372" s="36"/>
-      <c r="C372" s="123" t="s">
+      <c r="C372" s="125" t="s">
         <v>343</v>
       </c>
-      <c r="D372" s="123"/>
-      <c r="E372" s="123"/>
-      <c r="F372" s="123"/>
-      <c r="G372" s="123"/>
-      <c r="H372" s="123"/>
-      <c r="I372" s="123"/>
+      <c r="D372" s="125"/>
+      <c r="E372" s="125"/>
+      <c r="F372" s="125"/>
+      <c r="G372" s="125"/>
+      <c r="H372" s="125"/>
+      <c r="I372" s="125"/>
     </row>
     <row r="373" spans="1:9" ht="13.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A373" s="36"/>
@@ -24107,15 +24128,15 @@
     <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="36"/>
       <c r="B374" s="36"/>
-      <c r="C374" s="123" t="s">
+      <c r="C374" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="D374" s="123"/>
-      <c r="E374" s="123"/>
-      <c r="F374" s="123"/>
-      <c r="G374" s="123"/>
-      <c r="H374" s="123"/>
-      <c r="I374" s="123"/>
+      <c r="D374" s="125"/>
+      <c r="E374" s="125"/>
+      <c r="F374" s="125"/>
+      <c r="G374" s="125"/>
+      <c r="H374" s="125"/>
+      <c r="I374" s="125"/>
     </row>
     <row r="375" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A375" s="36"/>
@@ -24137,15 +24158,15 @@
     <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="36"/>
       <c r="B376" s="36"/>
-      <c r="C376" s="123" t="s">
+      <c r="C376" s="125" t="s">
         <v>348</v>
       </c>
-      <c r="D376" s="123"/>
-      <c r="E376" s="123"/>
-      <c r="F376" s="123"/>
-      <c r="G376" s="123"/>
-      <c r="H376" s="123"/>
-      <c r="I376" s="123"/>
+      <c r="D376" s="125"/>
+      <c r="E376" s="125"/>
+      <c r="F376" s="125"/>
+      <c r="G376" s="125"/>
+      <c r="H376" s="125"/>
+      <c r="I376" s="125"/>
     </row>
     <row r="377" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A377" s="36"/>
@@ -24167,15 +24188,15 @@
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="36"/>
       <c r="B378" s="36"/>
-      <c r="C378" s="123" t="s">
+      <c r="C378" s="125" t="s">
         <v>350</v>
       </c>
-      <c r="D378" s="123"/>
-      <c r="E378" s="123"/>
-      <c r="F378" s="123"/>
-      <c r="G378" s="123"/>
-      <c r="H378" s="123"/>
-      <c r="I378" s="123"/>
+      <c r="D378" s="125"/>
+      <c r="E378" s="125"/>
+      <c r="F378" s="125"/>
+      <c r="G378" s="125"/>
+      <c r="H378" s="125"/>
+      <c r="I378" s="125"/>
     </row>
     <row r="379" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A379" s="36"/>
@@ -24195,17 +24216,17 @@
       <c r="I379" s="38"/>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A380" s="127" t="s">
+      <c r="A380" s="126" t="s">
         <v>352</v>
       </c>
-      <c r="B380" s="127"/>
-      <c r="C380" s="127"/>
-      <c r="D380" s="127"/>
-      <c r="E380" s="127"/>
-      <c r="F380" s="127"/>
-      <c r="G380" s="127"/>
-      <c r="H380" s="127"/>
-      <c r="I380" s="127"/>
+      <c r="B380" s="126"/>
+      <c r="C380" s="126"/>
+      <c r="D380" s="126"/>
+      <c r="E380" s="126"/>
+      <c r="F380" s="126"/>
+      <c r="G380" s="126"/>
+      <c r="H380" s="126"/>
+      <c r="I380" s="126"/>
     </row>
     <row r="381" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A381" s="36"/>
@@ -24310,17 +24331,17 @@
       <c r="I386" s="38"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A387" s="127" t="s">
+      <c r="A387" s="126" t="s">
         <v>354</v>
       </c>
-      <c r="B387" s="127"/>
-      <c r="C387" s="127"/>
-      <c r="D387" s="127"/>
-      <c r="E387" s="127"/>
-      <c r="F387" s="127"/>
-      <c r="G387" s="127"/>
-      <c r="H387" s="127"/>
-      <c r="I387" s="127"/>
+      <c r="B387" s="126"/>
+      <c r="C387" s="126"/>
+      <c r="D387" s="126"/>
+      <c r="E387" s="126"/>
+      <c r="F387" s="126"/>
+      <c r="G387" s="126"/>
+      <c r="H387" s="126"/>
+      <c r="I387" s="126"/>
     </row>
     <row r="388" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A388" s="36"/>
@@ -24340,17 +24361,17 @@
       <c r="I388" s="38"/>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A389" s="127" t="s">
+      <c r="A389" s="126" t="s">
         <v>356</v>
       </c>
-      <c r="B389" s="127"/>
-      <c r="C389" s="127"/>
-      <c r="D389" s="127"/>
-      <c r="E389" s="127"/>
-      <c r="F389" s="127"/>
-      <c r="G389" s="127"/>
-      <c r="H389" s="127"/>
-      <c r="I389" s="127"/>
+      <c r="B389" s="126"/>
+      <c r="C389" s="126"/>
+      <c r="D389" s="126"/>
+      <c r="E389" s="126"/>
+      <c r="F389" s="126"/>
+      <c r="G389" s="126"/>
+      <c r="H389" s="126"/>
+      <c r="I389" s="126"/>
     </row>
     <row r="390" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A390" s="36"/>
@@ -24372,15 +24393,15 @@
     <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="36"/>
       <c r="B391" s="36"/>
-      <c r="C391" s="123" t="s">
+      <c r="C391" s="125" t="s">
         <v>359</v>
       </c>
-      <c r="D391" s="123"/>
-      <c r="E391" s="123"/>
-      <c r="F391" s="123"/>
-      <c r="G391" s="123"/>
-      <c r="H391" s="123"/>
-      <c r="I391" s="123"/>
+      <c r="D391" s="125"/>
+      <c r="E391" s="125"/>
+      <c r="F391" s="125"/>
+      <c r="G391" s="125"/>
+      <c r="H391" s="125"/>
+      <c r="I391" s="125"/>
     </row>
     <row r="392" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A392" s="36"/>
@@ -24419,15 +24440,15 @@
     <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="36"/>
       <c r="B394" s="36"/>
-      <c r="C394" s="123" t="s">
+      <c r="C394" s="125" t="s">
         <v>361</v>
       </c>
-      <c r="D394" s="123"/>
-      <c r="E394" s="123"/>
-      <c r="F394" s="123"/>
-      <c r="G394" s="123"/>
-      <c r="H394" s="123"/>
-      <c r="I394" s="123"/>
+      <c r="D394" s="125"/>
+      <c r="E394" s="125"/>
+      <c r="F394" s="125"/>
+      <c r="G394" s="125"/>
+      <c r="H394" s="125"/>
+      <c r="I394" s="125"/>
     </row>
     <row r="395" spans="1:9" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A395" s="36"/>
@@ -24449,15 +24470,15 @@
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="36"/>
       <c r="B396" s="36"/>
-      <c r="C396" s="123" t="s">
+      <c r="C396" s="125" t="s">
         <v>377</v>
       </c>
-      <c r="D396" s="123"/>
-      <c r="E396" s="123"/>
-      <c r="F396" s="123"/>
-      <c r="G396" s="123"/>
-      <c r="H396" s="123"/>
-      <c r="I396" s="123"/>
+      <c r="D396" s="125"/>
+      <c r="E396" s="125"/>
+      <c r="F396" s="125"/>
+      <c r="G396" s="125"/>
+      <c r="H396" s="125"/>
+      <c r="I396" s="125"/>
     </row>
     <row r="397" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A397" s="36"/>
@@ -24498,15 +24519,15 @@
         <v>893</v>
       </c>
       <c r="B399" s="36"/>
-      <c r="C399" s="123" t="s">
+      <c r="C399" s="125" t="s">
         <v>379</v>
       </c>
-      <c r="D399" s="123"/>
-      <c r="E399" s="123"/>
-      <c r="F399" s="123"/>
-      <c r="G399" s="123"/>
-      <c r="H399" s="123"/>
-      <c r="I399" s="123"/>
+      <c r="D399" s="125"/>
+      <c r="E399" s="125"/>
+      <c r="F399" s="125"/>
+      <c r="G399" s="125"/>
+      <c r="H399" s="125"/>
+      <c r="I399" s="125"/>
     </row>
     <row r="400" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A400" s="36"/>
@@ -24528,15 +24549,15 @@
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="36"/>
       <c r="B401" s="36"/>
-      <c r="C401" s="123" t="s">
+      <c r="C401" s="125" t="s">
         <v>381</v>
       </c>
-      <c r="D401" s="123"/>
-      <c r="E401" s="123"/>
-      <c r="F401" s="123"/>
-      <c r="G401" s="123"/>
-      <c r="H401" s="123"/>
-      <c r="I401" s="123"/>
+      <c r="D401" s="125"/>
+      <c r="E401" s="125"/>
+      <c r="F401" s="125"/>
+      <c r="G401" s="125"/>
+      <c r="H401" s="125"/>
+      <c r="I401" s="125"/>
     </row>
     <row r="402" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A402" s="36"/>
@@ -24558,15 +24579,15 @@
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="36"/>
       <c r="B403" s="36"/>
-      <c r="C403" s="123" t="s">
+      <c r="C403" s="125" t="s">
         <v>383</v>
       </c>
-      <c r="D403" s="123"/>
-      <c r="E403" s="123"/>
-      <c r="F403" s="123"/>
-      <c r="G403" s="123"/>
-      <c r="H403" s="123"/>
-      <c r="I403" s="123"/>
+      <c r="D403" s="125"/>
+      <c r="E403" s="125"/>
+      <c r="F403" s="125"/>
+      <c r="G403" s="125"/>
+      <c r="H403" s="125"/>
+      <c r="I403" s="125"/>
     </row>
     <row r="404" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A404" s="36"/>
@@ -24588,15 +24609,15 @@
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="36"/>
       <c r="B405" s="36"/>
-      <c r="C405" s="123" t="s">
+      <c r="C405" s="125" t="s">
         <v>395</v>
       </c>
-      <c r="D405" s="123"/>
-      <c r="E405" s="123"/>
-      <c r="F405" s="123"/>
-      <c r="G405" s="123"/>
-      <c r="H405" s="123"/>
-      <c r="I405" s="123"/>
+      <c r="D405" s="125"/>
+      <c r="E405" s="125"/>
+      <c r="F405" s="125"/>
+      <c r="G405" s="125"/>
+      <c r="H405" s="125"/>
+      <c r="I405" s="125"/>
     </row>
     <row r="406" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A406" s="36"/>
@@ -24618,15 +24639,15 @@
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="36"/>
       <c r="B407" s="36"/>
-      <c r="C407" s="123" t="s">
+      <c r="C407" s="125" t="s">
         <v>401</v>
       </c>
-      <c r="D407" s="123"/>
-      <c r="E407" s="123"/>
-      <c r="F407" s="123"/>
-      <c r="G407" s="123"/>
-      <c r="H407" s="123"/>
-      <c r="I407" s="123"/>
+      <c r="D407" s="125"/>
+      <c r="E407" s="125"/>
+      <c r="F407" s="125"/>
+      <c r="G407" s="125"/>
+      <c r="H407" s="125"/>
+      <c r="I407" s="125"/>
     </row>
     <row r="408" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A408" s="36"/>
@@ -24648,15 +24669,15 @@
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="36"/>
       <c r="B409" s="36"/>
-      <c r="C409" s="123" t="s">
+      <c r="C409" s="125" t="s">
         <v>407</v>
       </c>
-      <c r="D409" s="123"/>
-      <c r="E409" s="123"/>
-      <c r="F409" s="123"/>
-      <c r="G409" s="123"/>
-      <c r="H409" s="123"/>
-      <c r="I409" s="123"/>
+      <c r="D409" s="125"/>
+      <c r="E409" s="125"/>
+      <c r="F409" s="125"/>
+      <c r="G409" s="125"/>
+      <c r="H409" s="125"/>
+      <c r="I409" s="125"/>
     </row>
     <row r="410" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A410" s="36"/>
@@ -24678,15 +24699,15 @@
     <row r="411" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="36"/>
       <c r="B411" s="36"/>
-      <c r="C411" s="123" t="s">
+      <c r="C411" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="D411" s="123"/>
-      <c r="E411" s="123"/>
-      <c r="F411" s="123"/>
-      <c r="G411" s="123"/>
-      <c r="H411" s="123"/>
-      <c r="I411" s="123"/>
+      <c r="D411" s="125"/>
+      <c r="E411" s="125"/>
+      <c r="F411" s="125"/>
+      <c r="G411" s="125"/>
+      <c r="H411" s="125"/>
+      <c r="I411" s="125"/>
     </row>
     <row r="412" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A412" s="36"/>
@@ -24725,15 +24746,15 @@
     <row r="414" spans="1:9" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="36"/>
       <c r="B414" s="36"/>
-      <c r="C414" s="123" t="s">
+      <c r="C414" s="125" t="s">
         <v>170</v>
       </c>
-      <c r="D414" s="123"/>
-      <c r="E414" s="123"/>
-      <c r="F414" s="123"/>
-      <c r="G414" s="123"/>
-      <c r="H414" s="123"/>
-      <c r="I414" s="123"/>
+      <c r="D414" s="125"/>
+      <c r="E414" s="125"/>
+      <c r="F414" s="125"/>
+      <c r="G414" s="125"/>
+      <c r="H414" s="125"/>
+      <c r="I414" s="125"/>
     </row>
     <row r="415" spans="1:9" s="7" customFormat="1" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A415" s="36"/>
@@ -24772,15 +24793,15 @@
     <row r="417" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="36"/>
       <c r="B417" s="36"/>
-      <c r="C417" s="123" t="s">
+      <c r="C417" s="125" t="s">
         <v>173</v>
       </c>
-      <c r="D417" s="123"/>
-      <c r="E417" s="123"/>
-      <c r="F417" s="123"/>
-      <c r="G417" s="123"/>
-      <c r="H417" s="123"/>
-      <c r="I417" s="123"/>
+      <c r="D417" s="125"/>
+      <c r="E417" s="125"/>
+      <c r="F417" s="125"/>
+      <c r="G417" s="125"/>
+      <c r="H417" s="125"/>
+      <c r="I417" s="125"/>
     </row>
     <row r="418" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A418" s="36"/>
@@ -24819,15 +24840,15 @@
     <row r="420" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="36"/>
       <c r="B420" s="36"/>
-      <c r="C420" s="123" t="s">
+      <c r="C420" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="D420" s="123"/>
-      <c r="E420" s="123"/>
-      <c r="F420" s="123"/>
-      <c r="G420" s="123"/>
-      <c r="H420" s="123"/>
-      <c r="I420" s="123"/>
+      <c r="D420" s="125"/>
+      <c r="E420" s="125"/>
+      <c r="F420" s="125"/>
+      <c r="G420" s="125"/>
+      <c r="H420" s="125"/>
+      <c r="I420" s="125"/>
     </row>
     <row r="421" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A421" s="36"/>
@@ -24866,15 +24887,15 @@
     <row r="423" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="36"/>
       <c r="B423" s="36"/>
-      <c r="C423" s="123" t="s">
+      <c r="C423" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="D423" s="123"/>
-      <c r="E423" s="123"/>
-      <c r="F423" s="123"/>
-      <c r="G423" s="123"/>
-      <c r="H423" s="123"/>
-      <c r="I423" s="123"/>
+      <c r="D423" s="125"/>
+      <c r="E423" s="125"/>
+      <c r="F423" s="125"/>
+      <c r="G423" s="125"/>
+      <c r="H423" s="125"/>
+      <c r="I423" s="125"/>
     </row>
     <row r="424" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A424" s="36"/>
@@ -24911,17 +24932,17 @@
       <c r="I425" s="38"/>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A426" s="123" t="s">
+      <c r="A426" s="125" t="s">
         <v>163</v>
       </c>
-      <c r="B426" s="123"/>
-      <c r="C426" s="123"/>
-      <c r="D426" s="123"/>
-      <c r="E426" s="123"/>
-      <c r="F426" s="123"/>
-      <c r="G426" s="123"/>
-      <c r="H426" s="123"/>
-      <c r="I426" s="123"/>
+      <c r="B426" s="125"/>
+      <c r="C426" s="125"/>
+      <c r="D426" s="125"/>
+      <c r="E426" s="125"/>
+      <c r="F426" s="125"/>
+      <c r="G426" s="125"/>
+      <c r="H426" s="125"/>
+      <c r="I426" s="125"/>
     </row>
     <row r="427" spans="1:9" s="7" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A427" s="56"/>
@@ -25181,15 +25202,15 @@
     <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="36"/>
       <c r="B442" s="36"/>
-      <c r="C442" s="123" t="s">
+      <c r="C442" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="D442" s="123"/>
-      <c r="E442" s="123"/>
-      <c r="F442" s="123"/>
-      <c r="G442" s="123"/>
-      <c r="H442" s="123"/>
-      <c r="I442" s="123"/>
+      <c r="D442" s="125"/>
+      <c r="E442" s="125"/>
+      <c r="F442" s="125"/>
+      <c r="G442" s="125"/>
+      <c r="H442" s="125"/>
+      <c r="I442" s="125"/>
     </row>
     <row r="443" spans="1:9" s="7" customFormat="1" ht="127.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A443" s="56"/>
@@ -25228,15 +25249,15 @@
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="36"/>
       <c r="B445" s="36"/>
-      <c r="C445" s="123" t="s">
+      <c r="C445" s="125" t="s">
         <v>218</v>
       </c>
-      <c r="D445" s="123"/>
-      <c r="E445" s="123"/>
-      <c r="F445" s="123"/>
-      <c r="G445" s="123"/>
-      <c r="H445" s="123"/>
-      <c r="I445" s="123"/>
+      <c r="D445" s="125"/>
+      <c r="E445" s="125"/>
+      <c r="F445" s="125"/>
+      <c r="G445" s="125"/>
+      <c r="H445" s="125"/>
+      <c r="I445" s="125"/>
     </row>
     <row r="446" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A446" s="36"/>
@@ -25292,15 +25313,15 @@
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="36"/>
       <c r="B449" s="36"/>
-      <c r="C449" s="123" t="s">
+      <c r="C449" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="D449" s="123"/>
-      <c r="E449" s="123"/>
-      <c r="F449" s="123"/>
-      <c r="G449" s="123"/>
-      <c r="H449" s="123"/>
-      <c r="I449" s="123"/>
+      <c r="D449" s="125"/>
+      <c r="E449" s="125"/>
+      <c r="F449" s="125"/>
+      <c r="G449" s="125"/>
+      <c r="H449" s="125"/>
+      <c r="I449" s="125"/>
     </row>
     <row r="450" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A450" s="36"/>
@@ -25373,15 +25394,15 @@
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="36"/>
       <c r="B454" s="36"/>
-      <c r="C454" s="123" t="s">
+      <c r="C454" s="125" t="s">
         <v>227</v>
       </c>
-      <c r="D454" s="123"/>
-      <c r="E454" s="123"/>
-      <c r="F454" s="123"/>
-      <c r="G454" s="123"/>
-      <c r="H454" s="123"/>
-      <c r="I454" s="123"/>
+      <c r="D454" s="125"/>
+      <c r="E454" s="125"/>
+      <c r="F454" s="125"/>
+      <c r="G454" s="125"/>
+      <c r="H454" s="125"/>
+      <c r="I454" s="125"/>
     </row>
     <row r="455" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A455" s="36"/>
@@ -25420,15 +25441,15 @@
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="36"/>
       <c r="B457" s="36"/>
-      <c r="C457" s="123" t="s">
+      <c r="C457" s="125" t="s">
         <v>228</v>
       </c>
-      <c r="D457" s="123"/>
-      <c r="E457" s="123"/>
-      <c r="F457" s="123"/>
-      <c r="G457" s="123"/>
-      <c r="H457" s="123"/>
-      <c r="I457" s="123"/>
+      <c r="D457" s="125"/>
+      <c r="E457" s="125"/>
+      <c r="F457" s="125"/>
+      <c r="G457" s="125"/>
+      <c r="H457" s="125"/>
+      <c r="I457" s="125"/>
     </row>
     <row r="458" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A458" s="36"/>
@@ -25484,15 +25505,15 @@
     <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="36"/>
       <c r="B461" s="36"/>
-      <c r="C461" s="123" t="s">
+      <c r="C461" s="125" t="s">
         <v>229</v>
       </c>
-      <c r="D461" s="123"/>
-      <c r="E461" s="123"/>
-      <c r="F461" s="123"/>
-      <c r="G461" s="123"/>
-      <c r="H461" s="123"/>
-      <c r="I461" s="123"/>
+      <c r="D461" s="125"/>
+      <c r="E461" s="125"/>
+      <c r="F461" s="125"/>
+      <c r="G461" s="125"/>
+      <c r="H461" s="125"/>
+      <c r="I461" s="125"/>
     </row>
     <row r="462" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A462" s="36"/>
@@ -25548,15 +25569,15 @@
     <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="36"/>
       <c r="B465" s="36"/>
-      <c r="C465" s="123" t="s">
+      <c r="C465" s="125" t="s">
         <v>230</v>
       </c>
-      <c r="D465" s="123"/>
-      <c r="E465" s="123"/>
-      <c r="F465" s="123"/>
-      <c r="G465" s="123"/>
-      <c r="H465" s="123"/>
-      <c r="I465" s="123"/>
+      <c r="D465" s="125"/>
+      <c r="E465" s="125"/>
+      <c r="F465" s="125"/>
+      <c r="G465" s="125"/>
+      <c r="H465" s="125"/>
+      <c r="I465" s="125"/>
     </row>
     <row r="466" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A466" s="36"/>
@@ -25612,15 +25633,15 @@
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="36"/>
       <c r="B469" s="36"/>
-      <c r="C469" s="123" t="s">
+      <c r="C469" s="125" t="s">
         <v>232</v>
       </c>
-      <c r="D469" s="123"/>
-      <c r="E469" s="123"/>
-      <c r="F469" s="123"/>
-      <c r="G469" s="123"/>
-      <c r="H469" s="123"/>
-      <c r="I469" s="123"/>
+      <c r="D469" s="125"/>
+      <c r="E469" s="125"/>
+      <c r="F469" s="125"/>
+      <c r="G469" s="125"/>
+      <c r="H469" s="125"/>
+      <c r="I469" s="125"/>
     </row>
     <row r="470" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A470" s="36"/>
@@ -25676,15 +25697,15 @@
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="36"/>
       <c r="B473" s="36"/>
-      <c r="C473" s="123" t="s">
+      <c r="C473" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="D473" s="123"/>
-      <c r="E473" s="123"/>
-      <c r="F473" s="123"/>
-      <c r="G473" s="123"/>
-      <c r="H473" s="123"/>
-      <c r="I473" s="123"/>
+      <c r="D473" s="125"/>
+      <c r="E473" s="125"/>
+      <c r="F473" s="125"/>
+      <c r="G473" s="125"/>
+      <c r="H473" s="125"/>
+      <c r="I473" s="125"/>
     </row>
     <row r="474" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A474" s="36"/>
@@ -25774,15 +25795,15 @@
     <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="36"/>
       <c r="B479" s="36"/>
-      <c r="C479" s="123" t="s">
+      <c r="C479" s="125" t="s">
         <v>414</v>
       </c>
-      <c r="D479" s="123"/>
-      <c r="E479" s="123"/>
-      <c r="F479" s="123"/>
-      <c r="G479" s="123"/>
-      <c r="H479" s="123"/>
-      <c r="I479" s="123"/>
+      <c r="D479" s="125"/>
+      <c r="E479" s="125"/>
+      <c r="F479" s="125"/>
+      <c r="G479" s="125"/>
+      <c r="H479" s="125"/>
+      <c r="I479" s="125"/>
     </row>
     <row r="480" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A480" s="36"/>
@@ -25940,15 +25961,15 @@
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="36"/>
       <c r="B489" s="36"/>
-      <c r="C489" s="123" t="s">
+      <c r="C489" s="125" t="s">
         <v>954</v>
       </c>
-      <c r="D489" s="123"/>
-      <c r="E489" s="123"/>
-      <c r="F489" s="123"/>
-      <c r="G489" s="123"/>
-      <c r="H489" s="123"/>
-      <c r="I489" s="123"/>
+      <c r="D489" s="125"/>
+      <c r="E489" s="125"/>
+      <c r="F489" s="125"/>
+      <c r="G489" s="125"/>
+      <c r="H489" s="125"/>
+      <c r="I489" s="125"/>
     </row>
     <row r="490" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A490" s="36"/>
@@ -25970,15 +25991,15 @@
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="36"/>
       <c r="B491" s="36"/>
-      <c r="C491" s="123" t="s">
+      <c r="C491" s="125" t="s">
         <v>957</v>
       </c>
-      <c r="D491" s="123"/>
-      <c r="E491" s="123"/>
-      <c r="F491" s="123"/>
-      <c r="G491" s="123"/>
-      <c r="H491" s="123"/>
-      <c r="I491" s="123"/>
+      <c r="D491" s="125"/>
+      <c r="E491" s="125"/>
+      <c r="F491" s="125"/>
+      <c r="G491" s="125"/>
+      <c r="H491" s="125"/>
+      <c r="I491" s="125"/>
     </row>
     <row r="492" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A492" s="36"/>
@@ -26000,15 +26021,15 @@
     <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="36"/>
       <c r="B493" s="36"/>
-      <c r="C493" s="123" t="s">
+      <c r="C493" s="125" t="s">
         <v>432</v>
       </c>
-      <c r="D493" s="123"/>
-      <c r="E493" s="123"/>
-      <c r="F493" s="123"/>
-      <c r="G493" s="123"/>
-      <c r="H493" s="123"/>
-      <c r="I493" s="123"/>
+      <c r="D493" s="125"/>
+      <c r="E493" s="125"/>
+      <c r="F493" s="125"/>
+      <c r="G493" s="125"/>
+      <c r="H493" s="125"/>
+      <c r="I493" s="125"/>
     </row>
     <row r="494" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A494" s="36"/>
@@ -26098,15 +26119,15 @@
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="36"/>
       <c r="B499" s="36"/>
-      <c r="C499" s="123" t="s">
+      <c r="C499" s="125" t="s">
         <v>434</v>
       </c>
-      <c r="D499" s="123"/>
-      <c r="E499" s="123"/>
-      <c r="F499" s="123"/>
-      <c r="G499" s="123"/>
-      <c r="H499" s="123"/>
-      <c r="I499" s="123"/>
+      <c r="D499" s="125"/>
+      <c r="E499" s="125"/>
+      <c r="F499" s="125"/>
+      <c r="G499" s="125"/>
+      <c r="H499" s="125"/>
+      <c r="I499" s="125"/>
     </row>
     <row r="500" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A500" s="36"/>
@@ -26196,15 +26217,15 @@
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="36"/>
       <c r="B505" s="36"/>
-      <c r="C505" s="123" t="s">
+      <c r="C505" s="125" t="s">
         <v>436</v>
       </c>
-      <c r="D505" s="123"/>
-      <c r="E505" s="123"/>
-      <c r="F505" s="123"/>
-      <c r="G505" s="123"/>
-      <c r="H505" s="123"/>
-      <c r="I505" s="123"/>
+      <c r="D505" s="125"/>
+      <c r="E505" s="125"/>
+      <c r="F505" s="125"/>
+      <c r="G505" s="125"/>
+      <c r="H505" s="125"/>
+      <c r="I505" s="125"/>
     </row>
     <row r="506" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A506" s="36"/>
@@ -26277,15 +26298,15 @@
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="36"/>
       <c r="B510" s="36"/>
-      <c r="C510" s="123" t="s">
+      <c r="C510" s="125" t="s">
         <v>443</v>
       </c>
-      <c r="D510" s="123"/>
-      <c r="E510" s="123"/>
-      <c r="F510" s="123"/>
-      <c r="G510" s="123"/>
-      <c r="H510" s="123"/>
-      <c r="I510" s="123"/>
+      <c r="D510" s="125"/>
+      <c r="E510" s="125"/>
+      <c r="F510" s="125"/>
+      <c r="G510" s="125"/>
+      <c r="H510" s="125"/>
+      <c r="I510" s="125"/>
     </row>
     <row r="511" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A511" s="36"/>
@@ -26375,15 +26396,15 @@
     <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="36"/>
       <c r="B516" s="36"/>
-      <c r="C516" s="123" t="s">
+      <c r="C516" s="125" t="s">
         <v>456</v>
       </c>
-      <c r="D516" s="123"/>
-      <c r="E516" s="123"/>
-      <c r="F516" s="123"/>
-      <c r="G516" s="123"/>
-      <c r="H516" s="123"/>
-      <c r="I516" s="123"/>
+      <c r="D516" s="125"/>
+      <c r="E516" s="125"/>
+      <c r="F516" s="125"/>
+      <c r="G516" s="125"/>
+      <c r="H516" s="125"/>
+      <c r="I516" s="125"/>
     </row>
     <row r="517" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A517" s="36"/>
@@ -26456,15 +26477,15 @@
     <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="36"/>
       <c r="B521" s="36"/>
-      <c r="C521" s="123" t="s">
+      <c r="C521" s="125" t="s">
         <v>458</v>
       </c>
-      <c r="D521" s="123"/>
-      <c r="E521" s="123"/>
-      <c r="F521" s="123"/>
-      <c r="G521" s="123"/>
-      <c r="H521" s="123"/>
-      <c r="I521" s="123"/>
+      <c r="D521" s="125"/>
+      <c r="E521" s="125"/>
+      <c r="F521" s="125"/>
+      <c r="G521" s="125"/>
+      <c r="H521" s="125"/>
+      <c r="I521" s="125"/>
     </row>
     <row r="522" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A522" s="36"/>
@@ -26537,15 +26558,15 @@
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="36"/>
       <c r="B526" s="36"/>
-      <c r="C526" s="123" t="s">
+      <c r="C526" s="125" t="s">
         <v>460</v>
       </c>
-      <c r="D526" s="123"/>
-      <c r="E526" s="123"/>
-      <c r="F526" s="123"/>
-      <c r="G526" s="123"/>
-      <c r="H526" s="123"/>
-      <c r="I526" s="123"/>
+      <c r="D526" s="125"/>
+      <c r="E526" s="125"/>
+      <c r="F526" s="125"/>
+      <c r="G526" s="125"/>
+      <c r="H526" s="125"/>
+      <c r="I526" s="125"/>
     </row>
     <row r="527" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A527" s="36"/>
@@ -26652,15 +26673,15 @@
     <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" s="36"/>
       <c r="B533" s="36"/>
-      <c r="C533" s="123" t="s">
+      <c r="C533" s="125" t="s">
         <v>469</v>
       </c>
-      <c r="D533" s="123"/>
-      <c r="E533" s="123"/>
-      <c r="F533" s="123"/>
-      <c r="G533" s="123"/>
-      <c r="H533" s="123"/>
-      <c r="I533" s="123"/>
+      <c r="D533" s="125"/>
+      <c r="E533" s="125"/>
+      <c r="F533" s="125"/>
+      <c r="G533" s="125"/>
+      <c r="H533" s="125"/>
+      <c r="I533" s="125"/>
     </row>
     <row r="534" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A534" s="36"/>
@@ -26733,15 +26754,15 @@
     <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" s="36"/>
       <c r="B538" s="36"/>
-      <c r="C538" s="123" t="s">
+      <c r="C538" s="125" t="s">
         <v>473</v>
       </c>
-      <c r="D538" s="123"/>
-      <c r="E538" s="123"/>
-      <c r="F538" s="123"/>
-      <c r="G538" s="123"/>
-      <c r="H538" s="123"/>
-      <c r="I538" s="123"/>
+      <c r="D538" s="125"/>
+      <c r="E538" s="125"/>
+      <c r="F538" s="125"/>
+      <c r="G538" s="125"/>
+      <c r="H538" s="125"/>
+      <c r="I538" s="125"/>
     </row>
     <row r="539" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A539" s="36"/>
@@ -26812,17 +26833,17 @@
       <c r="I542" s="38"/>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A543" s="123" t="s">
+      <c r="A543" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="B543" s="123"/>
-      <c r="C543" s="123"/>
-      <c r="D543" s="123"/>
-      <c r="E543" s="123"/>
-      <c r="F543" s="123"/>
-      <c r="G543" s="123"/>
-      <c r="H543" s="123"/>
-      <c r="I543" s="123"/>
+      <c r="B543" s="125"/>
+      <c r="C543" s="125"/>
+      <c r="D543" s="125"/>
+      <c r="E543" s="125"/>
+      <c r="F543" s="125"/>
+      <c r="G543" s="125"/>
+      <c r="H543" s="125"/>
+      <c r="I543" s="125"/>
     </row>
     <row r="544" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A544" s="36"/>
@@ -26963,15 +26984,15 @@
     <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="36"/>
       <c r="B552" s="36"/>
-      <c r="C552" s="127" t="s">
+      <c r="C552" s="126" t="s">
         <v>275</v>
       </c>
-      <c r="D552" s="127"/>
-      <c r="E552" s="127"/>
-      <c r="F552" s="127"/>
-      <c r="G552" s="127"/>
-      <c r="H552" s="127"/>
-      <c r="I552" s="127"/>
+      <c r="D552" s="126"/>
+      <c r="E552" s="126"/>
+      <c r="F552" s="126"/>
+      <c r="G552" s="126"/>
+      <c r="H552" s="126"/>
+      <c r="I552" s="126"/>
     </row>
     <row r="553" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A553" s="36"/>
@@ -26993,15 +27014,15 @@
     <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" s="36"/>
       <c r="B554" s="36"/>
-      <c r="C554" s="127" t="s">
+      <c r="C554" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="D554" s="127"/>
-      <c r="E554" s="127"/>
-      <c r="F554" s="127"/>
-      <c r="G554" s="127"/>
-      <c r="H554" s="127"/>
-      <c r="I554" s="127"/>
+      <c r="D554" s="126"/>
+      <c r="E554" s="126"/>
+      <c r="F554" s="126"/>
+      <c r="G554" s="126"/>
+      <c r="H554" s="126"/>
+      <c r="I554" s="126"/>
     </row>
     <row r="555" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A555" s="36"/>
@@ -27040,15 +27061,15 @@
     <row r="557" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="36"/>
       <c r="B557" s="36"/>
-      <c r="C557" s="124" t="s">
+      <c r="C557" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="D557" s="125"/>
-      <c r="E557" s="125"/>
-      <c r="F557" s="125"/>
-      <c r="G557" s="125"/>
-      <c r="H557" s="125"/>
-      <c r="I557" s="126"/>
+      <c r="D557" s="128"/>
+      <c r="E557" s="128"/>
+      <c r="F557" s="128"/>
+      <c r="G557" s="128"/>
+      <c r="H557" s="128"/>
+      <c r="I557" s="129"/>
     </row>
     <row r="558" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A558" s="36"/>
@@ -27070,15 +27091,15 @@
     <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="36"/>
       <c r="B559" s="36"/>
-      <c r="C559" s="127" t="s">
+      <c r="C559" s="126" t="s">
         <v>480</v>
       </c>
-      <c r="D559" s="127"/>
-      <c r="E559" s="127"/>
-      <c r="F559" s="127"/>
-      <c r="G559" s="127"/>
-      <c r="H559" s="127"/>
-      <c r="I559" s="127"/>
+      <c r="D559" s="126"/>
+      <c r="E559" s="126"/>
+      <c r="F559" s="126"/>
+      <c r="G559" s="126"/>
+      <c r="H559" s="126"/>
+      <c r="I559" s="126"/>
     </row>
     <row r="560" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A560" s="36"/>
@@ -27100,15 +27121,15 @@
     <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="36"/>
       <c r="B561" s="36"/>
-      <c r="C561" s="127" t="s">
+      <c r="C561" s="126" t="s">
         <v>483</v>
       </c>
-      <c r="D561" s="127"/>
-      <c r="E561" s="127"/>
-      <c r="F561" s="127"/>
-      <c r="G561" s="127"/>
-      <c r="H561" s="127"/>
-      <c r="I561" s="127"/>
+      <c r="D561" s="126"/>
+      <c r="E561" s="126"/>
+      <c r="F561" s="126"/>
+      <c r="G561" s="126"/>
+      <c r="H561" s="126"/>
+      <c r="I561" s="126"/>
     </row>
     <row r="562" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A562" s="36"/>
@@ -27130,15 +27151,15 @@
     <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" s="36"/>
       <c r="B563" s="36"/>
-      <c r="C563" s="127" t="s">
+      <c r="C563" s="126" t="s">
         <v>240</v>
       </c>
-      <c r="D563" s="127"/>
-      <c r="E563" s="127"/>
-      <c r="F563" s="127"/>
-      <c r="G563" s="127"/>
-      <c r="H563" s="127"/>
-      <c r="I563" s="127"/>
+      <c r="D563" s="126"/>
+      <c r="E563" s="126"/>
+      <c r="F563" s="126"/>
+      <c r="G563" s="126"/>
+      <c r="H563" s="126"/>
+      <c r="I563" s="126"/>
     </row>
     <row r="564" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A564" s="36"/>
@@ -27192,17 +27213,17 @@
       <c r="I566" s="38"/>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A567" s="123" t="s">
+      <c r="A567" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="B567" s="123"/>
-      <c r="C567" s="123"/>
-      <c r="D567" s="123"/>
-      <c r="E567" s="123"/>
-      <c r="F567" s="123"/>
-      <c r="G567" s="123"/>
-      <c r="H567" s="123"/>
-      <c r="I567" s="123"/>
+      <c r="B567" s="125"/>
+      <c r="C567" s="125"/>
+      <c r="D567" s="125"/>
+      <c r="E567" s="125"/>
+      <c r="F567" s="125"/>
+      <c r="G567" s="125"/>
+      <c r="H567" s="125"/>
+      <c r="I567" s="125"/>
     </row>
     <row r="568" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A568" s="36"/>
@@ -27413,15 +27434,15 @@
         <v>192</v>
       </c>
       <c r="B580" s="36"/>
-      <c r="C580" s="127" t="s">
+      <c r="C580" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="D580" s="127"/>
-      <c r="E580" s="127"/>
-      <c r="F580" s="127"/>
-      <c r="G580" s="127"/>
-      <c r="H580" s="127"/>
-      <c r="I580" s="127"/>
+      <c r="D580" s="126"/>
+      <c r="E580" s="126"/>
+      <c r="F580" s="126"/>
+      <c r="G580" s="126"/>
+      <c r="H580" s="126"/>
+      <c r="I580" s="126"/>
     </row>
     <row r="581" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A581" s="36"/>
@@ -27628,17 +27649,17 @@
       <c r="I592" s="57"/>
     </row>
     <row r="593" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="124" t="s">
+      <c r="A593" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="B593" s="125"/>
-      <c r="C593" s="125"/>
-      <c r="D593" s="125"/>
-      <c r="E593" s="125"/>
-      <c r="F593" s="125"/>
-      <c r="G593" s="125"/>
-      <c r="H593" s="125"/>
-      <c r="I593" s="126"/>
+      <c r="B593" s="128"/>
+      <c r="C593" s="128"/>
+      <c r="D593" s="128"/>
+      <c r="E593" s="128"/>
+      <c r="F593" s="128"/>
+      <c r="G593" s="128"/>
+      <c r="H593" s="128"/>
+      <c r="I593" s="129"/>
     </row>
     <row r="594" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A594" s="36"/>
@@ -27811,25 +27832,27 @@
       <c r="I603" s="57"/>
     </row>
     <row r="604" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="124" t="s">
+      <c r="A604" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="B604" s="125"/>
-      <c r="C604" s="125"/>
-      <c r="D604" s="125"/>
-      <c r="E604" s="125"/>
-      <c r="F604" s="125"/>
-      <c r="G604" s="125"/>
-      <c r="H604" s="125"/>
-      <c r="I604" s="126"/>
+      <c r="B604" s="128"/>
+      <c r="C604" s="128"/>
+      <c r="D604" s="128"/>
+      <c r="E604" s="128"/>
+      <c r="F604" s="128"/>
+      <c r="G604" s="128"/>
+      <c r="H604" s="128"/>
+      <c r="I604" s="129"/>
     </row>
     <row r="605" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A605" s="36"/>
       <c r="B605" s="36"/>
-      <c r="C605" s="36"/>
+      <c r="C605" s="36" t="s">
+        <v>1106</v>
+      </c>
       <c r="D605" s="36"/>
-      <c r="E605" s="55">
-        <v>1</v>
+      <c r="E605" s="55" t="s">
+        <v>992</v>
       </c>
       <c r="F605" s="36" t="s">
         <v>677</v>
@@ -27843,10 +27866,12 @@
     <row r="606" spans="1:9" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A606" s="36"/>
       <c r="B606" s="36"/>
-      <c r="C606" s="36"/>
+      <c r="C606" s="36" t="s">
+        <v>1106</v>
+      </c>
       <c r="D606" s="36"/>
-      <c r="E606" s="55">
-        <v>2</v>
+      <c r="E606" s="55" t="s">
+        <v>994</v>
       </c>
       <c r="F606" s="36" t="s">
         <v>665</v>
@@ -27860,10 +27885,12 @@
     <row r="607" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A607" s="36"/>
       <c r="B607" s="36"/>
-      <c r="C607" s="36"/>
+      <c r="C607" s="36" t="s">
+        <v>1106</v>
+      </c>
       <c r="D607" s="36"/>
-      <c r="E607" s="55">
-        <v>3</v>
+      <c r="E607" s="55" t="s">
+        <v>996</v>
       </c>
       <c r="F607" s="36" t="s">
         <v>1035</v>
@@ -27877,10 +27904,12 @@
     <row r="608" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A608" s="36"/>
       <c r="B608" s="36"/>
-      <c r="C608" s="36"/>
+      <c r="C608" s="36" t="s">
+        <v>1106</v>
+      </c>
       <c r="D608" s="36"/>
-      <c r="E608" s="55">
-        <v>4</v>
+      <c r="E608" s="55" t="s">
+        <v>999</v>
       </c>
       <c r="F608" s="36" t="s">
         <v>496</v>
@@ -27894,10 +27923,12 @@
     <row r="609" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A609" s="59"/>
       <c r="B609" s="59"/>
-      <c r="C609" s="59"/>
+      <c r="C609" s="36" t="s">
+        <v>1106</v>
+      </c>
       <c r="D609" s="59"/>
-      <c r="E609" s="60">
-        <v>5</v>
+      <c r="E609" s="60" t="s">
+        <v>1107</v>
       </c>
       <c r="F609" s="59" t="s">
         <v>919</v>
@@ -27911,10 +27942,12 @@
     <row r="610" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A610" s="59"/>
       <c r="B610" s="59"/>
-      <c r="C610" s="59"/>
+      <c r="C610" s="36" t="s">
+        <v>1106</v>
+      </c>
       <c r="D610" s="59"/>
-      <c r="E610" s="60">
-        <v>6</v>
+      <c r="E610" s="60" t="s">
+        <v>1108</v>
       </c>
       <c r="F610" s="59" t="s">
         <v>742</v>
@@ -27928,10 +27961,12 @@
     <row r="611" spans="1:9" ht="114.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A611" s="36"/>
       <c r="B611" s="36"/>
-      <c r="C611" s="36"/>
+      <c r="C611" s="36" t="s">
+        <v>1106</v>
+      </c>
       <c r="D611" s="36"/>
-      <c r="E611" s="55">
-        <v>7</v>
+      <c r="E611" s="55" t="s">
+        <v>1109</v>
       </c>
       <c r="F611" s="36" t="s">
         <v>731</v>
@@ -27945,10 +27980,12 @@
     <row r="612" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A612" s="36"/>
       <c r="B612" s="36"/>
-      <c r="C612" s="36"/>
+      <c r="C612" s="36" t="s">
+        <v>1106</v>
+      </c>
       <c r="D612" s="36"/>
-      <c r="E612" s="55">
-        <v>8</v>
+      <c r="E612" s="55" t="s">
+        <v>1110</v>
       </c>
       <c r="F612" s="36" t="s">
         <v>691</v>
@@ -27962,10 +27999,12 @@
     <row r="613" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A613" s="36"/>
       <c r="B613" s="36"/>
-      <c r="C613" s="36"/>
+      <c r="C613" s="36" t="s">
+        <v>1106</v>
+      </c>
       <c r="D613" s="36"/>
-      <c r="E613" s="55">
-        <v>9</v>
+      <c r="E613" s="55" t="s">
+        <v>1111</v>
       </c>
       <c r="F613" s="38" t="s">
         <v>506</v>
@@ -27977,17 +28016,17 @@
       <c r="I613" s="36"/>
     </row>
     <row r="614" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="124" t="s">
+      <c r="A614" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="B614" s="125"/>
-      <c r="C614" s="125"/>
-      <c r="D614" s="125"/>
-      <c r="E614" s="125"/>
-      <c r="F614" s="125"/>
-      <c r="G614" s="125"/>
-      <c r="H614" s="125"/>
-      <c r="I614" s="126"/>
+      <c r="B614" s="128"/>
+      <c r="C614" s="128"/>
+      <c r="D614" s="128"/>
+      <c r="E614" s="128"/>
+      <c r="F614" s="128"/>
+      <c r="G614" s="128"/>
+      <c r="H614" s="128"/>
+      <c r="I614" s="129"/>
     </row>
     <row r="615" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A615" s="36"/>
@@ -28147,15 +28186,15 @@
         <v>176</v>
       </c>
       <c r="B624" s="34"/>
-      <c r="C624" s="127" t="s">
+      <c r="C624" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="D624" s="127"/>
-      <c r="E624" s="127"/>
-      <c r="F624" s="127"/>
-      <c r="G624" s="127"/>
-      <c r="H624" s="127"/>
-      <c r="I624" s="127"/>
+      <c r="D624" s="126"/>
+      <c r="E624" s="126"/>
+      <c r="F624" s="126"/>
+      <c r="G624" s="126"/>
+      <c r="H624" s="126"/>
+      <c r="I624" s="126"/>
     </row>
     <row r="625" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A625" s="36"/>
@@ -28311,17 +28350,17 @@
       <c r="I633" s="36"/>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A634" s="123" t="s">
+      <c r="A634" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="B634" s="123"/>
-      <c r="C634" s="123"/>
-      <c r="D634" s="123"/>
-      <c r="E634" s="123"/>
-      <c r="F634" s="123"/>
-      <c r="G634" s="123"/>
-      <c r="H634" s="123"/>
-      <c r="I634" s="123"/>
+      <c r="B634" s="125"/>
+      <c r="C634" s="125"/>
+      <c r="D634" s="125"/>
+      <c r="E634" s="125"/>
+      <c r="F634" s="125"/>
+      <c r="G634" s="125"/>
+      <c r="H634" s="125"/>
+      <c r="I634" s="125"/>
     </row>
     <row r="635" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A635" s="36"/>
@@ -28494,19 +28533,19 @@
       <c r="I644" s="57"/>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A645" s="123" t="s">
+      <c r="A645" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="B645" s="123"/>
-      <c r="C645" s="123" t="s">
+      <c r="B645" s="125"/>
+      <c r="C645" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="D645" s="123"/>
-      <c r="E645" s="123"/>
-      <c r="F645" s="123"/>
-      <c r="G645" s="123"/>
-      <c r="H645" s="123"/>
-      <c r="I645" s="123"/>
+      <c r="D645" s="125"/>
+      <c r="E645" s="125"/>
+      <c r="F645" s="125"/>
+      <c r="G645" s="125"/>
+      <c r="H645" s="125"/>
+      <c r="I645" s="125"/>
     </row>
     <row r="646" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A646" s="45"/>
@@ -28719,15 +28758,15 @@
         <v>314</v>
       </c>
       <c r="B658" s="36"/>
-      <c r="C658" s="123" t="s">
+      <c r="C658" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="D658" s="123"/>
-      <c r="E658" s="123"/>
-      <c r="F658" s="123"/>
-      <c r="G658" s="123"/>
-      <c r="H658" s="123"/>
-      <c r="I658" s="123"/>
+      <c r="D658" s="125"/>
+      <c r="E658" s="125"/>
+      <c r="F658" s="125"/>
+      <c r="G658" s="125"/>
+      <c r="H658" s="125"/>
+      <c r="I658" s="125"/>
     </row>
     <row r="659" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A659" s="36"/>
@@ -28766,15 +28805,15 @@
     <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661" s="36"/>
       <c r="B661" s="36"/>
-      <c r="C661" s="123" t="s">
+      <c r="C661" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="D661" s="123"/>
-      <c r="E661" s="123"/>
-      <c r="F661" s="123"/>
-      <c r="G661" s="123"/>
-      <c r="H661" s="123"/>
-      <c r="I661" s="123"/>
+      <c r="D661" s="125"/>
+      <c r="E661" s="125"/>
+      <c r="F661" s="125"/>
+      <c r="G661" s="125"/>
+      <c r="H661" s="125"/>
+      <c r="I661" s="125"/>
     </row>
     <row r="662" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A662" s="36"/>
@@ -28830,15 +28869,15 @@
     <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665" s="36"/>
       <c r="B665" s="36"/>
-      <c r="C665" s="123" t="s">
+      <c r="C665" s="125" t="s">
         <v>464</v>
       </c>
-      <c r="D665" s="123"/>
-      <c r="E665" s="123"/>
-      <c r="F665" s="123"/>
-      <c r="G665" s="123"/>
-      <c r="H665" s="123"/>
-      <c r="I665" s="123"/>
+      <c r="D665" s="125"/>
+      <c r="E665" s="125"/>
+      <c r="F665" s="125"/>
+      <c r="G665" s="125"/>
+      <c r="H665" s="125"/>
+      <c r="I665" s="125"/>
     </row>
     <row r="666" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A666" s="36"/>
@@ -28911,15 +28950,15 @@
     <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670" s="45"/>
       <c r="B670" s="45"/>
-      <c r="C670" s="123" t="s">
+      <c r="C670" s="125" t="s">
         <v>289</v>
       </c>
-      <c r="D670" s="123"/>
-      <c r="E670" s="123"/>
-      <c r="F670" s="123"/>
-      <c r="G670" s="123"/>
-      <c r="H670" s="123"/>
-      <c r="I670" s="123"/>
+      <c r="D670" s="125"/>
+      <c r="E670" s="125"/>
+      <c r="F670" s="125"/>
+      <c r="G670" s="125"/>
+      <c r="H670" s="125"/>
+      <c r="I670" s="125"/>
     </row>
     <row r="671" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A671" s="45"/>
@@ -28941,15 +28980,15 @@
     <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672" s="45"/>
       <c r="B672" s="45"/>
-      <c r="C672" s="123" t="s">
+      <c r="C672" s="125" t="s">
         <v>363</v>
       </c>
-      <c r="D672" s="123"/>
-      <c r="E672" s="123"/>
-      <c r="F672" s="123"/>
-      <c r="G672" s="123"/>
-      <c r="H672" s="123"/>
-      <c r="I672" s="123"/>
+      <c r="D672" s="125"/>
+      <c r="E672" s="125"/>
+      <c r="F672" s="125"/>
+      <c r="G672" s="125"/>
+      <c r="H672" s="125"/>
+      <c r="I672" s="125"/>
     </row>
     <row r="673" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A673" s="45"/>
@@ -28971,15 +29010,15 @@
     <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674" s="45"/>
       <c r="B674" s="45"/>
-      <c r="C674" s="123" t="s">
+      <c r="C674" s="125" t="s">
         <v>365</v>
       </c>
-      <c r="D674" s="123"/>
-      <c r="E674" s="123"/>
-      <c r="F674" s="123"/>
-      <c r="G674" s="123"/>
-      <c r="H674" s="123"/>
-      <c r="I674" s="123"/>
+      <c r="D674" s="125"/>
+      <c r="E674" s="125"/>
+      <c r="F674" s="125"/>
+      <c r="G674" s="125"/>
+      <c r="H674" s="125"/>
+      <c r="I674" s="125"/>
     </row>
     <row r="675" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A675" s="45"/>
@@ -29001,15 +29040,15 @@
     <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676" s="45"/>
       <c r="B676" s="45"/>
-      <c r="C676" s="123" t="s">
+      <c r="C676" s="125" t="s">
         <v>367</v>
       </c>
-      <c r="D676" s="123"/>
-      <c r="E676" s="123"/>
-      <c r="F676" s="123"/>
-      <c r="G676" s="123"/>
-      <c r="H676" s="123"/>
-      <c r="I676" s="123"/>
+      <c r="D676" s="125"/>
+      <c r="E676" s="125"/>
+      <c r="F676" s="125"/>
+      <c r="G676" s="125"/>
+      <c r="H676" s="125"/>
+      <c r="I676" s="125"/>
     </row>
     <row r="677" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A677" s="45"/>
@@ -29031,15 +29070,15 @@
     <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678" s="45"/>
       <c r="B678" s="45"/>
-      <c r="C678" s="123" t="s">
+      <c r="C678" s="125" t="s">
         <v>369</v>
       </c>
-      <c r="D678" s="123"/>
-      <c r="E678" s="123"/>
-      <c r="F678" s="123"/>
-      <c r="G678" s="123"/>
-      <c r="H678" s="123"/>
-      <c r="I678" s="123"/>
+      <c r="D678" s="125"/>
+      <c r="E678" s="125"/>
+      <c r="F678" s="125"/>
+      <c r="G678" s="125"/>
+      <c r="H678" s="125"/>
+      <c r="I678" s="125"/>
     </row>
     <row r="679" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A679" s="45"/>
@@ -29061,15 +29100,15 @@
     <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680" s="45"/>
       <c r="B680" s="45"/>
-      <c r="C680" s="123" t="s">
+      <c r="C680" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="D680" s="123"/>
-      <c r="E680" s="123"/>
-      <c r="F680" s="123"/>
-      <c r="G680" s="123"/>
-      <c r="H680" s="123"/>
-      <c r="I680" s="123"/>
+      <c r="D680" s="125"/>
+      <c r="E680" s="125"/>
+      <c r="F680" s="125"/>
+      <c r="G680" s="125"/>
+      <c r="H680" s="125"/>
+      <c r="I680" s="125"/>
     </row>
     <row r="681" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A681" s="45"/>
@@ -29091,15 +29130,15 @@
     <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682" s="45"/>
       <c r="B682" s="45"/>
-      <c r="C682" s="123" t="s">
+      <c r="C682" s="125" t="s">
         <v>374</v>
       </c>
-      <c r="D682" s="123"/>
-      <c r="E682" s="123"/>
-      <c r="F682" s="123"/>
-      <c r="G682" s="123"/>
-      <c r="H682" s="123"/>
-      <c r="I682" s="123"/>
+      <c r="D682" s="125"/>
+      <c r="E682" s="125"/>
+      <c r="F682" s="125"/>
+      <c r="G682" s="125"/>
+      <c r="H682" s="125"/>
+      <c r="I682" s="125"/>
     </row>
     <row r="683" spans="1:9" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A683" s="45"/>
@@ -29121,15 +29160,15 @@
     <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684" s="45"/>
       <c r="B684" s="45"/>
-      <c r="C684" s="123" t="s">
+      <c r="C684" s="125" t="s">
         <v>1065</v>
       </c>
-      <c r="D684" s="123"/>
-      <c r="E684" s="123"/>
-      <c r="F684" s="123"/>
-      <c r="G684" s="123"/>
-      <c r="H684" s="123"/>
-      <c r="I684" s="123"/>
+      <c r="D684" s="125"/>
+      <c r="E684" s="125"/>
+      <c r="F684" s="125"/>
+      <c r="G684" s="125"/>
+      <c r="H684" s="125"/>
+      <c r="I684" s="125"/>
     </row>
     <row r="685" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A685" s="45"/>
@@ -29150,118 +29189,75 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
-      <selection activeCell="F13" sqref="F13"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
-      <selection activeCell="F237" sqref="F237"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
-      <selection activeCell="G19" sqref="G19"/>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
+      <selection activeCell="F6" sqref="F6"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
     <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
       <selection activeCell="C9" sqref="C9"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
-      <selection activeCell="F6" sqref="F6"/>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
+      <selection activeCell="G19" sqref="G19"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
+      <selection activeCell="F237" sqref="F237"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
+      <selection activeCell="F13" sqref="F13"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="133">
-    <mergeCell ref="C682:I682"/>
-    <mergeCell ref="C665:I665"/>
-    <mergeCell ref="C526:I526"/>
-    <mergeCell ref="C533:I533"/>
-    <mergeCell ref="C538:I538"/>
-    <mergeCell ref="A567:I567"/>
-    <mergeCell ref="C624:I624"/>
-    <mergeCell ref="A634:I634"/>
-    <mergeCell ref="A645:I645"/>
-    <mergeCell ref="C580:I580"/>
-    <mergeCell ref="C559:I559"/>
-    <mergeCell ref="C561:I561"/>
-    <mergeCell ref="C563:I563"/>
-    <mergeCell ref="C557:I557"/>
-    <mergeCell ref="C552:I552"/>
-    <mergeCell ref="C554:I554"/>
-    <mergeCell ref="A543:I543"/>
-    <mergeCell ref="C670:I670"/>
-    <mergeCell ref="C672:I672"/>
-    <mergeCell ref="C674:I674"/>
-    <mergeCell ref="C676:I676"/>
-    <mergeCell ref="C469:I469"/>
-    <mergeCell ref="C473:I473"/>
-    <mergeCell ref="C442:I442"/>
-    <mergeCell ref="C445:I445"/>
-    <mergeCell ref="C449:I449"/>
-    <mergeCell ref="C454:I454"/>
-    <mergeCell ref="C457:I457"/>
-    <mergeCell ref="C521:I521"/>
-    <mergeCell ref="C680:I680"/>
-    <mergeCell ref="C510:I510"/>
-    <mergeCell ref="C516:I516"/>
-    <mergeCell ref="C479:I479"/>
-    <mergeCell ref="C489:I489"/>
-    <mergeCell ref="C491:I491"/>
-    <mergeCell ref="C493:I493"/>
-    <mergeCell ref="C499:I499"/>
-    <mergeCell ref="C505:I505"/>
-    <mergeCell ref="C678:I678"/>
-    <mergeCell ref="C405:I405"/>
-    <mergeCell ref="C407:I407"/>
-    <mergeCell ref="C409:I409"/>
-    <mergeCell ref="C461:I461"/>
-    <mergeCell ref="C465:I465"/>
-    <mergeCell ref="A426:I426"/>
-    <mergeCell ref="C396:I396"/>
-    <mergeCell ref="C399:I399"/>
-    <mergeCell ref="C401:I401"/>
-    <mergeCell ref="C403:I403"/>
-    <mergeCell ref="C414:I414"/>
-    <mergeCell ref="C417:I417"/>
-    <mergeCell ref="C420:I420"/>
-    <mergeCell ref="C423:I423"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="C300:I300"/>
-    <mergeCell ref="C303:I303"/>
-    <mergeCell ref="A197:I197"/>
-    <mergeCell ref="A163:I163"/>
-    <mergeCell ref="A175:I175"/>
-    <mergeCell ref="A243:I243"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C266:I266"/>
-    <mergeCell ref="C269:I269"/>
-    <mergeCell ref="A216:I216"/>
-    <mergeCell ref="A225:I225"/>
-    <mergeCell ref="A253:I253"/>
-    <mergeCell ref="C273:I273"/>
-    <mergeCell ref="C276:I276"/>
-    <mergeCell ref="C289:I289"/>
-    <mergeCell ref="C293:I293"/>
-    <mergeCell ref="C279:I279"/>
-    <mergeCell ref="C287:I287"/>
-    <mergeCell ref="C291:I291"/>
-    <mergeCell ref="A284:I284"/>
+    <mergeCell ref="C684:I684"/>
+    <mergeCell ref="A593:I593"/>
+    <mergeCell ref="A604:I604"/>
+    <mergeCell ref="A614:I614"/>
+    <mergeCell ref="C358:I358"/>
+    <mergeCell ref="C661:I661"/>
+    <mergeCell ref="C340:I340"/>
+    <mergeCell ref="C345:I345"/>
+    <mergeCell ref="C355:I355"/>
+    <mergeCell ref="C352:I352"/>
+    <mergeCell ref="C360:I360"/>
+    <mergeCell ref="C658:I658"/>
+    <mergeCell ref="C378:I378"/>
+    <mergeCell ref="C365:I365"/>
+    <mergeCell ref="C370:I370"/>
+    <mergeCell ref="C372:I372"/>
+    <mergeCell ref="C374:I374"/>
+    <mergeCell ref="A389:I389"/>
+    <mergeCell ref="C411:I411"/>
+    <mergeCell ref="C391:I391"/>
+    <mergeCell ref="C394:I394"/>
+    <mergeCell ref="A380:I380"/>
+    <mergeCell ref="A387:I387"/>
+    <mergeCell ref="C376:I376"/>
+    <mergeCell ref="C337:I337"/>
+    <mergeCell ref="C305:I305"/>
+    <mergeCell ref="C314:I314"/>
+    <mergeCell ref="C320:I320"/>
+    <mergeCell ref="C327:I327"/>
+    <mergeCell ref="C309:I309"/>
+    <mergeCell ref="C317:I317"/>
+    <mergeCell ref="C323:I323"/>
+    <mergeCell ref="C334:I334"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A35:I35"/>
@@ -29286,39 +29282,82 @@
     <mergeCell ref="A116:I116"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C337:I337"/>
-    <mergeCell ref="C305:I305"/>
-    <mergeCell ref="C314:I314"/>
-    <mergeCell ref="C320:I320"/>
-    <mergeCell ref="C327:I327"/>
-    <mergeCell ref="C309:I309"/>
-    <mergeCell ref="C317:I317"/>
-    <mergeCell ref="C323:I323"/>
-    <mergeCell ref="C334:I334"/>
-    <mergeCell ref="C684:I684"/>
-    <mergeCell ref="A593:I593"/>
-    <mergeCell ref="A604:I604"/>
-    <mergeCell ref="A614:I614"/>
-    <mergeCell ref="C358:I358"/>
-    <mergeCell ref="C661:I661"/>
-    <mergeCell ref="C340:I340"/>
-    <mergeCell ref="C345:I345"/>
-    <mergeCell ref="C355:I355"/>
-    <mergeCell ref="C352:I352"/>
-    <mergeCell ref="C360:I360"/>
-    <mergeCell ref="C658:I658"/>
-    <mergeCell ref="C378:I378"/>
-    <mergeCell ref="C365:I365"/>
-    <mergeCell ref="C370:I370"/>
-    <mergeCell ref="C372:I372"/>
-    <mergeCell ref="C374:I374"/>
-    <mergeCell ref="A389:I389"/>
-    <mergeCell ref="C411:I411"/>
-    <mergeCell ref="C391:I391"/>
-    <mergeCell ref="C394:I394"/>
-    <mergeCell ref="A380:I380"/>
-    <mergeCell ref="A387:I387"/>
-    <mergeCell ref="C376:I376"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="C300:I300"/>
+    <mergeCell ref="C303:I303"/>
+    <mergeCell ref="A197:I197"/>
+    <mergeCell ref="A163:I163"/>
+    <mergeCell ref="A175:I175"/>
+    <mergeCell ref="A243:I243"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C266:I266"/>
+    <mergeCell ref="C269:I269"/>
+    <mergeCell ref="A216:I216"/>
+    <mergeCell ref="A225:I225"/>
+    <mergeCell ref="A253:I253"/>
+    <mergeCell ref="C273:I273"/>
+    <mergeCell ref="C276:I276"/>
+    <mergeCell ref="C289:I289"/>
+    <mergeCell ref="C293:I293"/>
+    <mergeCell ref="C279:I279"/>
+    <mergeCell ref="C287:I287"/>
+    <mergeCell ref="C291:I291"/>
+    <mergeCell ref="A284:I284"/>
+    <mergeCell ref="C405:I405"/>
+    <mergeCell ref="C407:I407"/>
+    <mergeCell ref="C409:I409"/>
+    <mergeCell ref="C461:I461"/>
+    <mergeCell ref="C465:I465"/>
+    <mergeCell ref="A426:I426"/>
+    <mergeCell ref="C396:I396"/>
+    <mergeCell ref="C399:I399"/>
+    <mergeCell ref="C401:I401"/>
+    <mergeCell ref="C403:I403"/>
+    <mergeCell ref="C414:I414"/>
+    <mergeCell ref="C417:I417"/>
+    <mergeCell ref="C420:I420"/>
+    <mergeCell ref="C423:I423"/>
+    <mergeCell ref="C469:I469"/>
+    <mergeCell ref="C473:I473"/>
+    <mergeCell ref="C442:I442"/>
+    <mergeCell ref="C445:I445"/>
+    <mergeCell ref="C449:I449"/>
+    <mergeCell ref="C454:I454"/>
+    <mergeCell ref="C457:I457"/>
+    <mergeCell ref="C521:I521"/>
+    <mergeCell ref="C680:I680"/>
+    <mergeCell ref="C510:I510"/>
+    <mergeCell ref="C516:I516"/>
+    <mergeCell ref="C479:I479"/>
+    <mergeCell ref="C489:I489"/>
+    <mergeCell ref="C491:I491"/>
+    <mergeCell ref="C493:I493"/>
+    <mergeCell ref="C499:I499"/>
+    <mergeCell ref="C505:I505"/>
+    <mergeCell ref="C678:I678"/>
+    <mergeCell ref="C682:I682"/>
+    <mergeCell ref="C665:I665"/>
+    <mergeCell ref="C526:I526"/>
+    <mergeCell ref="C533:I533"/>
+    <mergeCell ref="C538:I538"/>
+    <mergeCell ref="A567:I567"/>
+    <mergeCell ref="C624:I624"/>
+    <mergeCell ref="A634:I634"/>
+    <mergeCell ref="A645:I645"/>
+    <mergeCell ref="C580:I580"/>
+    <mergeCell ref="C559:I559"/>
+    <mergeCell ref="C561:I561"/>
+    <mergeCell ref="C563:I563"/>
+    <mergeCell ref="C557:I557"/>
+    <mergeCell ref="C552:I552"/>
+    <mergeCell ref="C554:I554"/>
+    <mergeCell ref="A543:I543"/>
+    <mergeCell ref="C670:I670"/>
+    <mergeCell ref="C672:I672"/>
+    <mergeCell ref="C674:I674"/>
+    <mergeCell ref="C676:I676"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
@@ -29329,6 +29368,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C71B05ED7860F1429BB192A8AD3ECF9C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bb17ca7624675e957ee0f1a62aa5509">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1dc586d3-033a-453c-a736-0de408b0dcee" xmlns:ns4="da96f4a7-4178-4915-9502-40e1bdbdebc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f4946a5cb97ee8e437c64f89eb7aa62" ns3:_="" ns4:_="">
     <xsd:import namespace="1dc586d3-033a-453c-a736-0de408b0dcee"/>
@@ -29551,22 +29605,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED1B3B-119A-4870-957A-0D939EB4F5C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29583,21 +29639,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Config/Concern.xlsx
+++ b/Config/Concern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejarcebido/Documents/Projects/Python/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C72D5B3-8DD5-704A-A70D-CE21A9C07696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522023F9-EEB8-9749-9423-3299DFDA1668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
+    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
+    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
     <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
-    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
-    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="1107">
   <si>
     <t>Revision History</t>
   </si>
@@ -4002,6 +4002,18 @@
   </si>
   <si>
     <t>TC006</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TC010</t>
   </si>
 </sst>
 </file>
@@ -4436,8 +4448,8 @@
   </cellStyleXfs>
   <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4750,6 +4762,18 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4759,11 +4783,20 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4777,32 +4810,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4811,6 +4820,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6021,18 +6033,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
-      <selection activeCell="C17" sqref="C17"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
+      <selection activeCell="F15" sqref="F15"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
-      <selection activeCell="C4" sqref="C4"/>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+      <selection activeCell="D8" sqref="D7:D8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -6040,16 +6049,19 @@
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}">
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
-      <selection activeCell="D8" sqref="D7:D8"/>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}">
-      <selection activeCell="F15" sqref="F15"/>
+    <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}">
+      <selection activeCell="C17" sqref="C17"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
@@ -6068,7 +6080,7 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -6085,27 +6097,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="76"/>
     </row>
     <row r="2" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:9" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6133,27 +6145,27 @@
       <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:9" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="109"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
       <c r="I5" s="33" t="s">
         <v>24</v>
       </c>
@@ -6275,15 +6287,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
     </row>
     <row r="13" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="str">
@@ -6364,27 +6376,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
     </row>
     <row r="19" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34" t="str">
@@ -7611,15 +7623,15 @@
       <c r="G90" s="38"/>
     </row>
     <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="107" t="s">
+      <c r="A91" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="109"/>
+      <c r="B91" s="112"/>
+      <c r="C91" s="112"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="112"/>
+      <c r="F91" s="112"/>
+      <c r="G91" s="113"/>
     </row>
     <row r="92" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="34" t="str">
@@ -8267,15 +8279,15 @@
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:9" s="29" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="117" t="s">
+      <c r="A128" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="118"/>
-      <c r="C128" s="118"/>
-      <c r="D128" s="118"/>
-      <c r="E128" s="118"/>
-      <c r="F128" s="118"/>
-      <c r="G128" s="118"/>
+      <c r="B128" s="108"/>
+      <c r="C128" s="108"/>
+      <c r="D128" s="108"/>
+      <c r="E128" s="108"/>
+      <c r="F128" s="108"/>
+      <c r="G128" s="108"/>
       <c r="H128" s="76"/>
     </row>
     <row r="129" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -9125,27 +9137,27 @@
       <c r="G176" s="38"/>
     </row>
     <row r="177" spans="1:10" s="40" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="110" t="s">
+      <c r="A177" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="111"/>
-      <c r="C177" s="111"/>
-      <c r="D177" s="111"/>
-      <c r="E177" s="111"/>
-      <c r="F177" s="111"/>
-      <c r="G177" s="111"/>
+      <c r="B177" s="110"/>
+      <c r="C177" s="110"/>
+      <c r="D177" s="110"/>
+      <c r="E177" s="110"/>
+      <c r="F177" s="110"/>
+      <c r="G177" s="110"/>
       <c r="H177" s="80"/>
     </row>
     <row r="178" spans="1:10" s="40" customFormat="1" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="119" t="s">
+      <c r="A178" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="120"/>
-      <c r="C178" s="120"/>
-      <c r="D178" s="120"/>
-      <c r="E178" s="120"/>
-      <c r="F178" s="120"/>
-      <c r="G178" s="120"/>
+      <c r="B178" s="117"/>
+      <c r="C178" s="117"/>
+      <c r="D178" s="117"/>
+      <c r="E178" s="117"/>
+      <c r="F178" s="117"/>
+      <c r="G178" s="117"/>
       <c r="H178" s="80"/>
     </row>
     <row r="179" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -9933,15 +9945,15 @@
       </c>
     </row>
     <row r="224" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="117" t="s">
+      <c r="A224" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="118"/>
-      <c r="C224" s="118"/>
-      <c r="D224" s="118"/>
-      <c r="E224" s="118"/>
-      <c r="F224" s="118"/>
-      <c r="G224" s="118"/>
+      <c r="B224" s="108"/>
+      <c r="C224" s="108"/>
+      <c r="D224" s="108"/>
+      <c r="E224" s="108"/>
+      <c r="F224" s="108"/>
+      <c r="G224" s="108"/>
     </row>
     <row r="225" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="34" t="str">
@@ -11891,15 +11903,15 @@
       <c r="G325" s="38"/>
     </row>
     <row r="326" spans="1:9" s="29" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="117" t="s">
+      <c r="A326" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="B326" s="118"/>
-      <c r="C326" s="118"/>
-      <c r="D326" s="118"/>
-      <c r="E326" s="118"/>
-      <c r="F326" s="118"/>
-      <c r="G326" s="118"/>
+      <c r="B326" s="108"/>
+      <c r="C326" s="108"/>
+      <c r="D326" s="108"/>
+      <c r="E326" s="108"/>
+      <c r="F326" s="108"/>
+      <c r="G326" s="108"/>
       <c r="H326" s="76"/>
     </row>
     <row r="327" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12526,15 +12538,15 @@
       </c>
     </row>
     <row r="360" spans="1:9" s="29" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="117" t="s">
+      <c r="A360" s="107" t="s">
         <v>236</v>
       </c>
-      <c r="B360" s="118"/>
-      <c r="C360" s="118"/>
-      <c r="D360" s="118"/>
-      <c r="E360" s="118"/>
-      <c r="F360" s="118"/>
-      <c r="G360" s="118"/>
+      <c r="B360" s="108"/>
+      <c r="C360" s="108"/>
+      <c r="D360" s="108"/>
+      <c r="E360" s="108"/>
+      <c r="F360" s="108"/>
+      <c r="G360" s="108"/>
       <c r="H360" s="76"/>
     </row>
     <row r="361" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13205,15 +13217,15 @@
       </c>
     </row>
     <row r="397" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="110" t="s">
+      <c r="A397" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="B397" s="111"/>
-      <c r="C397" s="111"/>
-      <c r="D397" s="111"/>
-      <c r="E397" s="111"/>
-      <c r="F397" s="111"/>
-      <c r="G397" s="111"/>
+      <c r="B397" s="110"/>
+      <c r="C397" s="110"/>
+      <c r="D397" s="110"/>
+      <c r="E397" s="110"/>
+      <c r="F397" s="110"/>
+      <c r="G397" s="110"/>
     </row>
     <row r="398" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A398" s="34" t="str">
@@ -13497,15 +13509,15 @@
       <c r="G412" s="38"/>
     </row>
     <row r="413" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="110" t="s">
+      <c r="A413" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="B413" s="111"/>
-      <c r="C413" s="111"/>
-      <c r="D413" s="111"/>
-      <c r="E413" s="111"/>
-      <c r="F413" s="111"/>
-      <c r="G413" s="111"/>
+      <c r="B413" s="110"/>
+      <c r="C413" s="110"/>
+      <c r="D413" s="110"/>
+      <c r="E413" s="110"/>
+      <c r="F413" s="110"/>
+      <c r="G413" s="110"/>
     </row>
     <row r="414" spans="1:10" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A414" s="34" t="str">
@@ -13544,26 +13556,26 @@
       <c r="G415" s="38"/>
     </row>
     <row r="416" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="110" t="s">
+      <c r="A416" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="B416" s="111"/>
-      <c r="C416" s="111"/>
-      <c r="D416" s="111"/>
-      <c r="E416" s="111"/>
-      <c r="F416" s="111"/>
-      <c r="G416" s="111"/>
+      <c r="B416" s="110"/>
+      <c r="C416" s="110"/>
+      <c r="D416" s="110"/>
+      <c r="E416" s="110"/>
+      <c r="F416" s="110"/>
+      <c r="G416" s="110"/>
     </row>
     <row r="417" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="107" t="s">
+      <c r="A417" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B417" s="108"/>
-      <c r="C417" s="108"/>
-      <c r="D417" s="108"/>
-      <c r="E417" s="108"/>
-      <c r="F417" s="108"/>
-      <c r="G417" s="109"/>
+      <c r="B417" s="112"/>
+      <c r="C417" s="112"/>
+      <c r="D417" s="112"/>
+      <c r="E417" s="112"/>
+      <c r="F417" s="112"/>
+      <c r="G417" s="113"/>
     </row>
     <row r="418" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A418" s="34" t="str">
@@ -13580,7 +13592,7 @@
       <c r="E418" s="48"/>
       <c r="F418" s="47"/>
       <c r="G418" s="28"/>
-      <c r="H418" s="116" t="s">
+      <c r="H418" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I418" s="33" t="s">
@@ -13601,7 +13613,7 @@
         <v>146</v>
       </c>
       <c r="G419" s="38"/>
-      <c r="H419" s="116"/>
+      <c r="H419" s="1"/>
     </row>
     <row r="420" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A420" s="38"/>
@@ -13617,7 +13629,7 @@
         <v>146</v>
       </c>
       <c r="G420" s="38"/>
-      <c r="H420" s="116"/>
+      <c r="H420" s="1"/>
     </row>
     <row r="421" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A421" s="38"/>
@@ -13633,7 +13645,7 @@
         <v>146</v>
       </c>
       <c r="G421" s="38"/>
-      <c r="H421" s="116"/>
+      <c r="H421" s="1"/>
     </row>
     <row r="422" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A422" s="38"/>
@@ -13649,7 +13661,7 @@
         <v>146</v>
       </c>
       <c r="G422" s="38"/>
-      <c r="H422" s="116"/>
+      <c r="H422" s="1"/>
     </row>
     <row r="423" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A423" s="38"/>
@@ -13665,7 +13677,7 @@
         <v>146</v>
       </c>
       <c r="G423" s="38"/>
-      <c r="H423" s="116"/>
+      <c r="H423" s="1"/>
     </row>
     <row r="424" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A424" s="34" t="str">
@@ -13682,7 +13694,7 @@
       <c r="E424" s="48"/>
       <c r="F424" s="35"/>
       <c r="G424" s="39"/>
-      <c r="H424" s="116"/>
+      <c r="H424" s="1"/>
       <c r="I424" s="33" t="s">
         <v>146</v>
       </c>
@@ -13701,7 +13713,7 @@
         <v>146</v>
       </c>
       <c r="G425" s="38"/>
-      <c r="H425" s="116"/>
+      <c r="H425" s="1"/>
     </row>
     <row r="426" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A426" s="34" t="str">
@@ -13718,7 +13730,7 @@
       <c r="E426" s="48"/>
       <c r="F426" s="35"/>
       <c r="G426" s="39"/>
-      <c r="H426" s="116"/>
+      <c r="H426" s="1"/>
       <c r="I426" s="33" t="s">
         <v>146</v>
       </c>
@@ -13737,7 +13749,7 @@
         <v>146</v>
       </c>
       <c r="G427" s="38"/>
-      <c r="H427" s="116"/>
+      <c r="H427" s="1"/>
     </row>
     <row r="428" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A428" s="38"/>
@@ -13753,7 +13765,7 @@
         <v>146</v>
       </c>
       <c r="G428" s="38"/>
-      <c r="H428" s="116"/>
+      <c r="H428" s="1"/>
     </row>
     <row r="429" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A429" s="38"/>
@@ -13769,7 +13781,7 @@
         <v>146</v>
       </c>
       <c r="G429" s="38"/>
-      <c r="H429" s="116"/>
+      <c r="H429" s="1"/>
     </row>
     <row r="430" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A430" s="38"/>
@@ -13785,7 +13797,7 @@
         <v>146</v>
       </c>
       <c r="G430" s="38"/>
-      <c r="H430" s="116"/>
+      <c r="H430" s="1"/>
     </row>
     <row r="431" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A431" s="38"/>
@@ -13801,7 +13813,7 @@
         <v>146</v>
       </c>
       <c r="G431" s="38"/>
-      <c r="H431" s="116"/>
+      <c r="H431" s="1"/>
     </row>
     <row r="432" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A432" s="38"/>
@@ -13817,7 +13829,7 @@
         <v>146</v>
       </c>
       <c r="G432" s="38"/>
-      <c r="H432" s="116"/>
+      <c r="H432" s="1"/>
     </row>
     <row r="433" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A433" s="38"/>
@@ -13833,7 +13845,7 @@
         <v>146</v>
       </c>
       <c r="G433" s="38"/>
-      <c r="H433" s="116"/>
+      <c r="H433" s="1"/>
     </row>
     <row r="434" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A434" s="38"/>
@@ -13849,7 +13861,7 @@
         <v>146</v>
       </c>
       <c r="G434" s="38"/>
-      <c r="H434" s="116"/>
+      <c r="H434" s="1"/>
     </row>
     <row r="435" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A435" s="38"/>
@@ -13865,7 +13877,7 @@
         <v>146</v>
       </c>
       <c r="G435" s="38"/>
-      <c r="H435" s="116"/>
+      <c r="H435" s="1"/>
     </row>
     <row r="436" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A436" s="38"/>
@@ -13881,7 +13893,7 @@
         <v>146</v>
       </c>
       <c r="G436" s="38"/>
-      <c r="H436" s="116"/>
+      <c r="H436" s="1"/>
     </row>
     <row r="437" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A437" s="38"/>
@@ -13897,7 +13909,7 @@
         <v>146</v>
       </c>
       <c r="G437" s="38"/>
-      <c r="H437" s="116"/>
+      <c r="H437" s="1"/>
     </row>
     <row r="438" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A438" s="38"/>
@@ -13913,7 +13925,7 @@
         <v>146</v>
       </c>
       <c r="G438" s="38"/>
-      <c r="H438" s="116"/>
+      <c r="H438" s="1"/>
     </row>
     <row r="439" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A439" s="38"/>
@@ -13929,7 +13941,7 @@
         <v>146</v>
       </c>
       <c r="G439" s="38"/>
-      <c r="H439" s="116"/>
+      <c r="H439" s="1"/>
     </row>
     <row r="440" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A440" s="34" t="str">
@@ -13946,7 +13958,7 @@
       <c r="E440" s="48"/>
       <c r="F440" s="35"/>
       <c r="G440" s="39"/>
-      <c r="H440" s="116"/>
+      <c r="H440" s="1"/>
       <c r="I440" s="33" t="s">
         <v>146</v>
       </c>
@@ -13965,7 +13977,7 @@
         <v>146</v>
       </c>
       <c r="G441" s="38"/>
-      <c r="H441" s="116"/>
+      <c r="H441" s="1"/>
     </row>
     <row r="442" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A442" s="38"/>
@@ -13981,7 +13993,7 @@
         <v>146</v>
       </c>
       <c r="G442" s="38"/>
-      <c r="H442" s="116"/>
+      <c r="H442" s="1"/>
     </row>
     <row r="443" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A443" s="38"/>
@@ -13997,7 +14009,7 @@
         <v>146</v>
       </c>
       <c r="G443" s="38"/>
-      <c r="H443" s="116"/>
+      <c r="H443" s="1"/>
     </row>
     <row r="444" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A444" s="38"/>
@@ -14013,18 +14025,18 @@
         <v>146</v>
       </c>
       <c r="G444" s="38"/>
-      <c r="H444" s="116"/>
+      <c r="H444" s="1"/>
     </row>
     <row r="445" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="107" t="s">
+      <c r="A445" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="B445" s="108"/>
-      <c r="C445" s="108"/>
-      <c r="D445" s="108"/>
-      <c r="E445" s="108"/>
-      <c r="F445" s="108"/>
-      <c r="G445" s="109"/>
+      <c r="B445" s="112"/>
+      <c r="C445" s="112"/>
+      <c r="D445" s="112"/>
+      <c r="E445" s="112"/>
+      <c r="F445" s="112"/>
+      <c r="G445" s="113"/>
     </row>
     <row r="446" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A446" s="34" t="str">
@@ -14451,7 +14463,7 @@
       <c r="E467" s="48"/>
       <c r="F467" s="35"/>
       <c r="G467" s="39"/>
-      <c r="H467" s="116" t="s">
+      <c r="H467" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I467" s="33" t="s">
@@ -14470,7 +14482,7 @@
       <c r="E468" s="37"/>
       <c r="F468" s="37"/>
       <c r="G468" s="38"/>
-      <c r="H468" s="116"/>
+      <c r="H468" s="1"/>
     </row>
     <row r="469" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A469" s="38"/>
@@ -14486,7 +14498,7 @@
         <v>146</v>
       </c>
       <c r="G469" s="38"/>
-      <c r="H469" s="116"/>
+      <c r="H469" s="1"/>
     </row>
     <row r="470" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A470" s="38"/>
@@ -14502,7 +14514,7 @@
         <v>146</v>
       </c>
       <c r="G470" s="38"/>
-      <c r="H470" s="116"/>
+      <c r="H470" s="1"/>
     </row>
     <row r="471" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A471" s="38"/>
@@ -14518,7 +14530,7 @@
         <v>146</v>
       </c>
       <c r="G471" s="38"/>
-      <c r="H471" s="116"/>
+      <c r="H471" s="1"/>
     </row>
     <row r="472" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A472" s="38"/>
@@ -14534,7 +14546,7 @@
         <v>146</v>
       </c>
       <c r="G472" s="38"/>
-      <c r="H472" s="116"/>
+      <c r="H472" s="1"/>
     </row>
     <row r="473" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A473" s="38"/>
@@ -14550,7 +14562,7 @@
         <v>146</v>
       </c>
       <c r="G473" s="38"/>
-      <c r="H473" s="116"/>
+      <c r="H473" s="1"/>
     </row>
     <row r="474" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A474" s="34" t="str">
@@ -14982,7 +14994,7 @@
       <c r="E495" s="48"/>
       <c r="F495" s="35"/>
       <c r="G495" s="39"/>
-      <c r="H495" s="116" t="s">
+      <c r="H495" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I495" s="33" t="s">
@@ -15001,7 +15013,7 @@
       <c r="E496" s="37"/>
       <c r="F496" s="37"/>
       <c r="G496" s="38"/>
-      <c r="H496" s="116"/>
+      <c r="H496" s="1"/>
     </row>
     <row r="497" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A497" s="38"/>
@@ -15017,7 +15029,7 @@
         <v>146</v>
       </c>
       <c r="G497" s="38"/>
-      <c r="H497" s="116"/>
+      <c r="H497" s="1"/>
     </row>
     <row r="498" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A498" s="38"/>
@@ -15033,7 +15045,7 @@
         <v>146</v>
       </c>
       <c r="G498" s="38"/>
-      <c r="H498" s="116"/>
+      <c r="H498" s="1"/>
     </row>
     <row r="499" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A499" s="38"/>
@@ -15049,7 +15061,7 @@
         <v>146</v>
       </c>
       <c r="G499" s="38"/>
-      <c r="H499" s="116"/>
+      <c r="H499" s="1"/>
     </row>
     <row r="500" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A500" s="38"/>
@@ -15065,7 +15077,7 @@
         <v>146</v>
       </c>
       <c r="G500" s="38"/>
-      <c r="H500" s="116"/>
+      <c r="H500" s="1"/>
     </row>
     <row r="501" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A501" s="38"/>
@@ -15081,29 +15093,29 @@
         <v>146</v>
       </c>
       <c r="G501" s="38"/>
-      <c r="H501" s="116"/>
+      <c r="H501" s="1"/>
     </row>
     <row r="502" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="110" t="s">
+      <c r="A502" s="109" t="s">
         <v>396</v>
       </c>
-      <c r="B502" s="111"/>
-      <c r="C502" s="111"/>
-      <c r="D502" s="111"/>
-      <c r="E502" s="111"/>
-      <c r="F502" s="111"/>
-      <c r="G502" s="111"/>
+      <c r="B502" s="110"/>
+      <c r="C502" s="110"/>
+      <c r="D502" s="110"/>
+      <c r="E502" s="110"/>
+      <c r="F502" s="110"/>
+      <c r="G502" s="110"/>
     </row>
     <row r="503" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="107" t="s">
+      <c r="A503" s="111" t="s">
         <v>397</v>
       </c>
-      <c r="B503" s="108"/>
-      <c r="C503" s="108"/>
-      <c r="D503" s="108"/>
-      <c r="E503" s="108"/>
-      <c r="F503" s="108"/>
-      <c r="G503" s="109"/>
+      <c r="B503" s="112"/>
+      <c r="C503" s="112"/>
+      <c r="D503" s="112"/>
+      <c r="E503" s="112"/>
+      <c r="F503" s="112"/>
+      <c r="G503" s="113"/>
     </row>
     <row r="504" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A504" s="34" t="str">
@@ -15133,12 +15145,12 @@
       <c r="B505" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="C505" s="112"/>
-      <c r="D505" s="113"/>
-      <c r="E505" s="113"/>
-      <c r="F505" s="114"/>
-      <c r="G505" s="114"/>
-      <c r="H505" s="115"/>
+      <c r="C505" s="119"/>
+      <c r="D505" s="120"/>
+      <c r="E505" s="120"/>
+      <c r="F505" s="121"/>
+      <c r="G505" s="121"/>
+      <c r="H505" s="122"/>
       <c r="I505" s="89"/>
       <c r="J505" s="90"/>
     </row>
@@ -15158,15 +15170,15 @@
       <c r="G506" s="38"/>
     </row>
     <row r="507" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="107" t="s">
+      <c r="A507" s="111" t="s">
         <v>403</v>
       </c>
-      <c r="B507" s="108"/>
-      <c r="C507" s="108"/>
-      <c r="D507" s="108"/>
-      <c r="E507" s="108"/>
-      <c r="F507" s="108"/>
-      <c r="G507" s="109"/>
+      <c r="B507" s="112"/>
+      <c r="C507" s="112"/>
+      <c r="D507" s="112"/>
+      <c r="E507" s="112"/>
+      <c r="F507" s="112"/>
+      <c r="G507" s="113"/>
     </row>
     <row r="508" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A508" s="34" t="str">
@@ -15270,26 +15282,26 @@
       <c r="G513" s="38"/>
     </row>
     <row r="514" spans="1:9" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="110" t="s">
+      <c r="A514" s="109" t="s">
         <v>410</v>
       </c>
-      <c r="B514" s="111"/>
-      <c r="C514" s="111"/>
-      <c r="D514" s="111"/>
-      <c r="E514" s="111"/>
-      <c r="F514" s="111"/>
-      <c r="G514" s="111"/>
+      <c r="B514" s="110"/>
+      <c r="C514" s="110"/>
+      <c r="D514" s="110"/>
+      <c r="E514" s="110"/>
+      <c r="F514" s="110"/>
+      <c r="G514" s="110"/>
     </row>
     <row r="515" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="107" t="s">
+      <c r="A515" s="111" t="s">
         <v>411</v>
       </c>
-      <c r="B515" s="108"/>
-      <c r="C515" s="108"/>
-      <c r="D515" s="108"/>
-      <c r="E515" s="108"/>
-      <c r="F515" s="108"/>
-      <c r="G515" s="109"/>
+      <c r="B515" s="112"/>
+      <c r="C515" s="112"/>
+      <c r="D515" s="112"/>
+      <c r="E515" s="112"/>
+      <c r="F515" s="112"/>
+      <c r="G515" s="113"/>
     </row>
     <row r="516" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A516" s="34" t="str">
@@ -16072,15 +16084,15 @@
       <c r="I555" s="50"/>
     </row>
     <row r="556" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="107" t="s">
+      <c r="A556" s="111" t="s">
         <v>429</v>
       </c>
-      <c r="B556" s="108"/>
-      <c r="C556" s="108"/>
-      <c r="D556" s="108"/>
-      <c r="E556" s="108"/>
-      <c r="F556" s="108"/>
-      <c r="G556" s="109"/>
+      <c r="B556" s="112"/>
+      <c r="C556" s="112"/>
+      <c r="D556" s="112"/>
+      <c r="E556" s="112"/>
+      <c r="F556" s="112"/>
+      <c r="G556" s="113"/>
     </row>
     <row r="557" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A557" s="34" t="str">
@@ -16318,15 +16330,15 @@
       </c>
     </row>
     <row r="569" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="107" t="s">
+      <c r="A569" s="111" t="s">
         <v>440</v>
       </c>
-      <c r="B569" s="108"/>
-      <c r="C569" s="108"/>
-      <c r="D569" s="108"/>
-      <c r="E569" s="108"/>
-      <c r="F569" s="108"/>
-      <c r="G569" s="109"/>
+      <c r="B569" s="112"/>
+      <c r="C569" s="112"/>
+      <c r="D569" s="112"/>
+      <c r="E569" s="112"/>
+      <c r="F569" s="112"/>
+      <c r="G569" s="113"/>
     </row>
     <row r="570" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A570" s="34" t="str">
@@ -16719,15 +16731,15 @@
       </c>
     </row>
     <row r="590" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="107" t="s">
+      <c r="A590" s="111" t="s">
         <v>453</v>
       </c>
-      <c r="B590" s="108"/>
-      <c r="C590" s="108"/>
-      <c r="D590" s="108"/>
-      <c r="E590" s="108"/>
-      <c r="F590" s="108"/>
-      <c r="G590" s="109"/>
+      <c r="B590" s="112"/>
+      <c r="C590" s="112"/>
+      <c r="D590" s="112"/>
+      <c r="E590" s="112"/>
+      <c r="F590" s="112"/>
+      <c r="G590" s="113"/>
     </row>
     <row r="591" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A591" s="34" t="str">
@@ -17004,15 +17016,15 @@
       </c>
     </row>
     <row r="605" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="107" t="s">
+      <c r="A605" s="111" t="s">
         <v>466</v>
       </c>
-      <c r="B605" s="108"/>
-      <c r="C605" s="108"/>
-      <c r="D605" s="108"/>
-      <c r="E605" s="108"/>
-      <c r="F605" s="108"/>
-      <c r="G605" s="109"/>
+      <c r="B605" s="112"/>
+      <c r="C605" s="112"/>
+      <c r="D605" s="112"/>
+      <c r="E605" s="112"/>
+      <c r="F605" s="112"/>
+      <c r="G605" s="113"/>
     </row>
     <row r="606" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A606" s="34" t="str">
@@ -17197,15 +17209,15 @@
       </c>
     </row>
     <row r="616" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="107" t="s">
+      <c r="A616" s="111" t="s">
         <v>477</v>
       </c>
-      <c r="B616" s="108"/>
-      <c r="C616" s="108"/>
-      <c r="D616" s="108"/>
-      <c r="E616" s="108"/>
-      <c r="F616" s="108"/>
-      <c r="G616" s="109"/>
+      <c r="B616" s="112"/>
+      <c r="C616" s="112"/>
+      <c r="D616" s="112"/>
+      <c r="E616" s="112"/>
+      <c r="F616" s="112"/>
+      <c r="G616" s="113"/>
     </row>
     <row r="617" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A617" s="34" t="str">
@@ -17296,10 +17308,10 @@
       </c>
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F623" s="1" t="s">
+      <c r="F623" s="118" t="s">
         <v>484</v>
       </c>
-      <c r="G623" s="1"/>
+      <c r="G623" s="118"/>
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F624" s="51" t="s">
@@ -17432,66 +17444,48 @@
   <autoFilter ref="A3:I3" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
-      <selection activeCell="A52" sqref="A52"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
+      <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
+      <selection activeCell="B40" sqref="B40"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
+      <selection activeCell="E13" sqref="E13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
+      <selection activeCell="B103" sqref="B103"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
+      <selection activeCell="E129" sqref="E129"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
+      <selection sqref="A1:D1"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
     </customSheetView>
     <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" hiddenRows="1">
       <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" showPageBreaks="1">
-      <selection sqref="A1:D1"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" showPageBreaks="1">
-      <selection activeCell="E129" sqref="E129"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="85">
-      <selection activeCell="B103" sqref="B103"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85" topLeftCell="A4">
-      <selection activeCell="E13" sqref="E13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
-    </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" topLeftCell="A16">
-      <selection activeCell="B40" sqref="B40"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" hiddenRows="1">
-      <selection activeCell="B5" sqref="B5"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" hiddenRows="1">
+      <selection activeCell="A52" sqref="A52"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
       <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
-    <mergeCell ref="H467:H473"/>
-    <mergeCell ref="H495:H501"/>
-    <mergeCell ref="A360:G360"/>
-    <mergeCell ref="A326:G326"/>
-    <mergeCell ref="A397:G397"/>
-    <mergeCell ref="A445:G445"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="A224:G224"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A128:G128"/>
-    <mergeCell ref="A178:G178"/>
     <mergeCell ref="F623:G623"/>
     <mergeCell ref="A417:G417"/>
     <mergeCell ref="A413:G413"/>
@@ -17508,6 +17502,24 @@
     <mergeCell ref="A416:G416"/>
     <mergeCell ref="C505:H505"/>
     <mergeCell ref="H418:H444"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A224:G224"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A178:G178"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="H467:H473"/>
+    <mergeCell ref="H495:H501"/>
+    <mergeCell ref="A360:G360"/>
+    <mergeCell ref="A326:G326"/>
+    <mergeCell ref="A397:G397"/>
+    <mergeCell ref="A445:G445"/>
   </mergeCells>
   <conditionalFormatting sqref="F450:F476 F388:F392 F379:F381 F394:F395 F478:F516 F520:F597 F272 F277 F282 F287 F292 F297 F302 F306 F311 F316 F321 F326:F377 F1:F230 F599:F1048576 F232:F267 F397:F448">
     <cfRule type="containsText" dxfId="74" priority="105" operator="containsText" text="Failed">
@@ -17934,11 +17946,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -17957,8 +17969,8 @@
   </sheetPr>
   <dimension ref="A1:I685"/>
   <sheetViews>
-    <sheetView topLeftCell="C555" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -18288,7 +18300,9 @@
     <row r="19" spans="1:9" s="7" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
       <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="C19" s="56" t="s">
+        <v>1103</v>
+      </c>
       <c r="D19" s="56"/>
       <c r="E19" s="55">
         <v>1</v>
@@ -18305,7 +18319,9 @@
     <row r="20" spans="1:9" s="7" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+      <c r="C20" s="56" t="s">
+        <v>1103</v>
+      </c>
       <c r="D20" s="56"/>
       <c r="E20" s="55">
         <v>2</v>
@@ -18335,7 +18351,9 @@
     <row r="22" spans="1:9" s="7" customFormat="1" ht="186" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
+      <c r="C22" s="57" t="s">
+        <v>1104</v>
+      </c>
       <c r="D22" s="57"/>
       <c r="E22" s="55">
         <v>1</v>
@@ -18365,7 +18383,9 @@
     <row r="24" spans="1:9" s="7" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
       <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
+      <c r="C24" s="57" t="s">
+        <v>1105</v>
+      </c>
       <c r="D24" s="57"/>
       <c r="E24" s="55">
         <v>1</v>
@@ -18382,7 +18402,9 @@
     <row r="25" spans="1:9" s="7" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
+      <c r="C25" s="57" t="s">
+        <v>1105</v>
+      </c>
       <c r="D25" s="57"/>
       <c r="E25" s="55">
         <v>2</v>
@@ -18399,7 +18421,9 @@
     <row r="26" spans="1:9" s="7" customFormat="1" ht="135" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
+      <c r="C26" s="57" t="s">
+        <v>1105</v>
+      </c>
       <c r="D26" s="57"/>
       <c r="E26" s="55">
         <v>3</v>
@@ -18429,7 +18453,9 @@
     <row r="28" spans="1:9" s="7" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="C28" s="36" t="s">
+        <v>1106</v>
+      </c>
       <c r="D28" s="36"/>
       <c r="E28" s="55">
         <v>1</v>
@@ -18631,7 +18657,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>532</v>
+        <v>1106</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>533</v>
@@ -21857,15 +21883,15 @@
         <v>176</v>
       </c>
       <c r="B234" s="34"/>
-      <c r="C234" s="124" t="s">
+      <c r="C234" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="D234" s="124"/>
-      <c r="E234" s="124"/>
-      <c r="F234" s="124"/>
-      <c r="G234" s="124"/>
-      <c r="H234" s="124"/>
-      <c r="I234" s="124"/>
+      <c r="D234" s="127"/>
+      <c r="E234" s="127"/>
+      <c r="F234" s="127"/>
+      <c r="G234" s="127"/>
+      <c r="H234" s="127"/>
+      <c r="I234" s="127"/>
     </row>
     <row r="235" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A235" s="36"/>
@@ -24187,17 +24213,17 @@
       <c r="I379" s="38"/>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A380" s="124" t="s">
+      <c r="A380" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="B380" s="124"/>
-      <c r="C380" s="124"/>
-      <c r="D380" s="124"/>
-      <c r="E380" s="124"/>
-      <c r="F380" s="124"/>
-      <c r="G380" s="124"/>
-      <c r="H380" s="124"/>
-      <c r="I380" s="124"/>
+      <c r="B380" s="127"/>
+      <c r="C380" s="127"/>
+      <c r="D380" s="127"/>
+      <c r="E380" s="127"/>
+      <c r="F380" s="127"/>
+      <c r="G380" s="127"/>
+      <c r="H380" s="127"/>
+      <c r="I380" s="127"/>
     </row>
     <row r="381" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A381" s="36"/>
@@ -24302,17 +24328,17 @@
       <c r="I386" s="38"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A387" s="124" t="s">
+      <c r="A387" s="127" t="s">
         <v>354</v>
       </c>
-      <c r="B387" s="124"/>
-      <c r="C387" s="124"/>
-      <c r="D387" s="124"/>
-      <c r="E387" s="124"/>
-      <c r="F387" s="124"/>
-      <c r="G387" s="124"/>
-      <c r="H387" s="124"/>
-      <c r="I387" s="124"/>
+      <c r="B387" s="127"/>
+      <c r="C387" s="127"/>
+      <c r="D387" s="127"/>
+      <c r="E387" s="127"/>
+      <c r="F387" s="127"/>
+      <c r="G387" s="127"/>
+      <c r="H387" s="127"/>
+      <c r="I387" s="127"/>
     </row>
     <row r="388" spans="1:9" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A388" s="36"/>
@@ -24332,17 +24358,17 @@
       <c r="I388" s="38"/>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A389" s="124" t="s">
+      <c r="A389" s="127" t="s">
         <v>356</v>
       </c>
-      <c r="B389" s="124"/>
-      <c r="C389" s="124"/>
-      <c r="D389" s="124"/>
-      <c r="E389" s="124"/>
-      <c r="F389" s="124"/>
-      <c r="G389" s="124"/>
-      <c r="H389" s="124"/>
-      <c r="I389" s="124"/>
+      <c r="B389" s="127"/>
+      <c r="C389" s="127"/>
+      <c r="D389" s="127"/>
+      <c r="E389" s="127"/>
+      <c r="F389" s="127"/>
+      <c r="G389" s="127"/>
+      <c r="H389" s="127"/>
+      <c r="I389" s="127"/>
     </row>
     <row r="390" spans="1:9" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A390" s="36"/>
@@ -26955,15 +26981,15 @@
     <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" s="36"/>
       <c r="B552" s="36"/>
-      <c r="C552" s="124" t="s">
+      <c r="C552" s="127" t="s">
         <v>275</v>
       </c>
-      <c r="D552" s="124"/>
-      <c r="E552" s="124"/>
-      <c r="F552" s="124"/>
-      <c r="G552" s="124"/>
-      <c r="H552" s="124"/>
-      <c r="I552" s="124"/>
+      <c r="D552" s="127"/>
+      <c r="E552" s="127"/>
+      <c r="F552" s="127"/>
+      <c r="G552" s="127"/>
+      <c r="H552" s="127"/>
+      <c r="I552" s="127"/>
     </row>
     <row r="553" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A553" s="36"/>
@@ -26985,15 +27011,15 @@
     <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" s="36"/>
       <c r="B554" s="36"/>
-      <c r="C554" s="124" t="s">
+      <c r="C554" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="D554" s="124"/>
-      <c r="E554" s="124"/>
-      <c r="F554" s="124"/>
-      <c r="G554" s="124"/>
-      <c r="H554" s="124"/>
-      <c r="I554" s="124"/>
+      <c r="D554" s="127"/>
+      <c r="E554" s="127"/>
+      <c r="F554" s="127"/>
+      <c r="G554" s="127"/>
+      <c r="H554" s="127"/>
+      <c r="I554" s="127"/>
     </row>
     <row r="555" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A555" s="36"/>
@@ -27032,15 +27058,15 @@
     <row r="557" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="36"/>
       <c r="B557" s="36"/>
-      <c r="C557" s="125" t="s">
+      <c r="C557" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="D557" s="126"/>
-      <c r="E557" s="126"/>
-      <c r="F557" s="126"/>
-      <c r="G557" s="126"/>
-      <c r="H557" s="126"/>
-      <c r="I557" s="127"/>
+      <c r="D557" s="125"/>
+      <c r="E557" s="125"/>
+      <c r="F557" s="125"/>
+      <c r="G557" s="125"/>
+      <c r="H557" s="125"/>
+      <c r="I557" s="126"/>
     </row>
     <row r="558" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A558" s="36"/>
@@ -27062,15 +27088,15 @@
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" s="36"/>
       <c r="B559" s="36"/>
-      <c r="C559" s="124" t="s">
+      <c r="C559" s="127" t="s">
         <v>480</v>
       </c>
-      <c r="D559" s="124"/>
-      <c r="E559" s="124"/>
-      <c r="F559" s="124"/>
-      <c r="G559" s="124"/>
-      <c r="H559" s="124"/>
-      <c r="I559" s="124"/>
+      <c r="D559" s="127"/>
+      <c r="E559" s="127"/>
+      <c r="F559" s="127"/>
+      <c r="G559" s="127"/>
+      <c r="H559" s="127"/>
+      <c r="I559" s="127"/>
     </row>
     <row r="560" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A560" s="36"/>
@@ -27092,15 +27118,15 @@
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" s="36"/>
       <c r="B561" s="36"/>
-      <c r="C561" s="124" t="s">
+      <c r="C561" s="127" t="s">
         <v>483</v>
       </c>
-      <c r="D561" s="124"/>
-      <c r="E561" s="124"/>
-      <c r="F561" s="124"/>
-      <c r="G561" s="124"/>
-      <c r="H561" s="124"/>
-      <c r="I561" s="124"/>
+      <c r="D561" s="127"/>
+      <c r="E561" s="127"/>
+      <c r="F561" s="127"/>
+      <c r="G561" s="127"/>
+      <c r="H561" s="127"/>
+      <c r="I561" s="127"/>
     </row>
     <row r="562" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A562" s="36"/>
@@ -27122,15 +27148,15 @@
     <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" s="36"/>
       <c r="B563" s="36"/>
-      <c r="C563" s="124" t="s">
+      <c r="C563" s="127" t="s">
         <v>240</v>
       </c>
-      <c r="D563" s="124"/>
-      <c r="E563" s="124"/>
-      <c r="F563" s="124"/>
-      <c r="G563" s="124"/>
-      <c r="H563" s="124"/>
-      <c r="I563" s="124"/>
+      <c r="D563" s="127"/>
+      <c r="E563" s="127"/>
+      <c r="F563" s="127"/>
+      <c r="G563" s="127"/>
+      <c r="H563" s="127"/>
+      <c r="I563" s="127"/>
     </row>
     <row r="564" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A564" s="36"/>
@@ -27405,15 +27431,15 @@
         <v>192</v>
       </c>
       <c r="B580" s="36"/>
-      <c r="C580" s="124" t="s">
+      <c r="C580" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="D580" s="124"/>
-      <c r="E580" s="124"/>
-      <c r="F580" s="124"/>
-      <c r="G580" s="124"/>
-      <c r="H580" s="124"/>
-      <c r="I580" s="124"/>
+      <c r="D580" s="127"/>
+      <c r="E580" s="127"/>
+      <c r="F580" s="127"/>
+      <c r="G580" s="127"/>
+      <c r="H580" s="127"/>
+      <c r="I580" s="127"/>
     </row>
     <row r="581" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A581" s="36"/>
@@ -27620,17 +27646,17 @@
       <c r="I592" s="57"/>
     </row>
     <row r="593" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="125" t="s">
+      <c r="A593" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="B593" s="126"/>
-      <c r="C593" s="126"/>
-      <c r="D593" s="126"/>
-      <c r="E593" s="126"/>
-      <c r="F593" s="126"/>
-      <c r="G593" s="126"/>
-      <c r="H593" s="126"/>
-      <c r="I593" s="127"/>
+      <c r="B593" s="125"/>
+      <c r="C593" s="125"/>
+      <c r="D593" s="125"/>
+      <c r="E593" s="125"/>
+      <c r="F593" s="125"/>
+      <c r="G593" s="125"/>
+      <c r="H593" s="125"/>
+      <c r="I593" s="126"/>
     </row>
     <row r="594" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A594" s="36"/>
@@ -27803,17 +27829,17 @@
       <c r="I603" s="57"/>
     </row>
     <row r="604" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="125" t="s">
+      <c r="A604" s="124" t="s">
         <v>198</v>
       </c>
-      <c r="B604" s="126"/>
-      <c r="C604" s="126"/>
-      <c r="D604" s="126"/>
-      <c r="E604" s="126"/>
-      <c r="F604" s="126"/>
-      <c r="G604" s="126"/>
-      <c r="H604" s="126"/>
-      <c r="I604" s="127"/>
+      <c r="B604" s="125"/>
+      <c r="C604" s="125"/>
+      <c r="D604" s="125"/>
+      <c r="E604" s="125"/>
+      <c r="F604" s="125"/>
+      <c r="G604" s="125"/>
+      <c r="H604" s="125"/>
+      <c r="I604" s="126"/>
     </row>
     <row r="605" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A605" s="36"/>
@@ -27969,17 +27995,17 @@
       <c r="I613" s="36"/>
     </row>
     <row r="614" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="125" t="s">
+      <c r="A614" s="124" t="s">
         <v>201</v>
       </c>
-      <c r="B614" s="126"/>
-      <c r="C614" s="126"/>
-      <c r="D614" s="126"/>
-      <c r="E614" s="126"/>
-      <c r="F614" s="126"/>
-      <c r="G614" s="126"/>
-      <c r="H614" s="126"/>
-      <c r="I614" s="127"/>
+      <c r="B614" s="125"/>
+      <c r="C614" s="125"/>
+      <c r="D614" s="125"/>
+      <c r="E614" s="125"/>
+      <c r="F614" s="125"/>
+      <c r="G614" s="125"/>
+      <c r="H614" s="125"/>
+      <c r="I614" s="126"/>
     </row>
     <row r="615" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A615" s="36"/>
@@ -28139,15 +28165,15 @@
         <v>176</v>
       </c>
       <c r="B624" s="34"/>
-      <c r="C624" s="124" t="s">
+      <c r="C624" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="D624" s="124"/>
-      <c r="E624" s="124"/>
-      <c r="F624" s="124"/>
-      <c r="G624" s="124"/>
-      <c r="H624" s="124"/>
-      <c r="I624" s="124"/>
+      <c r="D624" s="127"/>
+      <c r="E624" s="127"/>
+      <c r="F624" s="127"/>
+      <c r="G624" s="127"/>
+      <c r="H624" s="127"/>
+      <c r="I624" s="127"/>
     </row>
     <row r="625" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A625" s="36"/>
@@ -29142,42 +29168,151 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
+      <selection activeCell="F13" sqref="F13"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
+      <selection activeCell="F237" sqref="F237"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+    </customSheetView>
+    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
+      <selection activeCell="G19" sqref="G19"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
+      <selection activeCell="C9" sqref="C9"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
+      <selection activeCell="F6" sqref="F6"/>
+      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+    </customSheetView>
+    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
+      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
     <customSheetView guid="{7089F64A-F77B-480F-9643-8730755F04D6}" scale="85">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" scale="85" state="hidden">
-      <selection activeCell="A3" sqref="A3"/>
+    <customSheetView guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" scale="85" topLeftCell="B1">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" scale="85">
-      <selection activeCell="F6" sqref="F6"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" scale="55">
-      <selection activeCell="C9" sqref="C9"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" scale="85">
-      <selection activeCell="G19" sqref="G19"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-    </customSheetView>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" scale="87" showPageBreaks="1" topLeftCell="A226">
-      <selection activeCell="F237" sqref="F237"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" scale="60" topLeftCell="A4">
-      <selection activeCell="F13" sqref="F13"/>
-      <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-      <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="133">
+    <mergeCell ref="C682:I682"/>
+    <mergeCell ref="C665:I665"/>
+    <mergeCell ref="C526:I526"/>
+    <mergeCell ref="C533:I533"/>
+    <mergeCell ref="C538:I538"/>
+    <mergeCell ref="A567:I567"/>
+    <mergeCell ref="C624:I624"/>
+    <mergeCell ref="A634:I634"/>
+    <mergeCell ref="A645:I645"/>
+    <mergeCell ref="C580:I580"/>
+    <mergeCell ref="C559:I559"/>
+    <mergeCell ref="C561:I561"/>
+    <mergeCell ref="C563:I563"/>
+    <mergeCell ref="C557:I557"/>
+    <mergeCell ref="C552:I552"/>
+    <mergeCell ref="C554:I554"/>
+    <mergeCell ref="A543:I543"/>
+    <mergeCell ref="C670:I670"/>
+    <mergeCell ref="C672:I672"/>
+    <mergeCell ref="C674:I674"/>
+    <mergeCell ref="C676:I676"/>
+    <mergeCell ref="C469:I469"/>
+    <mergeCell ref="C473:I473"/>
+    <mergeCell ref="C442:I442"/>
+    <mergeCell ref="C445:I445"/>
+    <mergeCell ref="C449:I449"/>
+    <mergeCell ref="C454:I454"/>
+    <mergeCell ref="C457:I457"/>
+    <mergeCell ref="C521:I521"/>
+    <mergeCell ref="C680:I680"/>
+    <mergeCell ref="C510:I510"/>
+    <mergeCell ref="C516:I516"/>
+    <mergeCell ref="C479:I479"/>
+    <mergeCell ref="C489:I489"/>
+    <mergeCell ref="C491:I491"/>
+    <mergeCell ref="C493:I493"/>
+    <mergeCell ref="C499:I499"/>
+    <mergeCell ref="C505:I505"/>
+    <mergeCell ref="C678:I678"/>
+    <mergeCell ref="C405:I405"/>
+    <mergeCell ref="C407:I407"/>
+    <mergeCell ref="C409:I409"/>
+    <mergeCell ref="C461:I461"/>
+    <mergeCell ref="C465:I465"/>
+    <mergeCell ref="A426:I426"/>
+    <mergeCell ref="C396:I396"/>
+    <mergeCell ref="C399:I399"/>
+    <mergeCell ref="C401:I401"/>
+    <mergeCell ref="C403:I403"/>
+    <mergeCell ref="C414:I414"/>
+    <mergeCell ref="C417:I417"/>
+    <mergeCell ref="C420:I420"/>
+    <mergeCell ref="C423:I423"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="C300:I300"/>
+    <mergeCell ref="C303:I303"/>
+    <mergeCell ref="A197:I197"/>
+    <mergeCell ref="A163:I163"/>
+    <mergeCell ref="A175:I175"/>
+    <mergeCell ref="A243:I243"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C266:I266"/>
+    <mergeCell ref="C269:I269"/>
+    <mergeCell ref="A216:I216"/>
+    <mergeCell ref="A225:I225"/>
+    <mergeCell ref="A253:I253"/>
+    <mergeCell ref="C273:I273"/>
+    <mergeCell ref="C276:I276"/>
+    <mergeCell ref="C289:I289"/>
+    <mergeCell ref="C293:I293"/>
+    <mergeCell ref="C279:I279"/>
+    <mergeCell ref="C287:I287"/>
+    <mergeCell ref="C291:I291"/>
+    <mergeCell ref="A284:I284"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="A187:I187"/>
+    <mergeCell ref="A154:I154"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="A146:I146"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A124:I124"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="C101:I101"/>
+    <mergeCell ref="A116:I116"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C337:I337"/>
+    <mergeCell ref="C305:I305"/>
+    <mergeCell ref="C314:I314"/>
+    <mergeCell ref="C320:I320"/>
+    <mergeCell ref="C327:I327"/>
+    <mergeCell ref="C309:I309"/>
+    <mergeCell ref="C317:I317"/>
+    <mergeCell ref="C323:I323"/>
+    <mergeCell ref="C334:I334"/>
     <mergeCell ref="C684:I684"/>
     <mergeCell ref="A593:I593"/>
     <mergeCell ref="A604:I604"/>
@@ -29202,115 +29337,6 @@
     <mergeCell ref="A380:I380"/>
     <mergeCell ref="A387:I387"/>
     <mergeCell ref="C376:I376"/>
-    <mergeCell ref="C337:I337"/>
-    <mergeCell ref="C305:I305"/>
-    <mergeCell ref="C314:I314"/>
-    <mergeCell ref="C320:I320"/>
-    <mergeCell ref="C327:I327"/>
-    <mergeCell ref="C309:I309"/>
-    <mergeCell ref="C317:I317"/>
-    <mergeCell ref="C323:I323"/>
-    <mergeCell ref="C334:I334"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="A187:I187"/>
-    <mergeCell ref="A154:I154"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="A146:I146"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A124:I124"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="C101:I101"/>
-    <mergeCell ref="A116:I116"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="C300:I300"/>
-    <mergeCell ref="C303:I303"/>
-    <mergeCell ref="A197:I197"/>
-    <mergeCell ref="A163:I163"/>
-    <mergeCell ref="A175:I175"/>
-    <mergeCell ref="A243:I243"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C266:I266"/>
-    <mergeCell ref="C269:I269"/>
-    <mergeCell ref="A216:I216"/>
-    <mergeCell ref="A225:I225"/>
-    <mergeCell ref="A253:I253"/>
-    <mergeCell ref="C273:I273"/>
-    <mergeCell ref="C276:I276"/>
-    <mergeCell ref="C289:I289"/>
-    <mergeCell ref="C293:I293"/>
-    <mergeCell ref="C279:I279"/>
-    <mergeCell ref="C287:I287"/>
-    <mergeCell ref="C291:I291"/>
-    <mergeCell ref="A284:I284"/>
-    <mergeCell ref="C405:I405"/>
-    <mergeCell ref="C407:I407"/>
-    <mergeCell ref="C409:I409"/>
-    <mergeCell ref="C461:I461"/>
-    <mergeCell ref="C465:I465"/>
-    <mergeCell ref="A426:I426"/>
-    <mergeCell ref="C396:I396"/>
-    <mergeCell ref="C399:I399"/>
-    <mergeCell ref="C401:I401"/>
-    <mergeCell ref="C403:I403"/>
-    <mergeCell ref="C414:I414"/>
-    <mergeCell ref="C417:I417"/>
-    <mergeCell ref="C420:I420"/>
-    <mergeCell ref="C423:I423"/>
-    <mergeCell ref="C469:I469"/>
-    <mergeCell ref="C473:I473"/>
-    <mergeCell ref="C442:I442"/>
-    <mergeCell ref="C445:I445"/>
-    <mergeCell ref="C449:I449"/>
-    <mergeCell ref="C454:I454"/>
-    <mergeCell ref="C457:I457"/>
-    <mergeCell ref="C521:I521"/>
-    <mergeCell ref="C680:I680"/>
-    <mergeCell ref="C510:I510"/>
-    <mergeCell ref="C516:I516"/>
-    <mergeCell ref="C479:I479"/>
-    <mergeCell ref="C489:I489"/>
-    <mergeCell ref="C491:I491"/>
-    <mergeCell ref="C493:I493"/>
-    <mergeCell ref="C499:I499"/>
-    <mergeCell ref="C505:I505"/>
-    <mergeCell ref="C678:I678"/>
-    <mergeCell ref="C682:I682"/>
-    <mergeCell ref="C665:I665"/>
-    <mergeCell ref="C526:I526"/>
-    <mergeCell ref="C533:I533"/>
-    <mergeCell ref="C538:I538"/>
-    <mergeCell ref="A567:I567"/>
-    <mergeCell ref="C624:I624"/>
-    <mergeCell ref="A634:I634"/>
-    <mergeCell ref="A645:I645"/>
-    <mergeCell ref="C580:I580"/>
-    <mergeCell ref="C559:I559"/>
-    <mergeCell ref="C561:I561"/>
-    <mergeCell ref="C563:I563"/>
-    <mergeCell ref="C557:I557"/>
-    <mergeCell ref="C552:I552"/>
-    <mergeCell ref="C554:I554"/>
-    <mergeCell ref="A543:I543"/>
-    <mergeCell ref="C670:I670"/>
-    <mergeCell ref="C672:I672"/>
-    <mergeCell ref="C674:I674"/>
-    <mergeCell ref="C676:I676"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
@@ -29321,21 +29347,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C71B05ED7860F1429BB192A8AD3ECF9C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bb17ca7624675e957ee0f1a62aa5509">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1dc586d3-033a-453c-a736-0de408b0dcee" xmlns:ns4="da96f4a7-4178-4915-9502-40e1bdbdebc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f4946a5cb97ee8e437c64f89eb7aa62" ns3:_="" ns4:_="">
     <xsd:import namespace="1dc586d3-033a-453c-a736-0de408b0dcee"/>
@@ -29558,24 +29569,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED1B3B-119A-4870-957A-0D939EB4F5C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29592,4 +29601,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config/Concern.xlsx
+++ b/Config/Concern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejarcebido/Documents/Projects/Python/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F20386-96E8-604E-84FE-D0801D0D7B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE041D66-0EA5-534E-96DF-73AA81BA9AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3899,142 +3899,142 @@
     <t>TS006 Precondition</t>
   </si>
   <si>
+    <t>TS007 Precondition</t>
+  </si>
+  <si>
+    <t>TS007</t>
+  </si>
+  <si>
+    <t>TS008 Precondition</t>
+  </si>
+  <si>
+    <t>TS008</t>
+  </si>
+  <si>
+    <t>TS009 Precondition</t>
+  </si>
+  <si>
+    <t>TS009</t>
+  </si>
+  <si>
+    <t>TS010 Precondition</t>
+  </si>
+  <si>
+    <t>TS010</t>
+  </si>
+  <si>
+    <t>TS011 Precondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS011 </t>
+  </si>
+  <si>
+    <t>TS012 Precondition</t>
+  </si>
+  <si>
+    <t>TS012</t>
+  </si>
+  <si>
+    <t>TS013 Precondition</t>
+  </si>
+  <si>
+    <t>TS013</t>
+  </si>
+  <si>
+    <t>TS014 Precondition</t>
+  </si>
+  <si>
+    <t>TS014</t>
+  </si>
+  <si>
+    <t>TS015 Precondition</t>
+  </si>
+  <si>
+    <t>TS015</t>
+  </si>
+  <si>
+    <t>TS016 Precondition</t>
+  </si>
+  <si>
+    <t>TS016</t>
+  </si>
+  <si>
+    <t>TS017 Precondition</t>
+  </si>
+  <si>
+    <t>TS017</t>
+  </si>
+  <si>
+    <t>TS018</t>
+  </si>
+  <si>
+    <t>TS019</t>
+  </si>
+  <si>
+    <t>TS020</t>
+  </si>
+  <si>
+    <t>TS021</t>
+  </si>
+  <si>
+    <t>TS022</t>
+  </si>
+  <si>
+    <t>TS023</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TS055</t>
+  </si>
+  <si>
+    <t>TC118</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Step 6</t>
+  </si>
+  <si>
+    <t>Step 7</t>
+  </si>
+  <si>
+    <t>Step 8</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
     <t>TS006</t>
-  </si>
-  <si>
-    <t>TS007 Precondition</t>
-  </si>
-  <si>
-    <t>TS007</t>
-  </si>
-  <si>
-    <t>TS008 Precondition</t>
-  </si>
-  <si>
-    <t>TS008</t>
-  </si>
-  <si>
-    <t>TS009 Precondition</t>
-  </si>
-  <si>
-    <t>TS009</t>
-  </si>
-  <si>
-    <t>TS010 Precondition</t>
-  </si>
-  <si>
-    <t>TS010</t>
-  </si>
-  <si>
-    <t>TS011 Precondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS011 </t>
-  </si>
-  <si>
-    <t>TS012 Precondition</t>
-  </si>
-  <si>
-    <t>TS012</t>
-  </si>
-  <si>
-    <t>TS013 Precondition</t>
-  </si>
-  <si>
-    <t>TS013</t>
-  </si>
-  <si>
-    <t>TS014 Precondition</t>
-  </si>
-  <si>
-    <t>TS014</t>
-  </si>
-  <si>
-    <t>TS015 Precondition</t>
-  </si>
-  <si>
-    <t>TS015</t>
-  </si>
-  <si>
-    <t>TS016 Precondition</t>
-  </si>
-  <si>
-    <t>TS016</t>
-  </si>
-  <si>
-    <t>TS017 Precondition</t>
-  </si>
-  <si>
-    <t>TS017</t>
-  </si>
-  <si>
-    <t>TS018</t>
-  </si>
-  <si>
-    <t>TS019</t>
-  </si>
-  <si>
-    <t>TS020</t>
-  </si>
-  <si>
-    <t>TS021</t>
-  </si>
-  <si>
-    <t>TS022</t>
-  </si>
-  <si>
-    <t>TS023</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>TC007</t>
-  </si>
-  <si>
-    <t>TC008</t>
-  </si>
-  <si>
-    <t>TC005</t>
-  </si>
-  <si>
-    <t>TC010</t>
-  </si>
-  <si>
-    <t>TC011</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>TS055</t>
-  </si>
-  <si>
-    <t>TC118</t>
-  </si>
-  <si>
-    <t>Step 5</t>
-  </si>
-  <si>
-    <t>Step 6</t>
-  </si>
-  <si>
-    <t>Step 7</t>
-  </si>
-  <si>
-    <t>Step 8</t>
-  </si>
-  <si>
-    <t>Step 9</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>TC006</t>
   </si>
 </sst>
 </file>
@@ -6101,8 +6101,8 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="21" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>1068</v>
+        <v>1113</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>48</v>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="22" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>1068</v>
+        <v>1113</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>50</v>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="23" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>1068</v>
+        <v>1113</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>52</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="24" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>1068</v>
+        <v>1113</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>54</v>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="26" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B26" s="37" t="s">
         <v>47</v>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="27" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>58</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="28" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>50</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="29" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B29" s="37" t="s">
         <v>52</v>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="30" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B30" s="37" t="s">
         <v>54</v>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="32" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B32" s="37" t="s">
         <v>47</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="33" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>61</v>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="34" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B34" s="37" t="s">
         <v>50</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="35" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B35" s="37" t="s">
         <v>52</v>
@@ -6710,7 +6710,7 @@
     </row>
     <row r="36" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B36" s="37" t="s">
         <v>54</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="38" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B38" s="37" t="s">
         <v>47</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="39" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B39" s="37" t="s">
         <v>63</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="40" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B40" s="37" t="s">
         <v>50</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="41" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>52</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="42" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>54</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="44" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B44" s="37" t="s">
         <v>47</v>
@@ -6863,7 +6863,7 @@
     </row>
     <row r="45" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A45" s="36" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B45" s="37" t="s">
         <v>48</v>
@@ -6880,7 +6880,7 @@
     </row>
     <row r="46" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B46" s="37" t="s">
         <v>50</v>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="47" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B47" s="37" t="s">
         <v>52</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="48" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B48" s="37" t="s">
         <v>54</v>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="50" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B50" s="37" t="s">
         <v>47</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="51" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B51" s="37" t="s">
         <v>58</v>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="52" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B52" s="37" t="s">
         <v>50</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="53" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B53" s="37" t="s">
         <v>52</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="54" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B54" s="37" t="s">
         <v>54</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="56" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B56" s="37" t="s">
         <v>47</v>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="57" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B57" s="37" t="s">
         <v>61</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="58" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B58" s="37" t="s">
         <v>50</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="59" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B59" s="37" t="s">
         <v>52</v>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="60" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A60" s="36" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B60" s="37" t="s">
         <v>54</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="62" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A62" s="36" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B62" s="37" t="s">
         <v>47</v>
@@ -7169,7 +7169,7 @@
     </row>
     <row r="63" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B63" s="37" t="s">
         <v>63</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="64" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B64" s="37" t="s">
         <v>50</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="65" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B65" s="37" t="s">
         <v>52</v>
@@ -7220,7 +7220,7 @@
     </row>
     <row r="66" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B66" s="37" t="s">
         <v>54</v>
@@ -7258,7 +7258,7 @@
     </row>
     <row r="68" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B68" s="37" t="s">
         <v>47</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="69" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A69" s="36" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B69" s="37" t="s">
         <v>48</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="70" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A70" s="36" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B70" s="37" t="s">
         <v>50</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="71" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B71" s="37" t="s">
         <v>52</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="72" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B72" s="37" t="s">
         <v>54</v>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="74" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B74" s="37" t="s">
         <v>47</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="75" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B75" s="37" t="s">
         <v>58</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="76" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A76" s="36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B76" s="37" t="s">
         <v>50</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="77" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A77" s="36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B77" s="37" t="s">
         <v>52</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="78" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A78" s="36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B78" s="37" t="s">
         <v>54</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="80" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B80" s="37" t="s">
         <v>47</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="81" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B81" s="37" t="s">
         <v>61</v>
@@ -7492,7 +7492,7 @@
     </row>
     <row r="82" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B82" s="37" t="s">
         <v>50</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="83" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B83" s="37" t="s">
         <v>52</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="84" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A84" s="36" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B84" s="37" t="s">
         <v>54</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="86" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A86" s="36" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B86" s="37" t="s">
         <v>47</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="87" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A87" s="36" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B87" s="37" t="s">
         <v>63</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="88" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B88" s="37" t="s">
         <v>50</v>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="89" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B89" s="37" t="s">
         <v>52</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="90" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B90" s="37" t="s">
         <v>54</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="92" spans="1:9" ht="23.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="34" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B92" s="34" t="s">
         <v>78</v>
@@ -7671,7 +7671,7 @@
     </row>
     <row r="93" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A93" s="36" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B93" s="37" t="s">
         <v>79</v>
@@ -7688,7 +7688,7 @@
     </row>
     <row r="94" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A94" s="36" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B94" s="37" t="s">
         <v>48</v>
@@ -7705,7 +7705,7 @@
     </row>
     <row r="95" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A95" s="36" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B95" s="37" t="s">
         <v>50</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="96" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B96" s="37" t="s">
         <v>81</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="97" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A97" s="36" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B97" s="37" t="s">
         <v>54</v>
@@ -7756,7 +7756,7 @@
     </row>
     <row r="98" spans="1:9" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="34" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B98" s="34" t="s">
         <v>83</v>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="99" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B99" s="37" t="s">
         <v>79</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="100" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A100" s="36" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B100" s="37" t="s">
         <v>58</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="101" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A101" s="36" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B101" s="37" t="s">
         <v>50</v>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="102" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A102" s="36" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B102" s="37" t="s">
         <v>81</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="103" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A103" s="36" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B103" s="37" t="s">
         <v>54</v>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="104" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="34" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B104" s="34" t="s">
         <v>84</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="105" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B105" s="37" t="s">
         <v>79</v>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="106" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B106" s="37" t="s">
         <v>48</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="107" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B107" s="37" t="s">
         <v>50</v>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="108" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A108" s="36" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B108" s="37" t="s">
         <v>81</v>
@@ -7952,7 +7952,7 @@
     </row>
     <row r="109" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A109" s="36" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B109" s="37" t="s">
         <v>54</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="34" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B110" s="34" t="s">
         <v>85</v>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="111" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A111" s="36" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B111" s="37" t="s">
         <v>79</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="112" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B112" s="37" t="s">
         <v>58</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="113" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A113" s="36" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B113" s="37" t="s">
         <v>50</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="114" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B114" s="37" t="s">
         <v>81</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="115" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A115" s="36" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B115" s="37" t="s">
         <v>54</v>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="116" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A116" s="34" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B116" s="34" t="s">
         <v>86</v>
@@ -8097,7 +8097,7 @@
     </row>
     <row r="117" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A117" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B117" s="37" t="s">
         <v>79</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="118" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B118" s="37" t="s">
         <v>48</v>
@@ -8131,7 +8131,7 @@
     </row>
     <row r="119" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A119" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B119" s="37" t="s">
         <v>50</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="120" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B120" s="37" t="s">
         <v>81</v>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="121" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A121" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B121" s="37" t="s">
         <v>54</v>
@@ -8182,7 +8182,7 @@
     </row>
     <row r="122" spans="1:9" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" s="34" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B122" s="34" t="s">
         <v>87</v>
@@ -8205,7 +8205,7 @@
     </row>
     <row r="123" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A123" s="36" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B123" s="37" t="s">
         <v>79</v>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="124" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A124" s="36" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B124" s="37" t="s">
         <v>58</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="125" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A125" s="36" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B125" s="37" t="s">
         <v>50</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="126" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A126" s="36" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B126" s="37" t="s">
         <v>81</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="127" spans="1:9" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A127" s="36" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B127" s="37" t="s">
         <v>54</v>
@@ -11454,7 +11454,7 @@
     </row>
     <row r="302" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A302" s="34" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B302" s="41" t="s">
         <v>197</v>
@@ -11474,7 +11474,7 @@
     </row>
     <row r="303" spans="1:10" ht="30" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A303" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B303" s="38" t="s">
         <v>198</v>
@@ -11496,7 +11496,7 @@
     </row>
     <row r="304" spans="1:10" ht="45" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A304" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B304" s="38" t="s">
         <v>110</v>
@@ -11521,7 +11521,7 @@
     </row>
     <row r="305" spans="1:10" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A305" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B305" s="38" t="s">
         <v>170</v>
@@ -17984,8 +17984,8 @@
   </sheetPr>
   <dimension ref="A1:I685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="C556" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="C561" sqref="C561:I561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -18048,7 +18048,7 @@
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="55" t="s">
@@ -18080,7 +18080,7 @@
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="55" t="s">
@@ -18099,7 +18099,7 @@
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="55" t="s">
@@ -18131,7 +18131,7 @@
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="55" t="s">
@@ -18163,7 +18163,7 @@
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="55" t="s">
@@ -18182,7 +18182,7 @@
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="55" t="s">
@@ -18214,7 +18214,7 @@
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="55" t="s">
@@ -18233,7 +18233,7 @@
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
       <c r="C14" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D14" s="57"/>
       <c r="E14" s="55" t="s">
@@ -18265,7 +18265,7 @@
       <c r="A16" s="56"/>
       <c r="B16" s="56"/>
       <c r="C16" s="56" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="55" t="s">
@@ -18284,7 +18284,7 @@
       <c r="A17" s="56"/>
       <c r="B17" s="56"/>
       <c r="C17" s="56" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
@@ -18316,7 +18316,7 @@
       <c r="A19" s="56"/>
       <c r="B19" s="56"/>
       <c r="C19" s="36" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="55" t="s">
@@ -18335,7 +18335,7 @@
       <c r="A20" s="56"/>
       <c r="B20" s="56"/>
       <c r="C20" s="36" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="55" t="s">
@@ -18367,7 +18367,7 @@
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
       <c r="C22" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="55" t="s">
@@ -18463,7 +18463,7 @@
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="55" t="s">
@@ -18482,7 +18482,7 @@
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="55" t="s">
@@ -18501,7 +18501,7 @@
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="55" t="s">
@@ -18533,7 +18533,7 @@
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="55" t="s">
@@ -18552,7 +18552,7 @@
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D33" s="36"/>
       <c r="E33" s="55" t="s">
@@ -18571,7 +18571,7 @@
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="55" t="s">
@@ -27864,7 +27864,7 @@
       <c r="A605" s="36"/>
       <c r="B605" s="36"/>
       <c r="C605" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D605" s="36"/>
       <c r="E605" s="55" t="s">
@@ -27883,7 +27883,7 @@
       <c r="A606" s="36"/>
       <c r="B606" s="36"/>
       <c r="C606" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D606" s="36"/>
       <c r="E606" s="55" t="s">
@@ -27902,7 +27902,7 @@
       <c r="A607" s="36"/>
       <c r="B607" s="36"/>
       <c r="C607" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D607" s="36"/>
       <c r="E607" s="55" t="s">
@@ -27921,7 +27921,7 @@
       <c r="A608" s="36"/>
       <c r="B608" s="36"/>
       <c r="C608" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D608" s="36"/>
       <c r="E608" s="55" t="s">
@@ -27940,11 +27940,11 @@
       <c r="A609" s="59"/>
       <c r="B609" s="59"/>
       <c r="C609" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D609" s="59"/>
       <c r="E609" s="60" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F609" s="59" t="s">
         <v>919</v>
@@ -27959,11 +27959,11 @@
       <c r="A610" s="59"/>
       <c r="B610" s="59"/>
       <c r="C610" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D610" s="59"/>
       <c r="E610" s="60" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F610" s="59" t="s">
         <v>742</v>
@@ -27978,11 +27978,11 @@
       <c r="A611" s="36"/>
       <c r="B611" s="36"/>
       <c r="C611" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D611" s="36"/>
       <c r="E611" s="55" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F611" s="36" t="s">
         <v>731</v>
@@ -27997,11 +27997,11 @@
       <c r="A612" s="36"/>
       <c r="B612" s="36"/>
       <c r="C612" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D612" s="36"/>
       <c r="E612" s="55" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F612" s="36" t="s">
         <v>691</v>
@@ -28016,11 +28016,11 @@
       <c r="A613" s="36"/>
       <c r="B613" s="36"/>
       <c r="C613" s="36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D613" s="36"/>
       <c r="E613" s="55" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F613" s="38" t="s">
         <v>506</v>
@@ -29384,21 +29384,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C71B05ED7860F1429BB192A8AD3ECF9C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bb17ca7624675e957ee0f1a62aa5509">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1dc586d3-033a-453c-a736-0de408b0dcee" xmlns:ns4="da96f4a7-4178-4915-9502-40e1bdbdebc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f4946a5cb97ee8e437c64f89eb7aa62" ns3:_="" ns4:_="">
     <xsd:import namespace="1dc586d3-033a-453c-a736-0de408b0dcee"/>
@@ -29621,15 +29612,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -29638,7 +29630,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED1B3B-119A-4870-957A-0D939EB4F5C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29655,4 +29647,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Config/Concern.xlsx
+++ b/Config/Concern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejarcebido/Documents/Projects/Python/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA30DA11-D2D2-CA40-BC9C-E10794911E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F52429C-1E5D-764D-9C8D-5E363E6AC5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="673" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="1" r:id="rId1"/>
@@ -4756,6 +4756,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4821,36 +4851,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6104,8 +6104,8 @@
   </sheetPr>
   <dimension ref="A1:J631"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -6121,27 +6121,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
       <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
       <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:9" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6169,27 +6169,27 @@
       <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:9" s="28" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="108"/>
       <c r="I5" s="32" t="s">
         <v>24</v>
       </c>
@@ -6311,15 +6311,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="98"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="108"/>
     </row>
     <row r="13" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="str">
@@ -6400,27 +6400,27 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="73"/>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="108"/>
     </row>
     <row r="19" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="str">
@@ -7647,15 +7647,15 @@
       <c r="G90" s="37"/>
     </row>
     <row r="91" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="96" t="s">
+      <c r="A91" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="97"/>
-      <c r="E91" s="97"/>
-      <c r="F91" s="97"/>
-      <c r="G91" s="98"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="108"/>
     </row>
     <row r="92" spans="1:9" ht="23.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="33" t="s">
@@ -8292,15 +8292,15 @@
       <c r="G127" s="37"/>
     </row>
     <row r="128" spans="1:9" s="28" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="106" t="s">
+      <c r="A128" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="107"/>
-      <c r="C128" s="107"/>
-      <c r="D128" s="107"/>
-      <c r="E128" s="107"/>
-      <c r="F128" s="107"/>
-      <c r="G128" s="107"/>
+      <c r="B128" s="117"/>
+      <c r="C128" s="117"/>
+      <c r="D128" s="117"/>
+      <c r="E128" s="117"/>
+      <c r="F128" s="117"/>
+      <c r="G128" s="117"/>
       <c r="H128" s="69"/>
     </row>
     <row r="129" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -9150,27 +9150,27 @@
       <c r="G176" s="37"/>
     </row>
     <row r="177" spans="1:10" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="99" t="s">
+      <c r="A177" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="100"/>
-      <c r="C177" s="100"/>
-      <c r="D177" s="100"/>
-      <c r="E177" s="100"/>
-      <c r="F177" s="100"/>
-      <c r="G177" s="100"/>
+      <c r="B177" s="110"/>
+      <c r="C177" s="110"/>
+      <c r="D177" s="110"/>
+      <c r="E177" s="110"/>
+      <c r="F177" s="110"/>
+      <c r="G177" s="110"/>
       <c r="H177" s="73"/>
     </row>
     <row r="178" spans="1:10" s="39" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="108" t="s">
+      <c r="A178" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="109"/>
-      <c r="C178" s="109"/>
-      <c r="D178" s="109"/>
-      <c r="E178" s="109"/>
-      <c r="F178" s="109"/>
-      <c r="G178" s="109"/>
+      <c r="B178" s="119"/>
+      <c r="C178" s="119"/>
+      <c r="D178" s="119"/>
+      <c r="E178" s="119"/>
+      <c r="F178" s="119"/>
+      <c r="G178" s="119"/>
       <c r="H178" s="73"/>
     </row>
     <row r="179" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -9958,15 +9958,15 @@
       </c>
     </row>
     <row r="224" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="106" t="s">
+      <c r="A224" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="107"/>
-      <c r="C224" s="107"/>
-      <c r="D224" s="107"/>
-      <c r="E224" s="107"/>
-      <c r="F224" s="107"/>
-      <c r="G224" s="107"/>
+      <c r="B224" s="117"/>
+      <c r="C224" s="117"/>
+      <c r="D224" s="117"/>
+      <c r="E224" s="117"/>
+      <c r="F224" s="117"/>
+      <c r="G224" s="117"/>
     </row>
     <row r="225" spans="1:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A225" s="33" t="str">
@@ -11921,15 +11921,15 @@
       <c r="G325" s="37"/>
     </row>
     <row r="326" spans="1:9" s="28" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="106" t="s">
+      <c r="A326" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="B326" s="107"/>
-      <c r="C326" s="107"/>
-      <c r="D326" s="107"/>
-      <c r="E326" s="107"/>
-      <c r="F326" s="107"/>
-      <c r="G326" s="107"/>
+      <c r="B326" s="117"/>
+      <c r="C326" s="117"/>
+      <c r="D326" s="117"/>
+      <c r="E326" s="117"/>
+      <c r="F326" s="117"/>
+      <c r="G326" s="117"/>
       <c r="H326" s="69"/>
     </row>
     <row r="327" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -12556,15 +12556,15 @@
       </c>
     </row>
     <row r="360" spans="1:9" s="28" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="106" t="s">
+      <c r="A360" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="B360" s="107"/>
-      <c r="C360" s="107"/>
-      <c r="D360" s="107"/>
-      <c r="E360" s="107"/>
-      <c r="F360" s="107"/>
-      <c r="G360" s="107"/>
+      <c r="B360" s="117"/>
+      <c r="C360" s="117"/>
+      <c r="D360" s="117"/>
+      <c r="E360" s="117"/>
+      <c r="F360" s="117"/>
+      <c r="G360" s="117"/>
       <c r="H360" s="69"/>
     </row>
     <row r="361" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -13235,15 +13235,15 @@
       </c>
     </row>
     <row r="397" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="99" t="s">
+      <c r="A397" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="B397" s="100"/>
-      <c r="C397" s="100"/>
-      <c r="D397" s="100"/>
-      <c r="E397" s="100"/>
-      <c r="F397" s="100"/>
-      <c r="G397" s="100"/>
+      <c r="B397" s="110"/>
+      <c r="C397" s="110"/>
+      <c r="D397" s="110"/>
+      <c r="E397" s="110"/>
+      <c r="F397" s="110"/>
+      <c r="G397" s="110"/>
     </row>
     <row r="398" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A398" s="33" t="str">
@@ -13527,15 +13527,15 @@
       <c r="G412" s="37"/>
     </row>
     <row r="413" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="99" t="s">
+      <c r="A413" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="B413" s="100"/>
-      <c r="C413" s="100"/>
-      <c r="D413" s="100"/>
-      <c r="E413" s="100"/>
-      <c r="F413" s="100"/>
-      <c r="G413" s="100"/>
+      <c r="B413" s="110"/>
+      <c r="C413" s="110"/>
+      <c r="D413" s="110"/>
+      <c r="E413" s="110"/>
+      <c r="F413" s="110"/>
+      <c r="G413" s="110"/>
     </row>
     <row r="414" spans="1:10" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A414" s="33" t="str">
@@ -13574,26 +13574,26 @@
       <c r="G415" s="37"/>
     </row>
     <row r="416" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A416" s="99" t="s">
+      <c r="A416" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="B416" s="100"/>
-      <c r="C416" s="100"/>
-      <c r="D416" s="100"/>
-      <c r="E416" s="100"/>
-      <c r="F416" s="100"/>
-      <c r="G416" s="100"/>
+      <c r="B416" s="110"/>
+      <c r="C416" s="110"/>
+      <c r="D416" s="110"/>
+      <c r="E416" s="110"/>
+      <c r="F416" s="110"/>
+      <c r="G416" s="110"/>
     </row>
     <row r="417" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A417" s="96" t="s">
+      <c r="A417" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B417" s="97"/>
-      <c r="C417" s="97"/>
-      <c r="D417" s="97"/>
-      <c r="E417" s="97"/>
-      <c r="F417" s="97"/>
-      <c r="G417" s="98"/>
+      <c r="B417" s="107"/>
+      <c r="C417" s="107"/>
+      <c r="D417" s="107"/>
+      <c r="E417" s="107"/>
+      <c r="F417" s="107"/>
+      <c r="G417" s="108"/>
     </row>
     <row r="418" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A418" s="33" t="str">
@@ -13610,7 +13610,7 @@
       <c r="E418" s="47"/>
       <c r="F418" s="46"/>
       <c r="G418" s="27"/>
-      <c r="H418" s="105" t="s">
+      <c r="H418" s="115" t="s">
         <v>284</v>
       </c>
       <c r="I418" s="32" t="s">
@@ -13631,7 +13631,7 @@
         <v>146</v>
       </c>
       <c r="G419" s="37"/>
-      <c r="H419" s="105"/>
+      <c r="H419" s="115"/>
     </row>
     <row r="420" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A420" s="37"/>
@@ -13647,7 +13647,7 @@
         <v>146</v>
       </c>
       <c r="G420" s="37"/>
-      <c r="H420" s="105"/>
+      <c r="H420" s="115"/>
     </row>
     <row r="421" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A421" s="37"/>
@@ -13663,7 +13663,7 @@
         <v>146</v>
       </c>
       <c r="G421" s="37"/>
-      <c r="H421" s="105"/>
+      <c r="H421" s="115"/>
     </row>
     <row r="422" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A422" s="37"/>
@@ -13679,7 +13679,7 @@
         <v>146</v>
       </c>
       <c r="G422" s="37"/>
-      <c r="H422" s="105"/>
+      <c r="H422" s="115"/>
     </row>
     <row r="423" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A423" s="37"/>
@@ -13695,7 +13695,7 @@
         <v>146</v>
       </c>
       <c r="G423" s="37"/>
-      <c r="H423" s="105"/>
+      <c r="H423" s="115"/>
     </row>
     <row r="424" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A424" s="33" t="str">
@@ -13712,7 +13712,7 @@
       <c r="E424" s="47"/>
       <c r="F424" s="34"/>
       <c r="G424" s="38"/>
-      <c r="H424" s="105"/>
+      <c r="H424" s="115"/>
       <c r="I424" s="32" t="s">
         <v>146</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>146</v>
       </c>
       <c r="G425" s="37"/>
-      <c r="H425" s="105"/>
+      <c r="H425" s="115"/>
     </row>
     <row r="426" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A426" s="33" t="str">
@@ -13748,7 +13748,7 @@
       <c r="E426" s="47"/>
       <c r="F426" s="34"/>
       <c r="G426" s="38"/>
-      <c r="H426" s="105"/>
+      <c r="H426" s="115"/>
       <c r="I426" s="32" t="s">
         <v>146</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>146</v>
       </c>
       <c r="G427" s="37"/>
-      <c r="H427" s="105"/>
+      <c r="H427" s="115"/>
     </row>
     <row r="428" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A428" s="37"/>
@@ -13783,7 +13783,7 @@
         <v>146</v>
       </c>
       <c r="G428" s="37"/>
-      <c r="H428" s="105"/>
+      <c r="H428" s="115"/>
     </row>
     <row r="429" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A429" s="37"/>
@@ -13799,7 +13799,7 @@
         <v>146</v>
       </c>
       <c r="G429" s="37"/>
-      <c r="H429" s="105"/>
+      <c r="H429" s="115"/>
     </row>
     <row r="430" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A430" s="37"/>
@@ -13815,7 +13815,7 @@
         <v>146</v>
       </c>
       <c r="G430" s="37"/>
-      <c r="H430" s="105"/>
+      <c r="H430" s="115"/>
     </row>
     <row r="431" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A431" s="37"/>
@@ -13831,7 +13831,7 @@
         <v>146</v>
       </c>
       <c r="G431" s="37"/>
-      <c r="H431" s="105"/>
+      <c r="H431" s="115"/>
     </row>
     <row r="432" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A432" s="37"/>
@@ -13847,7 +13847,7 @@
         <v>146</v>
       </c>
       <c r="G432" s="37"/>
-      <c r="H432" s="105"/>
+      <c r="H432" s="115"/>
     </row>
     <row r="433" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A433" s="37"/>
@@ -13863,7 +13863,7 @@
         <v>146</v>
       </c>
       <c r="G433" s="37"/>
-      <c r="H433" s="105"/>
+      <c r="H433" s="115"/>
     </row>
     <row r="434" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A434" s="37"/>
@@ -13879,7 +13879,7 @@
         <v>146</v>
       </c>
       <c r="G434" s="37"/>
-      <c r="H434" s="105"/>
+      <c r="H434" s="115"/>
     </row>
     <row r="435" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A435" s="37"/>
@@ -13895,7 +13895,7 @@
         <v>146</v>
       </c>
       <c r="G435" s="37"/>
-      <c r="H435" s="105"/>
+      <c r="H435" s="115"/>
     </row>
     <row r="436" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A436" s="37"/>
@@ -13911,7 +13911,7 @@
         <v>146</v>
       </c>
       <c r="G436" s="37"/>
-      <c r="H436" s="105"/>
+      <c r="H436" s="115"/>
     </row>
     <row r="437" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A437" s="37"/>
@@ -13927,7 +13927,7 @@
         <v>146</v>
       </c>
       <c r="G437" s="37"/>
-      <c r="H437" s="105"/>
+      <c r="H437" s="115"/>
     </row>
     <row r="438" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A438" s="37"/>
@@ -13943,7 +13943,7 @@
         <v>146</v>
       </c>
       <c r="G438" s="37"/>
-      <c r="H438" s="105"/>
+      <c r="H438" s="115"/>
     </row>
     <row r="439" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A439" s="37"/>
@@ -13959,7 +13959,7 @@
         <v>146</v>
       </c>
       <c r="G439" s="37"/>
-      <c r="H439" s="105"/>
+      <c r="H439" s="115"/>
     </row>
     <row r="440" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A440" s="33" t="str">
@@ -13976,7 +13976,7 @@
       <c r="E440" s="47"/>
       <c r="F440" s="34"/>
       <c r="G440" s="38"/>
-      <c r="H440" s="105"/>
+      <c r="H440" s="115"/>
       <c r="I440" s="32" t="s">
         <v>146</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>146</v>
       </c>
       <c r="G441" s="37"/>
-      <c r="H441" s="105"/>
+      <c r="H441" s="115"/>
     </row>
     <row r="442" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A442" s="37"/>
@@ -14011,7 +14011,7 @@
         <v>146</v>
       </c>
       <c r="G442" s="37"/>
-      <c r="H442" s="105"/>
+      <c r="H442" s="115"/>
     </row>
     <row r="443" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A443" s="37"/>
@@ -14027,7 +14027,7 @@
         <v>146</v>
       </c>
       <c r="G443" s="37"/>
-      <c r="H443" s="105"/>
+      <c r="H443" s="115"/>
     </row>
     <row r="444" spans="1:9" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A444" s="37"/>
@@ -14043,18 +14043,18 @@
         <v>146</v>
       </c>
       <c r="G444" s="37"/>
-      <c r="H444" s="105"/>
+      <c r="H444" s="115"/>
     </row>
     <row r="445" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="96" t="s">
+      <c r="A445" s="106" t="s">
         <v>336</v>
       </c>
-      <c r="B445" s="97"/>
-      <c r="C445" s="97"/>
-      <c r="D445" s="97"/>
-      <c r="E445" s="97"/>
-      <c r="F445" s="97"/>
-      <c r="G445" s="98"/>
+      <c r="B445" s="107"/>
+      <c r="C445" s="107"/>
+      <c r="D445" s="107"/>
+      <c r="E445" s="107"/>
+      <c r="F445" s="107"/>
+      <c r="G445" s="108"/>
     </row>
     <row r="446" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A446" s="33" t="str">
@@ -14481,7 +14481,7 @@
       <c r="E467" s="47"/>
       <c r="F467" s="34"/>
       <c r="G467" s="38"/>
-      <c r="H467" s="105" t="s">
+      <c r="H467" s="115" t="s">
         <v>284</v>
       </c>
       <c r="I467" s="32" t="s">
@@ -14500,7 +14500,7 @@
       <c r="E468" s="36"/>
       <c r="F468" s="36"/>
       <c r="G468" s="37"/>
-      <c r="H468" s="105"/>
+      <c r="H468" s="115"/>
     </row>
     <row r="469" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A469" s="37"/>
@@ -14516,7 +14516,7 @@
         <v>146</v>
       </c>
       <c r="G469" s="37"/>
-      <c r="H469" s="105"/>
+      <c r="H469" s="115"/>
     </row>
     <row r="470" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A470" s="37"/>
@@ -14532,7 +14532,7 @@
         <v>146</v>
       </c>
       <c r="G470" s="37"/>
-      <c r="H470" s="105"/>
+      <c r="H470" s="115"/>
     </row>
     <row r="471" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A471" s="37"/>
@@ -14548,7 +14548,7 @@
         <v>146</v>
       </c>
       <c r="G471" s="37"/>
-      <c r="H471" s="105"/>
+      <c r="H471" s="115"/>
     </row>
     <row r="472" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A472" s="37"/>
@@ -14564,7 +14564,7 @@
         <v>146</v>
       </c>
       <c r="G472" s="37"/>
-      <c r="H472" s="105"/>
+      <c r="H472" s="115"/>
     </row>
     <row r="473" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A473" s="37"/>
@@ -14580,7 +14580,7 @@
         <v>146</v>
       </c>
       <c r="G473" s="37"/>
-      <c r="H473" s="105"/>
+      <c r="H473" s="115"/>
     </row>
     <row r="474" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A474" s="33" t="str">
@@ -15012,7 +15012,7 @@
       <c r="E495" s="47"/>
       <c r="F495" s="34"/>
       <c r="G495" s="38"/>
-      <c r="H495" s="105" t="s">
+      <c r="H495" s="115" t="s">
         <v>284</v>
       </c>
       <c r="I495" s="32" t="s">
@@ -15031,7 +15031,7 @@
       <c r="E496" s="36"/>
       <c r="F496" s="36"/>
       <c r="G496" s="37"/>
-      <c r="H496" s="105"/>
+      <c r="H496" s="115"/>
     </row>
     <row r="497" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A497" s="37"/>
@@ -15047,7 +15047,7 @@
         <v>146</v>
       </c>
       <c r="G497" s="37"/>
-      <c r="H497" s="105"/>
+      <c r="H497" s="115"/>
     </row>
     <row r="498" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A498" s="37"/>
@@ -15063,7 +15063,7 @@
         <v>146</v>
       </c>
       <c r="G498" s="37"/>
-      <c r="H498" s="105"/>
+      <c r="H498" s="115"/>
     </row>
     <row r="499" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A499" s="37"/>
@@ -15079,7 +15079,7 @@
         <v>146</v>
       </c>
       <c r="G499" s="37"/>
-      <c r="H499" s="105"/>
+      <c r="H499" s="115"/>
     </row>
     <row r="500" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A500" s="37"/>
@@ -15095,7 +15095,7 @@
         <v>146</v>
       </c>
       <c r="G500" s="37"/>
-      <c r="H500" s="105"/>
+      <c r="H500" s="115"/>
     </row>
     <row r="501" spans="1:10" ht="15" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A501" s="37"/>
@@ -15111,29 +15111,29 @@
         <v>146</v>
       </c>
       <c r="G501" s="37"/>
-      <c r="H501" s="105"/>
+      <c r="H501" s="115"/>
     </row>
     <row r="502" spans="1:10" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="99" t="s">
+      <c r="A502" s="109" t="s">
         <v>396</v>
       </c>
-      <c r="B502" s="100"/>
-      <c r="C502" s="100"/>
-      <c r="D502" s="100"/>
-      <c r="E502" s="100"/>
-      <c r="F502" s="100"/>
-      <c r="G502" s="100"/>
+      <c r="B502" s="110"/>
+      <c r="C502" s="110"/>
+      <c r="D502" s="110"/>
+      <c r="E502" s="110"/>
+      <c r="F502" s="110"/>
+      <c r="G502" s="110"/>
     </row>
     <row r="503" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A503" s="96" t="s">
+      <c r="A503" s="106" t="s">
         <v>397</v>
       </c>
-      <c r="B503" s="97"/>
-      <c r="C503" s="97"/>
-      <c r="D503" s="97"/>
-      <c r="E503" s="97"/>
-      <c r="F503" s="97"/>
-      <c r="G503" s="98"/>
+      <c r="B503" s="107"/>
+      <c r="C503" s="107"/>
+      <c r="D503" s="107"/>
+      <c r="E503" s="107"/>
+      <c r="F503" s="107"/>
+      <c r="G503" s="108"/>
     </row>
     <row r="504" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A504" s="33" t="str">
@@ -15163,12 +15163,12 @@
       <c r="B505" s="37" t="s">
         <v>400</v>
       </c>
-      <c r="C505" s="101"/>
-      <c r="D505" s="102"/>
-      <c r="E505" s="102"/>
-      <c r="F505" s="103"/>
-      <c r="G505" s="103"/>
-      <c r="H505" s="104"/>
+      <c r="C505" s="111"/>
+      <c r="D505" s="112"/>
+      <c r="E505" s="112"/>
+      <c r="F505" s="113"/>
+      <c r="G505" s="113"/>
+      <c r="H505" s="114"/>
       <c r="I505" s="82"/>
       <c r="J505" s="83"/>
     </row>
@@ -15188,15 +15188,15 @@
       <c r="G506" s="37"/>
     </row>
     <row r="507" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A507" s="96" t="s">
+      <c r="A507" s="106" t="s">
         <v>403</v>
       </c>
-      <c r="B507" s="97"/>
-      <c r="C507" s="97"/>
-      <c r="D507" s="97"/>
-      <c r="E507" s="97"/>
-      <c r="F507" s="97"/>
-      <c r="G507" s="98"/>
+      <c r="B507" s="107"/>
+      <c r="C507" s="107"/>
+      <c r="D507" s="107"/>
+      <c r="E507" s="107"/>
+      <c r="F507" s="107"/>
+      <c r="G507" s="108"/>
     </row>
     <row r="508" spans="1:10" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A508" s="33" t="str">
@@ -15300,26 +15300,26 @@
       <c r="G513" s="37"/>
     </row>
     <row r="514" spans="1:9" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A514" s="99" t="s">
+      <c r="A514" s="109" t="s">
         <v>410</v>
       </c>
-      <c r="B514" s="100"/>
-      <c r="C514" s="100"/>
-      <c r="D514" s="100"/>
-      <c r="E514" s="100"/>
-      <c r="F514" s="100"/>
-      <c r="G514" s="100"/>
+      <c r="B514" s="110"/>
+      <c r="C514" s="110"/>
+      <c r="D514" s="110"/>
+      <c r="E514" s="110"/>
+      <c r="F514" s="110"/>
+      <c r="G514" s="110"/>
     </row>
     <row r="515" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A515" s="96" t="s">
+      <c r="A515" s="106" t="s">
         <v>411</v>
       </c>
-      <c r="B515" s="97"/>
-      <c r="C515" s="97"/>
-      <c r="D515" s="97"/>
-      <c r="E515" s="97"/>
-      <c r="F515" s="97"/>
-      <c r="G515" s="98"/>
+      <c r="B515" s="107"/>
+      <c r="C515" s="107"/>
+      <c r="D515" s="107"/>
+      <c r="E515" s="107"/>
+      <c r="F515" s="107"/>
+      <c r="G515" s="108"/>
     </row>
     <row r="516" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A516" s="33" t="str">
@@ -16102,15 +16102,15 @@
       <c r="I555" s="49"/>
     </row>
     <row r="556" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="96" t="s">
+      <c r="A556" s="106" t="s">
         <v>429</v>
       </c>
-      <c r="B556" s="97"/>
-      <c r="C556" s="97"/>
-      <c r="D556" s="97"/>
-      <c r="E556" s="97"/>
-      <c r="F556" s="97"/>
-      <c r="G556" s="98"/>
+      <c r="B556" s="107"/>
+      <c r="C556" s="107"/>
+      <c r="D556" s="107"/>
+      <c r="E556" s="107"/>
+      <c r="F556" s="107"/>
+      <c r="G556" s="108"/>
     </row>
     <row r="557" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A557" s="33" t="str">
@@ -16348,15 +16348,15 @@
       </c>
     </row>
     <row r="569" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A569" s="96" t="s">
+      <c r="A569" s="106" t="s">
         <v>440</v>
       </c>
-      <c r="B569" s="97"/>
-      <c r="C569" s="97"/>
-      <c r="D569" s="97"/>
-      <c r="E569" s="97"/>
-      <c r="F569" s="97"/>
-      <c r="G569" s="98"/>
+      <c r="B569" s="107"/>
+      <c r="C569" s="107"/>
+      <c r="D569" s="107"/>
+      <c r="E569" s="107"/>
+      <c r="F569" s="107"/>
+      <c r="G569" s="108"/>
     </row>
     <row r="570" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A570" s="33" t="str">
@@ -16749,15 +16749,15 @@
       </c>
     </row>
     <row r="590" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="96" t="s">
+      <c r="A590" s="106" t="s">
         <v>453</v>
       </c>
-      <c r="B590" s="97"/>
-      <c r="C590" s="97"/>
-      <c r="D590" s="97"/>
-      <c r="E590" s="97"/>
-      <c r="F590" s="97"/>
-      <c r="G590" s="98"/>
+      <c r="B590" s="107"/>
+      <c r="C590" s="107"/>
+      <c r="D590" s="107"/>
+      <c r="E590" s="107"/>
+      <c r="F590" s="107"/>
+      <c r="G590" s="108"/>
     </row>
     <row r="591" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A591" s="33" t="str">
@@ -17034,15 +17034,15 @@
       </c>
     </row>
     <row r="605" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="96" t="s">
+      <c r="A605" s="106" t="s">
         <v>466</v>
       </c>
-      <c r="B605" s="97"/>
-      <c r="C605" s="97"/>
-      <c r="D605" s="97"/>
-      <c r="E605" s="97"/>
-      <c r="F605" s="97"/>
-      <c r="G605" s="98"/>
+      <c r="B605" s="107"/>
+      <c r="C605" s="107"/>
+      <c r="D605" s="107"/>
+      <c r="E605" s="107"/>
+      <c r="F605" s="107"/>
+      <c r="G605" s="108"/>
     </row>
     <row r="606" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A606" s="33" t="str">
@@ -17227,15 +17227,15 @@
       </c>
     </row>
     <row r="616" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A616" s="96" t="s">
+      <c r="A616" s="106" t="s">
         <v>477</v>
       </c>
-      <c r="B616" s="97"/>
-      <c r="C616" s="97"/>
-      <c r="D616" s="97"/>
-      <c r="E616" s="97"/>
-      <c r="F616" s="97"/>
-      <c r="G616" s="98"/>
+      <c r="B616" s="107"/>
+      <c r="C616" s="107"/>
+      <c r="D616" s="107"/>
+      <c r="E616" s="107"/>
+      <c r="F616" s="107"/>
+      <c r="G616" s="108"/>
     </row>
     <row r="617" spans="1:9" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A617" s="33" t="str">
@@ -17988,8 +17988,8 @@
   </sheetPr>
   <dimension ref="A1:I685"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -18019,7 +18019,7 @@
       <c r="D1" s="52" t="s">
         <v>493</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="96" t="s">
         <v>494</v>
       </c>
       <c r="F1" s="52" t="s">
@@ -18036,17 +18036,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
     </row>
     <row r="3" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
@@ -18068,17 +18068,17 @@
       <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
@@ -18119,17 +18119,17 @@
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="82.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
@@ -18151,17 +18151,17 @@
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
@@ -18202,17 +18202,17 @@
       <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" ht="135" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54"/>
@@ -18255,15 +18255,15 @@
     <row r="15" spans="1:9" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
       <c r="B15" s="54"/>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" ht="142.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
@@ -18306,15 +18306,15 @@
     <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54"/>
       <c r="B18" s="54"/>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54"/>
@@ -18357,15 +18357,15 @@
     <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="54"/>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" ht="186" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54"/>
@@ -18389,15 +18389,15 @@
     <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54"/>
       <c r="B23" s="54"/>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
@@ -18451,17 +18451,17 @@
       <c r="I26" s="55"/>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="122" t="s">
         <v>262</v>
       </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
@@ -18521,17 +18521,17 @@
       <c r="I30" s="56"/>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="122" t="s">
         <v>268</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35"/>
@@ -18591,17 +18591,17 @@
       <c r="I34" s="56"/>
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
@@ -18723,17 +18723,17 @@
       <c r="I42" s="55"/>
     </row>
     <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="112" t="s">
+      <c r="A43" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" ht="150" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="54"/>
@@ -18770,17 +18770,17 @@
       <c r="I45" s="55"/>
     </row>
     <row r="46" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="122"/>
     </row>
     <row r="47" spans="1:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="54"/>
@@ -18800,17 +18800,17 @@
       <c r="I47" s="55"/>
     </row>
     <row r="48" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="112"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
     </row>
     <row r="49" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="54"/>
@@ -19102,19 +19102,19 @@
       <c r="I65" s="55"/>
     </row>
     <row r="66" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="112" t="s">
+      <c r="A66" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="112"/>
-      <c r="C66" s="112" t="s">
+      <c r="B66" s="122"/>
+      <c r="C66" s="122" t="s">
         <v>573</v>
       </c>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
-      <c r="G66" s="112"/>
-      <c r="H66" s="112"/>
-      <c r="I66" s="112"/>
+      <c r="D66" s="122"/>
+      <c r="E66" s="122"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="122"/>
+      <c r="I66" s="122"/>
     </row>
     <row r="67" spans="1:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="54"/>
@@ -19287,19 +19287,19 @@
       <c r="I76" s="55"/>
     </row>
     <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="112" t="s">
+      <c r="A77" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B77" s="112"/>
-      <c r="C77" s="112" t="s">
+      <c r="B77" s="122"/>
+      <c r="C77" s="122" t="s">
         <v>573</v>
       </c>
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="112"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="122"/>
+      <c r="G77" s="122"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="122"/>
     </row>
     <row r="78" spans="1:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="54"/>
@@ -19370,19 +19370,19 @@
       <c r="I81" s="55"/>
     </row>
     <row r="82" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="112" t="s">
+      <c r="A82" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="112"/>
-      <c r="C82" s="112" t="s">
+      <c r="B82" s="122"/>
+      <c r="C82" s="122" t="s">
         <v>573</v>
       </c>
-      <c r="D82" s="112"/>
-      <c r="E82" s="112"/>
-      <c r="F82" s="112"/>
-      <c r="G82" s="112"/>
-      <c r="H82" s="112"/>
-      <c r="I82" s="112"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="122"/>
+      <c r="F82" s="122"/>
+      <c r="G82" s="122"/>
+      <c r="H82" s="122"/>
+      <c r="I82" s="122"/>
     </row>
     <row r="83" spans="1:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="54"/>
@@ -19693,17 +19693,17 @@
     <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="54"/>
       <c r="B101" s="54"/>
-      <c r="C101" s="112" t="s">
+      <c r="C101" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="D101" s="112"/>
-      <c r="E101" s="112" t="s">
+      <c r="D101" s="122"/>
+      <c r="E101" s="122" t="s">
         <v>573</v>
       </c>
-      <c r="F101" s="112"/>
-      <c r="G101" s="112"/>
-      <c r="H101" s="112"/>
-      <c r="I101" s="112"/>
+      <c r="F101" s="122"/>
+      <c r="G101" s="122"/>
+      <c r="H101" s="122"/>
+      <c r="I101" s="122"/>
     </row>
     <row r="102" spans="1:9" s="6" customFormat="1" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="54"/>
@@ -19808,17 +19808,17 @@
       <c r="I107" s="55"/>
     </row>
     <row r="108" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="112" t="s">
+      <c r="A108" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="112"/>
-      <c r="C108" s="112"/>
-      <c r="D108" s="112"/>
-      <c r="E108" s="112"/>
-      <c r="F108" s="112"/>
-      <c r="G108" s="112"/>
-      <c r="H108" s="112"/>
-      <c r="I108" s="112"/>
+      <c r="B108" s="122"/>
+      <c r="C108" s="122"/>
+      <c r="D108" s="122"/>
+      <c r="E108" s="122"/>
+      <c r="F108" s="122"/>
+      <c r="G108" s="122"/>
+      <c r="H108" s="122"/>
+      <c r="I108" s="122"/>
     </row>
     <row r="109" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A109" s="54"/>
@@ -19940,19 +19940,19 @@
       <c r="I115" s="55"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="112" t="s">
+      <c r="A116" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="112"/>
-      <c r="C116" s="112" t="s">
+      <c r="B116" s="122"/>
+      <c r="C116" s="122" t="s">
         <v>652</v>
       </c>
-      <c r="D116" s="112"/>
-      <c r="E116" s="112"/>
-      <c r="F116" s="112"/>
-      <c r="G116" s="112"/>
-      <c r="H116" s="112"/>
-      <c r="I116" s="112"/>
+      <c r="D116" s="122"/>
+      <c r="E116" s="122"/>
+      <c r="F116" s="122"/>
+      <c r="G116" s="122"/>
+      <c r="H116" s="122"/>
+      <c r="I116" s="122"/>
     </row>
     <row r="117" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A117" s="54"/>
@@ -20074,19 +20074,19 @@
       <c r="I123" s="35"/>
     </row>
     <row r="124" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="112" t="s">
+      <c r="A124" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="112"/>
-      <c r="C124" s="112" t="s">
+      <c r="B124" s="122"/>
+      <c r="C124" s="122" t="s">
         <v>652</v>
       </c>
-      <c r="D124" s="112"/>
-      <c r="E124" s="112"/>
-      <c r="F124" s="112"/>
-      <c r="G124" s="112"/>
-      <c r="H124" s="112"/>
-      <c r="I124" s="112"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="122"/>
+      <c r="G124" s="122"/>
+      <c r="H124" s="122"/>
+      <c r="I124" s="122"/>
     </row>
     <row r="125" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" s="54"/>
@@ -20208,17 +20208,17 @@
       <c r="I131" s="35"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="112" t="s">
+      <c r="A132" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="B132" s="112"/>
-      <c r="C132" s="112"/>
-      <c r="D132" s="112"/>
-      <c r="E132" s="112"/>
-      <c r="F132" s="112"/>
-      <c r="G132" s="112"/>
-      <c r="H132" s="112"/>
-      <c r="I132" s="112"/>
+      <c r="B132" s="122"/>
+      <c r="C132" s="122"/>
+      <c r="D132" s="122"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="122"/>
+      <c r="G132" s="122"/>
+      <c r="H132" s="122"/>
+      <c r="I132" s="122"/>
     </row>
     <row r="133" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="35"/>
@@ -20289,17 +20289,17 @@
       <c r="I136" s="35"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="112" t="s">
+      <c r="A137" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="B137" s="112"/>
-      <c r="C137" s="112"/>
-      <c r="D137" s="112"/>
-      <c r="E137" s="112"/>
-      <c r="F137" s="112"/>
-      <c r="G137" s="112"/>
-      <c r="H137" s="112"/>
-      <c r="I137" s="112"/>
+      <c r="B137" s="122"/>
+      <c r="C137" s="122"/>
+      <c r="D137" s="122"/>
+      <c r="E137" s="122"/>
+      <c r="F137" s="122"/>
+      <c r="G137" s="122"/>
+      <c r="H137" s="122"/>
+      <c r="I137" s="122"/>
     </row>
     <row r="138" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A138" s="35"/>
@@ -20438,17 +20438,17 @@
       <c r="I145" s="55"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="112" t="s">
+      <c r="A146" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="112"/>
-      <c r="C146" s="112"/>
-      <c r="D146" s="112"/>
-      <c r="E146" s="112"/>
-      <c r="F146" s="112"/>
-      <c r="G146" s="112"/>
-      <c r="H146" s="112"/>
-      <c r="I146" s="112"/>
+      <c r="B146" s="122"/>
+      <c r="C146" s="122"/>
+      <c r="D146" s="122"/>
+      <c r="E146" s="122"/>
+      <c r="F146" s="122"/>
+      <c r="G146" s="122"/>
+      <c r="H146" s="122"/>
+      <c r="I146" s="122"/>
     </row>
     <row r="147" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A147" s="35"/>
@@ -20565,17 +20565,17 @@
       <c r="I153" s="37"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="112" t="s">
+      <c r="A154" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="B154" s="112"/>
-      <c r="C154" s="112"/>
-      <c r="D154" s="112"/>
-      <c r="E154" s="112"/>
-      <c r="F154" s="112"/>
-      <c r="G154" s="112"/>
-      <c r="H154" s="112"/>
-      <c r="I154" s="112"/>
+      <c r="B154" s="122"/>
+      <c r="C154" s="122"/>
+      <c r="D154" s="122"/>
+      <c r="E154" s="122"/>
+      <c r="F154" s="122"/>
+      <c r="G154" s="122"/>
+      <c r="H154" s="122"/>
+      <c r="I154" s="122"/>
     </row>
     <row r="155" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A155" s="35"/>
@@ -20713,17 +20713,17 @@
       <c r="I162" s="55"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="112" t="s">
+      <c r="A163" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="B163" s="112"/>
-      <c r="C163" s="112"/>
-      <c r="D163" s="112"/>
-      <c r="E163" s="112"/>
-      <c r="F163" s="112"/>
-      <c r="G163" s="112"/>
-      <c r="H163" s="112"/>
-      <c r="I163" s="112"/>
+      <c r="B163" s="122"/>
+      <c r="C163" s="122"/>
+      <c r="D163" s="122"/>
+      <c r="E163" s="122"/>
+      <c r="F163" s="122"/>
+      <c r="G163" s="122"/>
+      <c r="H163" s="122"/>
+      <c r="I163" s="122"/>
     </row>
     <row r="164" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A164" s="35"/>
@@ -20798,7 +20798,7 @@
       <c r="B168" s="57"/>
       <c r="C168" s="57"/>
       <c r="D168" s="57"/>
-      <c r="E168" s="119">
+      <c r="E168" s="97">
         <v>5</v>
       </c>
       <c r="F168" s="57" t="s">
@@ -20913,17 +20913,17 @@
       <c r="I174" s="55"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="112" t="s">
+      <c r="A175" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="B175" s="112"/>
-      <c r="C175" s="112"/>
-      <c r="D175" s="112"/>
-      <c r="E175" s="112"/>
-      <c r="F175" s="112"/>
-      <c r="G175" s="112"/>
-      <c r="H175" s="112"/>
-      <c r="I175" s="112"/>
+      <c r="B175" s="122"/>
+      <c r="C175" s="122"/>
+      <c r="D175" s="122"/>
+      <c r="E175" s="122"/>
+      <c r="F175" s="122"/>
+      <c r="G175" s="122"/>
+      <c r="H175" s="122"/>
+      <c r="I175" s="122"/>
     </row>
     <row r="176" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A176" s="35"/>
@@ -20998,7 +20998,7 @@
       <c r="B180" s="57"/>
       <c r="C180" s="57"/>
       <c r="D180" s="57"/>
-      <c r="E180" s="119">
+      <c r="E180" s="97">
         <v>5</v>
       </c>
       <c r="F180" s="57" t="s">
@@ -21113,17 +21113,17 @@
       <c r="I186" s="55"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187" s="112" t="s">
+      <c r="A187" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="B187" s="112"/>
-      <c r="C187" s="112"/>
-      <c r="D187" s="112"/>
-      <c r="E187" s="112"/>
-      <c r="F187" s="112"/>
-      <c r="G187" s="112"/>
-      <c r="H187" s="112"/>
-      <c r="I187" s="112"/>
+      <c r="B187" s="122"/>
+      <c r="C187" s="122"/>
+      <c r="D187" s="122"/>
+      <c r="E187" s="122"/>
+      <c r="F187" s="122"/>
+      <c r="G187" s="122"/>
+      <c r="H187" s="122"/>
+      <c r="I187" s="122"/>
     </row>
     <row r="188" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A188" s="35"/>
@@ -21198,7 +21198,7 @@
       <c r="B192" s="57"/>
       <c r="C192" s="57"/>
       <c r="D192" s="57"/>
-      <c r="E192" s="119">
+      <c r="E192" s="97">
         <v>5</v>
       </c>
       <c r="F192" s="57" t="s">
@@ -21279,17 +21279,17 @@
       <c r="I196" s="55"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A197" s="112" t="s">
+      <c r="A197" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="B197" s="112"/>
-      <c r="C197" s="112"/>
-      <c r="D197" s="112"/>
-      <c r="E197" s="112"/>
-      <c r="F197" s="112"/>
-      <c r="G197" s="112"/>
-      <c r="H197" s="112"/>
-      <c r="I197" s="112"/>
+      <c r="B197" s="122"/>
+      <c r="C197" s="122"/>
+      <c r="D197" s="122"/>
+      <c r="E197" s="122"/>
+      <c r="F197" s="122"/>
+      <c r="G197" s="122"/>
+      <c r="H197" s="122"/>
+      <c r="I197" s="122"/>
     </row>
     <row r="198" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A198" s="54"/>
@@ -21598,17 +21598,17 @@
       <c r="I215" s="55"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A216" s="112" t="s">
+      <c r="A216" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="B216" s="112"/>
-      <c r="C216" s="112"/>
-      <c r="D216" s="112"/>
-      <c r="E216" s="112"/>
-      <c r="F216" s="112"/>
-      <c r="G216" s="112"/>
-      <c r="H216" s="112"/>
-      <c r="I216" s="112"/>
+      <c r="B216" s="122"/>
+      <c r="C216" s="122"/>
+      <c r="D216" s="122"/>
+      <c r="E216" s="122"/>
+      <c r="F216" s="122"/>
+      <c r="G216" s="122"/>
+      <c r="H216" s="122"/>
+      <c r="I216" s="122"/>
     </row>
     <row r="217" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A217" s="35"/>
@@ -21683,7 +21683,7 @@
       <c r="B221" s="57"/>
       <c r="C221" s="57"/>
       <c r="D221" s="57"/>
-      <c r="E221" s="119">
+      <c r="E221" s="97">
         <v>5</v>
       </c>
       <c r="F221" s="57" t="s">
@@ -21747,17 +21747,17 @@
       <c r="I224" s="35"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A225" s="112" t="s">
+      <c r="A225" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="B225" s="112"/>
-      <c r="C225" s="112"/>
-      <c r="D225" s="112"/>
-      <c r="E225" s="112"/>
-      <c r="F225" s="112"/>
-      <c r="G225" s="112"/>
-      <c r="H225" s="112"/>
-      <c r="I225" s="112"/>
+      <c r="B225" s="122"/>
+      <c r="C225" s="122"/>
+      <c r="D225" s="122"/>
+      <c r="E225" s="122"/>
+      <c r="F225" s="122"/>
+      <c r="G225" s="122"/>
+      <c r="H225" s="122"/>
+      <c r="I225" s="122"/>
     </row>
     <row r="226" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A226" s="35"/>
@@ -21832,7 +21832,7 @@
       <c r="B230" s="57"/>
       <c r="C230" s="57"/>
       <c r="D230" s="57"/>
-      <c r="E230" s="119">
+      <c r="E230" s="97">
         <v>5</v>
       </c>
       <c r="F230" s="57" t="s">
@@ -21900,15 +21900,15 @@
         <v>176</v>
       </c>
       <c r="B234" s="33"/>
-      <c r="C234" s="113" t="s">
+      <c r="C234" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="D234" s="113"/>
-      <c r="E234" s="113"/>
-      <c r="F234" s="113"/>
-      <c r="G234" s="113"/>
-      <c r="H234" s="113"/>
-      <c r="I234" s="113"/>
+      <c r="D234" s="123"/>
+      <c r="E234" s="123"/>
+      <c r="F234" s="123"/>
+      <c r="G234" s="123"/>
+      <c r="H234" s="123"/>
+      <c r="I234" s="123"/>
     </row>
     <row r="235" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A235" s="35"/>
@@ -21983,7 +21983,7 @@
       <c r="B239" s="57"/>
       <c r="C239" s="57"/>
       <c r="D239" s="57"/>
-      <c r="E239" s="119">
+      <c r="E239" s="97">
         <v>5</v>
       </c>
       <c r="F239" s="57" t="s">
@@ -22047,17 +22047,17 @@
       <c r="I242" s="35"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A243" s="112" t="s">
+      <c r="A243" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="B243" s="112"/>
-      <c r="C243" s="112"/>
-      <c r="D243" s="112"/>
-      <c r="E243" s="112"/>
-      <c r="F243" s="112"/>
-      <c r="G243" s="112"/>
-      <c r="H243" s="112"/>
-      <c r="I243" s="112"/>
+      <c r="B243" s="122"/>
+      <c r="C243" s="122"/>
+      <c r="D243" s="122"/>
+      <c r="E243" s="122"/>
+      <c r="F243" s="122"/>
+      <c r="G243" s="122"/>
+      <c r="H243" s="122"/>
+      <c r="I243" s="122"/>
     </row>
     <row r="244" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A244" s="35"/>
@@ -22131,7 +22131,7 @@
       <c r="B248" s="57"/>
       <c r="C248" s="57"/>
       <c r="D248" s="57"/>
-      <c r="E248" s="120">
+      <c r="E248" s="98">
         <v>5</v>
       </c>
       <c r="F248" s="57" t="s">
@@ -22212,19 +22212,19 @@
       <c r="I252" s="55"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A253" s="112" t="s">
+      <c r="A253" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="B253" s="112"/>
-      <c r="C253" s="112" t="s">
+      <c r="B253" s="122"/>
+      <c r="C253" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="D253" s="112"/>
-      <c r="E253" s="112"/>
-      <c r="F253" s="112"/>
-      <c r="G253" s="112"/>
-      <c r="H253" s="112"/>
-      <c r="I253" s="112"/>
+      <c r="D253" s="122"/>
+      <c r="E253" s="122"/>
+      <c r="F253" s="122"/>
+      <c r="G253" s="122"/>
+      <c r="H253" s="122"/>
+      <c r="I253" s="122"/>
     </row>
     <row r="254" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A254" s="35"/>
@@ -22282,7 +22282,7 @@
       <c r="B257" s="85"/>
       <c r="C257" s="85"/>
       <c r="D257" s="85"/>
-      <c r="E257" s="121">
+      <c r="E257" s="99">
         <v>4</v>
       </c>
       <c r="F257" s="85" t="s">
@@ -22316,7 +22316,7 @@
       <c r="B259" s="88"/>
       <c r="C259" s="88"/>
       <c r="D259" s="88"/>
-      <c r="E259" s="122">
+      <c r="E259" s="100">
         <v>6</v>
       </c>
       <c r="F259" s="88" t="s">
@@ -22333,7 +22333,7 @@
       <c r="B260" s="62"/>
       <c r="C260" s="62"/>
       <c r="D260" s="62"/>
-      <c r="E260" s="119">
+      <c r="E260" s="97">
         <v>7</v>
       </c>
       <c r="F260" s="57" t="s">
@@ -22350,7 +22350,7 @@
       <c r="B261" s="61"/>
       <c r="C261" s="61"/>
       <c r="D261" s="61"/>
-      <c r="E261" s="123">
+      <c r="E261" s="101">
         <v>8</v>
       </c>
       <c r="F261" s="61" t="s">
@@ -22384,7 +22384,7 @@
       <c r="B263" s="35"/>
       <c r="C263" s="35"/>
       <c r="D263" s="35"/>
-      <c r="E263" s="123">
+      <c r="E263" s="101">
         <v>10</v>
       </c>
       <c r="F263" s="35" t="s">
@@ -22418,7 +22418,7 @@
       <c r="B265" s="54"/>
       <c r="C265" s="55"/>
       <c r="D265" s="55"/>
-      <c r="E265" s="123">
+      <c r="E265" s="101">
         <v>12</v>
       </c>
       <c r="F265" s="37" t="s">
@@ -22433,22 +22433,22 @@
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="35"/>
       <c r="B266" s="35"/>
-      <c r="C266" s="112" t="s">
+      <c r="C266" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D266" s="112"/>
-      <c r="E266" s="112"/>
-      <c r="F266" s="112"/>
-      <c r="G266" s="112"/>
-      <c r="H266" s="112"/>
-      <c r="I266" s="112"/>
+      <c r="D266" s="122"/>
+      <c r="E266" s="122"/>
+      <c r="F266" s="122"/>
+      <c r="G266" s="122"/>
+      <c r="H266" s="122"/>
+      <c r="I266" s="122"/>
     </row>
     <row r="267" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A267" s="35"/>
       <c r="B267" s="35"/>
       <c r="C267" s="35"/>
       <c r="D267" s="35"/>
-      <c r="E267" s="124">
+      <c r="E267" s="102">
         <v>1</v>
       </c>
       <c r="F267" s="35" t="s">
@@ -22465,7 +22465,7 @@
       <c r="B268" s="35"/>
       <c r="C268" s="35"/>
       <c r="D268" s="35"/>
-      <c r="E268" s="124">
+      <c r="E268" s="102">
         <v>2</v>
       </c>
       <c r="F268" s="35" t="s">
@@ -22480,22 +22480,22 @@
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="35"/>
       <c r="B269" s="35"/>
-      <c r="C269" s="117" t="s">
+      <c r="C269" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D269" s="112"/>
-      <c r="E269" s="112"/>
-      <c r="F269" s="112"/>
-      <c r="G269" s="112"/>
-      <c r="H269" s="112"/>
-      <c r="I269" s="112"/>
+      <c r="D269" s="122"/>
+      <c r="E269" s="122"/>
+      <c r="F269" s="122"/>
+      <c r="G269" s="122"/>
+      <c r="H269" s="122"/>
+      <c r="I269" s="122"/>
     </row>
     <row r="270" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A270" s="35"/>
       <c r="B270" s="35"/>
       <c r="C270" s="35"/>
       <c r="D270" s="35"/>
-      <c r="E270" s="124">
+      <c r="E270" s="102">
         <v>1</v>
       </c>
       <c r="F270" s="35" t="s">
@@ -22512,7 +22512,7 @@
       <c r="B271" s="35"/>
       <c r="C271" s="35"/>
       <c r="D271" s="35"/>
-      <c r="E271" s="124">
+      <c r="E271" s="102">
         <v>2</v>
       </c>
       <c r="F271" s="35" t="s">
@@ -22529,7 +22529,7 @@
       <c r="B272" s="35"/>
       <c r="C272" s="35"/>
       <c r="D272" s="35"/>
-      <c r="E272" s="124">
+      <c r="E272" s="102">
         <v>3</v>
       </c>
       <c r="F272" s="35" t="s">
@@ -22544,22 +22544,22 @@
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="35"/>
       <c r="B273" s="35"/>
-      <c r="C273" s="117" t="s">
+      <c r="C273" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D273" s="112"/>
-      <c r="E273" s="112"/>
-      <c r="F273" s="112"/>
-      <c r="G273" s="112"/>
-      <c r="H273" s="112"/>
-      <c r="I273" s="112"/>
+      <c r="D273" s="122"/>
+      <c r="E273" s="122"/>
+      <c r="F273" s="122"/>
+      <c r="G273" s="122"/>
+      <c r="H273" s="122"/>
+      <c r="I273" s="122"/>
     </row>
     <row r="274" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A274" s="35"/>
       <c r="B274" s="35"/>
       <c r="C274" s="35"/>
       <c r="D274" s="35"/>
-      <c r="E274" s="124">
+      <c r="E274" s="102">
         <v>1</v>
       </c>
       <c r="F274" s="35" t="s">
@@ -22576,7 +22576,7 @@
       <c r="B275" s="35"/>
       <c r="C275" s="35"/>
       <c r="D275" s="35"/>
-      <c r="E275" s="124">
+      <c r="E275" s="102">
         <v>2</v>
       </c>
       <c r="F275" s="35" t="s">
@@ -22591,22 +22591,22 @@
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="35"/>
       <c r="B276" s="35"/>
-      <c r="C276" s="117" t="s">
+      <c r="C276" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D276" s="112"/>
-      <c r="E276" s="112"/>
-      <c r="F276" s="112"/>
-      <c r="G276" s="112"/>
-      <c r="H276" s="112"/>
-      <c r="I276" s="112"/>
+      <c r="D276" s="122"/>
+      <c r="E276" s="122"/>
+      <c r="F276" s="122"/>
+      <c r="G276" s="122"/>
+      <c r="H276" s="122"/>
+      <c r="I276" s="122"/>
     </row>
     <row r="277" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A277" s="35"/>
       <c r="B277" s="35"/>
       <c r="C277" s="35"/>
       <c r="D277" s="35"/>
-      <c r="E277" s="124">
+      <c r="E277" s="102">
         <v>1</v>
       </c>
       <c r="F277" s="35" t="s">
@@ -22623,7 +22623,7 @@
       <c r="B278" s="35"/>
       <c r="C278" s="35"/>
       <c r="D278" s="35"/>
-      <c r="E278" s="124">
+      <c r="E278" s="102">
         <v>2</v>
       </c>
       <c r="F278" s="35" t="s">
@@ -22638,22 +22638,22 @@
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="35"/>
       <c r="B279" s="35"/>
-      <c r="C279" s="112" t="s">
+      <c r="C279" s="122" t="s">
         <v>280</v>
       </c>
-      <c r="D279" s="112"/>
-      <c r="E279" s="112"/>
-      <c r="F279" s="112"/>
-      <c r="G279" s="112"/>
-      <c r="H279" s="112"/>
-      <c r="I279" s="112"/>
+      <c r="D279" s="122"/>
+      <c r="E279" s="122"/>
+      <c r="F279" s="122"/>
+      <c r="G279" s="122"/>
+      <c r="H279" s="122"/>
+      <c r="I279" s="122"/>
     </row>
     <row r="280" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A280" s="35"/>
       <c r="B280" s="35"/>
       <c r="C280" s="35"/>
       <c r="D280" s="35"/>
-      <c r="E280" s="124">
+      <c r="E280" s="102">
         <v>1</v>
       </c>
       <c r="F280" s="35" t="s">
@@ -22670,7 +22670,7 @@
       <c r="B281" s="35"/>
       <c r="C281" s="35"/>
       <c r="D281" s="35"/>
-      <c r="E281" s="124">
+      <c r="E281" s="102">
         <v>2</v>
       </c>
       <c r="F281" s="35" t="s">
@@ -22687,7 +22687,7 @@
       <c r="B282" s="35"/>
       <c r="C282" s="35"/>
       <c r="D282" s="35"/>
-      <c r="E282" s="124">
+      <c r="E282" s="102">
         <v>3</v>
       </c>
       <c r="F282" s="35" t="s">
@@ -22704,7 +22704,7 @@
       <c r="B283" s="35"/>
       <c r="C283" s="35"/>
       <c r="D283" s="35"/>
-      <c r="E283" s="124">
+      <c r="E283" s="102">
         <v>4</v>
       </c>
       <c r="F283" s="35" t="s">
@@ -22717,17 +22717,17 @@
       <c r="I283" s="35"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A284" s="112" t="s">
+      <c r="A284" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="B284" s="112"/>
-      <c r="C284" s="112"/>
-      <c r="D284" s="112"/>
-      <c r="E284" s="112"/>
-      <c r="F284" s="112"/>
-      <c r="G284" s="112"/>
-      <c r="H284" s="112"/>
-      <c r="I284" s="112"/>
+      <c r="B284" s="122"/>
+      <c r="C284" s="122"/>
+      <c r="D284" s="122"/>
+      <c r="E284" s="122"/>
+      <c r="F284" s="122"/>
+      <c r="G284" s="122"/>
+      <c r="H284" s="122"/>
+      <c r="I284" s="122"/>
     </row>
     <row r="285" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A285" s="54"/>
@@ -22766,22 +22766,22 @@
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="35"/>
       <c r="B287" s="35"/>
-      <c r="C287" s="112" t="s">
+      <c r="C287" s="122" t="s">
         <v>285</v>
       </c>
-      <c r="D287" s="112"/>
-      <c r="E287" s="112"/>
-      <c r="F287" s="112"/>
-      <c r="G287" s="112"/>
-      <c r="H287" s="112"/>
-      <c r="I287" s="112"/>
+      <c r="D287" s="122"/>
+      <c r="E287" s="122"/>
+      <c r="F287" s="122"/>
+      <c r="G287" s="122"/>
+      <c r="H287" s="122"/>
+      <c r="I287" s="122"/>
     </row>
     <row r="288" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A288" s="35"/>
       <c r="B288" s="35"/>
       <c r="C288" s="35"/>
       <c r="D288" s="35"/>
-      <c r="E288" s="124">
+      <c r="E288" s="102">
         <v>1</v>
       </c>
       <c r="F288" s="35" t="s">
@@ -22796,22 +22796,22 @@
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="35"/>
       <c r="B289" s="35"/>
-      <c r="C289" s="112" t="s">
+      <c r="C289" s="122" t="s">
         <v>287</v>
       </c>
-      <c r="D289" s="112"/>
-      <c r="E289" s="112"/>
-      <c r="F289" s="112"/>
-      <c r="G289" s="112"/>
-      <c r="H289" s="112"/>
-      <c r="I289" s="112"/>
+      <c r="D289" s="122"/>
+      <c r="E289" s="122"/>
+      <c r="F289" s="122"/>
+      <c r="G289" s="122"/>
+      <c r="H289" s="122"/>
+      <c r="I289" s="122"/>
     </row>
     <row r="290" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A290" s="35"/>
       <c r="B290" s="35"/>
       <c r="C290" s="35"/>
       <c r="D290" s="35"/>
-      <c r="E290" s="124">
+      <c r="E290" s="102">
         <v>1</v>
       </c>
       <c r="F290" s="35" t="s">
@@ -22826,22 +22826,22 @@
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="35"/>
       <c r="B291" s="35"/>
-      <c r="C291" s="112" t="s">
+      <c r="C291" s="122" t="s">
         <v>341</v>
       </c>
-      <c r="D291" s="112"/>
-      <c r="E291" s="112"/>
-      <c r="F291" s="112"/>
-      <c r="G291" s="112"/>
-      <c r="H291" s="112"/>
-      <c r="I291" s="112"/>
+      <c r="D291" s="122"/>
+      <c r="E291" s="122"/>
+      <c r="F291" s="122"/>
+      <c r="G291" s="122"/>
+      <c r="H291" s="122"/>
+      <c r="I291" s="122"/>
     </row>
     <row r="292" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A292" s="35"/>
       <c r="B292" s="35"/>
       <c r="C292" s="35"/>
       <c r="D292" s="35"/>
-      <c r="E292" s="124">
+      <c r="E292" s="102">
         <v>1</v>
       </c>
       <c r="F292" s="35" t="s">
@@ -22856,22 +22856,22 @@
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="35"/>
       <c r="B293" s="35"/>
-      <c r="C293" s="112" t="s">
+      <c r="C293" s="122" t="s">
         <v>291</v>
       </c>
-      <c r="D293" s="112"/>
-      <c r="E293" s="112"/>
-      <c r="F293" s="112"/>
-      <c r="G293" s="112"/>
-      <c r="H293" s="112"/>
-      <c r="I293" s="112"/>
+      <c r="D293" s="122"/>
+      <c r="E293" s="122"/>
+      <c r="F293" s="122"/>
+      <c r="G293" s="122"/>
+      <c r="H293" s="122"/>
+      <c r="I293" s="122"/>
     </row>
     <row r="294" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A294" s="35"/>
       <c r="B294" s="35"/>
       <c r="C294" s="35"/>
       <c r="D294" s="35"/>
-      <c r="E294" s="124">
+      <c r="E294" s="102">
         <v>1</v>
       </c>
       <c r="F294" s="35" t="s">
@@ -22888,7 +22888,7 @@
       <c r="B295" s="35"/>
       <c r="C295" s="35"/>
       <c r="D295" s="35"/>
-      <c r="E295" s="124">
+      <c r="E295" s="102">
         <v>2</v>
       </c>
       <c r="F295" s="35" t="s">
@@ -22905,7 +22905,7 @@
       <c r="B296" s="35"/>
       <c r="C296" s="35"/>
       <c r="D296" s="35"/>
-      <c r="E296" s="124">
+      <c r="E296" s="102">
         <v>3</v>
       </c>
       <c r="F296" s="35" t="s">
@@ -22922,7 +22922,7 @@
       <c r="B297" s="35"/>
       <c r="C297" s="35"/>
       <c r="D297" s="35"/>
-      <c r="E297" s="124">
+      <c r="E297" s="102">
         <v>4</v>
       </c>
       <c r="F297" s="35" t="s">
@@ -22939,7 +22939,7 @@
       <c r="B298" s="35"/>
       <c r="C298" s="35"/>
       <c r="D298" s="35"/>
-      <c r="E298" s="124">
+      <c r="E298" s="102">
         <v>3</v>
       </c>
       <c r="F298" s="35" t="s">
@@ -22956,7 +22956,7 @@
       <c r="B299" s="35"/>
       <c r="C299" s="35"/>
       <c r="D299" s="35"/>
-      <c r="E299" s="124">
+      <c r="E299" s="102">
         <v>4</v>
       </c>
       <c r="F299" s="35" t="s">
@@ -22971,22 +22971,22 @@
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="35"/>
       <c r="B300" s="35"/>
-      <c r="C300" s="112" t="s">
+      <c r="C300" s="122" t="s">
         <v>293</v>
       </c>
-      <c r="D300" s="112"/>
-      <c r="E300" s="112"/>
-      <c r="F300" s="112"/>
-      <c r="G300" s="112"/>
-      <c r="H300" s="112"/>
-      <c r="I300" s="112"/>
+      <c r="D300" s="122"/>
+      <c r="E300" s="122"/>
+      <c r="F300" s="122"/>
+      <c r="G300" s="122"/>
+      <c r="H300" s="122"/>
+      <c r="I300" s="122"/>
     </row>
     <row r="301" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A301" s="35"/>
       <c r="B301" s="35"/>
       <c r="C301" s="35"/>
       <c r="D301" s="35"/>
-      <c r="E301" s="124">
+      <c r="E301" s="102">
         <v>1</v>
       </c>
       <c r="F301" s="35" t="s">
@@ -23003,7 +23003,7 @@
       <c r="B302" s="35"/>
       <c r="C302" s="35"/>
       <c r="D302" s="35"/>
-      <c r="E302" s="124">
+      <c r="E302" s="102">
         <v>2</v>
       </c>
       <c r="F302" s="35" t="s">
@@ -23018,22 +23018,22 @@
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="35"/>
       <c r="B303" s="35"/>
-      <c r="C303" s="112" t="s">
+      <c r="C303" s="122" t="s">
         <v>297</v>
       </c>
-      <c r="D303" s="112"/>
-      <c r="E303" s="112"/>
-      <c r="F303" s="112"/>
-      <c r="G303" s="112"/>
-      <c r="H303" s="112"/>
-      <c r="I303" s="112"/>
+      <c r="D303" s="122"/>
+      <c r="E303" s="122"/>
+      <c r="F303" s="122"/>
+      <c r="G303" s="122"/>
+      <c r="H303" s="122"/>
+      <c r="I303" s="122"/>
     </row>
     <row r="304" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A304" s="35"/>
       <c r="B304" s="35"/>
       <c r="C304" s="35"/>
       <c r="D304" s="35"/>
-      <c r="E304" s="124">
+      <c r="E304" s="102">
         <v>1</v>
       </c>
       <c r="F304" s="35" t="s">
@@ -23048,22 +23048,22 @@
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="35"/>
       <c r="B305" s="35"/>
-      <c r="C305" s="112" t="s">
+      <c r="C305" s="122" t="s">
         <v>787</v>
       </c>
-      <c r="D305" s="112"/>
-      <c r="E305" s="112"/>
-      <c r="F305" s="112"/>
-      <c r="G305" s="112"/>
-      <c r="H305" s="112"/>
-      <c r="I305" s="112"/>
+      <c r="D305" s="122"/>
+      <c r="E305" s="122"/>
+      <c r="F305" s="122"/>
+      <c r="G305" s="122"/>
+      <c r="H305" s="122"/>
+      <c r="I305" s="122"/>
     </row>
     <row r="306" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A306" s="35"/>
       <c r="B306" s="35"/>
       <c r="C306" s="35"/>
       <c r="D306" s="35"/>
-      <c r="E306" s="124">
+      <c r="E306" s="102">
         <v>1</v>
       </c>
       <c r="F306" s="35" t="s">
@@ -23080,7 +23080,7 @@
       <c r="B307" s="35"/>
       <c r="C307" s="35"/>
       <c r="D307" s="35"/>
-      <c r="E307" s="124">
+      <c r="E307" s="102">
         <v>2</v>
       </c>
       <c r="F307" s="35" t="s">
@@ -23097,7 +23097,7 @@
       <c r="B308" s="35"/>
       <c r="C308" s="35"/>
       <c r="D308" s="35"/>
-      <c r="E308" s="124">
+      <c r="E308" s="102">
         <v>3</v>
       </c>
       <c r="F308" s="35" t="s">
@@ -23112,22 +23112,22 @@
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="35"/>
       <c r="B309" s="35"/>
-      <c r="C309" s="112" t="s">
+      <c r="C309" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="D309" s="112"/>
-      <c r="E309" s="112"/>
-      <c r="F309" s="112"/>
-      <c r="G309" s="112"/>
-      <c r="H309" s="112"/>
-      <c r="I309" s="112"/>
+      <c r="D309" s="122"/>
+      <c r="E309" s="122"/>
+      <c r="F309" s="122"/>
+      <c r="G309" s="122"/>
+      <c r="H309" s="122"/>
+      <c r="I309" s="122"/>
     </row>
     <row r="310" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A310" s="35"/>
       <c r="B310" s="35"/>
       <c r="C310" s="35"/>
       <c r="D310" s="35"/>
-      <c r="E310" s="124">
+      <c r="E310" s="102">
         <v>1</v>
       </c>
       <c r="F310" s="35" t="s">
@@ -23144,7 +23144,7 @@
       <c r="B311" s="35"/>
       <c r="C311" s="35"/>
       <c r="D311" s="35"/>
-      <c r="E311" s="124">
+      <c r="E311" s="102">
         <v>2</v>
       </c>
       <c r="F311" s="35" t="s">
@@ -23161,7 +23161,7 @@
       <c r="B312" s="35"/>
       <c r="C312" s="35"/>
       <c r="D312" s="35"/>
-      <c r="E312" s="124">
+      <c r="E312" s="102">
         <v>3</v>
       </c>
       <c r="F312" s="35" t="s">
@@ -23178,7 +23178,7 @@
       <c r="B313" s="35"/>
       <c r="C313" s="35"/>
       <c r="D313" s="35"/>
-      <c r="E313" s="124">
+      <c r="E313" s="102">
         <v>4</v>
       </c>
       <c r="F313" s="35" t="s">
@@ -23193,22 +23193,22 @@
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="35"/>
       <c r="B314" s="35"/>
-      <c r="C314" s="112" t="s">
+      <c r="C314" s="122" t="s">
         <v>304</v>
       </c>
-      <c r="D314" s="112"/>
-      <c r="E314" s="112"/>
-      <c r="F314" s="112"/>
-      <c r="G314" s="112"/>
-      <c r="H314" s="112"/>
-      <c r="I314" s="112"/>
+      <c r="D314" s="122"/>
+      <c r="E314" s="122"/>
+      <c r="F314" s="122"/>
+      <c r="G314" s="122"/>
+      <c r="H314" s="122"/>
+      <c r="I314" s="122"/>
     </row>
     <row r="315" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A315" s="35"/>
       <c r="B315" s="35"/>
       <c r="C315" s="35"/>
       <c r="D315" s="35"/>
-      <c r="E315" s="124">
+      <c r="E315" s="102">
         <v>1</v>
       </c>
       <c r="F315" s="35" t="s">
@@ -23225,7 +23225,7 @@
       <c r="B316" s="35"/>
       <c r="C316" s="35"/>
       <c r="D316" s="35"/>
-      <c r="E316" s="124">
+      <c r="E316" s="102">
         <v>2</v>
       </c>
       <c r="F316" s="35" t="s">
@@ -23240,22 +23240,22 @@
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="35"/>
       <c r="B317" s="35"/>
-      <c r="C317" s="112" t="s">
+      <c r="C317" s="122" t="s">
         <v>802</v>
       </c>
-      <c r="D317" s="112"/>
-      <c r="E317" s="112"/>
-      <c r="F317" s="112"/>
-      <c r="G317" s="112"/>
-      <c r="H317" s="112"/>
-      <c r="I317" s="112"/>
+      <c r="D317" s="122"/>
+      <c r="E317" s="122"/>
+      <c r="F317" s="122"/>
+      <c r="G317" s="122"/>
+      <c r="H317" s="122"/>
+      <c r="I317" s="122"/>
     </row>
     <row r="318" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A318" s="35"/>
       <c r="B318" s="35"/>
       <c r="C318" s="35"/>
       <c r="D318" s="35"/>
-      <c r="E318" s="124">
+      <c r="E318" s="102">
         <v>1</v>
       </c>
       <c r="F318" s="35" t="s">
@@ -23272,7 +23272,7 @@
       <c r="B319" s="35"/>
       <c r="C319" s="35"/>
       <c r="D319" s="35"/>
-      <c r="E319" s="124">
+      <c r="E319" s="102">
         <v>2</v>
       </c>
       <c r="F319" s="35" t="s">
@@ -23287,22 +23287,22 @@
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="35"/>
       <c r="B320" s="35"/>
-      <c r="C320" s="112" t="s">
+      <c r="C320" s="122" t="s">
         <v>308</v>
       </c>
-      <c r="D320" s="112"/>
-      <c r="E320" s="112"/>
-      <c r="F320" s="112"/>
-      <c r="G320" s="112"/>
-      <c r="H320" s="112"/>
-      <c r="I320" s="112"/>
+      <c r="D320" s="122"/>
+      <c r="E320" s="122"/>
+      <c r="F320" s="122"/>
+      <c r="G320" s="122"/>
+      <c r="H320" s="122"/>
+      <c r="I320" s="122"/>
     </row>
     <row r="321" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A321" s="35"/>
       <c r="B321" s="35"/>
       <c r="C321" s="35"/>
       <c r="D321" s="35"/>
-      <c r="E321" s="124">
+      <c r="E321" s="102">
         <v>1</v>
       </c>
       <c r="F321" s="35" t="s">
@@ -23319,7 +23319,7 @@
       <c r="B322" s="35"/>
       <c r="C322" s="35"/>
       <c r="D322" s="35"/>
-      <c r="E322" s="124">
+      <c r="E322" s="102">
         <v>2</v>
       </c>
       <c r="F322" s="35" t="s">
@@ -23334,22 +23334,22 @@
     <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="35"/>
       <c r="B323" s="35"/>
-      <c r="C323" s="112" t="s">
+      <c r="C323" s="122" t="s">
         <v>310</v>
       </c>
-      <c r="D323" s="112"/>
-      <c r="E323" s="112"/>
-      <c r="F323" s="112"/>
-      <c r="G323" s="112"/>
-      <c r="H323" s="112"/>
-      <c r="I323" s="112"/>
+      <c r="D323" s="122"/>
+      <c r="E323" s="122"/>
+      <c r="F323" s="122"/>
+      <c r="G323" s="122"/>
+      <c r="H323" s="122"/>
+      <c r="I323" s="122"/>
     </row>
     <row r="324" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A324" s="35"/>
       <c r="B324" s="35"/>
       <c r="C324" s="35"/>
       <c r="D324" s="35"/>
-      <c r="E324" s="124">
+      <c r="E324" s="102">
         <v>1</v>
       </c>
       <c r="F324" s="35" t="s">
@@ -23366,7 +23366,7 @@
       <c r="B325" s="35"/>
       <c r="C325" s="35"/>
       <c r="D325" s="35"/>
-      <c r="E325" s="124">
+      <c r="E325" s="102">
         <v>2</v>
       </c>
       <c r="F325" s="35" t="s">
@@ -23383,7 +23383,7 @@
       <c r="B326" s="35"/>
       <c r="C326" s="35"/>
       <c r="D326" s="35"/>
-      <c r="E326" s="124">
+      <c r="E326" s="102">
         <v>3</v>
       </c>
       <c r="F326" s="35" t="s">
@@ -23398,22 +23398,22 @@
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="35"/>
       <c r="B327" s="35"/>
-      <c r="C327" s="112" t="s">
+      <c r="C327" s="122" t="s">
         <v>312</v>
       </c>
-      <c r="D327" s="112"/>
-      <c r="E327" s="112"/>
-      <c r="F327" s="112"/>
-      <c r="G327" s="112"/>
-      <c r="H327" s="112"/>
-      <c r="I327" s="112"/>
+      <c r="D327" s="122"/>
+      <c r="E327" s="122"/>
+      <c r="F327" s="122"/>
+      <c r="G327" s="122"/>
+      <c r="H327" s="122"/>
+      <c r="I327" s="122"/>
     </row>
     <row r="328" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A328" s="35"/>
       <c r="B328" s="35"/>
       <c r="C328" s="35"/>
       <c r="D328" s="35"/>
-      <c r="E328" s="124">
+      <c r="E328" s="102">
         <v>1</v>
       </c>
       <c r="F328" s="35" t="s">
@@ -23430,7 +23430,7 @@
       <c r="B329" s="35"/>
       <c r="C329" s="35"/>
       <c r="D329" s="35"/>
-      <c r="E329" s="124">
+      <c r="E329" s="102">
         <v>2</v>
       </c>
       <c r="F329" s="35" t="s">
@@ -23447,7 +23447,7 @@
       <c r="B330" s="35"/>
       <c r="C330" s="35"/>
       <c r="D330" s="35"/>
-      <c r="E330" s="124">
+      <c r="E330" s="102">
         <v>3</v>
       </c>
       <c r="F330" s="35" t="s">
@@ -23464,7 +23464,7 @@
       <c r="B331" s="35"/>
       <c r="C331" s="35"/>
       <c r="D331" s="35"/>
-      <c r="E331" s="124">
+      <c r="E331" s="102">
         <v>4</v>
       </c>
       <c r="F331" s="35" t="s">
@@ -23481,7 +23481,7 @@
       <c r="B332" s="35"/>
       <c r="C332" s="35"/>
       <c r="D332" s="35"/>
-      <c r="E332" s="124">
+      <c r="E332" s="102">
         <v>5</v>
       </c>
       <c r="F332" s="35" t="s">
@@ -23498,7 +23498,7 @@
       <c r="B333" s="35"/>
       <c r="C333" s="35"/>
       <c r="D333" s="35"/>
-      <c r="E333" s="124">
+      <c r="E333" s="102">
         <v>6</v>
       </c>
       <c r="F333" s="35" t="s">
@@ -23513,22 +23513,22 @@
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="35"/>
       <c r="B334" s="35"/>
-      <c r="C334" s="112" t="s">
+      <c r="C334" s="122" t="s">
         <v>314</v>
       </c>
-      <c r="D334" s="112"/>
-      <c r="E334" s="112"/>
-      <c r="F334" s="112"/>
-      <c r="G334" s="112"/>
-      <c r="H334" s="112"/>
-      <c r="I334" s="112"/>
+      <c r="D334" s="122"/>
+      <c r="E334" s="122"/>
+      <c r="F334" s="122"/>
+      <c r="G334" s="122"/>
+      <c r="H334" s="122"/>
+      <c r="I334" s="122"/>
     </row>
     <row r="335" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A335" s="35"/>
       <c r="B335" s="35"/>
       <c r="C335" s="35"/>
       <c r="D335" s="35"/>
-      <c r="E335" s="124">
+      <c r="E335" s="102">
         <v>1</v>
       </c>
       <c r="F335" s="35" t="s">
@@ -23545,7 +23545,7 @@
       <c r="B336" s="35"/>
       <c r="C336" s="35"/>
       <c r="D336" s="35"/>
-      <c r="E336" s="124">
+      <c r="E336" s="102">
         <v>2</v>
       </c>
       <c r="F336" s="35" t="s">
@@ -23560,22 +23560,22 @@
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="35"/>
       <c r="B337" s="35"/>
-      <c r="C337" s="112" t="s">
+      <c r="C337" s="122" t="s">
         <v>318</v>
       </c>
-      <c r="D337" s="112"/>
-      <c r="E337" s="112"/>
-      <c r="F337" s="112"/>
-      <c r="G337" s="112"/>
-      <c r="H337" s="112"/>
-      <c r="I337" s="112"/>
+      <c r="D337" s="122"/>
+      <c r="E337" s="122"/>
+      <c r="F337" s="122"/>
+      <c r="G337" s="122"/>
+      <c r="H337" s="122"/>
+      <c r="I337" s="122"/>
     </row>
     <row r="338" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A338" s="35"/>
       <c r="B338" s="35"/>
       <c r="C338" s="35"/>
       <c r="D338" s="35"/>
-      <c r="E338" s="124">
+      <c r="E338" s="102">
         <v>1</v>
       </c>
       <c r="F338" s="35" t="s">
@@ -23592,7 +23592,7 @@
       <c r="B339" s="35"/>
       <c r="C339" s="35"/>
       <c r="D339" s="35"/>
-      <c r="E339" s="124">
+      <c r="E339" s="102">
         <v>2</v>
       </c>
       <c r="F339" s="35" t="s">
@@ -23607,22 +23607,22 @@
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="35"/>
       <c r="B340" s="35"/>
-      <c r="C340" s="112" t="s">
+      <c r="C340" s="122" t="s">
         <v>320</v>
       </c>
-      <c r="D340" s="112"/>
-      <c r="E340" s="112"/>
-      <c r="F340" s="112"/>
-      <c r="G340" s="112"/>
-      <c r="H340" s="112"/>
-      <c r="I340" s="112"/>
+      <c r="D340" s="122"/>
+      <c r="E340" s="122"/>
+      <c r="F340" s="122"/>
+      <c r="G340" s="122"/>
+      <c r="H340" s="122"/>
+      <c r="I340" s="122"/>
     </row>
     <row r="341" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A341" s="35"/>
       <c r="B341" s="35"/>
       <c r="C341" s="35"/>
       <c r="D341" s="35"/>
-      <c r="E341" s="124"/>
+      <c r="E341" s="102"/>
       <c r="F341" s="35" t="s">
         <v>750</v>
       </c>
@@ -23637,7 +23637,7 @@
       <c r="B342" s="35"/>
       <c r="C342" s="35"/>
       <c r="D342" s="35"/>
-      <c r="E342" s="124"/>
+      <c r="E342" s="102"/>
       <c r="F342" s="35" t="s">
         <v>830</v>
       </c>
@@ -23652,7 +23652,7 @@
       <c r="B343" s="35"/>
       <c r="C343" s="35"/>
       <c r="D343" s="35"/>
-      <c r="E343" s="124"/>
+      <c r="E343" s="102"/>
       <c r="F343" s="35" t="s">
         <v>832</v>
       </c>
@@ -23667,7 +23667,7 @@
       <c r="B344" s="35"/>
       <c r="C344" s="35"/>
       <c r="D344" s="35"/>
-      <c r="E344" s="124"/>
+      <c r="E344" s="102"/>
       <c r="F344" s="35" t="s">
         <v>834</v>
       </c>
@@ -23680,22 +23680,22 @@
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="35"/>
       <c r="B345" s="35"/>
-      <c r="C345" s="112" t="s">
+      <c r="C345" s="122" t="s">
         <v>322</v>
       </c>
-      <c r="D345" s="112"/>
-      <c r="E345" s="112"/>
-      <c r="F345" s="112"/>
-      <c r="G345" s="112"/>
-      <c r="H345" s="112"/>
-      <c r="I345" s="112"/>
+      <c r="D345" s="122"/>
+      <c r="E345" s="122"/>
+      <c r="F345" s="122"/>
+      <c r="G345" s="122"/>
+      <c r="H345" s="122"/>
+      <c r="I345" s="122"/>
     </row>
     <row r="346" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A346" s="35"/>
       <c r="B346" s="35"/>
       <c r="C346" s="35"/>
       <c r="D346" s="35"/>
-      <c r="E346" s="124">
+      <c r="E346" s="102">
         <v>1</v>
       </c>
       <c r="F346" s="35" t="s">
@@ -23712,7 +23712,7 @@
       <c r="B347" s="35"/>
       <c r="C347" s="35"/>
       <c r="D347" s="35"/>
-      <c r="E347" s="124">
+      <c r="E347" s="102">
         <v>2</v>
       </c>
       <c r="F347" s="35" t="s">
@@ -23729,7 +23729,7 @@
       <c r="B348" s="35"/>
       <c r="C348" s="35"/>
       <c r="D348" s="35"/>
-      <c r="E348" s="124">
+      <c r="E348" s="102">
         <v>3</v>
       </c>
       <c r="F348" s="35" t="s">
@@ -23746,7 +23746,7 @@
       <c r="B349" s="35"/>
       <c r="C349" s="35"/>
       <c r="D349" s="35"/>
-      <c r="E349" s="124">
+      <c r="E349" s="102">
         <v>4</v>
       </c>
       <c r="F349" s="35" t="s">
@@ -23763,7 +23763,7 @@
       <c r="B350" s="35"/>
       <c r="C350" s="35"/>
       <c r="D350" s="35"/>
-      <c r="E350" s="124">
+      <c r="E350" s="102">
         <v>5</v>
       </c>
       <c r="F350" s="35" t="s">
@@ -23780,7 +23780,7 @@
       <c r="B351" s="35"/>
       <c r="C351" s="35"/>
       <c r="D351" s="35"/>
-      <c r="E351" s="124">
+      <c r="E351" s="102">
         <v>6</v>
       </c>
       <c r="F351" s="35" t="s">
@@ -23795,15 +23795,15 @@
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="35"/>
       <c r="B352" s="35"/>
-      <c r="C352" s="112" t="s">
+      <c r="C352" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="D352" s="112"/>
-      <c r="E352" s="112"/>
-      <c r="F352" s="112"/>
-      <c r="G352" s="112"/>
-      <c r="H352" s="112"/>
-      <c r="I352" s="112"/>
+      <c r="D352" s="122"/>
+      <c r="E352" s="122"/>
+      <c r="F352" s="122"/>
+      <c r="G352" s="122"/>
+      <c r="H352" s="122"/>
+      <c r="I352" s="122"/>
     </row>
     <row r="353" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A353" s="35"/>
@@ -23840,15 +23840,15 @@
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="35"/>
       <c r="B355" s="35"/>
-      <c r="C355" s="112" t="s">
+      <c r="C355" s="122" t="s">
         <v>328</v>
       </c>
-      <c r="D355" s="112"/>
-      <c r="E355" s="112"/>
-      <c r="F355" s="112"/>
-      <c r="G355" s="112"/>
-      <c r="H355" s="112"/>
-      <c r="I355" s="112"/>
+      <c r="D355" s="122"/>
+      <c r="E355" s="122"/>
+      <c r="F355" s="122"/>
+      <c r="G355" s="122"/>
+      <c r="H355" s="122"/>
+      <c r="I355" s="122"/>
     </row>
     <row r="356" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A356" s="35"/>
@@ -23885,15 +23885,15 @@
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" s="35"/>
       <c r="B358" s="35"/>
-      <c r="C358" s="112" t="s">
+      <c r="C358" s="122" t="s">
         <v>848</v>
       </c>
-      <c r="D358" s="112"/>
-      <c r="E358" s="112"/>
-      <c r="F358" s="112"/>
-      <c r="G358" s="112"/>
-      <c r="H358" s="112"/>
-      <c r="I358" s="112"/>
+      <c r="D358" s="122"/>
+      <c r="E358" s="122"/>
+      <c r="F358" s="122"/>
+      <c r="G358" s="122"/>
+      <c r="H358" s="122"/>
+      <c r="I358" s="122"/>
     </row>
     <row r="359" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A359" s="35"/>
@@ -23914,15 +23914,15 @@
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="35"/>
       <c r="B360" s="35"/>
-      <c r="C360" s="112" t="s">
+      <c r="C360" s="122" t="s">
         <v>851</v>
       </c>
-      <c r="D360" s="112"/>
-      <c r="E360" s="112"/>
-      <c r="F360" s="112"/>
-      <c r="G360" s="112"/>
-      <c r="H360" s="112"/>
-      <c r="I360" s="112"/>
+      <c r="D360" s="122"/>
+      <c r="E360" s="122"/>
+      <c r="F360" s="122"/>
+      <c r="G360" s="122"/>
+      <c r="H360" s="122"/>
+      <c r="I360" s="122"/>
     </row>
     <row r="361" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A361" s="35"/>
@@ -23991,15 +23991,15 @@
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" s="35"/>
       <c r="B365" s="35"/>
-      <c r="C365" s="112" t="s">
+      <c r="C365" s="122" t="s">
         <v>334</v>
       </c>
-      <c r="D365" s="112"/>
-      <c r="E365" s="112"/>
-      <c r="F365" s="112"/>
-      <c r="G365" s="112"/>
-      <c r="H365" s="112"/>
-      <c r="I365" s="112"/>
+      <c r="D365" s="122"/>
+      <c r="E365" s="122"/>
+      <c r="F365" s="122"/>
+      <c r="G365" s="122"/>
+      <c r="H365" s="122"/>
+      <c r="I365" s="122"/>
     </row>
     <row r="366" spans="1:9" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A366" s="35"/>
@@ -24068,15 +24068,15 @@
     <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="35"/>
       <c r="B370" s="35"/>
-      <c r="C370" s="112" t="s">
+      <c r="C370" s="122" t="s">
         <v>862</v>
       </c>
-      <c r="D370" s="112"/>
-      <c r="E370" s="112"/>
-      <c r="F370" s="112"/>
-      <c r="G370" s="112"/>
-      <c r="H370" s="112"/>
-      <c r="I370" s="112"/>
+      <c r="D370" s="122"/>
+      <c r="E370" s="122"/>
+      <c r="F370" s="122"/>
+      <c r="G370" s="122"/>
+      <c r="H370" s="122"/>
+      <c r="I370" s="122"/>
     </row>
     <row r="371" spans="1:9" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A371" s="35"/>
@@ -24097,15 +24097,15 @@
     <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" s="35"/>
       <c r="B372" s="35"/>
-      <c r="C372" s="112" t="s">
+      <c r="C372" s="122" t="s">
         <v>343</v>
       </c>
-      <c r="D372" s="112"/>
-      <c r="E372" s="112"/>
-      <c r="F372" s="112"/>
-      <c r="G372" s="112"/>
-      <c r="H372" s="112"/>
-      <c r="I372" s="112"/>
+      <c r="D372" s="122"/>
+      <c r="E372" s="122"/>
+      <c r="F372" s="122"/>
+      <c r="G372" s="122"/>
+      <c r="H372" s="122"/>
+      <c r="I372" s="122"/>
     </row>
     <row r="373" spans="1:9" ht="14" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A373" s="35"/>
@@ -24126,15 +24126,15 @@
     <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="35"/>
       <c r="B374" s="35"/>
-      <c r="C374" s="112" t="s">
+      <c r="C374" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="D374" s="112"/>
-      <c r="E374" s="112"/>
-      <c r="F374" s="112"/>
-      <c r="G374" s="112"/>
-      <c r="H374" s="112"/>
-      <c r="I374" s="112"/>
+      <c r="D374" s="122"/>
+      <c r="E374" s="122"/>
+      <c r="F374" s="122"/>
+      <c r="G374" s="122"/>
+      <c r="H374" s="122"/>
+      <c r="I374" s="122"/>
     </row>
     <row r="375" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A375" s="35"/>
@@ -24155,15 +24155,15 @@
     <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" s="35"/>
       <c r="B376" s="35"/>
-      <c r="C376" s="112" t="s">
+      <c r="C376" s="122" t="s">
         <v>348</v>
       </c>
-      <c r="D376" s="112"/>
-      <c r="E376" s="112"/>
-      <c r="F376" s="112"/>
-      <c r="G376" s="112"/>
-      <c r="H376" s="112"/>
-      <c r="I376" s="112"/>
+      <c r="D376" s="122"/>
+      <c r="E376" s="122"/>
+      <c r="F376" s="122"/>
+      <c r="G376" s="122"/>
+      <c r="H376" s="122"/>
+      <c r="I376" s="122"/>
     </row>
     <row r="377" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A377" s="35"/>
@@ -24184,15 +24184,15 @@
     <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" s="35"/>
       <c r="B378" s="35"/>
-      <c r="C378" s="112" t="s">
+      <c r="C378" s="122" t="s">
         <v>350</v>
       </c>
-      <c r="D378" s="112"/>
-      <c r="E378" s="112"/>
-      <c r="F378" s="112"/>
-      <c r="G378" s="112"/>
-      <c r="H378" s="112"/>
-      <c r="I378" s="112"/>
+      <c r="D378" s="122"/>
+      <c r="E378" s="122"/>
+      <c r="F378" s="122"/>
+      <c r="G378" s="122"/>
+      <c r="H378" s="122"/>
+      <c r="I378" s="122"/>
     </row>
     <row r="379" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A379" s="35"/>
@@ -24211,17 +24211,17 @@
       <c r="I379" s="37"/>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A380" s="113" t="s">
+      <c r="A380" s="123" t="s">
         <v>352</v>
       </c>
-      <c r="B380" s="113"/>
-      <c r="C380" s="113"/>
-      <c r="D380" s="113"/>
-      <c r="E380" s="113"/>
-      <c r="F380" s="113"/>
-      <c r="G380" s="113"/>
-      <c r="H380" s="113"/>
-      <c r="I380" s="113"/>
+      <c r="B380" s="123"/>
+      <c r="C380" s="123"/>
+      <c r="D380" s="123"/>
+      <c r="E380" s="123"/>
+      <c r="F380" s="123"/>
+      <c r="G380" s="123"/>
+      <c r="H380" s="123"/>
+      <c r="I380" s="123"/>
     </row>
     <row r="381" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A381" s="35"/>
@@ -24320,17 +24320,17 @@
       <c r="I386" s="37"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A387" s="113" t="s">
+      <c r="A387" s="123" t="s">
         <v>354</v>
       </c>
-      <c r="B387" s="113"/>
-      <c r="C387" s="113"/>
-      <c r="D387" s="113"/>
-      <c r="E387" s="113"/>
-      <c r="F387" s="113"/>
-      <c r="G387" s="113"/>
-      <c r="H387" s="113"/>
-      <c r="I387" s="113"/>
+      <c r="B387" s="123"/>
+      <c r="C387" s="123"/>
+      <c r="D387" s="123"/>
+      <c r="E387" s="123"/>
+      <c r="F387" s="123"/>
+      <c r="G387" s="123"/>
+      <c r="H387" s="123"/>
+      <c r="I387" s="123"/>
     </row>
     <row r="388" spans="1:9" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A388" s="35"/>
@@ -24349,17 +24349,17 @@
       <c r="I388" s="37"/>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A389" s="113" t="s">
+      <c r="A389" s="123" t="s">
         <v>356</v>
       </c>
-      <c r="B389" s="113"/>
-      <c r="C389" s="113"/>
-      <c r="D389" s="113"/>
-      <c r="E389" s="113"/>
-      <c r="F389" s="113"/>
-      <c r="G389" s="113"/>
-      <c r="H389" s="113"/>
-      <c r="I389" s="113"/>
+      <c r="B389" s="123"/>
+      <c r="C389" s="123"/>
+      <c r="D389" s="123"/>
+      <c r="E389" s="123"/>
+      <c r="F389" s="123"/>
+      <c r="G389" s="123"/>
+      <c r="H389" s="123"/>
+      <c r="I389" s="123"/>
     </row>
     <row r="390" spans="1:9" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A390" s="35"/>
@@ -24380,15 +24380,15 @@
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="35"/>
       <c r="B391" s="35"/>
-      <c r="C391" s="112" t="s">
+      <c r="C391" s="122" t="s">
         <v>359</v>
       </c>
-      <c r="D391" s="112"/>
-      <c r="E391" s="112"/>
-      <c r="F391" s="112"/>
-      <c r="G391" s="112"/>
-      <c r="H391" s="112"/>
-      <c r="I391" s="112"/>
+      <c r="D391" s="122"/>
+      <c r="E391" s="122"/>
+      <c r="F391" s="122"/>
+      <c r="G391" s="122"/>
+      <c r="H391" s="122"/>
+      <c r="I391" s="122"/>
     </row>
     <row r="392" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A392" s="35"/>
@@ -24425,15 +24425,15 @@
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="35"/>
       <c r="B394" s="35"/>
-      <c r="C394" s="112" t="s">
+      <c r="C394" s="122" t="s">
         <v>361</v>
       </c>
-      <c r="D394" s="112"/>
-      <c r="E394" s="112"/>
-      <c r="F394" s="112"/>
-      <c r="G394" s="112"/>
-      <c r="H394" s="112"/>
-      <c r="I394" s="112"/>
+      <c r="D394" s="122"/>
+      <c r="E394" s="122"/>
+      <c r="F394" s="122"/>
+      <c r="G394" s="122"/>
+      <c r="H394" s="122"/>
+      <c r="I394" s="122"/>
     </row>
     <row r="395" spans="1:9" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A395" s="35"/>
@@ -24454,15 +24454,15 @@
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="35"/>
       <c r="B396" s="35"/>
-      <c r="C396" s="112" t="s">
+      <c r="C396" s="122" t="s">
         <v>377</v>
       </c>
-      <c r="D396" s="112"/>
-      <c r="E396" s="112"/>
-      <c r="F396" s="112"/>
-      <c r="G396" s="112"/>
-      <c r="H396" s="112"/>
-      <c r="I396" s="112"/>
+      <c r="D396" s="122"/>
+      <c r="E396" s="122"/>
+      <c r="F396" s="122"/>
+      <c r="G396" s="122"/>
+      <c r="H396" s="122"/>
+      <c r="I396" s="122"/>
     </row>
     <row r="397" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A397" s="35"/>
@@ -24501,15 +24501,15 @@
         <v>893</v>
       </c>
       <c r="B399" s="35"/>
-      <c r="C399" s="112" t="s">
+      <c r="C399" s="122" t="s">
         <v>379</v>
       </c>
-      <c r="D399" s="112"/>
-      <c r="E399" s="112"/>
-      <c r="F399" s="112"/>
-      <c r="G399" s="112"/>
-      <c r="H399" s="112"/>
-      <c r="I399" s="112"/>
+      <c r="D399" s="122"/>
+      <c r="E399" s="122"/>
+      <c r="F399" s="122"/>
+      <c r="G399" s="122"/>
+      <c r="H399" s="122"/>
+      <c r="I399" s="122"/>
     </row>
     <row r="400" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A400" s="35"/>
@@ -24530,15 +24530,15 @@
     <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" s="35"/>
       <c r="B401" s="35"/>
-      <c r="C401" s="112" t="s">
+      <c r="C401" s="122" t="s">
         <v>381</v>
       </c>
-      <c r="D401" s="112"/>
-      <c r="E401" s="112"/>
-      <c r="F401" s="112"/>
-      <c r="G401" s="112"/>
-      <c r="H401" s="112"/>
-      <c r="I401" s="112"/>
+      <c r="D401" s="122"/>
+      <c r="E401" s="122"/>
+      <c r="F401" s="122"/>
+      <c r="G401" s="122"/>
+      <c r="H401" s="122"/>
+      <c r="I401" s="122"/>
     </row>
     <row r="402" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A402" s="35"/>
@@ -24559,15 +24559,15 @@
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" s="35"/>
       <c r="B403" s="35"/>
-      <c r="C403" s="112" t="s">
+      <c r="C403" s="122" t="s">
         <v>383</v>
       </c>
-      <c r="D403" s="112"/>
-      <c r="E403" s="112"/>
-      <c r="F403" s="112"/>
-      <c r="G403" s="112"/>
-      <c r="H403" s="112"/>
-      <c r="I403" s="112"/>
+      <c r="D403" s="122"/>
+      <c r="E403" s="122"/>
+      <c r="F403" s="122"/>
+      <c r="G403" s="122"/>
+      <c r="H403" s="122"/>
+      <c r="I403" s="122"/>
     </row>
     <row r="404" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A404" s="35"/>
@@ -24588,15 +24588,15 @@
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="35"/>
       <c r="B405" s="35"/>
-      <c r="C405" s="112" t="s">
+      <c r="C405" s="122" t="s">
         <v>395</v>
       </c>
-      <c r="D405" s="112"/>
-      <c r="E405" s="112"/>
-      <c r="F405" s="112"/>
-      <c r="G405" s="112"/>
-      <c r="H405" s="112"/>
-      <c r="I405" s="112"/>
+      <c r="D405" s="122"/>
+      <c r="E405" s="122"/>
+      <c r="F405" s="122"/>
+      <c r="G405" s="122"/>
+      <c r="H405" s="122"/>
+      <c r="I405" s="122"/>
     </row>
     <row r="406" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A406" s="35"/>
@@ -24617,15 +24617,15 @@
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" s="35"/>
       <c r="B407" s="35"/>
-      <c r="C407" s="112" t="s">
+      <c r="C407" s="122" t="s">
         <v>401</v>
       </c>
-      <c r="D407" s="112"/>
-      <c r="E407" s="112"/>
-      <c r="F407" s="112"/>
-      <c r="G407" s="112"/>
-      <c r="H407" s="112"/>
-      <c r="I407" s="112"/>
+      <c r="D407" s="122"/>
+      <c r="E407" s="122"/>
+      <c r="F407" s="122"/>
+      <c r="G407" s="122"/>
+      <c r="H407" s="122"/>
+      <c r="I407" s="122"/>
     </row>
     <row r="408" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A408" s="35"/>
@@ -24646,15 +24646,15 @@
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" s="35"/>
       <c r="B409" s="35"/>
-      <c r="C409" s="112" t="s">
+      <c r="C409" s="122" t="s">
         <v>407</v>
       </c>
-      <c r="D409" s="112"/>
-      <c r="E409" s="112"/>
-      <c r="F409" s="112"/>
-      <c r="G409" s="112"/>
-      <c r="H409" s="112"/>
-      <c r="I409" s="112"/>
+      <c r="D409" s="122"/>
+      <c r="E409" s="122"/>
+      <c r="F409" s="122"/>
+      <c r="G409" s="122"/>
+      <c r="H409" s="122"/>
+      <c r="I409" s="122"/>
     </row>
     <row r="410" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A410" s="35"/>
@@ -24675,15 +24675,15 @@
     <row r="411" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="35"/>
       <c r="B411" s="35"/>
-      <c r="C411" s="112" t="s">
+      <c r="C411" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="D411" s="112"/>
-      <c r="E411" s="112"/>
-      <c r="F411" s="112"/>
-      <c r="G411" s="112"/>
-      <c r="H411" s="112"/>
-      <c r="I411" s="112"/>
+      <c r="D411" s="122"/>
+      <c r="E411" s="122"/>
+      <c r="F411" s="122"/>
+      <c r="G411" s="122"/>
+      <c r="H411" s="122"/>
+      <c r="I411" s="122"/>
     </row>
     <row r="412" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A412" s="35"/>
@@ -24721,15 +24721,15 @@
     <row r="414" spans="1:9" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="35"/>
       <c r="B414" s="35"/>
-      <c r="C414" s="112" t="s">
+      <c r="C414" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="D414" s="112"/>
-      <c r="E414" s="112"/>
-      <c r="F414" s="112"/>
-      <c r="G414" s="112"/>
-      <c r="H414" s="112"/>
-      <c r="I414" s="112"/>
+      <c r="D414" s="122"/>
+      <c r="E414" s="122"/>
+      <c r="F414" s="122"/>
+      <c r="G414" s="122"/>
+      <c r="H414" s="122"/>
+      <c r="I414" s="122"/>
     </row>
     <row r="415" spans="1:9" s="6" customFormat="1" ht="20.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A415" s="35"/>
@@ -24768,15 +24768,15 @@
     <row r="417" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A417" s="35"/>
       <c r="B417" s="35"/>
-      <c r="C417" s="112" t="s">
+      <c r="C417" s="122" t="s">
         <v>173</v>
       </c>
-      <c r="D417" s="112"/>
-      <c r="E417" s="112"/>
-      <c r="F417" s="112"/>
-      <c r="G417" s="112"/>
-      <c r="H417" s="112"/>
-      <c r="I417" s="112"/>
+      <c r="D417" s="122"/>
+      <c r="E417" s="122"/>
+      <c r="F417" s="122"/>
+      <c r="G417" s="122"/>
+      <c r="H417" s="122"/>
+      <c r="I417" s="122"/>
     </row>
     <row r="418" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A418" s="35"/>
@@ -24815,15 +24815,15 @@
     <row r="420" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="35"/>
       <c r="B420" s="35"/>
-      <c r="C420" s="112" t="s">
+      <c r="C420" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="D420" s="112"/>
-      <c r="E420" s="112"/>
-      <c r="F420" s="112"/>
-      <c r="G420" s="112"/>
-      <c r="H420" s="112"/>
-      <c r="I420" s="112"/>
+      <c r="D420" s="122"/>
+      <c r="E420" s="122"/>
+      <c r="F420" s="122"/>
+      <c r="G420" s="122"/>
+      <c r="H420" s="122"/>
+      <c r="I420" s="122"/>
     </row>
     <row r="421" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A421" s="35"/>
@@ -24862,15 +24862,15 @@
     <row r="423" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="35"/>
       <c r="B423" s="35"/>
-      <c r="C423" s="112" t="s">
+      <c r="C423" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="D423" s="112"/>
-      <c r="E423" s="112"/>
-      <c r="F423" s="112"/>
-      <c r="G423" s="112"/>
-      <c r="H423" s="112"/>
-      <c r="I423" s="112"/>
+      <c r="D423" s="122"/>
+      <c r="E423" s="122"/>
+      <c r="F423" s="122"/>
+      <c r="G423" s="122"/>
+      <c r="H423" s="122"/>
+      <c r="I423" s="122"/>
     </row>
     <row r="424" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A424" s="35"/>
@@ -24907,17 +24907,17 @@
       <c r="I425" s="37"/>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A426" s="112" t="s">
+      <c r="A426" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="B426" s="112"/>
-      <c r="C426" s="112"/>
-      <c r="D426" s="112"/>
-      <c r="E426" s="112"/>
-      <c r="F426" s="112"/>
-      <c r="G426" s="112"/>
-      <c r="H426" s="112"/>
-      <c r="I426" s="112"/>
+      <c r="B426" s="122"/>
+      <c r="C426" s="122"/>
+      <c r="D426" s="122"/>
+      <c r="E426" s="122"/>
+      <c r="F426" s="122"/>
+      <c r="G426" s="122"/>
+      <c r="H426" s="122"/>
+      <c r="I426" s="122"/>
     </row>
     <row r="427" spans="1:9" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A427" s="54"/>
@@ -25177,15 +25177,15 @@
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="35"/>
       <c r="B442" s="35"/>
-      <c r="C442" s="112" t="s">
+      <c r="C442" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="D442" s="112"/>
-      <c r="E442" s="112"/>
-      <c r="F442" s="112"/>
-      <c r="G442" s="112"/>
-      <c r="H442" s="112"/>
-      <c r="I442" s="112"/>
+      <c r="D442" s="122"/>
+      <c r="E442" s="122"/>
+      <c r="F442" s="122"/>
+      <c r="G442" s="122"/>
+      <c r="H442" s="122"/>
+      <c r="I442" s="122"/>
     </row>
     <row r="443" spans="1:9" s="6" customFormat="1" ht="150" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A443" s="54"/>
@@ -25224,15 +25224,15 @@
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="35"/>
       <c r="B445" s="35"/>
-      <c r="C445" s="112" t="s">
+      <c r="C445" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="D445" s="112"/>
-      <c r="E445" s="112"/>
-      <c r="F445" s="112"/>
-      <c r="G445" s="112"/>
-      <c r="H445" s="112"/>
-      <c r="I445" s="112"/>
+      <c r="D445" s="122"/>
+      <c r="E445" s="122"/>
+      <c r="F445" s="122"/>
+      <c r="G445" s="122"/>
+      <c r="H445" s="122"/>
+      <c r="I445" s="122"/>
     </row>
     <row r="446" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A446" s="35"/>
@@ -25285,15 +25285,15 @@
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" s="35"/>
       <c r="B449" s="35"/>
-      <c r="C449" s="112" t="s">
+      <c r="C449" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="D449" s="112"/>
-      <c r="E449" s="112"/>
-      <c r="F449" s="112"/>
-      <c r="G449" s="112"/>
-      <c r="H449" s="112"/>
-      <c r="I449" s="112"/>
+      <c r="D449" s="122"/>
+      <c r="E449" s="122"/>
+      <c r="F449" s="122"/>
+      <c r="G449" s="122"/>
+      <c r="H449" s="122"/>
+      <c r="I449" s="122"/>
     </row>
     <row r="450" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A450" s="35"/>
@@ -25362,15 +25362,15 @@
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="35"/>
       <c r="B454" s="35"/>
-      <c r="C454" s="112" t="s">
+      <c r="C454" s="122" t="s">
         <v>227</v>
       </c>
-      <c r="D454" s="112"/>
-      <c r="E454" s="112"/>
-      <c r="F454" s="112"/>
-      <c r="G454" s="112"/>
-      <c r="H454" s="112"/>
-      <c r="I454" s="112"/>
+      <c r="D454" s="122"/>
+      <c r="E454" s="122"/>
+      <c r="F454" s="122"/>
+      <c r="G454" s="122"/>
+      <c r="H454" s="122"/>
+      <c r="I454" s="122"/>
     </row>
     <row r="455" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A455" s="35"/>
@@ -25407,15 +25407,15 @@
     <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" s="35"/>
       <c r="B457" s="35"/>
-      <c r="C457" s="112" t="s">
+      <c r="C457" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="D457" s="112"/>
-      <c r="E457" s="112"/>
-      <c r="F457" s="112"/>
-      <c r="G457" s="112"/>
-      <c r="H457" s="112"/>
-      <c r="I457" s="112"/>
+      <c r="D457" s="122"/>
+      <c r="E457" s="122"/>
+      <c r="F457" s="122"/>
+      <c r="G457" s="122"/>
+      <c r="H457" s="122"/>
+      <c r="I457" s="122"/>
     </row>
     <row r="458" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A458" s="35"/>
@@ -25468,15 +25468,15 @@
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" s="35"/>
       <c r="B461" s="35"/>
-      <c r="C461" s="112" t="s">
+      <c r="C461" s="122" t="s">
         <v>229</v>
       </c>
-      <c r="D461" s="112"/>
-      <c r="E461" s="112"/>
-      <c r="F461" s="112"/>
-      <c r="G461" s="112"/>
-      <c r="H461" s="112"/>
-      <c r="I461" s="112"/>
+      <c r="D461" s="122"/>
+      <c r="E461" s="122"/>
+      <c r="F461" s="122"/>
+      <c r="G461" s="122"/>
+      <c r="H461" s="122"/>
+      <c r="I461" s="122"/>
     </row>
     <row r="462" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A462" s="35"/>
@@ -25529,15 +25529,15 @@
     <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" s="35"/>
       <c r="B465" s="35"/>
-      <c r="C465" s="112" t="s">
+      <c r="C465" s="122" t="s">
         <v>230</v>
       </c>
-      <c r="D465" s="112"/>
-      <c r="E465" s="112"/>
-      <c r="F465" s="112"/>
-      <c r="G465" s="112"/>
-      <c r="H465" s="112"/>
-      <c r="I465" s="112"/>
+      <c r="D465" s="122"/>
+      <c r="E465" s="122"/>
+      <c r="F465" s="122"/>
+      <c r="G465" s="122"/>
+      <c r="H465" s="122"/>
+      <c r="I465" s="122"/>
     </row>
     <row r="466" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A466" s="35"/>
@@ -25590,15 +25590,15 @@
     <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" s="35"/>
       <c r="B469" s="35"/>
-      <c r="C469" s="112" t="s">
+      <c r="C469" s="122" t="s">
         <v>232</v>
       </c>
-      <c r="D469" s="112"/>
-      <c r="E469" s="112"/>
-      <c r="F469" s="112"/>
-      <c r="G469" s="112"/>
-      <c r="H469" s="112"/>
-      <c r="I469" s="112"/>
+      <c r="D469" s="122"/>
+      <c r="E469" s="122"/>
+      <c r="F469" s="122"/>
+      <c r="G469" s="122"/>
+      <c r="H469" s="122"/>
+      <c r="I469" s="122"/>
     </row>
     <row r="470" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A470" s="35"/>
@@ -25651,15 +25651,15 @@
     <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" s="35"/>
       <c r="B473" s="35"/>
-      <c r="C473" s="112" t="s">
+      <c r="C473" s="122" t="s">
         <v>233</v>
       </c>
-      <c r="D473" s="112"/>
-      <c r="E473" s="112"/>
-      <c r="F473" s="112"/>
-      <c r="G473" s="112"/>
-      <c r="H473" s="112"/>
-      <c r="I473" s="112"/>
+      <c r="D473" s="122"/>
+      <c r="E473" s="122"/>
+      <c r="F473" s="122"/>
+      <c r="G473" s="122"/>
+      <c r="H473" s="122"/>
+      <c r="I473" s="122"/>
     </row>
     <row r="474" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A474" s="35"/>
@@ -25744,15 +25744,15 @@
     <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" s="35"/>
       <c r="B479" s="35"/>
-      <c r="C479" s="112" t="s">
+      <c r="C479" s="122" t="s">
         <v>414</v>
       </c>
-      <c r="D479" s="112"/>
-      <c r="E479" s="112"/>
-      <c r="F479" s="112"/>
-      <c r="G479" s="112"/>
-      <c r="H479" s="112"/>
-      <c r="I479" s="112"/>
+      <c r="D479" s="122"/>
+      <c r="E479" s="122"/>
+      <c r="F479" s="122"/>
+      <c r="G479" s="122"/>
+      <c r="H479" s="122"/>
+      <c r="I479" s="122"/>
     </row>
     <row r="480" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A480" s="35"/>
@@ -25901,21 +25901,21 @@
     <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" s="35"/>
       <c r="B489" s="35"/>
-      <c r="C489" s="112" t="s">
+      <c r="C489" s="122" t="s">
         <v>954</v>
       </c>
-      <c r="D489" s="112"/>
-      <c r="E489" s="112"/>
-      <c r="F489" s="112"/>
-      <c r="G489" s="112"/>
-      <c r="H489" s="112"/>
-      <c r="I489" s="112"/>
+      <c r="D489" s="122"/>
+      <c r="E489" s="122"/>
+      <c r="F489" s="122"/>
+      <c r="G489" s="122"/>
+      <c r="H489" s="122"/>
+      <c r="I489" s="122"/>
     </row>
     <row r="490" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A490" s="35"/>
       <c r="B490" s="35"/>
       <c r="D490" s="37"/>
-      <c r="E490" s="125">
+      <c r="E490" s="103">
         <v>1</v>
       </c>
       <c r="F490" s="11" t="s">
@@ -25930,21 +25930,21 @@
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" s="35"/>
       <c r="B491" s="35"/>
-      <c r="C491" s="112" t="s">
+      <c r="C491" s="122" t="s">
         <v>957</v>
       </c>
-      <c r="D491" s="112"/>
-      <c r="E491" s="112"/>
-      <c r="F491" s="112"/>
-      <c r="G491" s="112"/>
-      <c r="H491" s="112"/>
-      <c r="I491" s="112"/>
+      <c r="D491" s="122"/>
+      <c r="E491" s="122"/>
+      <c r="F491" s="122"/>
+      <c r="G491" s="122"/>
+      <c r="H491" s="122"/>
+      <c r="I491" s="122"/>
     </row>
     <row r="492" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A492" s="35"/>
       <c r="B492" s="35"/>
       <c r="D492" s="37"/>
-      <c r="E492" s="125">
+      <c r="E492" s="103">
         <v>1</v>
       </c>
       <c r="F492" s="11" t="s">
@@ -25959,15 +25959,15 @@
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" s="35"/>
       <c r="B493" s="35"/>
-      <c r="C493" s="112" t="s">
+      <c r="C493" s="122" t="s">
         <v>432</v>
       </c>
-      <c r="D493" s="112"/>
-      <c r="E493" s="112"/>
-      <c r="F493" s="112"/>
-      <c r="G493" s="112"/>
-      <c r="H493" s="112"/>
-      <c r="I493" s="112"/>
+      <c r="D493" s="122"/>
+      <c r="E493" s="122"/>
+      <c r="F493" s="122"/>
+      <c r="G493" s="122"/>
+      <c r="H493" s="122"/>
+      <c r="I493" s="122"/>
     </row>
     <row r="494" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A494" s="35"/>
@@ -26052,15 +26052,15 @@
     <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="35"/>
       <c r="B499" s="35"/>
-      <c r="C499" s="112" t="s">
+      <c r="C499" s="122" t="s">
         <v>434</v>
       </c>
-      <c r="D499" s="112"/>
-      <c r="E499" s="112"/>
-      <c r="F499" s="112"/>
-      <c r="G499" s="112"/>
-      <c r="H499" s="112"/>
-      <c r="I499" s="112"/>
+      <c r="D499" s="122"/>
+      <c r="E499" s="122"/>
+      <c r="F499" s="122"/>
+      <c r="G499" s="122"/>
+      <c r="H499" s="122"/>
+      <c r="I499" s="122"/>
     </row>
     <row r="500" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A500" s="35"/>
@@ -26145,15 +26145,15 @@
     <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" s="35"/>
       <c r="B505" s="35"/>
-      <c r="C505" s="112" t="s">
+      <c r="C505" s="122" t="s">
         <v>436</v>
       </c>
-      <c r="D505" s="112"/>
-      <c r="E505" s="112"/>
-      <c r="F505" s="112"/>
-      <c r="G505" s="112"/>
-      <c r="H505" s="112"/>
-      <c r="I505" s="112"/>
+      <c r="D505" s="122"/>
+      <c r="E505" s="122"/>
+      <c r="F505" s="122"/>
+      <c r="G505" s="122"/>
+      <c r="H505" s="122"/>
+      <c r="I505" s="122"/>
     </row>
     <row r="506" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A506" s="35"/>
@@ -26222,15 +26222,15 @@
     <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="35"/>
       <c r="B510" s="35"/>
-      <c r="C510" s="112" t="s">
+      <c r="C510" s="122" t="s">
         <v>443</v>
       </c>
-      <c r="D510" s="112"/>
-      <c r="E510" s="112"/>
-      <c r="F510" s="112"/>
-      <c r="G510" s="112"/>
-      <c r="H510" s="112"/>
-      <c r="I510" s="112"/>
+      <c r="D510" s="122"/>
+      <c r="E510" s="122"/>
+      <c r="F510" s="122"/>
+      <c r="G510" s="122"/>
+      <c r="H510" s="122"/>
+      <c r="I510" s="122"/>
     </row>
     <row r="511" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A511" s="35"/>
@@ -26315,15 +26315,15 @@
     <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" s="35"/>
       <c r="B516" s="35"/>
-      <c r="C516" s="112" t="s">
+      <c r="C516" s="122" t="s">
         <v>456</v>
       </c>
-      <c r="D516" s="112"/>
-      <c r="E516" s="112"/>
-      <c r="F516" s="112"/>
-      <c r="G516" s="112"/>
-      <c r="H516" s="112"/>
-      <c r="I516" s="112"/>
+      <c r="D516" s="122"/>
+      <c r="E516" s="122"/>
+      <c r="F516" s="122"/>
+      <c r="G516" s="122"/>
+      <c r="H516" s="122"/>
+      <c r="I516" s="122"/>
     </row>
     <row r="517" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A517" s="35"/>
@@ -26392,15 +26392,15 @@
     <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521" s="35"/>
       <c r="B521" s="35"/>
-      <c r="C521" s="112" t="s">
+      <c r="C521" s="122" t="s">
         <v>458</v>
       </c>
-      <c r="D521" s="112"/>
-      <c r="E521" s="112"/>
-      <c r="F521" s="112"/>
-      <c r="G521" s="112"/>
-      <c r="H521" s="112"/>
-      <c r="I521" s="112"/>
+      <c r="D521" s="122"/>
+      <c r="E521" s="122"/>
+      <c r="F521" s="122"/>
+      <c r="G521" s="122"/>
+      <c r="H521" s="122"/>
+      <c r="I521" s="122"/>
     </row>
     <row r="522" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A522" s="35"/>
@@ -26469,15 +26469,15 @@
     <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" s="35"/>
       <c r="B526" s="35"/>
-      <c r="C526" s="112" t="s">
+      <c r="C526" s="122" t="s">
         <v>460</v>
       </c>
-      <c r="D526" s="112"/>
-      <c r="E526" s="112"/>
-      <c r="F526" s="112"/>
-      <c r="G526" s="112"/>
-      <c r="H526" s="112"/>
-      <c r="I526" s="112"/>
+      <c r="D526" s="122"/>
+      <c r="E526" s="122"/>
+      <c r="F526" s="122"/>
+      <c r="G526" s="122"/>
+      <c r="H526" s="122"/>
+      <c r="I526" s="122"/>
     </row>
     <row r="527" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A527" s="35"/>
@@ -26578,15 +26578,15 @@
     <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" s="35"/>
       <c r="B533" s="35"/>
-      <c r="C533" s="112" t="s">
+      <c r="C533" s="122" t="s">
         <v>469</v>
       </c>
-      <c r="D533" s="112"/>
-      <c r="E533" s="112"/>
-      <c r="F533" s="112"/>
-      <c r="G533" s="112"/>
-      <c r="H533" s="112"/>
-      <c r="I533" s="112"/>
+      <c r="D533" s="122"/>
+      <c r="E533" s="122"/>
+      <c r="F533" s="122"/>
+      <c r="G533" s="122"/>
+      <c r="H533" s="122"/>
+      <c r="I533" s="122"/>
     </row>
     <row r="534" spans="1:9" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A534" s="35"/>
@@ -26655,15 +26655,15 @@
     <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" s="35"/>
       <c r="B538" s="35"/>
-      <c r="C538" s="112" t="s">
+      <c r="C538" s="122" t="s">
         <v>473</v>
       </c>
-      <c r="D538" s="112"/>
-      <c r="E538" s="112"/>
-      <c r="F538" s="112"/>
-      <c r="G538" s="112"/>
-      <c r="H538" s="112"/>
-      <c r="I538" s="112"/>
+      <c r="D538" s="122"/>
+      <c r="E538" s="122"/>
+      <c r="F538" s="122"/>
+      <c r="G538" s="122"/>
+      <c r="H538" s="122"/>
+      <c r="I538" s="122"/>
     </row>
     <row r="539" spans="1:9" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A539" s="35"/>
@@ -26730,17 +26730,17 @@
       <c r="I542" s="37"/>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A543" s="112" t="s">
+      <c r="A543" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="B543" s="112"/>
-      <c r="C543" s="112"/>
-      <c r="D543" s="112"/>
-      <c r="E543" s="112"/>
-      <c r="F543" s="112"/>
-      <c r="G543" s="112"/>
-      <c r="H543" s="112"/>
-      <c r="I543" s="112"/>
+      <c r="B543" s="122"/>
+      <c r="C543" s="122"/>
+      <c r="D543" s="122"/>
+      <c r="E543" s="122"/>
+      <c r="F543" s="122"/>
+      <c r="G543" s="122"/>
+      <c r="H543" s="122"/>
+      <c r="I543" s="122"/>
     </row>
     <row r="544" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A544" s="35"/>
@@ -26880,15 +26880,15 @@
     <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" s="35"/>
       <c r="B552" s="35"/>
-      <c r="C552" s="113" t="s">
+      <c r="C552" s="123" t="s">
         <v>275</v>
       </c>
-      <c r="D552" s="113"/>
-      <c r="E552" s="113"/>
-      <c r="F552" s="113"/>
-      <c r="G552" s="113"/>
-      <c r="H552" s="113"/>
-      <c r="I552" s="113"/>
+      <c r="D552" s="123"/>
+      <c r="E552" s="123"/>
+      <c r="F552" s="123"/>
+      <c r="G552" s="123"/>
+      <c r="H552" s="123"/>
+      <c r="I552" s="123"/>
     </row>
     <row r="553" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A553" s="35"/>
@@ -26909,15 +26909,15 @@
     <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" s="35"/>
       <c r="B554" s="35"/>
-      <c r="C554" s="113" t="s">
+      <c r="C554" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="D554" s="113"/>
-      <c r="E554" s="113"/>
-      <c r="F554" s="113"/>
-      <c r="G554" s="113"/>
-      <c r="H554" s="113"/>
-      <c r="I554" s="113"/>
+      <c r="D554" s="123"/>
+      <c r="E554" s="123"/>
+      <c r="F554" s="123"/>
+      <c r="G554" s="123"/>
+      <c r="H554" s="123"/>
+      <c r="I554" s="123"/>
     </row>
     <row r="555" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A555" s="35"/>
@@ -26954,15 +26954,15 @@
     <row r="557" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="35"/>
       <c r="B557" s="35"/>
-      <c r="C557" s="114" t="s">
+      <c r="C557" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="D557" s="115"/>
-      <c r="E557" s="115"/>
-      <c r="F557" s="115"/>
-      <c r="G557" s="115"/>
-      <c r="H557" s="115"/>
-      <c r="I557" s="116"/>
+      <c r="D557" s="125"/>
+      <c r="E557" s="125"/>
+      <c r="F557" s="125"/>
+      <c r="G557" s="125"/>
+      <c r="H557" s="125"/>
+      <c r="I557" s="126"/>
     </row>
     <row r="558" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A558" s="35"/>
@@ -26983,15 +26983,15 @@
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" s="35"/>
       <c r="B559" s="35"/>
-      <c r="C559" s="113" t="s">
+      <c r="C559" s="123" t="s">
         <v>480</v>
       </c>
-      <c r="D559" s="113"/>
-      <c r="E559" s="113"/>
-      <c r="F559" s="113"/>
-      <c r="G559" s="113"/>
-      <c r="H559" s="113"/>
-      <c r="I559" s="113"/>
+      <c r="D559" s="123"/>
+      <c r="E559" s="123"/>
+      <c r="F559" s="123"/>
+      <c r="G559" s="123"/>
+      <c r="H559" s="123"/>
+      <c r="I559" s="123"/>
     </row>
     <row r="560" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A560" s="35"/>
@@ -27012,15 +27012,15 @@
     <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" s="35"/>
       <c r="B561" s="35"/>
-      <c r="C561" s="113" t="s">
+      <c r="C561" s="123" t="s">
         <v>483</v>
       </c>
-      <c r="D561" s="113"/>
-      <c r="E561" s="113"/>
-      <c r="F561" s="113"/>
-      <c r="G561" s="113"/>
-      <c r="H561" s="113"/>
-      <c r="I561" s="113"/>
+      <c r="D561" s="123"/>
+      <c r="E561" s="123"/>
+      <c r="F561" s="123"/>
+      <c r="G561" s="123"/>
+      <c r="H561" s="123"/>
+      <c r="I561" s="123"/>
     </row>
     <row r="562" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A562" s="35"/>
@@ -27041,15 +27041,15 @@
     <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" s="35"/>
       <c r="B563" s="35"/>
-      <c r="C563" s="113" t="s">
+      <c r="C563" s="123" t="s">
         <v>240</v>
       </c>
-      <c r="D563" s="113"/>
-      <c r="E563" s="113"/>
-      <c r="F563" s="113"/>
-      <c r="G563" s="113"/>
-      <c r="H563" s="113"/>
-      <c r="I563" s="113"/>
+      <c r="D563" s="123"/>
+      <c r="E563" s="123"/>
+      <c r="F563" s="123"/>
+      <c r="G563" s="123"/>
+      <c r="H563" s="123"/>
+      <c r="I563" s="123"/>
     </row>
     <row r="564" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A564" s="35"/>
@@ -27100,17 +27100,17 @@
       <c r="I566" s="37"/>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A567" s="112" t="s">
+      <c r="A567" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="B567" s="112"/>
-      <c r="C567" s="112"/>
-      <c r="D567" s="112"/>
-      <c r="E567" s="112"/>
-      <c r="F567" s="112"/>
-      <c r="G567" s="112"/>
-      <c r="H567" s="112"/>
-      <c r="I567" s="112"/>
+      <c r="B567" s="122"/>
+      <c r="C567" s="122"/>
+      <c r="D567" s="122"/>
+      <c r="E567" s="122"/>
+      <c r="F567" s="122"/>
+      <c r="G567" s="122"/>
+      <c r="H567" s="122"/>
+      <c r="I567" s="122"/>
     </row>
     <row r="568" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A568" s="35"/>
@@ -27185,7 +27185,7 @@
       <c r="B572" s="57"/>
       <c r="C572" s="57"/>
       <c r="D572" s="57"/>
-      <c r="E572" s="119">
+      <c r="E572" s="97">
         <v>5</v>
       </c>
       <c r="F572" s="57" t="s">
@@ -27202,7 +27202,7 @@
       <c r="B573" s="57"/>
       <c r="C573" s="57"/>
       <c r="D573" s="57"/>
-      <c r="E573" s="119">
+      <c r="E573" s="97">
         <v>6</v>
       </c>
       <c r="F573" s="57" t="s">
@@ -27321,15 +27321,15 @@
         <v>192</v>
       </c>
       <c r="B580" s="35"/>
-      <c r="C580" s="113" t="s">
+      <c r="C580" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="D580" s="113"/>
-      <c r="E580" s="113"/>
-      <c r="F580" s="113"/>
-      <c r="G580" s="113"/>
-      <c r="H580" s="113"/>
-      <c r="I580" s="113"/>
+      <c r="D580" s="123"/>
+      <c r="E580" s="123"/>
+      <c r="F580" s="123"/>
+      <c r="G580" s="123"/>
+      <c r="H580" s="123"/>
+      <c r="I580" s="123"/>
     </row>
     <row r="581" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A581" s="35"/>
@@ -27404,7 +27404,7 @@
       <c r="B585" s="57"/>
       <c r="C585" s="57"/>
       <c r="D585" s="57"/>
-      <c r="E585" s="119">
+      <c r="E585" s="97">
         <v>5</v>
       </c>
       <c r="F585" s="57" t="s">
@@ -27421,7 +27421,7 @@
       <c r="B586" s="57"/>
       <c r="C586" s="57"/>
       <c r="D586" s="57"/>
-      <c r="E586" s="119">
+      <c r="E586" s="97">
         <v>6</v>
       </c>
       <c r="F586" s="57" t="s">
@@ -27536,17 +27536,17 @@
       <c r="I592" s="55"/>
     </row>
     <row r="593" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="114" t="s">
+      <c r="A593" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="B593" s="115"/>
-      <c r="C593" s="115"/>
-      <c r="D593" s="115"/>
-      <c r="E593" s="115"/>
-      <c r="F593" s="115"/>
-      <c r="G593" s="115"/>
-      <c r="H593" s="115"/>
-      <c r="I593" s="116"/>
+      <c r="B593" s="125"/>
+      <c r="C593" s="125"/>
+      <c r="D593" s="125"/>
+      <c r="E593" s="125"/>
+      <c r="F593" s="125"/>
+      <c r="G593" s="125"/>
+      <c r="H593" s="125"/>
+      <c r="I593" s="126"/>
     </row>
     <row r="594" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A594" s="35"/>
@@ -27621,7 +27621,7 @@
       <c r="B598" s="57"/>
       <c r="C598" s="57"/>
       <c r="D598" s="57"/>
-      <c r="E598" s="119">
+      <c r="E598" s="97">
         <v>5</v>
       </c>
       <c r="F598" s="57" t="s">
@@ -27638,7 +27638,7 @@
       <c r="B599" s="57"/>
       <c r="C599" s="57"/>
       <c r="D599" s="57"/>
-      <c r="E599" s="119">
+      <c r="E599" s="97">
         <v>6</v>
       </c>
       <c r="F599" s="57" t="s">
@@ -27672,7 +27672,7 @@
       <c r="B601" s="35"/>
       <c r="C601" s="35"/>
       <c r="D601" s="35"/>
-      <c r="E601" s="126">
+      <c r="E601" s="104">
         <v>8</v>
       </c>
       <c r="F601" s="35" t="s">
@@ -27706,7 +27706,7 @@
       <c r="B603" s="54"/>
       <c r="C603" s="55"/>
       <c r="D603" s="55"/>
-      <c r="E603" s="126">
+      <c r="E603" s="104">
         <v>10</v>
       </c>
       <c r="F603" s="37" t="s">
@@ -27719,17 +27719,17 @@
       <c r="I603" s="55"/>
     </row>
     <row r="604" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="114" t="s">
+      <c r="A604" s="124" t="s">
         <v>198</v>
       </c>
-      <c r="B604" s="115"/>
-      <c r="C604" s="115"/>
-      <c r="D604" s="115"/>
-      <c r="E604" s="115"/>
-      <c r="F604" s="115"/>
-      <c r="G604" s="115"/>
-      <c r="H604" s="115"/>
-      <c r="I604" s="116"/>
+      <c r="B604" s="125"/>
+      <c r="C604" s="125"/>
+      <c r="D604" s="125"/>
+      <c r="E604" s="125"/>
+      <c r="F604" s="125"/>
+      <c r="G604" s="125"/>
+      <c r="H604" s="125"/>
+      <c r="I604" s="126"/>
     </row>
     <row r="605" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A605" s="35"/>
@@ -27814,7 +27814,7 @@
         <v>1104</v>
       </c>
       <c r="D609" s="57"/>
-      <c r="E609" s="119" t="s">
+      <c r="E609" s="97" t="s">
         <v>1105</v>
       </c>
       <c r="F609" s="57" t="s">
@@ -27833,7 +27833,7 @@
         <v>1104</v>
       </c>
       <c r="D610" s="57"/>
-      <c r="E610" s="119" t="s">
+      <c r="E610" s="97" t="s">
         <v>1106</v>
       </c>
       <c r="F610" s="57" t="s">
@@ -27903,17 +27903,17 @@
       <c r="I613" s="35"/>
     </row>
     <row r="614" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A614" s="114" t="s">
+      <c r="A614" s="124" t="s">
         <v>201</v>
       </c>
-      <c r="B614" s="115"/>
-      <c r="C614" s="115"/>
-      <c r="D614" s="115"/>
-      <c r="E614" s="115"/>
-      <c r="F614" s="115"/>
-      <c r="G614" s="115"/>
-      <c r="H614" s="115"/>
-      <c r="I614" s="116"/>
+      <c r="B614" s="125"/>
+      <c r="C614" s="125"/>
+      <c r="D614" s="125"/>
+      <c r="E614" s="125"/>
+      <c r="F614" s="125"/>
+      <c r="G614" s="125"/>
+      <c r="H614" s="125"/>
+      <c r="I614" s="126"/>
     </row>
     <row r="615" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A615" s="35"/>
@@ -27988,7 +27988,7 @@
       <c r="B619" s="57"/>
       <c r="C619" s="57"/>
       <c r="D619" s="57"/>
-      <c r="E619" s="119">
+      <c r="E619" s="97">
         <v>5</v>
       </c>
       <c r="F619" s="57" t="s">
@@ -28005,7 +28005,7 @@
       <c r="B620" s="57"/>
       <c r="C620" s="57"/>
       <c r="D620" s="57"/>
-      <c r="E620" s="119">
+      <c r="E620" s="97">
         <v>6</v>
       </c>
       <c r="F620" s="57" t="s">
@@ -28073,15 +28073,15 @@
         <v>176</v>
       </c>
       <c r="B624" s="33"/>
-      <c r="C624" s="113" t="s">
+      <c r="C624" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="D624" s="113"/>
-      <c r="E624" s="113"/>
-      <c r="F624" s="113"/>
-      <c r="G624" s="113"/>
-      <c r="H624" s="113"/>
-      <c r="I624" s="113"/>
+      <c r="D624" s="123"/>
+      <c r="E624" s="123"/>
+      <c r="F624" s="123"/>
+      <c r="G624" s="123"/>
+      <c r="H624" s="123"/>
+      <c r="I624" s="123"/>
     </row>
     <row r="625" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A625" s="35"/>
@@ -28156,7 +28156,7 @@
       <c r="B629" s="57"/>
       <c r="C629" s="57"/>
       <c r="D629" s="57"/>
-      <c r="E629" s="119">
+      <c r="E629" s="97">
         <v>5</v>
       </c>
       <c r="F629" s="57" t="s">
@@ -28173,7 +28173,7 @@
       <c r="B630" s="57"/>
       <c r="C630" s="57"/>
       <c r="D630" s="57"/>
-      <c r="E630" s="119">
+      <c r="E630" s="97">
         <v>6</v>
       </c>
       <c r="F630" s="57" t="s">
@@ -28237,17 +28237,17 @@
       <c r="I633" s="35"/>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A634" s="112" t="s">
+      <c r="A634" s="122" t="s">
         <v>210</v>
       </c>
-      <c r="B634" s="112"/>
-      <c r="C634" s="112"/>
-      <c r="D634" s="112"/>
-      <c r="E634" s="112"/>
-      <c r="F634" s="112"/>
-      <c r="G634" s="112"/>
-      <c r="H634" s="112"/>
-      <c r="I634" s="112"/>
+      <c r="B634" s="122"/>
+      <c r="C634" s="122"/>
+      <c r="D634" s="122"/>
+      <c r="E634" s="122"/>
+      <c r="F634" s="122"/>
+      <c r="G634" s="122"/>
+      <c r="H634" s="122"/>
+      <c r="I634" s="122"/>
     </row>
     <row r="635" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A635" s="35"/>
@@ -28321,7 +28321,7 @@
       <c r="B639" s="57"/>
       <c r="C639" s="57"/>
       <c r="D639" s="57"/>
-      <c r="E639" s="119">
+      <c r="E639" s="97">
         <v>5</v>
       </c>
       <c r="F639" s="57" t="s">
@@ -28338,7 +28338,7 @@
       <c r="B640" s="57"/>
       <c r="C640" s="57"/>
       <c r="D640" s="57"/>
-      <c r="E640" s="119">
+      <c r="E640" s="97">
         <v>6</v>
       </c>
       <c r="F640" s="57" t="s">
@@ -28419,26 +28419,26 @@
       <c r="I644" s="55"/>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A645" s="112" t="s">
+      <c r="A645" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="B645" s="112"/>
-      <c r="C645" s="112" t="s">
+      <c r="B645" s="122"/>
+      <c r="C645" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="D645" s="112"/>
-      <c r="E645" s="112"/>
-      <c r="F645" s="112"/>
-      <c r="G645" s="112"/>
-      <c r="H645" s="112"/>
-      <c r="I645" s="112"/>
+      <c r="D645" s="122"/>
+      <c r="E645" s="122"/>
+      <c r="F645" s="122"/>
+      <c r="G645" s="122"/>
+      <c r="H645" s="122"/>
+      <c r="I645" s="122"/>
     </row>
     <row r="646" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A646" s="44"/>
       <c r="B646" s="44"/>
       <c r="C646" s="61"/>
       <c r="D646" s="61"/>
-      <c r="E646" s="127">
+      <c r="E646" s="105">
         <v>1</v>
       </c>
       <c r="F646" s="61" t="s">
@@ -28523,7 +28523,7 @@
       <c r="B651" s="62"/>
       <c r="C651" s="57"/>
       <c r="D651" s="57"/>
-      <c r="E651" s="119">
+      <c r="E651" s="97">
         <v>6</v>
       </c>
       <c r="F651" s="57" t="s">
@@ -28540,7 +28540,7 @@
       <c r="B652" s="62"/>
       <c r="C652" s="57"/>
       <c r="D652" s="57"/>
-      <c r="E652" s="119">
+      <c r="E652" s="97">
         <v>7</v>
       </c>
       <c r="F652" s="57" t="s">
@@ -28593,7 +28593,7 @@
       <c r="B655" s="44"/>
       <c r="C655" s="35"/>
       <c r="D655" s="35"/>
-      <c r="E655" s="126">
+      <c r="E655" s="104">
         <v>10</v>
       </c>
       <c r="F655" s="35" t="s">
@@ -28610,7 +28610,7 @@
       <c r="B656" s="63"/>
       <c r="C656" s="55"/>
       <c r="D656" s="55"/>
-      <c r="E656" s="126">
+      <c r="E656" s="104">
         <v>11</v>
       </c>
       <c r="F656" s="35" t="s">
@@ -28644,22 +28644,22 @@
         <v>314</v>
       </c>
       <c r="B658" s="35"/>
-      <c r="C658" s="112" t="s">
+      <c r="C658" s="122" t="s">
         <v>316</v>
       </c>
-      <c r="D658" s="112"/>
-      <c r="E658" s="112"/>
-      <c r="F658" s="112"/>
-      <c r="G658" s="112"/>
-      <c r="H658" s="112"/>
-      <c r="I658" s="112"/>
+      <c r="D658" s="122"/>
+      <c r="E658" s="122"/>
+      <c r="F658" s="122"/>
+      <c r="G658" s="122"/>
+      <c r="H658" s="122"/>
+      <c r="I658" s="122"/>
     </row>
     <row r="659" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A659" s="35"/>
       <c r="B659" s="35"/>
       <c r="C659" s="35"/>
       <c r="D659" s="35"/>
-      <c r="E659" s="124">
+      <c r="E659" s="102">
         <v>1</v>
       </c>
       <c r="F659" s="35" t="s">
@@ -28676,7 +28676,7 @@
       <c r="B660" s="35"/>
       <c r="C660" s="35"/>
       <c r="D660" s="35"/>
-      <c r="E660" s="124">
+      <c r="E660" s="102">
         <v>2</v>
       </c>
       <c r="F660" s="35" t="s">
@@ -28691,15 +28691,15 @@
     <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" s="35"/>
       <c r="B661" s="35"/>
-      <c r="C661" s="112" t="s">
+      <c r="C661" s="122" t="s">
         <v>332</v>
       </c>
-      <c r="D661" s="112"/>
-      <c r="E661" s="112"/>
-      <c r="F661" s="112"/>
-      <c r="G661" s="112"/>
-      <c r="H661" s="112"/>
-      <c r="I661" s="112"/>
+      <c r="D661" s="122"/>
+      <c r="E661" s="122"/>
+      <c r="F661" s="122"/>
+      <c r="G661" s="122"/>
+      <c r="H661" s="122"/>
+      <c r="I661" s="122"/>
     </row>
     <row r="662" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A662" s="35"/>
@@ -28752,15 +28752,15 @@
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" s="35"/>
       <c r="B665" s="35"/>
-      <c r="C665" s="112" t="s">
+      <c r="C665" s="122" t="s">
         <v>464</v>
       </c>
-      <c r="D665" s="112"/>
-      <c r="E665" s="112"/>
-      <c r="F665" s="112"/>
-      <c r="G665" s="112"/>
-      <c r="H665" s="112"/>
-      <c r="I665" s="112"/>
+      <c r="D665" s="122"/>
+      <c r="E665" s="122"/>
+      <c r="F665" s="122"/>
+      <c r="G665" s="122"/>
+      <c r="H665" s="122"/>
+      <c r="I665" s="122"/>
     </row>
     <row r="666" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A666" s="35"/>
@@ -28829,22 +28829,22 @@
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" s="44"/>
       <c r="B670" s="44"/>
-      <c r="C670" s="112" t="s">
+      <c r="C670" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="D670" s="112"/>
-      <c r="E670" s="112"/>
-      <c r="F670" s="112"/>
-      <c r="G670" s="112"/>
-      <c r="H670" s="112"/>
-      <c r="I670" s="112"/>
+      <c r="D670" s="122"/>
+      <c r="E670" s="122"/>
+      <c r="F670" s="122"/>
+      <c r="G670" s="122"/>
+      <c r="H670" s="122"/>
+      <c r="I670" s="122"/>
     </row>
     <row r="671" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A671" s="44"/>
       <c r="B671" s="44"/>
       <c r="C671" s="35"/>
       <c r="D671" s="35"/>
-      <c r="E671" s="124">
+      <c r="E671" s="102">
         <v>1</v>
       </c>
       <c r="F671" s="35" t="s">
@@ -28859,22 +28859,22 @@
     <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" s="44"/>
       <c r="B672" s="44"/>
-      <c r="C672" s="112" t="s">
+      <c r="C672" s="122" t="s">
         <v>363</v>
       </c>
-      <c r="D672" s="112"/>
-      <c r="E672" s="112"/>
-      <c r="F672" s="112"/>
-      <c r="G672" s="112"/>
-      <c r="H672" s="112"/>
-      <c r="I672" s="112"/>
+      <c r="D672" s="122"/>
+      <c r="E672" s="122"/>
+      <c r="F672" s="122"/>
+      <c r="G672" s="122"/>
+      <c r="H672" s="122"/>
+      <c r="I672" s="122"/>
     </row>
     <row r="673" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A673" s="44"/>
       <c r="B673" s="44"/>
       <c r="C673" s="35"/>
       <c r="D673" s="35"/>
-      <c r="E673" s="124">
+      <c r="E673" s="102">
         <v>1</v>
       </c>
       <c r="F673" s="35" t="s">
@@ -28889,22 +28889,22 @@
     <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" s="44"/>
       <c r="B674" s="44"/>
-      <c r="C674" s="112" t="s">
+      <c r="C674" s="122" t="s">
         <v>365</v>
       </c>
-      <c r="D674" s="112"/>
-      <c r="E674" s="112"/>
-      <c r="F674" s="112"/>
-      <c r="G674" s="112"/>
-      <c r="H674" s="112"/>
-      <c r="I674" s="112"/>
+      <c r="D674" s="122"/>
+      <c r="E674" s="122"/>
+      <c r="F674" s="122"/>
+      <c r="G674" s="122"/>
+      <c r="H674" s="122"/>
+      <c r="I674" s="122"/>
     </row>
     <row r="675" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A675" s="44"/>
       <c r="B675" s="44"/>
       <c r="C675" s="35"/>
       <c r="D675" s="35"/>
-      <c r="E675" s="124">
+      <c r="E675" s="102">
         <v>1</v>
       </c>
       <c r="F675" s="35" t="s">
@@ -28919,22 +28919,22 @@
     <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" s="44"/>
       <c r="B676" s="44"/>
-      <c r="C676" s="112" t="s">
+      <c r="C676" s="122" t="s">
         <v>367</v>
       </c>
-      <c r="D676" s="112"/>
-      <c r="E676" s="112"/>
-      <c r="F676" s="112"/>
-      <c r="G676" s="112"/>
-      <c r="H676" s="112"/>
-      <c r="I676" s="112"/>
+      <c r="D676" s="122"/>
+      <c r="E676" s="122"/>
+      <c r="F676" s="122"/>
+      <c r="G676" s="122"/>
+      <c r="H676" s="122"/>
+      <c r="I676" s="122"/>
     </row>
     <row r="677" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A677" s="44"/>
       <c r="B677" s="44"/>
       <c r="C677" s="35"/>
       <c r="D677" s="35"/>
-      <c r="E677" s="124">
+      <c r="E677" s="102">
         <v>1</v>
       </c>
       <c r="F677" s="35" t="s">
@@ -28949,22 +28949,22 @@
     <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" s="44"/>
       <c r="B678" s="44"/>
-      <c r="C678" s="112" t="s">
+      <c r="C678" s="122" t="s">
         <v>369</v>
       </c>
-      <c r="D678" s="112"/>
-      <c r="E678" s="112"/>
-      <c r="F678" s="112"/>
-      <c r="G678" s="112"/>
-      <c r="H678" s="112"/>
-      <c r="I678" s="112"/>
+      <c r="D678" s="122"/>
+      <c r="E678" s="122"/>
+      <c r="F678" s="122"/>
+      <c r="G678" s="122"/>
+      <c r="H678" s="122"/>
+      <c r="I678" s="122"/>
     </row>
     <row r="679" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A679" s="44"/>
       <c r="B679" s="44"/>
       <c r="C679" s="35"/>
       <c r="D679" s="35"/>
-      <c r="E679" s="124">
+      <c r="E679" s="102">
         <v>1</v>
       </c>
       <c r="F679" s="35" t="s">
@@ -28979,22 +28979,22 @@
     <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" s="44"/>
       <c r="B680" s="44"/>
-      <c r="C680" s="112" t="s">
+      <c r="C680" s="122" t="s">
         <v>371</v>
       </c>
-      <c r="D680" s="112"/>
-      <c r="E680" s="112"/>
-      <c r="F680" s="112"/>
-      <c r="G680" s="112"/>
-      <c r="H680" s="112"/>
-      <c r="I680" s="112"/>
+      <c r="D680" s="122"/>
+      <c r="E680" s="122"/>
+      <c r="F680" s="122"/>
+      <c r="G680" s="122"/>
+      <c r="H680" s="122"/>
+      <c r="I680" s="122"/>
     </row>
     <row r="681" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A681" s="44"/>
       <c r="B681" s="44"/>
       <c r="C681" s="35"/>
       <c r="D681" s="35"/>
-      <c r="E681" s="124">
+      <c r="E681" s="102">
         <v>1</v>
       </c>
       <c r="F681" s="35" t="s">
@@ -29009,22 +29009,22 @@
     <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" s="44"/>
       <c r="B682" s="44"/>
-      <c r="C682" s="112" t="s">
+      <c r="C682" s="122" t="s">
         <v>374</v>
       </c>
-      <c r="D682" s="112"/>
-      <c r="E682" s="112"/>
-      <c r="F682" s="112"/>
-      <c r="G682" s="112"/>
-      <c r="H682" s="112"/>
-      <c r="I682" s="112"/>
+      <c r="D682" s="122"/>
+      <c r="E682" s="122"/>
+      <c r="F682" s="122"/>
+      <c r="G682" s="122"/>
+      <c r="H682" s="122"/>
+      <c r="I682" s="122"/>
     </row>
     <row r="683" spans="1:9" ht="45" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A683" s="44"/>
       <c r="B683" s="44"/>
       <c r="C683" s="35"/>
       <c r="D683" s="35"/>
-      <c r="E683" s="124">
+      <c r="E683" s="102">
         <v>1</v>
       </c>
       <c r="F683" s="35" t="s">
@@ -29039,22 +29039,22 @@
     <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" s="44"/>
       <c r="B684" s="44"/>
-      <c r="C684" s="112" t="s">
+      <c r="C684" s="122" t="s">
         <v>1065</v>
       </c>
-      <c r="D684" s="112"/>
-      <c r="E684" s="112"/>
-      <c r="F684" s="112"/>
-      <c r="G684" s="112"/>
-      <c r="H684" s="112"/>
-      <c r="I684" s="112"/>
+      <c r="D684" s="122"/>
+      <c r="E684" s="122"/>
+      <c r="F684" s="122"/>
+      <c r="G684" s="122"/>
+      <c r="H684" s="122"/>
+      <c r="I684" s="122"/>
     </row>
     <row r="685" spans="1:9" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A685" s="44"/>
       <c r="B685" s="44"/>
       <c r="C685" s="35"/>
       <c r="D685" s="35"/>
-      <c r="E685" s="124">
+      <c r="E685" s="102">
         <v>1</v>
       </c>
       <c r="F685" s="35" t="s">
@@ -29247,6 +29247,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C71B05ED7860F1429BB192A8AD3ECF9C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bb17ca7624675e957ee0f1a62aa5509">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1dc586d3-033a-453c-a736-0de408b0dcee" xmlns:ns4="da96f4a7-4178-4915-9502-40e1bdbdebc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f4946a5cb97ee8e437c64f89eb7aa62" ns3:_="" ns4:_="">
     <xsd:import namespace="1dc586d3-033a-453c-a736-0de408b0dcee"/>
@@ -29469,7 +29475,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -29478,13 +29484,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28ED1B3B-119A-4870-957A-0D939EB4F5C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29503,19 +29512,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51AF712D-A5A0-4EDF-9D46-785D33BE3E6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F03A4E3-7AEE-4350-9C0D-B148727606F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>